--- a/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
+++ b/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\258321_DKE_PR\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ateuc\Documents\GitHub\258321_DKE_PR\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8D54F9-5E2F-4AB3-BB28-DBB114473B4D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{68AE0746-CC91-448D-B47F-3FB36A66CE4C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20010" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20010" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung_Gesamt" sheetId="1" r:id="rId1"/>
@@ -19,22 +19,17 @@
     <sheet name="Teuchtmann" sheetId="4" r:id="rId4"/>
     <sheet name="Tomic" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="32">
   <si>
     <t xml:space="preserve">Aistleithner </t>
   </si>
@@ -137,9 +132,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="hh:mm;@"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -381,18 +376,18 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -408,20 +403,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -441,7 +436,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -453,11 +448,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -482,20 +477,20 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -826,7 +821,7 @@
             <c:numRef>
               <c:f>Zeiterfassung_Gesamt!$A$4:$D$4</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>14</c:v>
@@ -835,7 +830,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>12</c:v>
@@ -1022,7 +1017,7 @@
             <c:numRef>
               <c:f>Zeiterfassung_Gesamt!$F$26:$F$43</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
@@ -1031,7 +1026,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1172,7 +1167,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2826,7 +2821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -2884,7 +2879,7 @@
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
@@ -3016,7 +3011,7 @@
       </c>
       <c r="D28" s="3">
         <f>SUMIF(Tabelle35[KW],Zeiterfassung_Gesamt!A28,Tabelle35[Dauer])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E28" s="3">
         <f>SUMIF(Tomic!H8:H51,Zeiterfassung_Gesamt!A28,Tomic!G8:G51)</f>
@@ -3024,7 +3019,7 @@
       </c>
       <c r="F28" s="3">
         <f t="shared" ref="F28:F29" si="1">SUM(B28:E28)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J28" s="12"/>
       <c r="K28" s="14"/>
@@ -3448,7 +3443,7 @@
       </c>
       <c r="D44" s="4">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E44" s="4">
         <f t="shared" si="3"/>
@@ -3456,7 +3451,7 @@
       </c>
       <c r="F44" s="4">
         <f>SUM(F26:F43)</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J44" s="12"/>
       <c r="K44" s="14"/>
@@ -7812,8 +7807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EAEEAAC-2A2F-4AA4-872E-37CAC64D3E9A}">
   <dimension ref="A2:H230"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7967,18 +7962,28 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="29"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
+      <c r="B11" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="27">
+        <v>43389</v>
+      </c>
+      <c r="E11" s="45">
+        <v>0.8125</v>
+      </c>
+      <c r="F11" s="45">
+        <v>0.85416666666666663</v>
+      </c>
       <c r="G11">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -8837,7 +8842,7 @@
       <c r="F67" s="44"/>
       <c r="G67" s="53">
         <f>SUM(G7:G66)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H67" s="54"/>
     </row>

--- a/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
+++ b/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ateuc\Documents\GitHub\258321_DKE_PR\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\258321_DKE_PR\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{68AE0746-CC91-448D-B47F-3FB36A66CE4C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E649814-C5DD-4D9B-9C7E-76110D27FF75}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20010" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,17 +19,22 @@
     <sheet name="Teuchtmann" sheetId="4" r:id="rId4"/>
     <sheet name="Tomic" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="33">
   <si>
     <t xml:space="preserve">Aistleithner </t>
   </si>
@@ -126,15 +131,18 @@
   <si>
     <t xml:space="preserve">Anforderungsanalyse ausarbeiten </t>
   </si>
+  <si>
+    <t>Anforderungsanalyse ausarbeiten, Präsentation vorbereiten</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="hh:mm;@"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -376,18 +384,18 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -403,20 +411,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -436,7 +444,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -448,11 +456,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -477,20 +485,20 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -821,10 +829,10 @@
             <c:numRef>
               <c:f>Zeiterfassung_Gesamt!$A$4:$D$4</c:f>
               <c:numCache>
-                <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>12</c:v>
@@ -1017,7 +1025,7 @@
             <c:numRef>
               <c:f>Zeiterfassung_Gesamt!$F$26:$F$43</c:f>
               <c:numCache>
-                <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
@@ -1026,7 +1034,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25</c:v>
+                  <c:v>26.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1167,7 +1175,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-" sourceLinked="1"/>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2821,7 +2829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K45"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -2871,7 +2879,7 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>B44</f>
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="B4" s="1">
         <f t="shared" ref="B4:D4" si="0">C44</f>
@@ -3003,7 +3011,7 @@
       </c>
       <c r="B28" s="3">
         <f>SUMIF(Aistleithner!H8:H58,Zeiterfassung_Gesamt!A28,Aistleithner!G8:G58)</f>
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="C28" s="3">
         <f>SUMIF(Dusanic!H8:H51,Zeiterfassung_Gesamt!A28,Dusanic!G8:G51)</f>
@@ -3019,7 +3027,7 @@
       </c>
       <c r="F28" s="3">
         <f t="shared" ref="F28:F29" si="1">SUM(B28:E28)</f>
-        <v>25</v>
+        <v>26.5</v>
       </c>
       <c r="J28" s="12"/>
       <c r="K28" s="14"/>
@@ -3435,7 +3443,7 @@
       </c>
       <c r="B44" s="4">
         <f>SUM(B26:B43)</f>
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="C44" s="4">
         <f t="shared" ref="C44:E44" si="3">SUM(C26:C43)</f>
@@ -3451,7 +3459,7 @@
       </c>
       <c r="F44" s="4">
         <f>SUM(F26:F43)</f>
-        <v>51</v>
+        <v>52.5</v>
       </c>
       <c r="J44" s="12"/>
       <c r="K44" s="14"/>
@@ -3476,7 +3484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C65BC6F-2EFC-4FEF-B846-1981218F4DC2}">
   <dimension ref="A2:H243"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -3656,18 +3664,28 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
+      <c r="B12" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="27">
+        <v>43389</v>
+      </c>
+      <c r="E12" s="28">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="F12" s="28">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="G12">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H12">
         <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -4355,7 +4373,7 @@
       <c r="F58" s="36"/>
       <c r="G58">
         <f>SUM(G7:G57)</f>
-        <v>14</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -5444,8 +5462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09ED2EE7-F057-4BE3-8BEF-61F9A2A5EE76}">
   <dimension ref="A2:H230"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7807,8 +7825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EAEEAAC-2A2F-4AA4-872E-37CAC64D3E9A}">
   <dimension ref="A2:H230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
+++ b/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\258321_DKE_PR\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomic\Documents\GitHub\258321_DKE_PR\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E649814-C5DD-4D9B-9C7E-76110D27FF75}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E436FC49-9FC4-4264-802A-A047ABB4D2F0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20010" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20016" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung_Gesamt" sheetId="1" r:id="rId1"/>
@@ -19,22 +19,17 @@
     <sheet name="Teuchtmann" sheetId="4" r:id="rId4"/>
     <sheet name="Tomic" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="33">
   <si>
     <t xml:space="preserve">Aistleithner </t>
   </si>
@@ -523,8 +518,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Komma" xfId="1" builtinId="3"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -639,7 +634,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -835,13 +830,13 @@
                   <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -949,7 +944,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1034,7 +1029,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.5</c:v>
+                  <c:v>30.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2531,7 +2526,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2829,25 +2824,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K45"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1" outlineLevel="1"/>
     <col min="4" max="4" width="37" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="41.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="41.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="56" t="s">
         <v>4</v>
       </c>
@@ -2859,7 +2854,7 @@
       <c r="H2" s="55"/>
       <c r="I2" s="55"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -2876,14 +2871,14 @@
       <c r="H3" s="55"/>
       <c r="I3" s="55"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f>B44</f>
         <v>15.5</v>
       </c>
       <c r="B4" s="1">
         <f t="shared" ref="B4:D4" si="0">C44</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
@@ -2891,19 +2886,19 @@
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="55"/>
       <c r="H4" s="55"/>
       <c r="I4" s="55"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G5" s="55"/>
       <c r="H5" s="55"/>
       <c r="I5" s="55"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="56" t="s">
         <v>5</v>
       </c>
@@ -2917,7 +2912,7 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
       <c r="B24" s="59" t="s">
         <v>7</v>
@@ -2929,7 +2924,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>6</v>
       </c>
@@ -2951,7 +2946,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="13"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>40</v>
       </c>
@@ -2978,7 +2973,7 @@
       <c r="J26" s="12"/>
       <c r="K26" s="13"/>
     </row>
-    <row r="27" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>41</v>
       </c>
@@ -3005,7 +3000,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="14"/>
     </row>
-    <row r="28" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>42</v>
       </c>
@@ -3015,7 +3010,7 @@
       </c>
       <c r="C28" s="3">
         <f>SUMIF(Dusanic!H8:H51,Zeiterfassung_Gesamt!A28,Dusanic!G8:G51)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D28" s="3">
         <f>SUMIF(Tabelle35[KW],Zeiterfassung_Gesamt!A28,Tabelle35[Dauer])</f>
@@ -3023,16 +3018,16 @@
       </c>
       <c r="E28" s="3">
         <f>SUMIF(Tomic!H8:H51,Zeiterfassung_Gesamt!A28,Tomic!G8:G51)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F28" s="3">
         <f t="shared" ref="F28:F29" si="1">SUM(B28:E28)</f>
-        <v>26.5</v>
+        <v>30.5</v>
       </c>
       <c r="J28" s="12"/>
       <c r="K28" s="14"/>
     </row>
-    <row r="29" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>43</v>
       </c>
@@ -3059,7 +3054,7 @@
       <c r="J29" s="12"/>
       <c r="K29" s="14"/>
     </row>
-    <row r="30" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>44</v>
       </c>
@@ -3086,7 +3081,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="14"/>
     </row>
-    <row r="31" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>45</v>
       </c>
@@ -3113,7 +3108,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="14"/>
     </row>
-    <row r="32" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>46</v>
       </c>
@@ -3140,7 +3135,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="14"/>
     </row>
-    <row r="33" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>47</v>
       </c>
@@ -3167,7 +3162,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="14"/>
     </row>
-    <row r="34" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>48</v>
       </c>
@@ -3194,7 +3189,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="14"/>
     </row>
-    <row r="35" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>49</v>
       </c>
@@ -3221,7 +3216,7 @@
       <c r="J35" s="12"/>
       <c r="K35" s="14"/>
     </row>
-    <row r="36" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>50</v>
       </c>
@@ -3248,7 +3243,7 @@
       <c r="J36" s="12"/>
       <c r="K36" s="14"/>
     </row>
-    <row r="37" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>51</v>
       </c>
@@ -3275,7 +3270,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="14"/>
     </row>
-    <row r="38" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>52</v>
       </c>
@@ -3302,7 +3297,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="14"/>
     </row>
-    <row r="39" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>1</v>
       </c>
@@ -3329,7 +3324,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="14"/>
     </row>
-    <row r="40" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>2</v>
       </c>
@@ -3356,7 +3351,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="14"/>
     </row>
-    <row r="41" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>3</v>
       </c>
@@ -3383,7 +3378,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="14"/>
     </row>
-    <row r="42" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>4</v>
       </c>
@@ -3410,7 +3405,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="14"/>
     </row>
-    <row r="43" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>5</v>
       </c>
@@ -3437,7 +3432,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="14"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>10</v>
       </c>
@@ -3447,7 +3442,7 @@
       </c>
       <c r="C44" s="4">
         <f t="shared" ref="C44:E44" si="3">SUM(C26:C43)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D44" s="4">
         <f t="shared" si="3"/>
@@ -3455,16 +3450,16 @@
       </c>
       <c r="E44" s="4">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F44" s="4">
         <f>SUM(F26:F43)</f>
-        <v>52.5</v>
+        <v>56.5</v>
       </c>
       <c r="J44" s="12"/>
       <c r="K44" s="14"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
     </row>
@@ -3488,33 +3483,33 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="19" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="3" max="3" width="75.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B2" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B3" s="17"/>
       <c r="C3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="21"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="22" t="s">
         <v>13</v>
       </c>
@@ -3537,7 +3532,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="26" t="s">
         <v>24</v>
       </c>
@@ -3562,7 +3557,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="26" t="s">
         <v>26</v>
       </c>
@@ -3587,7 +3582,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="26" t="s">
         <v>24</v>
       </c>
@@ -3612,7 +3607,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="26" t="s">
         <v>26</v>
       </c>
@@ -3637,7 +3632,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="29"/>
       <c r="B11" s="26" t="s">
         <v>30</v>
@@ -3663,7 +3658,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="26" t="s">
         <v>30</v>
       </c>
@@ -3688,7 +3683,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
       <c r="D13" s="27"/>
@@ -3703,7 +3698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="27"/>
@@ -3718,7 +3713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
       <c r="D15" s="27"/>
@@ -3733,7 +3728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
       <c r="D16" s="27"/>
@@ -3748,7 +3743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
       <c r="D17" s="27"/>
@@ -3763,7 +3758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
       <c r="D18" s="27"/>
@@ -3778,7 +3773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
       <c r="D19" s="27"/>
@@ -3793,7 +3788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
       <c r="D20" s="27"/>
@@ -3808,7 +3803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
       <c r="D21" s="27"/>
@@ -3823,7 +3818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
       <c r="D22" s="27"/>
@@ -3838,7 +3833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
       <c r="D23" s="27"/>
@@ -3853,7 +3848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
       <c r="D24" s="27"/>
@@ -3868,7 +3863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="D25" s="27"/>
@@ -3883,7 +3878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="26"/>
       <c r="C26" s="30"/>
       <c r="D26" s="27"/>
@@ -3898,7 +3893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
       <c r="D27" s="27"/>
@@ -3913,7 +3908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="D28" s="27"/>
@@ -3928,7 +3923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="27"/>
@@ -3943,7 +3938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="27"/>
@@ -3958,7 +3953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="27"/>
@@ -3973,7 +3968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="27"/>
@@ -3988,7 +3983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="27"/>
@@ -4003,7 +3998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="27"/>
@@ -4018,7 +4013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="27"/>
@@ -4033,7 +4028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="27"/>
@@ -4048,7 +4043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="27"/>
@@ -4063,7 +4058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
       <c r="D38" s="27"/>
@@ -4078,7 +4073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="D39" s="27"/>
@@ -4093,7 +4088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
       <c r="D40" s="27"/>
@@ -4108,7 +4103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
       <c r="D41" s="27"/>
@@ -4123,7 +4118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="27"/>
@@ -4138,7 +4133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
       <c r="D43" s="27"/>
@@ -4153,7 +4148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="27"/>
@@ -4168,7 +4163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="27"/>
@@ -4183,7 +4178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="27"/>
@@ -4198,7 +4193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
       <c r="D47" s="27"/>
@@ -4213,7 +4208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
       <c r="D48" s="32"/>
@@ -4228,7 +4223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
       <c r="D49" s="32"/>
@@ -4243,7 +4238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
       <c r="D50" s="27"/>
@@ -4258,7 +4253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B51" s="30"/>
       <c r="C51" s="30"/>
       <c r="D51" s="32"/>
@@ -4273,7 +4268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B52" s="30"/>
       <c r="C52" s="30"/>
       <c r="D52" s="27"/>
@@ -4288,7 +4283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B53" s="30"/>
       <c r="C53" s="30"/>
       <c r="D53" s="32"/>
@@ -4303,7 +4298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B54" s="30"/>
       <c r="C54" s="30"/>
       <c r="D54" s="27"/>
@@ -4318,7 +4313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B55" s="30"/>
       <c r="C55" s="30"/>
       <c r="D55" s="27"/>
@@ -4333,7 +4328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B56" s="30"/>
       <c r="C56" s="30"/>
       <c r="D56" s="27"/>
@@ -4348,7 +4343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B57" s="30"/>
       <c r="C57" s="30"/>
       <c r="D57" s="27"/>
@@ -4363,7 +4358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B58" s="35" t="s">
         <v>19</v>
       </c>
@@ -4376,1078 +4371,1078 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
     </row>
-    <row r="61" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A61" s="11"/>
       <c r="B61" s="37"/>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
     </row>
-    <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="11"/>
       <c r="B63" s="38"/>
       <c r="C63" s="38"/>
       <c r="D63" s="39"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
       <c r="D64" s="40"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
       <c r="D65" s="40"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
       <c r="D66" s="40"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
       <c r="D67" s="40"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
       <c r="D68" s="40"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
       <c r="D69" s="40"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
       <c r="D70" s="40"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="11"/>
       <c r="B71" s="41"/>
       <c r="C71" s="11"/>
       <c r="D71" s="40"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
       <c r="D72" s="40"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
       <c r="D73" s="40"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
       <c r="D74" s="40"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
       <c r="D75" s="40"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
       <c r="D76" s="40"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
       <c r="D77" s="40"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
       <c r="D78" s="40"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
       <c r="D79" s="40"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
       <c r="D80" s="40"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
       <c r="D81" s="40"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
       <c r="D82" s="40"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
       <c r="D83" s="40"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
       <c r="D84" s="40"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
       <c r="D85" s="40"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
       <c r="D86" s="40"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
       <c r="D87" s="40"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
       <c r="D88" s="40"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
       <c r="D89" s="40"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
       <c r="D90" s="40"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
       <c r="D91" s="40"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
       <c r="D92" s="40"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
       <c r="D93" s="40"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
       <c r="D94" s="40"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
       <c r="D95" s="40"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
       <c r="D96" s="40"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
       <c r="D97" s="40"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
       <c r="D98" s="40"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
       <c r="D99" s="40"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
       <c r="D100" s="40"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
       <c r="D101" s="40"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
       <c r="D102" s="40"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="11"/>
       <c r="B103" s="42"/>
       <c r="C103" s="11"/>
       <c r="D103" s="40"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
       <c r="D105" s="11"/>
     </row>
-    <row r="106" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A106" s="11"/>
       <c r="B106" s="37"/>
       <c r="C106" s="11"/>
       <c r="D106" s="11"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
       <c r="D107" s="11"/>
     </row>
-    <row r="108" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="11"/>
       <c r="B108" s="38"/>
       <c r="C108" s="38"/>
       <c r="D108" s="39"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
       <c r="D109" s="40"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
       <c r="D110" s="40"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
       <c r="D111" s="40"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
       <c r="D112" s="40"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
       <c r="D113" s="40"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
       <c r="D114" s="40"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
       <c r="D115" s="40"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
       <c r="D116" s="40"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
       <c r="D117" s="40"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
       <c r="D118" s="40"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
       <c r="D119" s="40"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
       <c r="D120" s="40"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
       <c r="D121" s="40"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="11"/>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
       <c r="D122" s="40"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="11"/>
       <c r="B123" s="11"/>
       <c r="C123" s="11"/>
       <c r="D123" s="40"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="11"/>
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
       <c r="D124" s="40"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="11"/>
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
       <c r="D125" s="40"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="11"/>
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
       <c r="D126" s="40"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="11"/>
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
       <c r="D127" s="40"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="11"/>
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
       <c r="D128" s="40"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="11"/>
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
       <c r="D129" s="40"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="11"/>
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
       <c r="D130" s="40"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="11"/>
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
       <c r="D131" s="40"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="11"/>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
       <c r="D132" s="40"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="11"/>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
       <c r="D133" s="40"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="11"/>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
       <c r="D134" s="40"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="11"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
       <c r="D135" s="40"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="11"/>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
       <c r="D136" s="40"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="11"/>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
       <c r="D137" s="40"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="11"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
       <c r="D138" s="40"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="11"/>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
       <c r="D139" s="40"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="11"/>
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
       <c r="D140" s="40"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="11"/>
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
       <c r="D141" s="40"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="11"/>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
       <c r="D142" s="40"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="11"/>
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
       <c r="D143" s="40"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="11"/>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
       <c r="D144" s="40"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="11"/>
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
       <c r="D145" s="40"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="11"/>
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
       <c r="D146" s="40"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="11"/>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
       <c r="D147" s="40"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="11"/>
       <c r="B148" s="42"/>
       <c r="C148" s="11"/>
       <c r="D148" s="40"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="11"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
       <c r="D149" s="11"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="11"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
       <c r="D150" s="11"/>
     </row>
-    <row r="151" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A151" s="11"/>
       <c r="B151" s="37"/>
       <c r="C151" s="11"/>
       <c r="D151" s="11"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="11"/>
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
       <c r="D152" s="11"/>
     </row>
-    <row r="153" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="11"/>
       <c r="B153" s="38"/>
       <c r="C153" s="38"/>
       <c r="D153" s="39"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="11"/>
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
       <c r="D154" s="40"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="11"/>
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
       <c r="D155" s="40"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="11"/>
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
       <c r="D156" s="40"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="11"/>
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
       <c r="D157" s="40"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="11"/>
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
       <c r="D158" s="40"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="11"/>
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
       <c r="D159" s="40"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="11"/>
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
       <c r="D160" s="40"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="11"/>
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
       <c r="D161" s="40"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="11"/>
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
       <c r="D162" s="40"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="11"/>
       <c r="B163" s="11"/>
       <c r="C163" s="11"/>
       <c r="D163" s="40"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="11"/>
       <c r="B164" s="11"/>
       <c r="C164" s="11"/>
       <c r="D164" s="40"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="11"/>
       <c r="B165" s="11"/>
       <c r="C165" s="11"/>
       <c r="D165" s="40"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="11"/>
       <c r="B166" s="11"/>
       <c r="C166" s="11"/>
       <c r="D166" s="40"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="11"/>
       <c r="B167" s="11"/>
       <c r="C167" s="11"/>
       <c r="D167" s="40"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="11"/>
       <c r="B168" s="11"/>
       <c r="C168" s="11"/>
       <c r="D168" s="40"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="11"/>
       <c r="B169" s="11"/>
       <c r="C169" s="11"/>
       <c r="D169" s="40"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="11"/>
       <c r="B170" s="11"/>
       <c r="C170" s="11"/>
       <c r="D170" s="40"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="11"/>
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
       <c r="D171" s="40"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="11"/>
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
       <c r="D172" s="40"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="11"/>
       <c r="B173" s="11"/>
       <c r="C173" s="11"/>
       <c r="D173" s="40"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="11"/>
       <c r="B174" s="11"/>
       <c r="C174" s="11"/>
       <c r="D174" s="40"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="11"/>
       <c r="B175" s="11"/>
       <c r="C175" s="11"/>
       <c r="D175" s="40"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="11"/>
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
       <c r="D176" s="40"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="11"/>
       <c r="B177" s="11"/>
       <c r="C177" s="11"/>
       <c r="D177" s="40"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="11"/>
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
       <c r="D178" s="40"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="11"/>
       <c r="B179" s="11"/>
       <c r="C179" s="11"/>
       <c r="D179" s="40"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="11"/>
       <c r="B180" s="11"/>
       <c r="C180" s="11"/>
       <c r="D180" s="40"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="11"/>
       <c r="B181" s="11"/>
       <c r="C181" s="11"/>
       <c r="D181" s="40"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="11"/>
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
       <c r="D182" s="40"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="11"/>
       <c r="B183" s="11"/>
       <c r="C183" s="11"/>
       <c r="D183" s="40"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="11"/>
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
       <c r="D184" s="40"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="11"/>
       <c r="B185" s="11"/>
       <c r="C185" s="11"/>
       <c r="D185" s="40"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="11"/>
       <c r="B186" s="11"/>
       <c r="C186" s="11"/>
       <c r="D186" s="40"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="11"/>
       <c r="B187" s="11"/>
       <c r="C187" s="11"/>
       <c r="D187" s="40"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="11"/>
       <c r="B188" s="11"/>
       <c r="C188" s="11"/>
       <c r="D188" s="40"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="11"/>
       <c r="B189" s="11"/>
       <c r="C189" s="11"/>
       <c r="D189" s="40"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="11"/>
       <c r="B190" s="11"/>
       <c r="C190" s="11"/>
       <c r="D190" s="40"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="11"/>
       <c r="B191" s="11"/>
       <c r="C191" s="11"/>
       <c r="D191" s="40"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="11"/>
       <c r="B192" s="11"/>
       <c r="C192" s="11"/>
       <c r="D192" s="40"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="11"/>
       <c r="B193" s="42"/>
       <c r="C193" s="11"/>
       <c r="D193" s="40"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="11"/>
       <c r="B194" s="11"/>
       <c r="C194" s="11"/>
       <c r="D194" s="11"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="11"/>
       <c r="B195" s="11"/>
       <c r="C195" s="11"/>
       <c r="D195" s="11"/>
     </row>
-    <row r="196" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A196" s="11"/>
       <c r="B196" s="37"/>
       <c r="C196" s="11"/>
       <c r="D196" s="11"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="11"/>
       <c r="B197" s="11"/>
       <c r="C197" s="11"/>
       <c r="D197" s="11"/>
     </row>
-    <row r="198" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="11"/>
       <c r="B198" s="38"/>
       <c r="C198" s="38"/>
       <c r="D198" s="39"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="11"/>
       <c r="B199" s="11"/>
       <c r="C199" s="11"/>
       <c r="D199" s="40"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="11"/>
       <c r="B200" s="11"/>
       <c r="C200" s="11"/>
       <c r="D200" s="40"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="11"/>
       <c r="B201" s="11"/>
       <c r="C201" s="11"/>
       <c r="D201" s="40"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="11"/>
       <c r="B202" s="11"/>
       <c r="C202" s="11"/>
       <c r="D202" s="40"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="11"/>
       <c r="B203" s="11"/>
       <c r="C203" s="11"/>
       <c r="D203" s="40"/>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="11"/>
       <c r="B204" s="11"/>
       <c r="C204" s="11"/>
       <c r="D204" s="40"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="11"/>
       <c r="B205" s="11"/>
       <c r="C205" s="11"/>
       <c r="D205" s="40"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="11"/>
       <c r="B206" s="11"/>
       <c r="C206" s="11"/>
       <c r="D206" s="40"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="11"/>
       <c r="B207" s="11"/>
       <c r="C207" s="11"/>
       <c r="D207" s="40"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="11"/>
       <c r="B208" s="11"/>
       <c r="C208" s="11"/>
       <c r="D208" s="40"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="11"/>
       <c r="B209" s="11"/>
       <c r="C209" s="11"/>
       <c r="D209" s="40"/>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="11"/>
       <c r="B210" s="11"/>
       <c r="C210" s="11"/>
       <c r="D210" s="40"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="11"/>
       <c r="B211" s="11"/>
       <c r="C211" s="11"/>
       <c r="D211" s="40"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="11"/>
       <c r="B212" s="11"/>
       <c r="C212" s="11"/>
       <c r="D212" s="40"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="11"/>
       <c r="B213" s="11"/>
       <c r="C213" s="11"/>
       <c r="D213" s="40"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="11"/>
       <c r="B214" s="11"/>
       <c r="C214" s="11"/>
       <c r="D214" s="40"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="11"/>
       <c r="B215" s="11"/>
       <c r="C215" s="11"/>
       <c r="D215" s="40"/>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="11"/>
       <c r="B216" s="11"/>
       <c r="C216" s="11"/>
       <c r="D216" s="40"/>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="11"/>
       <c r="B217" s="11"/>
       <c r="C217" s="11"/>
       <c r="D217" s="40"/>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="11"/>
       <c r="B218" s="11"/>
       <c r="C218" s="11"/>
       <c r="D218" s="40"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="11"/>
       <c r="B219" s="11"/>
       <c r="C219" s="11"/>
       <c r="D219" s="40"/>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="11"/>
       <c r="B220" s="11"/>
       <c r="C220" s="11"/>
       <c r="D220" s="40"/>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="11"/>
       <c r="B221" s="11"/>
       <c r="C221" s="11"/>
       <c r="D221" s="40"/>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="11"/>
       <c r="B222" s="11"/>
       <c r="C222" s="11"/>
       <c r="D222" s="40"/>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="11"/>
       <c r="B223" s="11"/>
       <c r="C223" s="11"/>
       <c r="D223" s="40"/>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="11"/>
       <c r="B224" s="11"/>
       <c r="C224" s="11"/>
       <c r="D224" s="40"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="11"/>
       <c r="B225" s="11"/>
       <c r="C225" s="11"/>
       <c r="D225" s="40"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="11"/>
       <c r="B226" s="11"/>
       <c r="C226" s="11"/>
       <c r="D226" s="40"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="11"/>
       <c r="B227" s="11"/>
       <c r="C227" s="11"/>
       <c r="D227" s="40"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="11"/>
       <c r="B228" s="11"/>
       <c r="C228" s="11"/>
       <c r="D228" s="40"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="11"/>
       <c r="B229" s="11"/>
       <c r="C229" s="11"/>
       <c r="D229" s="40"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="11"/>
       <c r="B230" s="11"/>
       <c r="C230" s="11"/>
       <c r="D230" s="40"/>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="11"/>
       <c r="B231" s="11"/>
       <c r="C231" s="11"/>
       <c r="D231" s="40"/>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="11"/>
       <c r="B232" s="11"/>
       <c r="C232" s="11"/>
       <c r="D232" s="40"/>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="11"/>
       <c r="B233" s="11"/>
       <c r="C233" s="11"/>
       <c r="D233" s="40"/>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="11"/>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="11"/>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="11"/>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="11"/>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="11"/>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="11"/>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="11"/>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" s="11"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" s="11"/>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" s="11"/>
     </row>
   </sheetData>
@@ -5462,37 +5457,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09ED2EE7-F057-4BE3-8BEF-61F9A2A5EE76}">
   <dimension ref="A2:H230"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1"/>
-    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="19" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" customWidth="1"/>
+    <col min="3" max="3" width="75.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B2" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B3" s="17"/>
       <c r="C3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="20" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="21"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="22" t="s">
         <v>13</v>
       </c>
@@ -5515,7 +5510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="26" t="s">
         <v>24</v>
       </c>
@@ -5540,7 +5535,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="26" t="s">
         <v>26</v>
       </c>
@@ -5565,7 +5560,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="26" t="s">
         <v>24</v>
       </c>
@@ -5590,7 +5585,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="29"/>
       <c r="B10" s="26" t="s">
         <v>30</v>
@@ -5616,22 +5611,32 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="27">
+        <v>43389</v>
+      </c>
+      <c r="E11" s="45">
+        <v>0.625</v>
+      </c>
+      <c r="F11" s="45">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="G11">
         <f>(Tabelle34[[#This Row],[bis]]*24)-(Tabelle34[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11">
         <f>WEEKNUM(Tabelle34[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
       <c r="D12" s="27"/>
@@ -5646,7 +5651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
       <c r="D13" s="27"/>
@@ -5661,7 +5666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="27"/>
@@ -5676,7 +5681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
       <c r="D15" s="27"/>
@@ -5691,7 +5696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
       <c r="D16" s="27"/>
@@ -5706,7 +5711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
       <c r="D17" s="27"/>
@@ -5721,7 +5726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
       <c r="D18" s="27"/>
@@ -5736,7 +5741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
       <c r="D19" s="27"/>
@@ -5751,7 +5756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
       <c r="D20" s="27"/>
@@ -5766,7 +5771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
       <c r="D21" s="27"/>
@@ -5781,7 +5786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
       <c r="D22" s="27"/>
@@ -5796,7 +5801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
       <c r="D23" s="27"/>
@@ -5811,7 +5816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
       <c r="D24" s="27"/>
@@ -5826,7 +5831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="D25" s="27"/>
@@ -5841,7 +5846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
       <c r="D26" s="27"/>
@@ -5856,7 +5861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
       <c r="D27" s="27"/>
@@ -5871,7 +5876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="D28" s="27"/>
@@ -5886,7 +5891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="27"/>
@@ -5901,7 +5906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="27"/>
@@ -5916,7 +5921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="27"/>
@@ -5931,7 +5936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="27"/>
@@ -5946,7 +5951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="27"/>
@@ -5961,7 +5966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="27"/>
@@ -5976,7 +5981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="27"/>
@@ -5991,7 +5996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="27"/>
@@ -6006,7 +6011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="27"/>
@@ -6021,7 +6026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
       <c r="D38" s="27"/>
@@ -6036,7 +6041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="D39" s="27"/>
@@ -6051,7 +6056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
       <c r="D40" s="27"/>
@@ -6066,7 +6071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
       <c r="D41" s="27"/>
@@ -6081,7 +6086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="27"/>
@@ -6096,7 +6101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
       <c r="D43" s="27"/>
@@ -6111,7 +6116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="27"/>
@@ -6126,7 +6131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="27"/>
@@ -6141,7 +6146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="27"/>
@@ -6156,7 +6161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="11"/>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
@@ -6172,7 +6177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="11"/>
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
@@ -6188,7 +6193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="11"/>
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
@@ -6204,7 +6209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="11"/>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
@@ -6220,7 +6225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="11"/>
       <c r="B51" s="35" t="s">
         <v>19</v>
@@ -6231,11 +6236,11 @@
       <c r="F51" s="36"/>
       <c r="G51">
         <f>SUM(G7:G50)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="11"/>
       <c r="B52"/>
       <c r="C52"/>
@@ -6244,7 +6249,7 @@
       <c r="G52"/>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -6253,7 +6258,7 @@
       <c r="G53"/>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" s="11"/>
       <c r="B54" s="37"/>
       <c r="C54" s="11"/>
@@ -6262,7 +6267,7 @@
       <c r="G54"/>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -6271,7 +6276,7 @@
       <c r="G55"/>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="11"/>
       <c r="B56" s="38"/>
       <c r="C56" s="38"/>
@@ -6280,7 +6285,7 @@
       <c r="G56"/>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -6289,7 +6294,7 @@
       <c r="G57"/>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -6298,7 +6303,7 @@
       <c r="G58"/>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -6307,7 +6312,7 @@
       <c r="G59"/>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -6316,7 +6321,7 @@
       <c r="G60"/>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -6325,7 +6330,7 @@
       <c r="G61"/>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -6334,7 +6339,7 @@
       <c r="G62"/>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -6343,7 +6348,7 @@
       <c r="G63"/>
       <c r="H63"/>
     </row>
-    <row r="64" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="11"/>
       <c r="B64" s="41"/>
       <c r="C64" s="11"/>
@@ -6352,7 +6357,7 @@
       <c r="G64"/>
       <c r="H64"/>
     </row>
-    <row r="65" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -6361,7 +6366,7 @@
       <c r="G65"/>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -6370,7 +6375,7 @@
       <c r="G66"/>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -6379,7 +6384,7 @@
       <c r="G67"/>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -6388,7 +6393,7 @@
       <c r="G68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -6397,7 +6402,7 @@
       <c r="G69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -6406,7 +6411,7 @@
       <c r="G70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -6415,7 +6420,7 @@
       <c r="G71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -6424,7 +6429,7 @@
       <c r="G72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -6433,7 +6438,7 @@
       <c r="G73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -6442,7 +6447,7 @@
       <c r="G74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -6451,7 +6456,7 @@
       <c r="G75"/>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -6460,7 +6465,7 @@
       <c r="G76"/>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -6469,7 +6474,7 @@
       <c r="G77"/>
       <c r="H77"/>
     </row>
-    <row r="78" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -6478,7 +6483,7 @@
       <c r="G78"/>
       <c r="H78"/>
     </row>
-    <row r="79" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -6487,7 +6492,7 @@
       <c r="G79"/>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -6496,7 +6501,7 @@
       <c r="G80"/>
       <c r="H80"/>
     </row>
-    <row r="81" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -6505,7 +6510,7 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -6514,7 +6519,7 @@
       <c r="G82"/>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -6523,7 +6528,7 @@
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -6532,7 +6537,7 @@
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -6541,7 +6546,7 @@
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -6550,7 +6555,7 @@
       <c r="G86"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -6559,7 +6564,7 @@
       <c r="G87"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -6568,7 +6573,7 @@
       <c r="G88"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -6577,7 +6582,7 @@
       <c r="G89"/>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -6586,7 +6591,7 @@
       <c r="G90"/>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -6595,7 +6600,7 @@
       <c r="G91"/>
       <c r="H91"/>
     </row>
-    <row r="92" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -6604,7 +6609,7 @@
       <c r="G92"/>
       <c r="H92"/>
     </row>
-    <row r="93" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -6613,7 +6618,7 @@
       <c r="G93"/>
       <c r="H93"/>
     </row>
-    <row r="94" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -6622,7 +6627,7 @@
       <c r="G94"/>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -6631,7 +6636,7 @@
       <c r="G95"/>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="11"/>
       <c r="B96" s="42"/>
       <c r="C96" s="11"/>
@@ -6640,7 +6645,7 @@
       <c r="G96"/>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -6649,7 +6654,7 @@
       <c r="G97"/>
       <c r="H97"/>
     </row>
-    <row r="98" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -6658,7 +6663,7 @@
       <c r="G98"/>
       <c r="H98"/>
     </row>
-    <row r="99" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A99" s="11"/>
       <c r="B99" s="37"/>
       <c r="C99" s="11"/>
@@ -6667,7 +6672,7 @@
       <c r="G99"/>
       <c r="H99"/>
     </row>
-    <row r="100" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -6676,7 +6681,7 @@
       <c r="G100"/>
       <c r="H100"/>
     </row>
-    <row r="101" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="11"/>
       <c r="B101" s="38"/>
       <c r="C101" s="38"/>
@@ -6685,7 +6690,7 @@
       <c r="G101"/>
       <c r="H101"/>
     </row>
-    <row r="102" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -6694,7 +6699,7 @@
       <c r="G102"/>
       <c r="H102"/>
     </row>
-    <row r="103" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -6703,7 +6708,7 @@
       <c r="G103"/>
       <c r="H103"/>
     </row>
-    <row r="104" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -6712,7 +6717,7 @@
       <c r="G104"/>
       <c r="H104"/>
     </row>
-    <row r="105" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -6721,7 +6726,7 @@
       <c r="G105"/>
       <c r="H105"/>
     </row>
-    <row r="106" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -6730,7 +6735,7 @@
       <c r="G106"/>
       <c r="H106"/>
     </row>
-    <row r="107" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -6739,7 +6744,7 @@
       <c r="G107"/>
       <c r="H107"/>
     </row>
-    <row r="108" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -6748,7 +6753,7 @@
       <c r="G108"/>
       <c r="H108"/>
     </row>
-    <row r="109" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -6757,7 +6762,7 @@
       <c r="G109"/>
       <c r="H109"/>
     </row>
-    <row r="110" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -6766,7 +6771,7 @@
       <c r="G110"/>
       <c r="H110"/>
     </row>
-    <row r="111" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -6775,7 +6780,7 @@
       <c r="G111"/>
       <c r="H111"/>
     </row>
-    <row r="112" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -6784,7 +6789,7 @@
       <c r="G112"/>
       <c r="H112"/>
     </row>
-    <row r="113" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
@@ -6793,7 +6798,7 @@
       <c r="G113"/>
       <c r="H113"/>
     </row>
-    <row r="114" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
@@ -6802,7 +6807,7 @@
       <c r="G114"/>
       <c r="H114"/>
     </row>
-    <row r="115" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
@@ -6811,7 +6816,7 @@
       <c r="G115"/>
       <c r="H115"/>
     </row>
-    <row r="116" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
@@ -6820,7 +6825,7 @@
       <c r="G116"/>
       <c r="H116"/>
     </row>
-    <row r="117" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
@@ -6829,7 +6834,7 @@
       <c r="G117"/>
       <c r="H117"/>
     </row>
-    <row r="118" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
@@ -6838,7 +6843,7 @@
       <c r="G118"/>
       <c r="H118"/>
     </row>
-    <row r="119" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
@@ -6847,7 +6852,7 @@
       <c r="G119"/>
       <c r="H119"/>
     </row>
-    <row r="120" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
@@ -6856,7 +6861,7 @@
       <c r="G120"/>
       <c r="H120"/>
     </row>
-    <row r="121" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
@@ -6865,7 +6870,7 @@
       <c r="G121"/>
       <c r="H121"/>
     </row>
-    <row r="122" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="11"/>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
@@ -6874,7 +6879,7 @@
       <c r="G122"/>
       <c r="H122"/>
     </row>
-    <row r="123" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="11"/>
       <c r="B123" s="11"/>
       <c r="C123" s="11"/>
@@ -6883,7 +6888,7 @@
       <c r="G123"/>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="11"/>
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
@@ -6892,7 +6897,7 @@
       <c r="G124"/>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="11"/>
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
@@ -6901,7 +6906,7 @@
       <c r="G125"/>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="11"/>
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
@@ -6910,7 +6915,7 @@
       <c r="G126"/>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="11"/>
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
@@ -6919,7 +6924,7 @@
       <c r="G127"/>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="11"/>
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
@@ -6928,7 +6933,7 @@
       <c r="G128"/>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="11"/>
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
@@ -6937,7 +6942,7 @@
       <c r="G129"/>
       <c r="H129"/>
     </row>
-    <row r="130" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="11"/>
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
@@ -6946,7 +6951,7 @@
       <c r="G130"/>
       <c r="H130"/>
     </row>
-    <row r="131" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="11"/>
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
@@ -6955,7 +6960,7 @@
       <c r="G131"/>
       <c r="H131"/>
     </row>
-    <row r="132" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="11"/>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
@@ -6964,7 +6969,7 @@
       <c r="G132"/>
       <c r="H132"/>
     </row>
-    <row r="133" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="11"/>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
@@ -6973,7 +6978,7 @@
       <c r="G133"/>
       <c r="H133"/>
     </row>
-    <row r="134" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="11"/>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
@@ -6982,7 +6987,7 @@
       <c r="G134"/>
       <c r="H134"/>
     </row>
-    <row r="135" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="11"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
@@ -6991,7 +6996,7 @@
       <c r="G135"/>
       <c r="H135"/>
     </row>
-    <row r="136" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="11"/>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
@@ -7000,7 +7005,7 @@
       <c r="G136"/>
       <c r="H136"/>
     </row>
-    <row r="137" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="11"/>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
@@ -7009,7 +7014,7 @@
       <c r="G137"/>
       <c r="H137"/>
     </row>
-    <row r="138" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="11"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
@@ -7018,7 +7023,7 @@
       <c r="G138"/>
       <c r="H138"/>
     </row>
-    <row r="139" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="11"/>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
@@ -7027,7 +7032,7 @@
       <c r="G139"/>
       <c r="H139"/>
     </row>
-    <row r="140" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="11"/>
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
@@ -7036,7 +7041,7 @@
       <c r="G140"/>
       <c r="H140"/>
     </row>
-    <row r="141" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="11"/>
       <c r="B141" s="42"/>
       <c r="C141" s="11"/>
@@ -7045,7 +7050,7 @@
       <c r="G141"/>
       <c r="H141"/>
     </row>
-    <row r="142" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="11"/>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
@@ -7054,7 +7059,7 @@
       <c r="G142"/>
       <c r="H142"/>
     </row>
-    <row r="143" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="11"/>
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
@@ -7063,7 +7068,7 @@
       <c r="G143"/>
       <c r="H143"/>
     </row>
-    <row r="144" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A144" s="11"/>
       <c r="B144" s="37"/>
       <c r="C144" s="11"/>
@@ -7072,7 +7077,7 @@
       <c r="G144"/>
       <c r="H144"/>
     </row>
-    <row r="145" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="11"/>
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
@@ -7081,7 +7086,7 @@
       <c r="G145"/>
       <c r="H145"/>
     </row>
-    <row r="146" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="11"/>
       <c r="B146" s="38"/>
       <c r="C146" s="38"/>
@@ -7090,7 +7095,7 @@
       <c r="G146"/>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="11"/>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
@@ -7099,7 +7104,7 @@
       <c r="G147"/>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="11"/>
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
@@ -7108,7 +7113,7 @@
       <c r="G148"/>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="11"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
@@ -7117,7 +7122,7 @@
       <c r="G149"/>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="11"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
@@ -7126,7 +7131,7 @@
       <c r="G150"/>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="11"/>
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
@@ -7135,7 +7140,7 @@
       <c r="G151"/>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="11"/>
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
@@ -7144,7 +7149,7 @@
       <c r="G152"/>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="11"/>
       <c r="B153" s="11"/>
       <c r="C153" s="11"/>
@@ -7153,7 +7158,7 @@
       <c r="G153"/>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="11"/>
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
@@ -7162,7 +7167,7 @@
       <c r="G154"/>
       <c r="H154"/>
     </row>
-    <row r="155" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="11"/>
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
@@ -7171,7 +7176,7 @@
       <c r="G155"/>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="11"/>
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
@@ -7180,7 +7185,7 @@
       <c r="G156"/>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="11"/>
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
@@ -7189,7 +7194,7 @@
       <c r="G157"/>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="11"/>
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
@@ -7198,7 +7203,7 @@
       <c r="G158"/>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="11"/>
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
@@ -7207,7 +7212,7 @@
       <c r="G159"/>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="11"/>
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
@@ -7216,7 +7221,7 @@
       <c r="G160"/>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="11"/>
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
@@ -7225,7 +7230,7 @@
       <c r="G161"/>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="11"/>
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
@@ -7234,7 +7239,7 @@
       <c r="G162"/>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="11"/>
       <c r="B163" s="11"/>
       <c r="C163" s="11"/>
@@ -7243,7 +7248,7 @@
       <c r="G163"/>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="11"/>
       <c r="B164" s="11"/>
       <c r="C164" s="11"/>
@@ -7252,7 +7257,7 @@
       <c r="G164"/>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="11"/>
       <c r="B165" s="11"/>
       <c r="C165" s="11"/>
@@ -7261,7 +7266,7 @@
       <c r="G165"/>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="11"/>
       <c r="B166" s="11"/>
       <c r="C166" s="11"/>
@@ -7270,7 +7275,7 @@
       <c r="G166"/>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="11"/>
       <c r="B167" s="11"/>
       <c r="C167" s="11"/>
@@ -7279,7 +7284,7 @@
       <c r="G167"/>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="11"/>
       <c r="B168" s="11"/>
       <c r="C168" s="11"/>
@@ -7288,7 +7293,7 @@
       <c r="G168"/>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="11"/>
       <c r="B169" s="11"/>
       <c r="C169" s="11"/>
@@ -7297,7 +7302,7 @@
       <c r="G169"/>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="11"/>
       <c r="B170" s="11"/>
       <c r="C170" s="11"/>
@@ -7306,7 +7311,7 @@
       <c r="G170"/>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="11"/>
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
@@ -7315,7 +7320,7 @@
       <c r="G171"/>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="11"/>
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
@@ -7324,7 +7329,7 @@
       <c r="G172"/>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="11"/>
       <c r="B173" s="11"/>
       <c r="C173" s="11"/>
@@ -7333,7 +7338,7 @@
       <c r="G173"/>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="11"/>
       <c r="B174" s="11"/>
       <c r="C174" s="11"/>
@@ -7342,7 +7347,7 @@
       <c r="G174"/>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="11"/>
       <c r="B175" s="11"/>
       <c r="C175" s="11"/>
@@ -7351,7 +7356,7 @@
       <c r="G175"/>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="11"/>
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
@@ -7360,7 +7365,7 @@
       <c r="G176"/>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="11"/>
       <c r="B177" s="11"/>
       <c r="C177" s="11"/>
@@ -7369,7 +7374,7 @@
       <c r="G177"/>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="11"/>
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
@@ -7378,7 +7383,7 @@
       <c r="G178"/>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="11"/>
       <c r="B179" s="11"/>
       <c r="C179" s="11"/>
@@ -7387,7 +7392,7 @@
       <c r="G179"/>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A180" s="11"/>
       <c r="B180" s="11"/>
       <c r="C180" s="11"/>
@@ -7396,7 +7401,7 @@
       <c r="G180"/>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="11"/>
       <c r="B181" s="11"/>
       <c r="C181" s="11"/>
@@ -7405,7 +7410,7 @@
       <c r="G181"/>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="11"/>
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
@@ -7414,7 +7419,7 @@
       <c r="G182"/>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="11"/>
       <c r="B183" s="11"/>
       <c r="C183" s="11"/>
@@ -7423,7 +7428,7 @@
       <c r="G183"/>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="11"/>
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
@@ -7432,7 +7437,7 @@
       <c r="G184"/>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="11"/>
       <c r="B185" s="11"/>
       <c r="C185" s="11"/>
@@ -7441,7 +7446,7 @@
       <c r="G185"/>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="11"/>
       <c r="B186" s="42"/>
       <c r="C186" s="11"/>
@@ -7450,7 +7455,7 @@
       <c r="G186"/>
       <c r="H186"/>
     </row>
-    <row r="187" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="11"/>
       <c r="B187" s="11"/>
       <c r="C187" s="11"/>
@@ -7459,7 +7464,7 @@
       <c r="G187"/>
       <c r="H187"/>
     </row>
-    <row r="188" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="11"/>
       <c r="B188" s="11"/>
       <c r="C188" s="11"/>
@@ -7468,7 +7473,7 @@
       <c r="G188"/>
       <c r="H188"/>
     </row>
-    <row r="189" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A189" s="11"/>
       <c r="B189" s="37"/>
       <c r="C189" s="11"/>
@@ -7477,7 +7482,7 @@
       <c r="G189"/>
       <c r="H189"/>
     </row>
-    <row r="190" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="11"/>
       <c r="B190" s="11"/>
       <c r="C190" s="11"/>
@@ -7486,7 +7491,7 @@
       <c r="G190"/>
       <c r="H190"/>
     </row>
-    <row r="191" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="11"/>
       <c r="B191" s="38"/>
       <c r="C191" s="38"/>
@@ -7495,7 +7500,7 @@
       <c r="G191"/>
       <c r="H191"/>
     </row>
-    <row r="192" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="11"/>
       <c r="B192" s="11"/>
       <c r="C192" s="11"/>
@@ -7504,7 +7509,7 @@
       <c r="G192"/>
       <c r="H192"/>
     </row>
-    <row r="193" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="11"/>
       <c r="B193" s="11"/>
       <c r="C193" s="11"/>
@@ -7513,7 +7518,7 @@
       <c r="G193"/>
       <c r="H193"/>
     </row>
-    <row r="194" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="11"/>
       <c r="B194" s="11"/>
       <c r="C194" s="11"/>
@@ -7522,7 +7527,7 @@
       <c r="G194"/>
       <c r="H194"/>
     </row>
-    <row r="195" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="11"/>
       <c r="B195" s="11"/>
       <c r="C195" s="11"/>
@@ -7531,7 +7536,7 @@
       <c r="G195"/>
       <c r="H195"/>
     </row>
-    <row r="196" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="11"/>
       <c r="B196" s="11"/>
       <c r="C196" s="11"/>
@@ -7540,7 +7545,7 @@
       <c r="G196"/>
       <c r="H196"/>
     </row>
-    <row r="197" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="11"/>
       <c r="B197" s="11"/>
       <c r="C197" s="11"/>
@@ -7549,7 +7554,7 @@
       <c r="G197"/>
       <c r="H197"/>
     </row>
-    <row r="198" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="11"/>
       <c r="B198" s="11"/>
       <c r="C198" s="11"/>
@@ -7558,7 +7563,7 @@
       <c r="G198"/>
       <c r="H198"/>
     </row>
-    <row r="199" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="11"/>
       <c r="B199" s="11"/>
       <c r="C199" s="11"/>
@@ -7567,7 +7572,7 @@
       <c r="G199"/>
       <c r="H199"/>
     </row>
-    <row r="200" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="11"/>
       <c r="B200" s="11"/>
       <c r="C200" s="11"/>
@@ -7576,7 +7581,7 @@
       <c r="G200"/>
       <c r="H200"/>
     </row>
-    <row r="201" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="11"/>
       <c r="B201" s="11"/>
       <c r="C201" s="11"/>
@@ -7585,7 +7590,7 @@
       <c r="G201"/>
       <c r="H201"/>
     </row>
-    <row r="202" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="11"/>
       <c r="B202" s="11"/>
       <c r="C202" s="11"/>
@@ -7594,7 +7599,7 @@
       <c r="G202"/>
       <c r="H202"/>
     </row>
-    <row r="203" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="11"/>
       <c r="B203" s="11"/>
       <c r="C203" s="11"/>
@@ -7603,7 +7608,7 @@
       <c r="G203"/>
       <c r="H203"/>
     </row>
-    <row r="204" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="11"/>
       <c r="B204" s="11"/>
       <c r="C204" s="11"/>
@@ -7612,7 +7617,7 @@
       <c r="G204"/>
       <c r="H204"/>
     </row>
-    <row r="205" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="11"/>
       <c r="B205" s="11"/>
       <c r="C205" s="11"/>
@@ -7621,7 +7626,7 @@
       <c r="G205"/>
       <c r="H205"/>
     </row>
-    <row r="206" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="11"/>
       <c r="B206" s="11"/>
       <c r="C206" s="11"/>
@@ -7630,7 +7635,7 @@
       <c r="G206"/>
       <c r="H206"/>
     </row>
-    <row r="207" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A207" s="11"/>
       <c r="B207" s="11"/>
       <c r="C207" s="11"/>
@@ -7639,7 +7644,7 @@
       <c r="G207"/>
       <c r="H207"/>
     </row>
-    <row r="208" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="11"/>
       <c r="B208" s="11"/>
       <c r="C208" s="11"/>
@@ -7648,7 +7653,7 @@
       <c r="G208"/>
       <c r="H208"/>
     </row>
-    <row r="209" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="11"/>
       <c r="B209" s="11"/>
       <c r="C209" s="11"/>
@@ -7657,7 +7662,7 @@
       <c r="G209"/>
       <c r="H209"/>
     </row>
-    <row r="210" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="11"/>
       <c r="B210" s="11"/>
       <c r="C210" s="11"/>
@@ -7666,7 +7671,7 @@
       <c r="G210"/>
       <c r="H210"/>
     </row>
-    <row r="211" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="11"/>
       <c r="B211" s="11"/>
       <c r="C211" s="11"/>
@@ -7675,7 +7680,7 @@
       <c r="G211"/>
       <c r="H211"/>
     </row>
-    <row r="212" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="11"/>
       <c r="B212" s="11"/>
       <c r="C212" s="11"/>
@@ -7684,7 +7689,7 @@
       <c r="G212"/>
       <c r="H212"/>
     </row>
-    <row r="213" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="11"/>
       <c r="B213" s="11"/>
       <c r="C213" s="11"/>
@@ -7693,7 +7698,7 @@
       <c r="G213"/>
       <c r="H213"/>
     </row>
-    <row r="214" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="11"/>
       <c r="B214" s="11"/>
       <c r="C214" s="11"/>
@@ -7702,7 +7707,7 @@
       <c r="G214"/>
       <c r="H214"/>
     </row>
-    <row r="215" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="11"/>
       <c r="B215" s="11"/>
       <c r="C215" s="11"/>
@@ -7711,7 +7716,7 @@
       <c r="G215"/>
       <c r="H215"/>
     </row>
-    <row r="216" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="11"/>
       <c r="B216" s="11"/>
       <c r="C216" s="11"/>
@@ -7720,7 +7725,7 @@
       <c r="G216"/>
       <c r="H216"/>
     </row>
-    <row r="217" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A217" s="11"/>
       <c r="B217" s="11"/>
       <c r="C217" s="11"/>
@@ -7729,7 +7734,7 @@
       <c r="G217"/>
       <c r="H217"/>
     </row>
-    <row r="218" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="11"/>
       <c r="B218" s="11"/>
       <c r="C218" s="11"/>
@@ -7738,7 +7743,7 @@
       <c r="G218"/>
       <c r="H218"/>
     </row>
-    <row r="219" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="11"/>
       <c r="B219" s="11"/>
       <c r="C219" s="11"/>
@@ -7747,7 +7752,7 @@
       <c r="G219"/>
       <c r="H219"/>
     </row>
-    <row r="220" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="11"/>
       <c r="B220" s="11"/>
       <c r="C220" s="11"/>
@@ -7756,7 +7761,7 @@
       <c r="G220"/>
       <c r="H220"/>
     </row>
-    <row r="221" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="11"/>
       <c r="B221" s="11"/>
       <c r="C221" s="11"/>
@@ -7765,7 +7770,7 @@
       <c r="G221"/>
       <c r="H221"/>
     </row>
-    <row r="222" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="11"/>
       <c r="B222" s="11"/>
       <c r="C222" s="11"/>
@@ -7774,7 +7779,7 @@
       <c r="G222"/>
       <c r="H222"/>
     </row>
-    <row r="223" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="11"/>
       <c r="B223" s="11"/>
       <c r="C223" s="11"/>
@@ -7783,34 +7788,34 @@
       <c r="G223"/>
       <c r="H223"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="11"/>
       <c r="B224" s="11"/>
       <c r="C224" s="11"/>
       <c r="D224" s="40"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="11"/>
       <c r="B225" s="11"/>
       <c r="C225" s="11"/>
       <c r="D225" s="40"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="11"/>
       <c r="B226" s="11"/>
       <c r="C226" s="11"/>
       <c r="D226" s="40"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="11"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="11"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="11"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="11"/>
     </row>
   </sheetData>
@@ -7825,37 +7830,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EAEEAAC-2A2F-4AA4-872E-37CAC64D3E9A}">
   <dimension ref="A2:H230"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="19" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="3" max="3" width="75.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B2" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B3" s="17"/>
       <c r="C3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="20" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="19"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="22" t="s">
         <v>13</v>
       </c>
@@ -7878,7 +7883,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="26" t="s">
         <v>24</v>
       </c>
@@ -7903,7 +7908,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="26" t="s">
         <v>26</v>
       </c>
@@ -7928,7 +7933,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="26" t="s">
         <v>24</v>
       </c>
@@ -7953,7 +7958,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="26" t="s">
         <v>30</v>
       </c>
@@ -7978,7 +7983,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="29"/>
       <c r="B11" s="26" t="s">
         <v>30</v>
@@ -8004,7 +8009,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
       <c r="D12" s="27"/>
@@ -8019,7 +8024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
       <c r="D13" s="27"/>
@@ -8034,7 +8039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="27"/>
@@ -8049,7 +8054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
       <c r="D15" s="27"/>
@@ -8064,7 +8069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
       <c r="D16" s="27"/>
@@ -8079,7 +8084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
       <c r="D17" s="27"/>
@@ -8094,7 +8099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
       <c r="D18" s="27"/>
@@ -8109,7 +8114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
       <c r="D19" s="27"/>
@@ -8124,7 +8129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
       <c r="D20" s="27"/>
@@ -8139,7 +8144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
       <c r="D21" s="27"/>
@@ -8154,7 +8159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
       <c r="D22" s="27"/>
@@ -8169,7 +8174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="26"/>
       <c r="C23" s="30"/>
       <c r="D23" s="27"/>
@@ -8184,7 +8189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
       <c r="D24" s="27"/>
@@ -8199,7 +8204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
       <c r="D25" s="27"/>
@@ -8214,7 +8219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
       <c r="D26" s="27"/>
@@ -8229,7 +8234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
       <c r="D27" s="27"/>
@@ -8244,7 +8249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="D28" s="27"/>
@@ -8259,7 +8264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="27"/>
@@ -8274,7 +8279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="27"/>
@@ -8289,7 +8294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="27"/>
@@ -8304,7 +8309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="27"/>
@@ -8319,7 +8324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="27"/>
@@ -8334,7 +8339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="27"/>
@@ -8349,7 +8354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="27"/>
@@ -8364,7 +8369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="27"/>
@@ -8379,7 +8384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="27"/>
@@ -8394,7 +8399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
       <c r="D38" s="27"/>
@@ -8409,7 +8414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="D39" s="27"/>
@@ -8424,7 +8429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
       <c r="D40" s="27"/>
@@ -8439,7 +8444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
       <c r="D41" s="27"/>
@@ -8454,7 +8459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="27"/>
@@ -8469,7 +8474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
       <c r="D43" s="27"/>
@@ -8484,7 +8489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="27"/>
@@ -8499,7 +8504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="27"/>
@@ -8514,7 +8519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="27"/>
@@ -8529,7 +8534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="11"/>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
@@ -8545,7 +8550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="11"/>
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
@@ -8561,7 +8566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="11"/>
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
@@ -8577,7 +8582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="11"/>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
@@ -8593,7 +8598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="11"/>
       <c r="B51"/>
       <c r="C51"/>
@@ -8609,7 +8614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -8625,7 +8630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="11"/>
       <c r="B53" s="50"/>
       <c r="C53" s="11"/>
@@ -8641,7 +8646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="11"/>
       <c r="B54" s="50"/>
       <c r="C54" s="11"/>
@@ -8657,7 +8662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="11"/>
       <c r="B55" s="30"/>
       <c r="C55" s="50"/>
@@ -8673,7 +8678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="11"/>
       <c r="B56" s="50"/>
       <c r="C56" s="11"/>
@@ -8689,7 +8694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="11"/>
       <c r="B57" s="50"/>
       <c r="C57" s="11"/>
@@ -8705,7 +8710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="11"/>
       <c r="B58" s="50"/>
       <c r="C58" s="30"/>
@@ -8721,7 +8726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="11"/>
       <c r="B59" s="50"/>
       <c r="C59" s="11"/>
@@ -8737,7 +8742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="11"/>
       <c r="B60" s="50"/>
       <c r="C60" s="11"/>
@@ -8753,7 +8758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="11"/>
       <c r="B61" s="50"/>
       <c r="C61" s="11"/>
@@ -8769,7 +8774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="11"/>
       <c r="B62" s="50"/>
       <c r="C62" s="11"/>
@@ -8785,7 +8790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="11"/>
       <c r="B63" s="50"/>
       <c r="C63" s="11"/>
@@ -8801,7 +8806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="11"/>
       <c r="B64" s="50"/>
       <c r="C64" s="11"/>
@@ -8817,7 +8822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="11"/>
       <c r="B65" s="50"/>
       <c r="C65" s="11"/>
@@ -8833,7 +8838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="11"/>
       <c r="B66" s="50"/>
       <c r="C66" s="11"/>
@@ -8849,7 +8854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="11"/>
       <c r="B67" s="43" t="s">
         <v>19</v>
@@ -8864,7 +8869,7 @@
       </c>
       <c r="H67" s="54"/>
     </row>
-    <row r="68" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -8873,7 +8878,7 @@
       <c r="G68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -8882,7 +8887,7 @@
       <c r="G69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -8891,7 +8896,7 @@
       <c r="G70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -8900,7 +8905,7 @@
       <c r="G71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -8909,7 +8914,7 @@
       <c r="G72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -8918,7 +8923,7 @@
       <c r="G73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -8927,7 +8932,7 @@
       <c r="G74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -8936,7 +8941,7 @@
       <c r="G75"/>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -8945,7 +8950,7 @@
       <c r="G76"/>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -8954,7 +8959,7 @@
       <c r="G77"/>
       <c r="H77"/>
     </row>
-    <row r="78" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -8963,7 +8968,7 @@
       <c r="G78"/>
       <c r="H78"/>
     </row>
-    <row r="79" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -8972,7 +8977,7 @@
       <c r="G79"/>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -8981,7 +8986,7 @@
       <c r="G80"/>
       <c r="H80"/>
     </row>
-    <row r="81" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -8990,7 +8995,7 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -8999,7 +9004,7 @@
       <c r="G82"/>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -9008,7 +9013,7 @@
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -9017,7 +9022,7 @@
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -9026,7 +9031,7 @@
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -9035,7 +9040,7 @@
       <c r="G86"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -9044,7 +9049,7 @@
       <c r="G87"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -9053,7 +9058,7 @@
       <c r="G88"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -9062,7 +9067,7 @@
       <c r="G89"/>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -9071,7 +9076,7 @@
       <c r="G90"/>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -9080,7 +9085,7 @@
       <c r="G91"/>
       <c r="H91"/>
     </row>
-    <row r="92" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -9089,7 +9094,7 @@
       <c r="G92"/>
       <c r="H92"/>
     </row>
-    <row r="93" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -9098,7 +9103,7 @@
       <c r="G93"/>
       <c r="H93"/>
     </row>
-    <row r="94" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -9107,7 +9112,7 @@
       <c r="G94"/>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="11"/>
       <c r="B95" s="42"/>
       <c r="C95" s="11"/>
@@ -9116,7 +9121,7 @@
       <c r="G95"/>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -9125,7 +9130,7 @@
       <c r="G96"/>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -9134,7 +9139,7 @@
       <c r="G97"/>
       <c r="H97"/>
     </row>
-    <row r="98" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A98" s="11"/>
       <c r="B98" s="37"/>
       <c r="C98" s="11"/>
@@ -9143,7 +9148,7 @@
       <c r="G98"/>
       <c r="H98"/>
     </row>
-    <row r="99" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -9152,7 +9157,7 @@
       <c r="G99"/>
       <c r="H99"/>
     </row>
-    <row r="100" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="11"/>
       <c r="B100" s="38"/>
       <c r="C100" s="38"/>
@@ -9161,7 +9166,7 @@
       <c r="G100"/>
       <c r="H100"/>
     </row>
-    <row r="101" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -9170,7 +9175,7 @@
       <c r="G101"/>
       <c r="H101"/>
     </row>
-    <row r="102" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -9179,7 +9184,7 @@
       <c r="G102"/>
       <c r="H102"/>
     </row>
-    <row r="103" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -9188,7 +9193,7 @@
       <c r="G103"/>
       <c r="H103"/>
     </row>
-    <row r="104" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -9197,7 +9202,7 @@
       <c r="G104"/>
       <c r="H104"/>
     </row>
-    <row r="105" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -9206,7 +9211,7 @@
       <c r="G105"/>
       <c r="H105"/>
     </row>
-    <row r="106" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -9215,7 +9220,7 @@
       <c r="G106"/>
       <c r="H106"/>
     </row>
-    <row r="107" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -9224,7 +9229,7 @@
       <c r="G107"/>
       <c r="H107"/>
     </row>
-    <row r="108" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -9233,7 +9238,7 @@
       <c r="G108"/>
       <c r="H108"/>
     </row>
-    <row r="109" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -9242,7 +9247,7 @@
       <c r="G109"/>
       <c r="H109"/>
     </row>
-    <row r="110" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -9251,7 +9256,7 @@
       <c r="G110"/>
       <c r="H110"/>
     </row>
-    <row r="111" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -9260,7 +9265,7 @@
       <c r="G111"/>
       <c r="H111"/>
     </row>
-    <row r="112" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -9269,7 +9274,7 @@
       <c r="G112"/>
       <c r="H112"/>
     </row>
-    <row r="113" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
@@ -9278,7 +9283,7 @@
       <c r="G113"/>
       <c r="H113"/>
     </row>
-    <row r="114" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
@@ -9287,7 +9292,7 @@
       <c r="G114"/>
       <c r="H114"/>
     </row>
-    <row r="115" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
@@ -9296,7 +9301,7 @@
       <c r="G115"/>
       <c r="H115"/>
     </row>
-    <row r="116" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
@@ -9305,7 +9310,7 @@
       <c r="G116"/>
       <c r="H116"/>
     </row>
-    <row r="117" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
@@ -9314,7 +9319,7 @@
       <c r="G117"/>
       <c r="H117"/>
     </row>
-    <row r="118" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
@@ -9323,7 +9328,7 @@
       <c r="G118"/>
       <c r="H118"/>
     </row>
-    <row r="119" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
@@ -9332,7 +9337,7 @@
       <c r="G119"/>
       <c r="H119"/>
     </row>
-    <row r="120" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
@@ -9341,7 +9346,7 @@
       <c r="G120"/>
       <c r="H120"/>
     </row>
-    <row r="121" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
@@ -9350,7 +9355,7 @@
       <c r="G121"/>
       <c r="H121"/>
     </row>
-    <row r="122" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="11"/>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
@@ -9359,7 +9364,7 @@
       <c r="G122"/>
       <c r="H122"/>
     </row>
-    <row r="123" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="11"/>
       <c r="B123" s="11"/>
       <c r="C123" s="11"/>
@@ -9368,7 +9373,7 @@
       <c r="G123"/>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="11"/>
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
@@ -9377,7 +9382,7 @@
       <c r="G124"/>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="11"/>
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
@@ -9386,7 +9391,7 @@
       <c r="G125"/>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="11"/>
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
@@ -9395,7 +9400,7 @@
       <c r="G126"/>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="11"/>
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
@@ -9404,7 +9409,7 @@
       <c r="G127"/>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="11"/>
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
@@ -9413,7 +9418,7 @@
       <c r="G128"/>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="11"/>
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
@@ -9422,7 +9427,7 @@
       <c r="G129"/>
       <c r="H129"/>
     </row>
-    <row r="130" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="11"/>
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
@@ -9431,7 +9436,7 @@
       <c r="G130"/>
       <c r="H130"/>
     </row>
-    <row r="131" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="11"/>
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
@@ -9440,7 +9445,7 @@
       <c r="G131"/>
       <c r="H131"/>
     </row>
-    <row r="132" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="11"/>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
@@ -9449,7 +9454,7 @@
       <c r="G132"/>
       <c r="H132"/>
     </row>
-    <row r="133" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="11"/>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
@@ -9458,7 +9463,7 @@
       <c r="G133"/>
       <c r="H133"/>
     </row>
-    <row r="134" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="11"/>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
@@ -9467,7 +9472,7 @@
       <c r="G134"/>
       <c r="H134"/>
     </row>
-    <row r="135" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="11"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
@@ -9476,7 +9481,7 @@
       <c r="G135"/>
       <c r="H135"/>
     </row>
-    <row r="136" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="11"/>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
@@ -9485,7 +9490,7 @@
       <c r="G136"/>
       <c r="H136"/>
     </row>
-    <row r="137" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="11"/>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
@@ -9494,7 +9499,7 @@
       <c r="G137"/>
       <c r="H137"/>
     </row>
-    <row r="138" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="11"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
@@ -9503,7 +9508,7 @@
       <c r="G138"/>
       <c r="H138"/>
     </row>
-    <row r="139" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="11"/>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
@@ -9512,7 +9517,7 @@
       <c r="G139"/>
       <c r="H139"/>
     </row>
-    <row r="140" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="11"/>
       <c r="B140" s="42"/>
       <c r="C140" s="11"/>
@@ -9521,7 +9526,7 @@
       <c r="G140"/>
       <c r="H140"/>
     </row>
-    <row r="141" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="11"/>
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
@@ -9530,7 +9535,7 @@
       <c r="G141"/>
       <c r="H141"/>
     </row>
-    <row r="142" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="11"/>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
@@ -9539,7 +9544,7 @@
       <c r="G142"/>
       <c r="H142"/>
     </row>
-    <row r="143" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A143" s="11"/>
       <c r="B143" s="37"/>
       <c r="C143" s="11"/>
@@ -9548,7 +9553,7 @@
       <c r="G143"/>
       <c r="H143"/>
     </row>
-    <row r="144" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="11"/>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
@@ -9557,7 +9562,7 @@
       <c r="G144"/>
       <c r="H144"/>
     </row>
-    <row r="145" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="11"/>
       <c r="B145" s="38"/>
       <c r="C145" s="38"/>
@@ -9566,7 +9571,7 @@
       <c r="G145"/>
       <c r="H145"/>
     </row>
-    <row r="146" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="11"/>
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
@@ -9575,7 +9580,7 @@
       <c r="G146"/>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="11"/>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
@@ -9584,7 +9589,7 @@
       <c r="G147"/>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="11"/>
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
@@ -9593,7 +9598,7 @@
       <c r="G148"/>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="11"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
@@ -9602,7 +9607,7 @@
       <c r="G149"/>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="11"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
@@ -9611,7 +9616,7 @@
       <c r="G150"/>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="11"/>
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
@@ -9620,7 +9625,7 @@
       <c r="G151"/>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="11"/>
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
@@ -9629,7 +9634,7 @@
       <c r="G152"/>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="11"/>
       <c r="B153" s="11"/>
       <c r="C153" s="11"/>
@@ -9638,7 +9643,7 @@
       <c r="G153"/>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="11"/>
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
@@ -9647,7 +9652,7 @@
       <c r="G154"/>
       <c r="H154"/>
     </row>
-    <row r="155" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="11"/>
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
@@ -9656,7 +9661,7 @@
       <c r="G155"/>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="11"/>
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
@@ -9665,7 +9670,7 @@
       <c r="G156"/>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="11"/>
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
@@ -9674,7 +9679,7 @@
       <c r="G157"/>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="11"/>
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
@@ -9683,7 +9688,7 @@
       <c r="G158"/>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="11"/>
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
@@ -9692,7 +9697,7 @@
       <c r="G159"/>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="11"/>
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
@@ -9701,7 +9706,7 @@
       <c r="G160"/>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="11"/>
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
@@ -9710,7 +9715,7 @@
       <c r="G161"/>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="11"/>
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
@@ -9719,7 +9724,7 @@
       <c r="G162"/>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="11"/>
       <c r="B163" s="11"/>
       <c r="C163" s="11"/>
@@ -9728,7 +9733,7 @@
       <c r="G163"/>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="11"/>
       <c r="B164" s="11"/>
       <c r="C164" s="11"/>
@@ -9737,7 +9742,7 @@
       <c r="G164"/>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="11"/>
       <c r="B165" s="11"/>
       <c r="C165" s="11"/>
@@ -9746,7 +9751,7 @@
       <c r="G165"/>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="11"/>
       <c r="B166" s="11"/>
       <c r="C166" s="11"/>
@@ -9755,7 +9760,7 @@
       <c r="G166"/>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="11"/>
       <c r="B167" s="11"/>
       <c r="C167" s="11"/>
@@ -9764,7 +9769,7 @@
       <c r="G167"/>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="11"/>
       <c r="B168" s="11"/>
       <c r="C168" s="11"/>
@@ -9773,7 +9778,7 @@
       <c r="G168"/>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="11"/>
       <c r="B169" s="11"/>
       <c r="C169" s="11"/>
@@ -9782,7 +9787,7 @@
       <c r="G169"/>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="11"/>
       <c r="B170" s="11"/>
       <c r="C170" s="11"/>
@@ -9791,7 +9796,7 @@
       <c r="G170"/>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="11"/>
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
@@ -9800,7 +9805,7 @@
       <c r="G171"/>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="11"/>
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
@@ -9809,7 +9814,7 @@
       <c r="G172"/>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="11"/>
       <c r="B173" s="11"/>
       <c r="C173" s="11"/>
@@ -9818,7 +9823,7 @@
       <c r="G173"/>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="11"/>
       <c r="B174" s="11"/>
       <c r="C174" s="11"/>
@@ -9827,7 +9832,7 @@
       <c r="G174"/>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="11"/>
       <c r="B175" s="11"/>
       <c r="C175" s="11"/>
@@ -9836,7 +9841,7 @@
       <c r="G175"/>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="11"/>
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
@@ -9845,7 +9850,7 @@
       <c r="G176"/>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="11"/>
       <c r="B177" s="11"/>
       <c r="C177" s="11"/>
@@ -9854,7 +9859,7 @@
       <c r="G177"/>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="11"/>
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
@@ -9863,7 +9868,7 @@
       <c r="G178"/>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="11"/>
       <c r="B179" s="11"/>
       <c r="C179" s="11"/>
@@ -9872,7 +9877,7 @@
       <c r="G179"/>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A180" s="11"/>
       <c r="B180" s="11"/>
       <c r="C180" s="11"/>
@@ -9881,7 +9886,7 @@
       <c r="G180"/>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="11"/>
       <c r="B181" s="11"/>
       <c r="C181" s="11"/>
@@ -9890,7 +9895,7 @@
       <c r="G181"/>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="11"/>
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
@@ -9899,7 +9904,7 @@
       <c r="G182"/>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="11"/>
       <c r="B183" s="11"/>
       <c r="C183" s="11"/>
@@ -9908,7 +9913,7 @@
       <c r="G183"/>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="11"/>
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
@@ -9917,7 +9922,7 @@
       <c r="G184"/>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="11"/>
       <c r="B185" s="42"/>
       <c r="C185" s="11"/>
@@ -9926,7 +9931,7 @@
       <c r="G185"/>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="11"/>
       <c r="B186" s="11"/>
       <c r="C186" s="11"/>
@@ -9935,7 +9940,7 @@
       <c r="G186"/>
       <c r="H186"/>
     </row>
-    <row r="187" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="11"/>
       <c r="B187" s="11"/>
       <c r="C187" s="11"/>
@@ -9944,7 +9949,7 @@
       <c r="G187"/>
       <c r="H187"/>
     </row>
-    <row r="188" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A188" s="11"/>
       <c r="B188" s="37"/>
       <c r="C188" s="11"/>
@@ -9953,7 +9958,7 @@
       <c r="G188"/>
       <c r="H188"/>
     </row>
-    <row r="189" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A189" s="11"/>
       <c r="B189" s="11"/>
       <c r="C189" s="11"/>
@@ -9962,7 +9967,7 @@
       <c r="G189"/>
       <c r="H189"/>
     </row>
-    <row r="190" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="11"/>
       <c r="B190" s="38"/>
       <c r="C190" s="38"/>
@@ -9971,7 +9976,7 @@
       <c r="G190"/>
       <c r="H190"/>
     </row>
-    <row r="191" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="11"/>
       <c r="B191" s="11"/>
       <c r="C191" s="11"/>
@@ -9980,7 +9985,7 @@
       <c r="G191"/>
       <c r="H191"/>
     </row>
-    <row r="192" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="11"/>
       <c r="B192" s="11"/>
       <c r="C192" s="11"/>
@@ -9989,7 +9994,7 @@
       <c r="G192"/>
       <c r="H192"/>
     </row>
-    <row r="193" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="11"/>
       <c r="B193" s="11"/>
       <c r="C193" s="11"/>
@@ -9998,7 +10003,7 @@
       <c r="G193"/>
       <c r="H193"/>
     </row>
-    <row r="194" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="11"/>
       <c r="B194" s="11"/>
       <c r="C194" s="11"/>
@@ -10007,7 +10012,7 @@
       <c r="G194"/>
       <c r="H194"/>
     </row>
-    <row r="195" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="11"/>
       <c r="B195" s="11"/>
       <c r="C195" s="11"/>
@@ -10016,7 +10021,7 @@
       <c r="G195"/>
       <c r="H195"/>
     </row>
-    <row r="196" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="11"/>
       <c r="B196" s="11"/>
       <c r="C196" s="11"/>
@@ -10025,7 +10030,7 @@
       <c r="G196"/>
       <c r="H196"/>
     </row>
-    <row r="197" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="11"/>
       <c r="B197" s="11"/>
       <c r="C197" s="11"/>
@@ -10034,7 +10039,7 @@
       <c r="G197"/>
       <c r="H197"/>
     </row>
-    <row r="198" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="11"/>
       <c r="B198" s="11"/>
       <c r="C198" s="11"/>
@@ -10043,7 +10048,7 @@
       <c r="G198"/>
       <c r="H198"/>
     </row>
-    <row r="199" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="11"/>
       <c r="B199" s="11"/>
       <c r="C199" s="11"/>
@@ -10052,7 +10057,7 @@
       <c r="G199"/>
       <c r="H199"/>
     </row>
-    <row r="200" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="11"/>
       <c r="B200" s="11"/>
       <c r="C200" s="11"/>
@@ -10061,7 +10066,7 @@
       <c r="G200"/>
       <c r="H200"/>
     </row>
-    <row r="201" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="11"/>
       <c r="B201" s="11"/>
       <c r="C201" s="11"/>
@@ -10070,7 +10075,7 @@
       <c r="G201"/>
       <c r="H201"/>
     </row>
-    <row r="202" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="11"/>
       <c r="B202" s="11"/>
       <c r="C202" s="11"/>
@@ -10079,7 +10084,7 @@
       <c r="G202"/>
       <c r="H202"/>
     </row>
-    <row r="203" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="11"/>
       <c r="B203" s="11"/>
       <c r="C203" s="11"/>
@@ -10088,7 +10093,7 @@
       <c r="G203"/>
       <c r="H203"/>
     </row>
-    <row r="204" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="11"/>
       <c r="B204" s="11"/>
       <c r="C204" s="11"/>
@@ -10097,7 +10102,7 @@
       <c r="G204"/>
       <c r="H204"/>
     </row>
-    <row r="205" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="11"/>
       <c r="B205" s="11"/>
       <c r="C205" s="11"/>
@@ -10106,7 +10111,7 @@
       <c r="G205"/>
       <c r="H205"/>
     </row>
-    <row r="206" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="11"/>
       <c r="B206" s="11"/>
       <c r="C206" s="11"/>
@@ -10115,7 +10120,7 @@
       <c r="G206"/>
       <c r="H206"/>
     </row>
-    <row r="207" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A207" s="11"/>
       <c r="B207" s="11"/>
       <c r="C207" s="11"/>
@@ -10124,7 +10129,7 @@
       <c r="G207"/>
       <c r="H207"/>
     </row>
-    <row r="208" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="11"/>
       <c r="B208" s="11"/>
       <c r="C208" s="11"/>
@@ -10133,7 +10138,7 @@
       <c r="G208"/>
       <c r="H208"/>
     </row>
-    <row r="209" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="11"/>
       <c r="B209" s="11"/>
       <c r="C209" s="11"/>
@@ -10142,7 +10147,7 @@
       <c r="G209"/>
       <c r="H209"/>
     </row>
-    <row r="210" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="11"/>
       <c r="B210" s="11"/>
       <c r="C210" s="11"/>
@@ -10151,7 +10156,7 @@
       <c r="G210"/>
       <c r="H210"/>
     </row>
-    <row r="211" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="11"/>
       <c r="B211" s="11"/>
       <c r="C211" s="11"/>
@@ -10160,7 +10165,7 @@
       <c r="G211"/>
       <c r="H211"/>
     </row>
-    <row r="212" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="11"/>
       <c r="B212" s="11"/>
       <c r="C212" s="11"/>
@@ -10169,7 +10174,7 @@
       <c r="G212"/>
       <c r="H212"/>
     </row>
-    <row r="213" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="11"/>
       <c r="B213" s="11"/>
       <c r="C213" s="11"/>
@@ -10178,7 +10183,7 @@
       <c r="G213"/>
       <c r="H213"/>
     </row>
-    <row r="214" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="11"/>
       <c r="B214" s="11"/>
       <c r="C214" s="11"/>
@@ -10187,7 +10192,7 @@
       <c r="G214"/>
       <c r="H214"/>
     </row>
-    <row r="215" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="11"/>
       <c r="B215" s="11"/>
       <c r="C215" s="11"/>
@@ -10196,7 +10201,7 @@
       <c r="G215"/>
       <c r="H215"/>
     </row>
-    <row r="216" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="11"/>
       <c r="B216" s="11"/>
       <c r="C216" s="11"/>
@@ -10205,7 +10210,7 @@
       <c r="G216"/>
       <c r="H216"/>
     </row>
-    <row r="217" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A217" s="11"/>
       <c r="B217" s="11"/>
       <c r="C217" s="11"/>
@@ -10214,7 +10219,7 @@
       <c r="G217"/>
       <c r="H217"/>
     </row>
-    <row r="218" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="11"/>
       <c r="B218" s="11"/>
       <c r="C218" s="11"/>
@@ -10223,7 +10228,7 @@
       <c r="G218"/>
       <c r="H218"/>
     </row>
-    <row r="219" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="11"/>
       <c r="B219" s="11"/>
       <c r="C219" s="11"/>
@@ -10232,7 +10237,7 @@
       <c r="G219"/>
       <c r="H219"/>
     </row>
-    <row r="220" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="11"/>
       <c r="B220" s="11"/>
       <c r="C220" s="11"/>
@@ -10241,7 +10246,7 @@
       <c r="G220"/>
       <c r="H220"/>
     </row>
-    <row r="221" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="11"/>
       <c r="B221" s="11"/>
       <c r="C221" s="11"/>
@@ -10250,7 +10255,7 @@
       <c r="G221"/>
       <c r="H221"/>
     </row>
-    <row r="222" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="11"/>
       <c r="B222" s="11"/>
       <c r="C222" s="11"/>
@@ -10259,7 +10264,7 @@
       <c r="G222"/>
       <c r="H222"/>
     </row>
-    <row r="223" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="11"/>
       <c r="B223" s="11"/>
       <c r="C223" s="11"/>
@@ -10268,31 +10273,31 @@
       <c r="G223"/>
       <c r="H223"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="11"/>
       <c r="B224" s="11"/>
       <c r="C224" s="11"/>
       <c r="D224" s="40"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="11"/>
       <c r="B225" s="11"/>
       <c r="C225" s="11"/>
       <c r="D225" s="40"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="11"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="11"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="11"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="11"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="11"/>
     </row>
   </sheetData>
@@ -10307,37 +10312,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A13F21B-0FD5-4A2C-BFFD-2CC06888678E}">
   <dimension ref="A2:H230"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="19" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="3" max="3" width="75.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B2" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B3" s="17"/>
       <c r="C3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="20" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="19"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="22" t="s">
         <v>13</v>
       </c>
@@ -10360,7 +10365,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="26" t="s">
         <v>24</v>
       </c>
@@ -10385,7 +10390,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="26" t="s">
         <v>26</v>
       </c>
@@ -10410,7 +10415,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="26" t="s">
         <v>24</v>
       </c>
@@ -10435,7 +10440,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="29"/>
       <c r="B10" s="26" t="s">
         <v>30</v>
@@ -10461,22 +10466,32 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="27">
+        <v>43389</v>
+      </c>
+      <c r="E11" s="45">
+        <v>0.625</v>
+      </c>
+      <c r="F11" s="45">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="G11">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11">
         <f>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
       <c r="D12" s="27"/>
@@ -10491,7 +10506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
       <c r="D13" s="27"/>
@@ -10506,7 +10521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="27"/>
@@ -10521,7 +10536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
       <c r="D15" s="27"/>
@@ -10536,7 +10551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
       <c r="D16" s="27"/>
@@ -10551,7 +10566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
       <c r="D17" s="27"/>
@@ -10566,7 +10581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
       <c r="D18" s="27"/>
@@ -10581,7 +10596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
       <c r="D19" s="27"/>
@@ -10596,7 +10611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
       <c r="D20" s="27"/>
@@ -10611,7 +10626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
       <c r="D21" s="27"/>
@@ -10626,7 +10641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
       <c r="D22" s="27"/>
@@ -10641,7 +10656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
       <c r="D23" s="27"/>
@@ -10656,7 +10671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
       <c r="D24" s="27"/>
@@ -10671,7 +10686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="D25" s="27"/>
@@ -10686,7 +10701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
       <c r="D26" s="27"/>
@@ -10701,7 +10716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
       <c r="D27" s="27"/>
@@ -10716,7 +10731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="D28" s="27"/>
@@ -10731,7 +10746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="27"/>
@@ -10746,7 +10761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="27"/>
@@ -10761,7 +10776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="27"/>
@@ -10776,7 +10791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="27"/>
@@ -10791,7 +10806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="27"/>
@@ -10806,7 +10821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="27"/>
@@ -10821,7 +10836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="27"/>
@@ -10836,7 +10851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="27"/>
@@ -10851,7 +10866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="27"/>
@@ -10866,7 +10881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
       <c r="D38" s="27"/>
@@ -10881,7 +10896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="D39" s="27"/>
@@ -10896,7 +10911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
       <c r="D40" s="27"/>
@@ -10911,7 +10926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
       <c r="D41" s="27"/>
@@ -10926,7 +10941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="27"/>
@@ -10941,7 +10956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
       <c r="D43" s="27"/>
@@ -10956,7 +10971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="27"/>
@@ -10971,7 +10986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="27"/>
@@ -10986,7 +11001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="27"/>
@@ -11001,7 +11016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="11"/>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
@@ -11017,7 +11032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="11"/>
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
@@ -11033,7 +11048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="11"/>
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
@@ -11049,7 +11064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="11"/>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
@@ -11065,7 +11080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="11"/>
       <c r="B51" s="35" t="s">
         <v>19</v>
@@ -11076,11 +11091,11 @@
       <c r="F51" s="36"/>
       <c r="G51">
         <f>SUM(G7:G50)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="11"/>
       <c r="B52"/>
       <c r="C52"/>
@@ -11089,7 +11104,7 @@
       <c r="G52"/>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -11098,7 +11113,7 @@
       <c r="G53"/>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" s="11"/>
       <c r="B54" s="37"/>
       <c r="C54" s="11"/>
@@ -11107,7 +11122,7 @@
       <c r="G54"/>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -11116,7 +11131,7 @@
       <c r="G55"/>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="11"/>
       <c r="B56" s="38"/>
       <c r="C56" s="38"/>
@@ -11125,7 +11140,7 @@
       <c r="G56"/>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -11134,7 +11149,7 @@
       <c r="G57"/>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -11143,7 +11158,7 @@
       <c r="G58"/>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -11152,7 +11167,7 @@
       <c r="G59"/>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -11161,7 +11176,7 @@
       <c r="G60"/>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -11170,7 +11185,7 @@
       <c r="G61"/>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -11179,7 +11194,7 @@
       <c r="G62"/>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -11188,7 +11203,7 @@
       <c r="G63"/>
       <c r="H63"/>
     </row>
-    <row r="64" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="11"/>
       <c r="B64" s="41"/>
       <c r="C64" s="11"/>
@@ -11197,7 +11212,7 @@
       <c r="G64"/>
       <c r="H64"/>
     </row>
-    <row r="65" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -11206,7 +11221,7 @@
       <c r="G65"/>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -11215,7 +11230,7 @@
       <c r="G66"/>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -11224,7 +11239,7 @@
       <c r="G67"/>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -11233,7 +11248,7 @@
       <c r="G68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -11242,7 +11257,7 @@
       <c r="G69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -11251,7 +11266,7 @@
       <c r="G70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -11260,7 +11275,7 @@
       <c r="G71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -11269,7 +11284,7 @@
       <c r="G72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -11278,7 +11293,7 @@
       <c r="G73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -11287,7 +11302,7 @@
       <c r="G74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -11296,7 +11311,7 @@
       <c r="G75"/>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -11305,7 +11320,7 @@
       <c r="G76"/>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -11314,7 +11329,7 @@
       <c r="G77"/>
       <c r="H77"/>
     </row>
-    <row r="78" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -11323,7 +11338,7 @@
       <c r="G78"/>
       <c r="H78"/>
     </row>
-    <row r="79" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -11332,7 +11347,7 @@
       <c r="G79"/>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -11341,7 +11356,7 @@
       <c r="G80"/>
       <c r="H80"/>
     </row>
-    <row r="81" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -11350,7 +11365,7 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -11359,7 +11374,7 @@
       <c r="G82"/>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -11368,7 +11383,7 @@
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -11377,7 +11392,7 @@
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -11386,7 +11401,7 @@
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -11395,7 +11410,7 @@
       <c r="G86"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -11404,7 +11419,7 @@
       <c r="G87"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -11413,7 +11428,7 @@
       <c r="G88"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -11422,7 +11437,7 @@
       <c r="G89"/>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -11431,7 +11446,7 @@
       <c r="G90"/>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -11440,7 +11455,7 @@
       <c r="G91"/>
       <c r="H91"/>
     </row>
-    <row r="92" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -11449,7 +11464,7 @@
       <c r="G92"/>
       <c r="H92"/>
     </row>
-    <row r="93" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -11458,7 +11473,7 @@
       <c r="G93"/>
       <c r="H93"/>
     </row>
-    <row r="94" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -11467,7 +11482,7 @@
       <c r="G94"/>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -11476,7 +11491,7 @@
       <c r="G95"/>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="11"/>
       <c r="B96" s="42"/>
       <c r="C96" s="11"/>
@@ -11485,7 +11500,7 @@
       <c r="G96"/>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -11494,7 +11509,7 @@
       <c r="G97"/>
       <c r="H97"/>
     </row>
-    <row r="98" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -11503,7 +11518,7 @@
       <c r="G98"/>
       <c r="H98"/>
     </row>
-    <row r="99" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A99" s="11"/>
       <c r="B99" s="37"/>
       <c r="C99" s="11"/>
@@ -11512,7 +11527,7 @@
       <c r="G99"/>
       <c r="H99"/>
     </row>
-    <row r="100" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -11521,7 +11536,7 @@
       <c r="G100"/>
       <c r="H100"/>
     </row>
-    <row r="101" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="11"/>
       <c r="B101" s="38"/>
       <c r="C101" s="38"/>
@@ -11530,7 +11545,7 @@
       <c r="G101"/>
       <c r="H101"/>
     </row>
-    <row r="102" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -11539,7 +11554,7 @@
       <c r="G102"/>
       <c r="H102"/>
     </row>
-    <row r="103" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -11548,7 +11563,7 @@
       <c r="G103"/>
       <c r="H103"/>
     </row>
-    <row r="104" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -11557,7 +11572,7 @@
       <c r="G104"/>
       <c r="H104"/>
     </row>
-    <row r="105" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -11566,7 +11581,7 @@
       <c r="G105"/>
       <c r="H105"/>
     </row>
-    <row r="106" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -11575,7 +11590,7 @@
       <c r="G106"/>
       <c r="H106"/>
     </row>
-    <row r="107" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -11584,7 +11599,7 @@
       <c r="G107"/>
       <c r="H107"/>
     </row>
-    <row r="108" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -11593,7 +11608,7 @@
       <c r="G108"/>
       <c r="H108"/>
     </row>
-    <row r="109" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -11602,7 +11617,7 @@
       <c r="G109"/>
       <c r="H109"/>
     </row>
-    <row r="110" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -11611,7 +11626,7 @@
       <c r="G110"/>
       <c r="H110"/>
     </row>
-    <row r="111" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -11620,7 +11635,7 @@
       <c r="G111"/>
       <c r="H111"/>
     </row>
-    <row r="112" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -11629,7 +11644,7 @@
       <c r="G112"/>
       <c r="H112"/>
     </row>
-    <row r="113" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
@@ -11638,7 +11653,7 @@
       <c r="G113"/>
       <c r="H113"/>
     </row>
-    <row r="114" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
@@ -11647,7 +11662,7 @@
       <c r="G114"/>
       <c r="H114"/>
     </row>
-    <row r="115" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
@@ -11656,7 +11671,7 @@
       <c r="G115"/>
       <c r="H115"/>
     </row>
-    <row r="116" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
@@ -11665,7 +11680,7 @@
       <c r="G116"/>
       <c r="H116"/>
     </row>
-    <row r="117" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
@@ -11674,7 +11689,7 @@
       <c r="G117"/>
       <c r="H117"/>
     </row>
-    <row r="118" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
@@ -11683,7 +11698,7 @@
       <c r="G118"/>
       <c r="H118"/>
     </row>
-    <row r="119" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
@@ -11692,7 +11707,7 @@
       <c r="G119"/>
       <c r="H119"/>
     </row>
-    <row r="120" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
@@ -11701,7 +11716,7 @@
       <c r="G120"/>
       <c r="H120"/>
     </row>
-    <row r="121" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
@@ -11710,7 +11725,7 @@
       <c r="G121"/>
       <c r="H121"/>
     </row>
-    <row r="122" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="11"/>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
@@ -11719,7 +11734,7 @@
       <c r="G122"/>
       <c r="H122"/>
     </row>
-    <row r="123" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="11"/>
       <c r="B123" s="11"/>
       <c r="C123" s="11"/>
@@ -11728,7 +11743,7 @@
       <c r="G123"/>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="11"/>
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
@@ -11737,7 +11752,7 @@
       <c r="G124"/>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="11"/>
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
@@ -11746,7 +11761,7 @@
       <c r="G125"/>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="11"/>
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
@@ -11755,7 +11770,7 @@
       <c r="G126"/>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="11"/>
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
@@ -11764,7 +11779,7 @@
       <c r="G127"/>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="11"/>
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
@@ -11773,7 +11788,7 @@
       <c r="G128"/>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="11"/>
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
@@ -11782,7 +11797,7 @@
       <c r="G129"/>
       <c r="H129"/>
     </row>
-    <row r="130" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="11"/>
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
@@ -11791,7 +11806,7 @@
       <c r="G130"/>
       <c r="H130"/>
     </row>
-    <row r="131" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="11"/>
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
@@ -11800,7 +11815,7 @@
       <c r="G131"/>
       <c r="H131"/>
     </row>
-    <row r="132" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="11"/>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
@@ -11809,7 +11824,7 @@
       <c r="G132"/>
       <c r="H132"/>
     </row>
-    <row r="133" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="11"/>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
@@ -11818,7 +11833,7 @@
       <c r="G133"/>
       <c r="H133"/>
     </row>
-    <row r="134" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="11"/>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
@@ -11827,7 +11842,7 @@
       <c r="G134"/>
       <c r="H134"/>
     </row>
-    <row r="135" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="11"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
@@ -11836,7 +11851,7 @@
       <c r="G135"/>
       <c r="H135"/>
     </row>
-    <row r="136" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="11"/>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
@@ -11845,7 +11860,7 @@
       <c r="G136"/>
       <c r="H136"/>
     </row>
-    <row r="137" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="11"/>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
@@ -11854,7 +11869,7 @@
       <c r="G137"/>
       <c r="H137"/>
     </row>
-    <row r="138" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="11"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
@@ -11863,7 +11878,7 @@
       <c r="G138"/>
       <c r="H138"/>
     </row>
-    <row r="139" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="11"/>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
@@ -11872,7 +11887,7 @@
       <c r="G139"/>
       <c r="H139"/>
     </row>
-    <row r="140" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="11"/>
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
@@ -11881,7 +11896,7 @@
       <c r="G140"/>
       <c r="H140"/>
     </row>
-    <row r="141" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="11"/>
       <c r="B141" s="42"/>
       <c r="C141" s="11"/>
@@ -11890,7 +11905,7 @@
       <c r="G141"/>
       <c r="H141"/>
     </row>
-    <row r="142" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="11"/>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
@@ -11899,7 +11914,7 @@
       <c r="G142"/>
       <c r="H142"/>
     </row>
-    <row r="143" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="11"/>
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
@@ -11908,7 +11923,7 @@
       <c r="G143"/>
       <c r="H143"/>
     </row>
-    <row r="144" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A144" s="11"/>
       <c r="B144" s="37"/>
       <c r="C144" s="11"/>
@@ -11917,7 +11932,7 @@
       <c r="G144"/>
       <c r="H144"/>
     </row>
-    <row r="145" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="11"/>
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
@@ -11926,7 +11941,7 @@
       <c r="G145"/>
       <c r="H145"/>
     </row>
-    <row r="146" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="11"/>
       <c r="B146" s="38"/>
       <c r="C146" s="38"/>
@@ -11935,7 +11950,7 @@
       <c r="G146"/>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="11"/>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
@@ -11944,7 +11959,7 @@
       <c r="G147"/>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="11"/>
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
@@ -11953,7 +11968,7 @@
       <c r="G148"/>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="11"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
@@ -11962,7 +11977,7 @@
       <c r="G149"/>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="11"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
@@ -11971,7 +11986,7 @@
       <c r="G150"/>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="11"/>
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
@@ -11980,7 +11995,7 @@
       <c r="G151"/>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="11"/>
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
@@ -11989,7 +12004,7 @@
       <c r="G152"/>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="11"/>
       <c r="B153" s="11"/>
       <c r="C153" s="11"/>
@@ -11998,7 +12013,7 @@
       <c r="G153"/>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="11"/>
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
@@ -12007,7 +12022,7 @@
       <c r="G154"/>
       <c r="H154"/>
     </row>
-    <row r="155" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="11"/>
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
@@ -12016,7 +12031,7 @@
       <c r="G155"/>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="11"/>
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
@@ -12025,7 +12040,7 @@
       <c r="G156"/>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="11"/>
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
@@ -12034,7 +12049,7 @@
       <c r="G157"/>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="11"/>
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
@@ -12043,7 +12058,7 @@
       <c r="G158"/>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="11"/>
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
@@ -12052,7 +12067,7 @@
       <c r="G159"/>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="11"/>
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
@@ -12061,7 +12076,7 @@
       <c r="G160"/>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="11"/>
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
@@ -12070,7 +12085,7 @@
       <c r="G161"/>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="11"/>
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
@@ -12079,7 +12094,7 @@
       <c r="G162"/>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="11"/>
       <c r="B163" s="11"/>
       <c r="C163" s="11"/>
@@ -12088,7 +12103,7 @@
       <c r="G163"/>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="11"/>
       <c r="B164" s="11"/>
       <c r="C164" s="11"/>
@@ -12097,7 +12112,7 @@
       <c r="G164"/>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="11"/>
       <c r="B165" s="11"/>
       <c r="C165" s="11"/>
@@ -12106,7 +12121,7 @@
       <c r="G165"/>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="11"/>
       <c r="B166" s="11"/>
       <c r="C166" s="11"/>
@@ -12115,7 +12130,7 @@
       <c r="G166"/>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="11"/>
       <c r="B167" s="11"/>
       <c r="C167" s="11"/>
@@ -12124,7 +12139,7 @@
       <c r="G167"/>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="11"/>
       <c r="B168" s="11"/>
       <c r="C168" s="11"/>
@@ -12133,7 +12148,7 @@
       <c r="G168"/>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="11"/>
       <c r="B169" s="11"/>
       <c r="C169" s="11"/>
@@ -12142,7 +12157,7 @@
       <c r="G169"/>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="11"/>
       <c r="B170" s="11"/>
       <c r="C170" s="11"/>
@@ -12151,7 +12166,7 @@
       <c r="G170"/>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="11"/>
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
@@ -12160,7 +12175,7 @@
       <c r="G171"/>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="11"/>
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
@@ -12169,7 +12184,7 @@
       <c r="G172"/>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="11"/>
       <c r="B173" s="11"/>
       <c r="C173" s="11"/>
@@ -12178,7 +12193,7 @@
       <c r="G173"/>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="11"/>
       <c r="B174" s="11"/>
       <c r="C174" s="11"/>
@@ -12187,7 +12202,7 @@
       <c r="G174"/>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="11"/>
       <c r="B175" s="11"/>
       <c r="C175" s="11"/>
@@ -12196,7 +12211,7 @@
       <c r="G175"/>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="11"/>
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
@@ -12205,7 +12220,7 @@
       <c r="G176"/>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="11"/>
       <c r="B177" s="11"/>
       <c r="C177" s="11"/>
@@ -12214,7 +12229,7 @@
       <c r="G177"/>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="11"/>
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
@@ -12223,7 +12238,7 @@
       <c r="G178"/>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="11"/>
       <c r="B179" s="11"/>
       <c r="C179" s="11"/>
@@ -12232,7 +12247,7 @@
       <c r="G179"/>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A180" s="11"/>
       <c r="B180" s="11"/>
       <c r="C180" s="11"/>
@@ -12241,7 +12256,7 @@
       <c r="G180"/>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="11"/>
       <c r="B181" s="11"/>
       <c r="C181" s="11"/>
@@ -12250,7 +12265,7 @@
       <c r="G181"/>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="11"/>
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
@@ -12259,7 +12274,7 @@
       <c r="G182"/>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="11"/>
       <c r="B183" s="11"/>
       <c r="C183" s="11"/>
@@ -12268,7 +12283,7 @@
       <c r="G183"/>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="11"/>
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
@@ -12277,7 +12292,7 @@
       <c r="G184"/>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="11"/>
       <c r="B185" s="11"/>
       <c r="C185" s="11"/>
@@ -12286,7 +12301,7 @@
       <c r="G185"/>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="11"/>
       <c r="B186" s="42"/>
       <c r="C186" s="11"/>
@@ -12295,7 +12310,7 @@
       <c r="G186"/>
       <c r="H186"/>
     </row>
-    <row r="187" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="11"/>
       <c r="B187" s="11"/>
       <c r="C187" s="11"/>
@@ -12304,7 +12319,7 @@
       <c r="G187"/>
       <c r="H187"/>
     </row>
-    <row r="188" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="11"/>
       <c r="B188" s="11"/>
       <c r="C188" s="11"/>
@@ -12313,7 +12328,7 @@
       <c r="G188"/>
       <c r="H188"/>
     </row>
-    <row r="189" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A189" s="11"/>
       <c r="B189" s="37"/>
       <c r="C189" s="11"/>
@@ -12322,7 +12337,7 @@
       <c r="G189"/>
       <c r="H189"/>
     </row>
-    <row r="190" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="11"/>
       <c r="B190" s="11"/>
       <c r="C190" s="11"/>
@@ -12331,7 +12346,7 @@
       <c r="G190"/>
       <c r="H190"/>
     </row>
-    <row r="191" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="11"/>
       <c r="B191" s="38"/>
       <c r="C191" s="38"/>
@@ -12340,7 +12355,7 @@
       <c r="G191"/>
       <c r="H191"/>
     </row>
-    <row r="192" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="11"/>
       <c r="B192" s="11"/>
       <c r="C192" s="11"/>
@@ -12349,7 +12364,7 @@
       <c r="G192"/>
       <c r="H192"/>
     </row>
-    <row r="193" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="11"/>
       <c r="B193" s="11"/>
       <c r="C193" s="11"/>
@@ -12358,7 +12373,7 @@
       <c r="G193"/>
       <c r="H193"/>
     </row>
-    <row r="194" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="11"/>
       <c r="B194" s="11"/>
       <c r="C194" s="11"/>
@@ -12367,7 +12382,7 @@
       <c r="G194"/>
       <c r="H194"/>
     </row>
-    <row r="195" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="11"/>
       <c r="B195" s="11"/>
       <c r="C195" s="11"/>
@@ -12376,7 +12391,7 @@
       <c r="G195"/>
       <c r="H195"/>
     </row>
-    <row r="196" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="11"/>
       <c r="B196" s="11"/>
       <c r="C196" s="11"/>
@@ -12385,7 +12400,7 @@
       <c r="G196"/>
       <c r="H196"/>
     </row>
-    <row r="197" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="11"/>
       <c r="B197" s="11"/>
       <c r="C197" s="11"/>
@@ -12394,7 +12409,7 @@
       <c r="G197"/>
       <c r="H197"/>
     </row>
-    <row r="198" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="11"/>
       <c r="B198" s="11"/>
       <c r="C198" s="11"/>
@@ -12403,7 +12418,7 @@
       <c r="G198"/>
       <c r="H198"/>
     </row>
-    <row r="199" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="11"/>
       <c r="B199" s="11"/>
       <c r="C199" s="11"/>
@@ -12412,7 +12427,7 @@
       <c r="G199"/>
       <c r="H199"/>
     </row>
-    <row r="200" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="11"/>
       <c r="B200" s="11"/>
       <c r="C200" s="11"/>
@@ -12421,7 +12436,7 @@
       <c r="G200"/>
       <c r="H200"/>
     </row>
-    <row r="201" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="11"/>
       <c r="B201" s="11"/>
       <c r="C201" s="11"/>
@@ -12430,7 +12445,7 @@
       <c r="G201"/>
       <c r="H201"/>
     </row>
-    <row r="202" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="11"/>
       <c r="B202" s="11"/>
       <c r="C202" s="11"/>
@@ -12439,7 +12454,7 @@
       <c r="G202"/>
       <c r="H202"/>
     </row>
-    <row r="203" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="11"/>
       <c r="B203" s="11"/>
       <c r="C203" s="11"/>
@@ -12448,7 +12463,7 @@
       <c r="G203"/>
       <c r="H203"/>
     </row>
-    <row r="204" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="11"/>
       <c r="B204" s="11"/>
       <c r="C204" s="11"/>
@@ -12457,7 +12472,7 @@
       <c r="G204"/>
       <c r="H204"/>
     </row>
-    <row r="205" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="11"/>
       <c r="B205" s="11"/>
       <c r="C205" s="11"/>
@@ -12466,7 +12481,7 @@
       <c r="G205"/>
       <c r="H205"/>
     </row>
-    <row r="206" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="11"/>
       <c r="B206" s="11"/>
       <c r="C206" s="11"/>
@@ -12475,7 +12490,7 @@
       <c r="G206"/>
       <c r="H206"/>
     </row>
-    <row r="207" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A207" s="11"/>
       <c r="B207" s="11"/>
       <c r="C207" s="11"/>
@@ -12484,7 +12499,7 @@
       <c r="G207"/>
       <c r="H207"/>
     </row>
-    <row r="208" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="11"/>
       <c r="B208" s="11"/>
       <c r="C208" s="11"/>
@@ -12493,7 +12508,7 @@
       <c r="G208"/>
       <c r="H208"/>
     </row>
-    <row r="209" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="11"/>
       <c r="B209" s="11"/>
       <c r="C209" s="11"/>
@@ -12502,7 +12517,7 @@
       <c r="G209"/>
       <c r="H209"/>
     </row>
-    <row r="210" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="11"/>
       <c r="B210" s="11"/>
       <c r="C210" s="11"/>
@@ -12511,7 +12526,7 @@
       <c r="G210"/>
       <c r="H210"/>
     </row>
-    <row r="211" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="11"/>
       <c r="B211" s="11"/>
       <c r="C211" s="11"/>
@@ -12520,7 +12535,7 @@
       <c r="G211"/>
       <c r="H211"/>
     </row>
-    <row r="212" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="11"/>
       <c r="B212" s="11"/>
       <c r="C212" s="11"/>
@@ -12529,7 +12544,7 @@
       <c r="G212"/>
       <c r="H212"/>
     </row>
-    <row r="213" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="11"/>
       <c r="B213" s="11"/>
       <c r="C213" s="11"/>
@@ -12538,7 +12553,7 @@
       <c r="G213"/>
       <c r="H213"/>
     </row>
-    <row r="214" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="11"/>
       <c r="B214" s="11"/>
       <c r="C214" s="11"/>
@@ -12547,7 +12562,7 @@
       <c r="G214"/>
       <c r="H214"/>
     </row>
-    <row r="215" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="11"/>
       <c r="B215" s="11"/>
       <c r="C215" s="11"/>
@@ -12556,7 +12571,7 @@
       <c r="G215"/>
       <c r="H215"/>
     </row>
-    <row r="216" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="11"/>
       <c r="B216" s="11"/>
       <c r="C216" s="11"/>
@@ -12565,7 +12580,7 @@
       <c r="G216"/>
       <c r="H216"/>
     </row>
-    <row r="217" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A217" s="11"/>
       <c r="B217" s="11"/>
       <c r="C217" s="11"/>
@@ -12574,7 +12589,7 @@
       <c r="G217"/>
       <c r="H217"/>
     </row>
-    <row r="218" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="11"/>
       <c r="B218" s="11"/>
       <c r="C218" s="11"/>
@@ -12583,7 +12598,7 @@
       <c r="G218"/>
       <c r="H218"/>
     </row>
-    <row r="219" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="11"/>
       <c r="B219" s="11"/>
       <c r="C219" s="11"/>
@@ -12592,7 +12607,7 @@
       <c r="G219"/>
       <c r="H219"/>
     </row>
-    <row r="220" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="11"/>
       <c r="B220" s="11"/>
       <c r="C220" s="11"/>
@@ -12601,7 +12616,7 @@
       <c r="G220"/>
       <c r="H220"/>
     </row>
-    <row r="221" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="11"/>
       <c r="B221" s="11"/>
       <c r="C221" s="11"/>
@@ -12610,7 +12625,7 @@
       <c r="G221"/>
       <c r="H221"/>
     </row>
-    <row r="222" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="11"/>
       <c r="B222" s="11"/>
       <c r="C222" s="11"/>
@@ -12619,7 +12634,7 @@
       <c r="G222"/>
       <c r="H222"/>
     </row>
-    <row r="223" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="11"/>
       <c r="B223" s="11"/>
       <c r="C223" s="11"/>
@@ -12628,34 +12643,34 @@
       <c r="G223"/>
       <c r="H223"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="11"/>
       <c r="B224" s="11"/>
       <c r="C224" s="11"/>
       <c r="D224" s="40"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="11"/>
       <c r="B225" s="11"/>
       <c r="C225" s="11"/>
       <c r="D225" s="40"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="11"/>
       <c r="B226" s="11"/>
       <c r="C226" s="11"/>
       <c r="D226" s="40"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="11"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="11"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="11"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="11"/>
     </row>
   </sheetData>

--- a/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
+++ b/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomic\Documents\GitHub\258321_DKE_PR\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\258321_DKE_PR\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E436FC49-9FC4-4264-802A-A047ABB4D2F0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62555763-B1E8-49D0-8B4B-97EA2AE52C9B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20016" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20010" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung_Gesamt" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,22 @@
     <sheet name="Teuchtmann" sheetId="4" r:id="rId4"/>
     <sheet name="Tomic" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="34">
   <si>
     <t xml:space="preserve">Aistleithner </t>
   </si>
@@ -128,6 +133,9 @@
   </si>
   <si>
     <t>Anforderungsanalyse ausarbeiten, Präsentation vorbereiten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Präsentation Anforderungen </t>
   </si>
 </sst>
 </file>
@@ -518,8 +526,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -634,7 +642,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -827,16 +835,16 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>15.5</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>14</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>15.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -944,7 +952,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1029,7 +1037,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.5</c:v>
+                  <c:v>36.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2526,7 +2534,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2824,25 +2832,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K45"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="2" max="2" width="15.5546875" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1" outlineLevel="1"/>
     <col min="4" max="4" width="37" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="41.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="41.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
         <v>4</v>
       </c>
@@ -2854,7 +2862,7 @@
       <c r="H2" s="55"/>
       <c r="I2" s="55"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -2871,34 +2879,34 @@
       <c r="H3" s="55"/>
       <c r="I3" s="55"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>B44</f>
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1">
         <f t="shared" ref="B4:D4" si="0">C44</f>
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="55"/>
       <c r="H4" s="55"/>
       <c r="I4" s="55"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G5" s="55"/>
       <c r="H5" s="55"/>
       <c r="I5" s="55"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="56" t="s">
         <v>5</v>
       </c>
@@ -2912,7 +2920,7 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="59" t="s">
         <v>7</v>
@@ -2924,7 +2932,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>6</v>
       </c>
@@ -2946,7 +2954,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="13"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>40</v>
       </c>
@@ -2973,7 +2981,7 @@
       <c r="J26" s="12"/>
       <c r="K26" s="13"/>
     </row>
-    <row r="27" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>41</v>
       </c>
@@ -3000,34 +3008,34 @@
       <c r="J27" s="12"/>
       <c r="K27" s="14"/>
     </row>
-    <row r="28" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>42</v>
       </c>
       <c r="B28" s="3">
         <f>SUMIF(Aistleithner!H8:H58,Zeiterfassung_Gesamt!A28,Aistleithner!G8:G58)</f>
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="C28" s="3">
         <f>SUMIF(Dusanic!H8:H51,Zeiterfassung_Gesamt!A28,Dusanic!G8:G51)</f>
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="D28" s="3">
         <f>SUMIF(Tabelle35[KW],Zeiterfassung_Gesamt!A28,Tabelle35[Dauer])</f>
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="E28" s="3">
         <f>SUMIF(Tomic!H8:H51,Zeiterfassung_Gesamt!A28,Tomic!G8:G51)</f>
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="F28" s="3">
         <f t="shared" ref="F28:F29" si="1">SUM(B28:E28)</f>
-        <v>30.5</v>
+        <v>36.5</v>
       </c>
       <c r="J28" s="12"/>
       <c r="K28" s="14"/>
     </row>
-    <row r="29" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43</v>
       </c>
@@ -3054,7 +3062,7 @@
       <c r="J29" s="12"/>
       <c r="K29" s="14"/>
     </row>
-    <row r="30" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>44</v>
       </c>
@@ -3081,7 +3089,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="14"/>
     </row>
-    <row r="31" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>45</v>
       </c>
@@ -3108,7 +3116,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="14"/>
     </row>
-    <row r="32" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>46</v>
       </c>
@@ -3135,7 +3143,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="14"/>
     </row>
-    <row r="33" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>47</v>
       </c>
@@ -3162,7 +3170,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="14"/>
     </row>
-    <row r="34" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>48</v>
       </c>
@@ -3189,7 +3197,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="14"/>
     </row>
-    <row r="35" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>49</v>
       </c>
@@ -3216,7 +3224,7 @@
       <c r="J35" s="12"/>
       <c r="K35" s="14"/>
     </row>
-    <row r="36" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>50</v>
       </c>
@@ -3243,7 +3251,7 @@
       <c r="J36" s="12"/>
       <c r="K36" s="14"/>
     </row>
-    <row r="37" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>51</v>
       </c>
@@ -3270,7 +3278,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="14"/>
     </row>
-    <row r="38" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>52</v>
       </c>
@@ -3297,7 +3305,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="14"/>
     </row>
-    <row r="39" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>1</v>
       </c>
@@ -3324,7 +3332,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="14"/>
     </row>
-    <row r="40" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>2</v>
       </c>
@@ -3351,7 +3359,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="14"/>
     </row>
-    <row r="41" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>3</v>
       </c>
@@ -3378,7 +3386,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="14"/>
     </row>
-    <row r="42" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>4</v>
       </c>
@@ -3405,7 +3413,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="14"/>
     </row>
-    <row r="43" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>5</v>
       </c>
@@ -3432,34 +3440,34 @@
       <c r="J43" s="12"/>
       <c r="K43" s="14"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B44" s="4">
         <f>SUM(B26:B43)</f>
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="C44" s="4">
         <f t="shared" ref="C44:E44" si="3">SUM(C26:C43)</f>
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="D44" s="4">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="E44" s="4">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="F44" s="4">
         <f>SUM(F26:F43)</f>
-        <v>56.5</v>
+        <v>62.5</v>
       </c>
       <c r="J44" s="12"/>
       <c r="K44" s="14"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
     </row>
@@ -3480,36 +3488,36 @@
   <dimension ref="A2:H243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" customWidth="1"/>
-    <col min="3" max="3" width="75.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="19" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="17"/>
       <c r="C3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="21"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="22" t="s">
         <v>13</v>
       </c>
@@ -3532,7 +3540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="26" t="s">
         <v>24</v>
       </c>
@@ -3557,7 +3565,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="26" t="s">
         <v>26</v>
       </c>
@@ -3582,7 +3590,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="26" t="s">
         <v>24</v>
       </c>
@@ -3607,7 +3615,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="26" t="s">
         <v>26</v>
       </c>
@@ -3632,7 +3640,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="29"/>
       <c r="B11" s="26" t="s">
         <v>30</v>
@@ -3658,7 +3666,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="26" t="s">
         <v>30</v>
       </c>
@@ -3683,22 +3691,32 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="27">
+        <v>43391</v>
+      </c>
+      <c r="E13" s="28">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="F13" s="28">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="G13">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H13">
         <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="27"/>
@@ -3713,7 +3731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
       <c r="D15" s="27"/>
@@ -3728,7 +3746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
       <c r="D16" s="27"/>
@@ -3743,7 +3761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
       <c r="D17" s="27"/>
@@ -3758,7 +3776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
       <c r="D18" s="27"/>
@@ -3773,7 +3791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
       <c r="D19" s="27"/>
@@ -3788,7 +3806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
       <c r="D20" s="27"/>
@@ -3803,7 +3821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
       <c r="D21" s="27"/>
@@ -3818,7 +3836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
       <c r="D22" s="27"/>
@@ -3833,7 +3851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
       <c r="D23" s="27"/>
@@ -3848,7 +3866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
       <c r="D24" s="27"/>
@@ -3863,7 +3881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="D25" s="27"/>
@@ -3878,7 +3896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="26"/>
       <c r="C26" s="30"/>
       <c r="D26" s="27"/>
@@ -3893,7 +3911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
       <c r="D27" s="27"/>
@@ -3908,7 +3926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="D28" s="27"/>
@@ -3923,7 +3941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="27"/>
@@ -3938,7 +3956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="27"/>
@@ -3953,7 +3971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="27"/>
@@ -3968,7 +3986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="27"/>
@@ -3983,7 +4001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="27"/>
@@ -3998,7 +4016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="27"/>
@@ -4013,7 +4031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="27"/>
@@ -4028,7 +4046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="27"/>
@@ -4043,7 +4061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="27"/>
@@ -4058,7 +4076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
       <c r="D38" s="27"/>
@@ -4073,7 +4091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="D39" s="27"/>
@@ -4088,7 +4106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
       <c r="D40" s="27"/>
@@ -4103,7 +4121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
       <c r="D41" s="27"/>
@@ -4118,7 +4136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="27"/>
@@ -4133,7 +4151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
       <c r="D43" s="27"/>
@@ -4148,7 +4166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="27"/>
@@ -4163,7 +4181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="27"/>
@@ -4178,7 +4196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="27"/>
@@ -4193,7 +4211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
       <c r="D47" s="27"/>
@@ -4208,7 +4226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
       <c r="D48" s="32"/>
@@ -4223,7 +4241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
       <c r="D49" s="32"/>
@@ -4238,7 +4256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
       <c r="D50" s="27"/>
@@ -4253,7 +4271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B51" s="30"/>
       <c r="C51" s="30"/>
       <c r="D51" s="32"/>
@@ -4268,7 +4286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B52" s="30"/>
       <c r="C52" s="30"/>
       <c r="D52" s="27"/>
@@ -4283,7 +4301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B53" s="30"/>
       <c r="C53" s="30"/>
       <c r="D53" s="32"/>
@@ -4298,7 +4316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B54" s="30"/>
       <c r="C54" s="30"/>
       <c r="D54" s="27"/>
@@ -4313,7 +4331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B55" s="30"/>
       <c r="C55" s="30"/>
       <c r="D55" s="27"/>
@@ -4328,7 +4346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B56" s="30"/>
       <c r="C56" s="30"/>
       <c r="D56" s="27"/>
@@ -4343,7 +4361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B57" s="30"/>
       <c r="C57" s="30"/>
       <c r="D57" s="27"/>
@@ -4358,7 +4376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B58" s="35" t="s">
         <v>19</v>
       </c>
@@ -4368,1081 +4386,1081 @@
       <c r="F58" s="36"/>
       <c r="G58">
         <f>SUM(G7:G57)</f>
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
     </row>
-    <row r="61" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="11"/>
       <c r="B61" s="37"/>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="38"/>
       <c r="C63" s="38"/>
       <c r="D63" s="39"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
       <c r="D64" s="40"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
       <c r="D65" s="40"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
       <c r="D66" s="40"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
       <c r="D67" s="40"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
       <c r="D68" s="40"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
       <c r="D69" s="40"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
       <c r="D70" s="40"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="41"/>
       <c r="C71" s="11"/>
       <c r="D71" s="40"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
       <c r="D72" s="40"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
       <c r="D73" s="40"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
       <c r="D74" s="40"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
       <c r="D75" s="40"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
       <c r="D76" s="40"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
       <c r="D77" s="40"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
       <c r="D78" s="40"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
       <c r="D79" s="40"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
       <c r="D80" s="40"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
       <c r="D81" s="40"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
       <c r="D82" s="40"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
       <c r="D83" s="40"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
       <c r="D84" s="40"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
       <c r="D85" s="40"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
       <c r="D86" s="40"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
       <c r="D87" s="40"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
       <c r="D88" s="40"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
       <c r="D89" s="40"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
       <c r="D90" s="40"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
       <c r="D91" s="40"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
       <c r="D92" s="40"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
       <c r="D93" s="40"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
       <c r="D94" s="40"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
       <c r="D95" s="40"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
       <c r="D96" s="40"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
       <c r="D97" s="40"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
       <c r="D98" s="40"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
       <c r="D99" s="40"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
       <c r="D100" s="40"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
       <c r="D101" s="40"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
       <c r="D102" s="40"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
       <c r="B103" s="42"/>
       <c r="C103" s="11"/>
       <c r="D103" s="40"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
       <c r="D105" s="11"/>
     </row>
-    <row r="106" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A106" s="11"/>
       <c r="B106" s="37"/>
       <c r="C106" s="11"/>
       <c r="D106" s="11"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
       <c r="D107" s="11"/>
     </row>
-    <row r="108" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="11"/>
       <c r="B108" s="38"/>
       <c r="C108" s="38"/>
       <c r="D108" s="39"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
       <c r="D109" s="40"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
       <c r="D110" s="40"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
       <c r="D111" s="40"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
       <c r="D112" s="40"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
       <c r="D113" s="40"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
       <c r="D114" s="40"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
       <c r="D115" s="40"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
       <c r="D116" s="40"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
       <c r="D117" s="40"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
       <c r="D118" s="40"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
       <c r="D119" s="40"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
       <c r="D120" s="40"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
       <c r="D121" s="40"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="11"/>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
       <c r="D122" s="40"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="11"/>
       <c r="B123" s="11"/>
       <c r="C123" s="11"/>
       <c r="D123" s="40"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="11"/>
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
       <c r="D124" s="40"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="11"/>
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
       <c r="D125" s="40"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="11"/>
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
       <c r="D126" s="40"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="11"/>
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
       <c r="D127" s="40"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="11"/>
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
       <c r="D128" s="40"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="11"/>
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
       <c r="D129" s="40"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="11"/>
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
       <c r="D130" s="40"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="11"/>
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
       <c r="D131" s="40"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="11"/>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
       <c r="D132" s="40"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="11"/>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
       <c r="D133" s="40"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="11"/>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
       <c r="D134" s="40"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="11"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
       <c r="D135" s="40"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="11"/>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
       <c r="D136" s="40"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="11"/>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
       <c r="D137" s="40"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="11"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
       <c r="D138" s="40"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="11"/>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
       <c r="D139" s="40"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="11"/>
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
       <c r="D140" s="40"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="11"/>
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
       <c r="D141" s="40"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="11"/>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
       <c r="D142" s="40"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="11"/>
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
       <c r="D143" s="40"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="11"/>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
       <c r="D144" s="40"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="11"/>
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
       <c r="D145" s="40"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="11"/>
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
       <c r="D146" s="40"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="11"/>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
       <c r="D147" s="40"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="11"/>
       <c r="B148" s="42"/>
       <c r="C148" s="11"/>
       <c r="D148" s="40"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="11"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
       <c r="D149" s="11"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="11"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
       <c r="D150" s="11"/>
     </row>
-    <row r="151" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A151" s="11"/>
       <c r="B151" s="37"/>
       <c r="C151" s="11"/>
       <c r="D151" s="11"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="11"/>
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
       <c r="D152" s="11"/>
     </row>
-    <row r="153" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="11"/>
       <c r="B153" s="38"/>
       <c r="C153" s="38"/>
       <c r="D153" s="39"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="11"/>
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
       <c r="D154" s="40"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="11"/>
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
       <c r="D155" s="40"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="11"/>
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
       <c r="D156" s="40"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="11"/>
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
       <c r="D157" s="40"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="11"/>
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
       <c r="D158" s="40"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="11"/>
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
       <c r="D159" s="40"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="11"/>
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
       <c r="D160" s="40"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="11"/>
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
       <c r="D161" s="40"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="11"/>
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
       <c r="D162" s="40"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="11"/>
       <c r="B163" s="11"/>
       <c r="C163" s="11"/>
       <c r="D163" s="40"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="11"/>
       <c r="B164" s="11"/>
       <c r="C164" s="11"/>
       <c r="D164" s="40"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="11"/>
       <c r="B165" s="11"/>
       <c r="C165" s="11"/>
       <c r="D165" s="40"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="11"/>
       <c r="B166" s="11"/>
       <c r="C166" s="11"/>
       <c r="D166" s="40"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="11"/>
       <c r="B167" s="11"/>
       <c r="C167" s="11"/>
       <c r="D167" s="40"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="11"/>
       <c r="B168" s="11"/>
       <c r="C168" s="11"/>
       <c r="D168" s="40"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="11"/>
       <c r="B169" s="11"/>
       <c r="C169" s="11"/>
       <c r="D169" s="40"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="11"/>
       <c r="B170" s="11"/>
       <c r="C170" s="11"/>
       <c r="D170" s="40"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="11"/>
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
       <c r="D171" s="40"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="11"/>
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
       <c r="D172" s="40"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="11"/>
       <c r="B173" s="11"/>
       <c r="C173" s="11"/>
       <c r="D173" s="40"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="11"/>
       <c r="B174" s="11"/>
       <c r="C174" s="11"/>
       <c r="D174" s="40"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="11"/>
       <c r="B175" s="11"/>
       <c r="C175" s="11"/>
       <c r="D175" s="40"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="11"/>
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
       <c r="D176" s="40"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="11"/>
       <c r="B177" s="11"/>
       <c r="C177" s="11"/>
       <c r="D177" s="40"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="11"/>
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
       <c r="D178" s="40"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="11"/>
       <c r="B179" s="11"/>
       <c r="C179" s="11"/>
       <c r="D179" s="40"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="11"/>
       <c r="B180" s="11"/>
       <c r="C180" s="11"/>
       <c r="D180" s="40"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="11"/>
       <c r="B181" s="11"/>
       <c r="C181" s="11"/>
       <c r="D181" s="40"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="11"/>
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
       <c r="D182" s="40"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="11"/>
       <c r="B183" s="11"/>
       <c r="C183" s="11"/>
       <c r="D183" s="40"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="11"/>
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
       <c r="D184" s="40"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="11"/>
       <c r="B185" s="11"/>
       <c r="C185" s="11"/>
       <c r="D185" s="40"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="11"/>
       <c r="B186" s="11"/>
       <c r="C186" s="11"/>
       <c r="D186" s="40"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="11"/>
       <c r="B187" s="11"/>
       <c r="C187" s="11"/>
       <c r="D187" s="40"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="11"/>
       <c r="B188" s="11"/>
       <c r="C188" s="11"/>
       <c r="D188" s="40"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="11"/>
       <c r="B189" s="11"/>
       <c r="C189" s="11"/>
       <c r="D189" s="40"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="11"/>
       <c r="B190" s="11"/>
       <c r="C190" s="11"/>
       <c r="D190" s="40"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="11"/>
       <c r="B191" s="11"/>
       <c r="C191" s="11"/>
       <c r="D191" s="40"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="11"/>
       <c r="B192" s="11"/>
       <c r="C192" s="11"/>
       <c r="D192" s="40"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="11"/>
       <c r="B193" s="42"/>
       <c r="C193" s="11"/>
       <c r="D193" s="40"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="11"/>
       <c r="B194" s="11"/>
       <c r="C194" s="11"/>
       <c r="D194" s="11"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="11"/>
       <c r="B195" s="11"/>
       <c r="C195" s="11"/>
       <c r="D195" s="11"/>
     </row>
-    <row r="196" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A196" s="11"/>
       <c r="B196" s="37"/>
       <c r="C196" s="11"/>
       <c r="D196" s="11"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="11"/>
       <c r="B197" s="11"/>
       <c r="C197" s="11"/>
       <c r="D197" s="11"/>
     </row>
-    <row r="198" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="11"/>
       <c r="B198" s="38"/>
       <c r="C198" s="38"/>
       <c r="D198" s="39"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="11"/>
       <c r="B199" s="11"/>
       <c r="C199" s="11"/>
       <c r="D199" s="40"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="11"/>
       <c r="B200" s="11"/>
       <c r="C200" s="11"/>
       <c r="D200" s="40"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="11"/>
       <c r="B201" s="11"/>
       <c r="C201" s="11"/>
       <c r="D201" s="40"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="11"/>
       <c r="B202" s="11"/>
       <c r="C202" s="11"/>
       <c r="D202" s="40"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="11"/>
       <c r="B203" s="11"/>
       <c r="C203" s="11"/>
       <c r="D203" s="40"/>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="11"/>
       <c r="B204" s="11"/>
       <c r="C204" s="11"/>
       <c r="D204" s="40"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="11"/>
       <c r="B205" s="11"/>
       <c r="C205" s="11"/>
       <c r="D205" s="40"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="11"/>
       <c r="B206" s="11"/>
       <c r="C206" s="11"/>
       <c r="D206" s="40"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="11"/>
       <c r="B207" s="11"/>
       <c r="C207" s="11"/>
       <c r="D207" s="40"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="11"/>
       <c r="B208" s="11"/>
       <c r="C208" s="11"/>
       <c r="D208" s="40"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="11"/>
       <c r="B209" s="11"/>
       <c r="C209" s="11"/>
       <c r="D209" s="40"/>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="11"/>
       <c r="B210" s="11"/>
       <c r="C210" s="11"/>
       <c r="D210" s="40"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="11"/>
       <c r="B211" s="11"/>
       <c r="C211" s="11"/>
       <c r="D211" s="40"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="11"/>
       <c r="B212" s="11"/>
       <c r="C212" s="11"/>
       <c r="D212" s="40"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="11"/>
       <c r="B213" s="11"/>
       <c r="C213" s="11"/>
       <c r="D213" s="40"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="11"/>
       <c r="B214" s="11"/>
       <c r="C214" s="11"/>
       <c r="D214" s="40"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="11"/>
       <c r="B215" s="11"/>
       <c r="C215" s="11"/>
       <c r="D215" s="40"/>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="11"/>
       <c r="B216" s="11"/>
       <c r="C216" s="11"/>
       <c r="D216" s="40"/>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="11"/>
       <c r="B217" s="11"/>
       <c r="C217" s="11"/>
       <c r="D217" s="40"/>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="11"/>
       <c r="B218" s="11"/>
       <c r="C218" s="11"/>
       <c r="D218" s="40"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="11"/>
       <c r="B219" s="11"/>
       <c r="C219" s="11"/>
       <c r="D219" s="40"/>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="11"/>
       <c r="B220" s="11"/>
       <c r="C220" s="11"/>
       <c r="D220" s="40"/>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="11"/>
       <c r="B221" s="11"/>
       <c r="C221" s="11"/>
       <c r="D221" s="40"/>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="11"/>
       <c r="B222" s="11"/>
       <c r="C222" s="11"/>
       <c r="D222" s="40"/>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="11"/>
       <c r="B223" s="11"/>
       <c r="C223" s="11"/>
       <c r="D223" s="40"/>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="11"/>
       <c r="B224" s="11"/>
       <c r="C224" s="11"/>
       <c r="D224" s="40"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="11"/>
       <c r="B225" s="11"/>
       <c r="C225" s="11"/>
       <c r="D225" s="40"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="11"/>
       <c r="B226" s="11"/>
       <c r="C226" s="11"/>
       <c r="D226" s="40"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="11"/>
       <c r="B227" s="11"/>
       <c r="C227" s="11"/>
       <c r="D227" s="40"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="11"/>
       <c r="B228" s="11"/>
       <c r="C228" s="11"/>
       <c r="D228" s="40"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="11"/>
       <c r="B229" s="11"/>
       <c r="C229" s="11"/>
       <c r="D229" s="40"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="11"/>
       <c r="B230" s="11"/>
       <c r="C230" s="11"/>
       <c r="D230" s="40"/>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="11"/>
       <c r="B231" s="11"/>
       <c r="C231" s="11"/>
       <c r="D231" s="40"/>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="11"/>
       <c r="B232" s="11"/>
       <c r="C232" s="11"/>
       <c r="D232" s="40"/>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="11"/>
       <c r="B233" s="11"/>
       <c r="C233" s="11"/>
       <c r="D233" s="40"/>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="11"/>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="11"/>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="11"/>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="11"/>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="11"/>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="11"/>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="11"/>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="11"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="11"/>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="11"/>
     </row>
   </sheetData>
@@ -5458,36 +5476,36 @@
   <dimension ref="A2:H230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1"/>
-    <col min="3" max="3" width="75.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1"/>
+    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="19" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="17"/>
       <c r="C3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="20" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="21"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="22" t="s">
         <v>13</v>
       </c>
@@ -5510,7 +5528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="26" t="s">
         <v>24</v>
       </c>
@@ -5535,7 +5553,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="26" t="s">
         <v>26</v>
       </c>
@@ -5560,7 +5578,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="26" t="s">
         <v>24</v>
       </c>
@@ -5585,7 +5603,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="29"/>
       <c r="B10" s="26" t="s">
         <v>30</v>
@@ -5611,7 +5629,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="26" t="s">
         <v>30</v>
       </c>
@@ -5636,22 +5654,32 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="27">
+        <v>43391</v>
+      </c>
+      <c r="E12" s="28">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="F12" s="28">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="G12">
         <f>(Tabelle34[[#This Row],[bis]]*24)-(Tabelle34[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H12">
         <f>WEEKNUM(Tabelle34[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
       <c r="D13" s="27"/>
@@ -5666,7 +5694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="27"/>
@@ -5681,7 +5709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
       <c r="D15" s="27"/>
@@ -5696,7 +5724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
       <c r="D16" s="27"/>
@@ -5711,7 +5739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
       <c r="D17" s="27"/>
@@ -5726,7 +5754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
       <c r="D18" s="27"/>
@@ -5741,7 +5769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
       <c r="D19" s="27"/>
@@ -5756,7 +5784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
       <c r="D20" s="27"/>
@@ -5771,7 +5799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
       <c r="D21" s="27"/>
@@ -5786,7 +5814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
       <c r="D22" s="27"/>
@@ -5801,7 +5829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
       <c r="D23" s="27"/>
@@ -5816,7 +5844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
       <c r="D24" s="27"/>
@@ -5831,7 +5859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="D25" s="27"/>
@@ -5846,7 +5874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
       <c r="D26" s="27"/>
@@ -5861,7 +5889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
       <c r="D27" s="27"/>
@@ -5876,7 +5904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="D28" s="27"/>
@@ -5891,7 +5919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="27"/>
@@ -5906,7 +5934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="27"/>
@@ -5921,7 +5949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="27"/>
@@ -5936,7 +5964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="27"/>
@@ -5951,7 +5979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="27"/>
@@ -5966,7 +5994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="27"/>
@@ -5981,7 +6009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="27"/>
@@ -5996,7 +6024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="27"/>
@@ -6011,7 +6039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="27"/>
@@ -6026,7 +6054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
       <c r="D38" s="27"/>
@@ -6041,7 +6069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="D39" s="27"/>
@@ -6056,7 +6084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
       <c r="D40" s="27"/>
@@ -6071,7 +6099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
       <c r="D41" s="27"/>
@@ -6086,7 +6114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="27"/>
@@ -6101,7 +6129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
       <c r="D43" s="27"/>
@@ -6116,7 +6144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="27"/>
@@ -6131,7 +6159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="27"/>
@@ -6146,7 +6174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="27"/>
@@ -6161,7 +6189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
@@ -6177,7 +6205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
@@ -6193,7 +6221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
@@ -6209,7 +6237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
@@ -6225,7 +6253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="35" t="s">
         <v>19</v>
@@ -6236,11 +6264,11 @@
       <c r="F51" s="36"/>
       <c r="G51">
         <f>SUM(G7:G50)</f>
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52"/>
       <c r="C52"/>
@@ -6249,7 +6277,7 @@
       <c r="G52"/>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -6258,7 +6286,7 @@
       <c r="G53"/>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="11"/>
       <c r="B54" s="37"/>
       <c r="C54" s="11"/>
@@ -6267,7 +6295,7 @@
       <c r="G54"/>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -6276,7 +6304,7 @@
       <c r="G55"/>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="38"/>
       <c r="C56" s="38"/>
@@ -6285,7 +6313,7 @@
       <c r="G56"/>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -6294,7 +6322,7 @@
       <c r="G57"/>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -6303,7 +6331,7 @@
       <c r="G58"/>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -6312,7 +6340,7 @@
       <c r="G59"/>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -6321,7 +6349,7 @@
       <c r="G60"/>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -6330,7 +6358,7 @@
       <c r="G61"/>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -6339,7 +6367,7 @@
       <c r="G62"/>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -6348,7 +6376,7 @@
       <c r="G63"/>
       <c r="H63"/>
     </row>
-    <row r="64" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="41"/>
       <c r="C64" s="11"/>
@@ -6357,7 +6385,7 @@
       <c r="G64"/>
       <c r="H64"/>
     </row>
-    <row r="65" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -6366,7 +6394,7 @@
       <c r="G65"/>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -6375,7 +6403,7 @@
       <c r="G66"/>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -6384,7 +6412,7 @@
       <c r="G67"/>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -6393,7 +6421,7 @@
       <c r="G68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -6402,7 +6430,7 @@
       <c r="G69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -6411,7 +6439,7 @@
       <c r="G70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -6420,7 +6448,7 @@
       <c r="G71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -6429,7 +6457,7 @@
       <c r="G72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -6438,7 +6466,7 @@
       <c r="G73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -6447,7 +6475,7 @@
       <c r="G74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -6456,7 +6484,7 @@
       <c r="G75"/>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -6465,7 +6493,7 @@
       <c r="G76"/>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -6474,7 +6502,7 @@
       <c r="G77"/>
       <c r="H77"/>
     </row>
-    <row r="78" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -6483,7 +6511,7 @@
       <c r="G78"/>
       <c r="H78"/>
     </row>
-    <row r="79" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -6492,7 +6520,7 @@
       <c r="G79"/>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -6501,7 +6529,7 @@
       <c r="G80"/>
       <c r="H80"/>
     </row>
-    <row r="81" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -6510,7 +6538,7 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -6519,7 +6547,7 @@
       <c r="G82"/>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -6528,7 +6556,7 @@
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -6537,7 +6565,7 @@
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -6546,7 +6574,7 @@
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -6555,7 +6583,7 @@
       <c r="G86"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -6564,7 +6592,7 @@
       <c r="G87"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -6573,7 +6601,7 @@
       <c r="G88"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -6582,7 +6610,7 @@
       <c r="G89"/>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -6591,7 +6619,7 @@
       <c r="G90"/>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -6600,7 +6628,7 @@
       <c r="G91"/>
       <c r="H91"/>
     </row>
-    <row r="92" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -6609,7 +6637,7 @@
       <c r="G92"/>
       <c r="H92"/>
     </row>
-    <row r="93" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -6618,7 +6646,7 @@
       <c r="G93"/>
       <c r="H93"/>
     </row>
-    <row r="94" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -6627,7 +6655,7 @@
       <c r="G94"/>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -6636,7 +6664,7 @@
       <c r="G95"/>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="11"/>
       <c r="B96" s="42"/>
       <c r="C96" s="11"/>
@@ -6645,7 +6673,7 @@
       <c r="G96"/>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -6654,7 +6682,7 @@
       <c r="G97"/>
       <c r="H97"/>
     </row>
-    <row r="98" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -6663,7 +6691,7 @@
       <c r="G98"/>
       <c r="H98"/>
     </row>
-    <row r="99" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A99" s="11"/>
       <c r="B99" s="37"/>
       <c r="C99" s="11"/>
@@ -6672,7 +6700,7 @@
       <c r="G99"/>
       <c r="H99"/>
     </row>
-    <row r="100" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -6681,7 +6709,7 @@
       <c r="G100"/>
       <c r="H100"/>
     </row>
-    <row r="101" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="38"/>
       <c r="C101" s="38"/>
@@ -6690,7 +6718,7 @@
       <c r="G101"/>
       <c r="H101"/>
     </row>
-    <row r="102" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -6699,7 +6727,7 @@
       <c r="G102"/>
       <c r="H102"/>
     </row>
-    <row r="103" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -6708,7 +6736,7 @@
       <c r="G103"/>
       <c r="H103"/>
     </row>
-    <row r="104" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -6717,7 +6745,7 @@
       <c r="G104"/>
       <c r="H104"/>
     </row>
-    <row r="105" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -6726,7 +6754,7 @@
       <c r="G105"/>
       <c r="H105"/>
     </row>
-    <row r="106" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -6735,7 +6763,7 @@
       <c r="G106"/>
       <c r="H106"/>
     </row>
-    <row r="107" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -6744,7 +6772,7 @@
       <c r="G107"/>
       <c r="H107"/>
     </row>
-    <row r="108" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -6753,7 +6781,7 @@
       <c r="G108"/>
       <c r="H108"/>
     </row>
-    <row r="109" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -6762,7 +6790,7 @@
       <c r="G109"/>
       <c r="H109"/>
     </row>
-    <row r="110" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -6771,7 +6799,7 @@
       <c r="G110"/>
       <c r="H110"/>
     </row>
-    <row r="111" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -6780,7 +6808,7 @@
       <c r="G111"/>
       <c r="H111"/>
     </row>
-    <row r="112" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -6789,7 +6817,7 @@
       <c r="G112"/>
       <c r="H112"/>
     </row>
-    <row r="113" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
@@ -6798,7 +6826,7 @@
       <c r="G113"/>
       <c r="H113"/>
     </row>
-    <row r="114" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
@@ -6807,7 +6835,7 @@
       <c r="G114"/>
       <c r="H114"/>
     </row>
-    <row r="115" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
@@ -6816,7 +6844,7 @@
       <c r="G115"/>
       <c r="H115"/>
     </row>
-    <row r="116" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
@@ -6825,7 +6853,7 @@
       <c r="G116"/>
       <c r="H116"/>
     </row>
-    <row r="117" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
@@ -6834,7 +6862,7 @@
       <c r="G117"/>
       <c r="H117"/>
     </row>
-    <row r="118" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
@@ -6843,7 +6871,7 @@
       <c r="G118"/>
       <c r="H118"/>
     </row>
-    <row r="119" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
@@ -6852,7 +6880,7 @@
       <c r="G119"/>
       <c r="H119"/>
     </row>
-    <row r="120" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
@@ -6861,7 +6889,7 @@
       <c r="G120"/>
       <c r="H120"/>
     </row>
-    <row r="121" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
@@ -6870,7 +6898,7 @@
       <c r="G121"/>
       <c r="H121"/>
     </row>
-    <row r="122" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="11"/>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
@@ -6879,7 +6907,7 @@
       <c r="G122"/>
       <c r="H122"/>
     </row>
-    <row r="123" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="11"/>
       <c r="B123" s="11"/>
       <c r="C123" s="11"/>
@@ -6888,7 +6916,7 @@
       <c r="G123"/>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="11"/>
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
@@ -6897,7 +6925,7 @@
       <c r="G124"/>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="11"/>
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
@@ -6906,7 +6934,7 @@
       <c r="G125"/>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="11"/>
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
@@ -6915,7 +6943,7 @@
       <c r="G126"/>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="11"/>
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
@@ -6924,7 +6952,7 @@
       <c r="G127"/>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="11"/>
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
@@ -6933,7 +6961,7 @@
       <c r="G128"/>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="11"/>
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
@@ -6942,7 +6970,7 @@
       <c r="G129"/>
       <c r="H129"/>
     </row>
-    <row r="130" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="11"/>
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
@@ -6951,7 +6979,7 @@
       <c r="G130"/>
       <c r="H130"/>
     </row>
-    <row r="131" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="11"/>
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
@@ -6960,7 +6988,7 @@
       <c r="G131"/>
       <c r="H131"/>
     </row>
-    <row r="132" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="11"/>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
@@ -6969,7 +6997,7 @@
       <c r="G132"/>
       <c r="H132"/>
     </row>
-    <row r="133" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="11"/>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
@@ -6978,7 +7006,7 @@
       <c r="G133"/>
       <c r="H133"/>
     </row>
-    <row r="134" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="11"/>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
@@ -6987,7 +7015,7 @@
       <c r="G134"/>
       <c r="H134"/>
     </row>
-    <row r="135" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="11"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
@@ -6996,7 +7024,7 @@
       <c r="G135"/>
       <c r="H135"/>
     </row>
-    <row r="136" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="11"/>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
@@ -7005,7 +7033,7 @@
       <c r="G136"/>
       <c r="H136"/>
     </row>
-    <row r="137" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="11"/>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
@@ -7014,7 +7042,7 @@
       <c r="G137"/>
       <c r="H137"/>
     </row>
-    <row r="138" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="11"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
@@ -7023,7 +7051,7 @@
       <c r="G138"/>
       <c r="H138"/>
     </row>
-    <row r="139" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="11"/>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
@@ -7032,7 +7060,7 @@
       <c r="G139"/>
       <c r="H139"/>
     </row>
-    <row r="140" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="11"/>
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
@@ -7041,7 +7069,7 @@
       <c r="G140"/>
       <c r="H140"/>
     </row>
-    <row r="141" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="11"/>
       <c r="B141" s="42"/>
       <c r="C141" s="11"/>
@@ -7050,7 +7078,7 @@
       <c r="G141"/>
       <c r="H141"/>
     </row>
-    <row r="142" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="11"/>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
@@ -7059,7 +7087,7 @@
       <c r="G142"/>
       <c r="H142"/>
     </row>
-    <row r="143" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="11"/>
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
@@ -7068,7 +7096,7 @@
       <c r="G143"/>
       <c r="H143"/>
     </row>
-    <row r="144" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A144" s="11"/>
       <c r="B144" s="37"/>
       <c r="C144" s="11"/>
@@ -7077,7 +7105,7 @@
       <c r="G144"/>
       <c r="H144"/>
     </row>
-    <row r="145" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="11"/>
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
@@ -7086,7 +7114,7 @@
       <c r="G145"/>
       <c r="H145"/>
     </row>
-    <row r="146" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="11"/>
       <c r="B146" s="38"/>
       <c r="C146" s="38"/>
@@ -7095,7 +7123,7 @@
       <c r="G146"/>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="11"/>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
@@ -7104,7 +7132,7 @@
       <c r="G147"/>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="11"/>
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
@@ -7113,7 +7141,7 @@
       <c r="G148"/>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="11"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
@@ -7122,7 +7150,7 @@
       <c r="G149"/>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="11"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
@@ -7131,7 +7159,7 @@
       <c r="G150"/>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="11"/>
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
@@ -7140,7 +7168,7 @@
       <c r="G151"/>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="11"/>
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
@@ -7149,7 +7177,7 @@
       <c r="G152"/>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="11"/>
       <c r="B153" s="11"/>
       <c r="C153" s="11"/>
@@ -7158,7 +7186,7 @@
       <c r="G153"/>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="11"/>
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
@@ -7167,7 +7195,7 @@
       <c r="G154"/>
       <c r="H154"/>
     </row>
-    <row r="155" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="11"/>
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
@@ -7176,7 +7204,7 @@
       <c r="G155"/>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="11"/>
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
@@ -7185,7 +7213,7 @@
       <c r="G156"/>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="11"/>
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
@@ -7194,7 +7222,7 @@
       <c r="G157"/>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="11"/>
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
@@ -7203,7 +7231,7 @@
       <c r="G158"/>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="11"/>
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
@@ -7212,7 +7240,7 @@
       <c r="G159"/>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="11"/>
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
@@ -7221,7 +7249,7 @@
       <c r="G160"/>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="11"/>
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
@@ -7230,7 +7258,7 @@
       <c r="G161"/>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="11"/>
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
@@ -7239,7 +7267,7 @@
       <c r="G162"/>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="11"/>
       <c r="B163" s="11"/>
       <c r="C163" s="11"/>
@@ -7248,7 +7276,7 @@
       <c r="G163"/>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="11"/>
       <c r="B164" s="11"/>
       <c r="C164" s="11"/>
@@ -7257,7 +7285,7 @@
       <c r="G164"/>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="11"/>
       <c r="B165" s="11"/>
       <c r="C165" s="11"/>
@@ -7266,7 +7294,7 @@
       <c r="G165"/>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="11"/>
       <c r="B166" s="11"/>
       <c r="C166" s="11"/>
@@ -7275,7 +7303,7 @@
       <c r="G166"/>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="11"/>
       <c r="B167" s="11"/>
       <c r="C167" s="11"/>
@@ -7284,7 +7312,7 @@
       <c r="G167"/>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="11"/>
       <c r="B168" s="11"/>
       <c r="C168" s="11"/>
@@ -7293,7 +7321,7 @@
       <c r="G168"/>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="11"/>
       <c r="B169" s="11"/>
       <c r="C169" s="11"/>
@@ -7302,7 +7330,7 @@
       <c r="G169"/>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="11"/>
       <c r="B170" s="11"/>
       <c r="C170" s="11"/>
@@ -7311,7 +7339,7 @@
       <c r="G170"/>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="11"/>
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
@@ -7320,7 +7348,7 @@
       <c r="G171"/>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="11"/>
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
@@ -7329,7 +7357,7 @@
       <c r="G172"/>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="11"/>
       <c r="B173" s="11"/>
       <c r="C173" s="11"/>
@@ -7338,7 +7366,7 @@
       <c r="G173"/>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="11"/>
       <c r="B174" s="11"/>
       <c r="C174" s="11"/>
@@ -7347,7 +7375,7 @@
       <c r="G174"/>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="11"/>
       <c r="B175" s="11"/>
       <c r="C175" s="11"/>
@@ -7356,7 +7384,7 @@
       <c r="G175"/>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="11"/>
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
@@ -7365,7 +7393,7 @@
       <c r="G176"/>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="11"/>
       <c r="B177" s="11"/>
       <c r="C177" s="11"/>
@@ -7374,7 +7402,7 @@
       <c r="G177"/>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="11"/>
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
@@ -7383,7 +7411,7 @@
       <c r="G178"/>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="11"/>
       <c r="B179" s="11"/>
       <c r="C179" s="11"/>
@@ -7392,7 +7420,7 @@
       <c r="G179"/>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="11"/>
       <c r="B180" s="11"/>
       <c r="C180" s="11"/>
@@ -7401,7 +7429,7 @@
       <c r="G180"/>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="11"/>
       <c r="B181" s="11"/>
       <c r="C181" s="11"/>
@@ -7410,7 +7438,7 @@
       <c r="G181"/>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="11"/>
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
@@ -7419,7 +7447,7 @@
       <c r="G182"/>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="11"/>
       <c r="B183" s="11"/>
       <c r="C183" s="11"/>
@@ -7428,7 +7456,7 @@
       <c r="G183"/>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="11"/>
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
@@ -7437,7 +7465,7 @@
       <c r="G184"/>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="11"/>
       <c r="B185" s="11"/>
       <c r="C185" s="11"/>
@@ -7446,7 +7474,7 @@
       <c r="G185"/>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="11"/>
       <c r="B186" s="42"/>
       <c r="C186" s="11"/>
@@ -7455,7 +7483,7 @@
       <c r="G186"/>
       <c r="H186"/>
     </row>
-    <row r="187" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="11"/>
       <c r="B187" s="11"/>
       <c r="C187" s="11"/>
@@ -7464,7 +7492,7 @@
       <c r="G187"/>
       <c r="H187"/>
     </row>
-    <row r="188" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="11"/>
       <c r="B188" s="11"/>
       <c r="C188" s="11"/>
@@ -7473,7 +7501,7 @@
       <c r="G188"/>
       <c r="H188"/>
     </row>
-    <row r="189" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A189" s="11"/>
       <c r="B189" s="37"/>
       <c r="C189" s="11"/>
@@ -7482,7 +7510,7 @@
       <c r="G189"/>
       <c r="H189"/>
     </row>
-    <row r="190" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="11"/>
       <c r="B190" s="11"/>
       <c r="C190" s="11"/>
@@ -7491,7 +7519,7 @@
       <c r="G190"/>
       <c r="H190"/>
     </row>
-    <row r="191" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A191" s="11"/>
       <c r="B191" s="38"/>
       <c r="C191" s="38"/>
@@ -7500,7 +7528,7 @@
       <c r="G191"/>
       <c r="H191"/>
     </row>
-    <row r="192" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="11"/>
       <c r="B192" s="11"/>
       <c r="C192" s="11"/>
@@ -7509,7 +7537,7 @@
       <c r="G192"/>
       <c r="H192"/>
     </row>
-    <row r="193" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="11"/>
       <c r="B193" s="11"/>
       <c r="C193" s="11"/>
@@ -7518,7 +7546,7 @@
       <c r="G193"/>
       <c r="H193"/>
     </row>
-    <row r="194" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="11"/>
       <c r="B194" s="11"/>
       <c r="C194" s="11"/>
@@ -7527,7 +7555,7 @@
       <c r="G194"/>
       <c r="H194"/>
     </row>
-    <row r="195" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="11"/>
       <c r="B195" s="11"/>
       <c r="C195" s="11"/>
@@ -7536,7 +7564,7 @@
       <c r="G195"/>
       <c r="H195"/>
     </row>
-    <row r="196" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="11"/>
       <c r="B196" s="11"/>
       <c r="C196" s="11"/>
@@ -7545,7 +7573,7 @@
       <c r="G196"/>
       <c r="H196"/>
     </row>
-    <row r="197" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="11"/>
       <c r="B197" s="11"/>
       <c r="C197" s="11"/>
@@ -7554,7 +7582,7 @@
       <c r="G197"/>
       <c r="H197"/>
     </row>
-    <row r="198" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="11"/>
       <c r="B198" s="11"/>
       <c r="C198" s="11"/>
@@ -7563,7 +7591,7 @@
       <c r="G198"/>
       <c r="H198"/>
     </row>
-    <row r="199" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="11"/>
       <c r="B199" s="11"/>
       <c r="C199" s="11"/>
@@ -7572,7 +7600,7 @@
       <c r="G199"/>
       <c r="H199"/>
     </row>
-    <row r="200" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="11"/>
       <c r="B200" s="11"/>
       <c r="C200" s="11"/>
@@ -7581,7 +7609,7 @@
       <c r="G200"/>
       <c r="H200"/>
     </row>
-    <row r="201" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="11"/>
       <c r="B201" s="11"/>
       <c r="C201" s="11"/>
@@ -7590,7 +7618,7 @@
       <c r="G201"/>
       <c r="H201"/>
     </row>
-    <row r="202" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="11"/>
       <c r="B202" s="11"/>
       <c r="C202" s="11"/>
@@ -7599,7 +7627,7 @@
       <c r="G202"/>
       <c r="H202"/>
     </row>
-    <row r="203" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="11"/>
       <c r="B203" s="11"/>
       <c r="C203" s="11"/>
@@ -7608,7 +7636,7 @@
       <c r="G203"/>
       <c r="H203"/>
     </row>
-    <row r="204" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="11"/>
       <c r="B204" s="11"/>
       <c r="C204" s="11"/>
@@ -7617,7 +7645,7 @@
       <c r="G204"/>
       <c r="H204"/>
     </row>
-    <row r="205" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="11"/>
       <c r="B205" s="11"/>
       <c r="C205" s="11"/>
@@ -7626,7 +7654,7 @@
       <c r="G205"/>
       <c r="H205"/>
     </row>
-    <row r="206" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="11"/>
       <c r="B206" s="11"/>
       <c r="C206" s="11"/>
@@ -7635,7 +7663,7 @@
       <c r="G206"/>
       <c r="H206"/>
     </row>
-    <row r="207" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="11"/>
       <c r="B207" s="11"/>
       <c r="C207" s="11"/>
@@ -7644,7 +7672,7 @@
       <c r="G207"/>
       <c r="H207"/>
     </row>
-    <row r="208" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="11"/>
       <c r="B208" s="11"/>
       <c r="C208" s="11"/>
@@ -7653,7 +7681,7 @@
       <c r="G208"/>
       <c r="H208"/>
     </row>
-    <row r="209" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="11"/>
       <c r="B209" s="11"/>
       <c r="C209" s="11"/>
@@ -7662,7 +7690,7 @@
       <c r="G209"/>
       <c r="H209"/>
     </row>
-    <row r="210" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="11"/>
       <c r="B210" s="11"/>
       <c r="C210" s="11"/>
@@ -7671,7 +7699,7 @@
       <c r="G210"/>
       <c r="H210"/>
     </row>
-    <row r="211" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="11"/>
       <c r="B211" s="11"/>
       <c r="C211" s="11"/>
@@ -7680,7 +7708,7 @@
       <c r="G211"/>
       <c r="H211"/>
     </row>
-    <row r="212" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="11"/>
       <c r="B212" s="11"/>
       <c r="C212" s="11"/>
@@ -7689,7 +7717,7 @@
       <c r="G212"/>
       <c r="H212"/>
     </row>
-    <row r="213" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="11"/>
       <c r="B213" s="11"/>
       <c r="C213" s="11"/>
@@ -7698,7 +7726,7 @@
       <c r="G213"/>
       <c r="H213"/>
     </row>
-    <row r="214" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="11"/>
       <c r="B214" s="11"/>
       <c r="C214" s="11"/>
@@ -7707,7 +7735,7 @@
       <c r="G214"/>
       <c r="H214"/>
     </row>
-    <row r="215" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="11"/>
       <c r="B215" s="11"/>
       <c r="C215" s="11"/>
@@ -7716,7 +7744,7 @@
       <c r="G215"/>
       <c r="H215"/>
     </row>
-    <row r="216" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="11"/>
       <c r="B216" s="11"/>
       <c r="C216" s="11"/>
@@ -7725,7 +7753,7 @@
       <c r="G216"/>
       <c r="H216"/>
     </row>
-    <row r="217" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="11"/>
       <c r="B217" s="11"/>
       <c r="C217" s="11"/>
@@ -7734,7 +7762,7 @@
       <c r="G217"/>
       <c r="H217"/>
     </row>
-    <row r="218" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="11"/>
       <c r="B218" s="11"/>
       <c r="C218" s="11"/>
@@ -7743,7 +7771,7 @@
       <c r="G218"/>
       <c r="H218"/>
     </row>
-    <row r="219" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="11"/>
       <c r="B219" s="11"/>
       <c r="C219" s="11"/>
@@ -7752,7 +7780,7 @@
       <c r="G219"/>
       <c r="H219"/>
     </row>
-    <row r="220" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="11"/>
       <c r="B220" s="11"/>
       <c r="C220" s="11"/>
@@ -7761,7 +7789,7 @@
       <c r="G220"/>
       <c r="H220"/>
     </row>
-    <row r="221" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="11"/>
       <c r="B221" s="11"/>
       <c r="C221" s="11"/>
@@ -7770,7 +7798,7 @@
       <c r="G221"/>
       <c r="H221"/>
     </row>
-    <row r="222" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="11"/>
       <c r="B222" s="11"/>
       <c r="C222" s="11"/>
@@ -7779,7 +7807,7 @@
       <c r="G222"/>
       <c r="H222"/>
     </row>
-    <row r="223" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="11"/>
       <c r="B223" s="11"/>
       <c r="C223" s="11"/>
@@ -7788,34 +7816,34 @@
       <c r="G223"/>
       <c r="H223"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="11"/>
       <c r="B224" s="11"/>
       <c r="C224" s="11"/>
       <c r="D224" s="40"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="11"/>
       <c r="B225" s="11"/>
       <c r="C225" s="11"/>
       <c r="D225" s="40"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="11"/>
       <c r="B226" s="11"/>
       <c r="C226" s="11"/>
       <c r="D226" s="40"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="11"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="11"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="11"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="11"/>
     </row>
   </sheetData>
@@ -7831,36 +7859,36 @@
   <dimension ref="A2:H230"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" customWidth="1"/>
-    <col min="3" max="3" width="75.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" style="19" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="17"/>
       <c r="C3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="20" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="19"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="22" t="s">
         <v>13</v>
       </c>
@@ -7883,7 +7911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="26" t="s">
         <v>24</v>
       </c>
@@ -7908,7 +7936,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="26" t="s">
         <v>26</v>
       </c>
@@ -7933,7 +7961,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="26" t="s">
         <v>24</v>
       </c>
@@ -7958,7 +7986,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="26" t="s">
         <v>30</v>
       </c>
@@ -7983,7 +8011,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="29"/>
       <c r="B11" s="26" t="s">
         <v>30</v>
@@ -8009,22 +8037,32 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="27">
+        <v>43391</v>
+      </c>
+      <c r="E12" s="28">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="F12" s="28">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="G12">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H12">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
       <c r="D13" s="27"/>
@@ -8039,7 +8077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="27"/>
@@ -8054,7 +8092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
       <c r="D15" s="27"/>
@@ -8069,7 +8107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
       <c r="D16" s="27"/>
@@ -8084,7 +8122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
       <c r="D17" s="27"/>
@@ -8099,7 +8137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
       <c r="D18" s="27"/>
@@ -8114,7 +8152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
       <c r="D19" s="27"/>
@@ -8129,7 +8167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
       <c r="D20" s="27"/>
@@ -8144,7 +8182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
       <c r="D21" s="27"/>
@@ -8159,7 +8197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
       <c r="D22" s="27"/>
@@ -8174,7 +8212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="26"/>
       <c r="C23" s="30"/>
       <c r="D23" s="27"/>
@@ -8189,7 +8227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
       <c r="D24" s="27"/>
@@ -8204,7 +8242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
       <c r="D25" s="27"/>
@@ -8219,7 +8257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
       <c r="D26" s="27"/>
@@ -8234,7 +8272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
       <c r="D27" s="27"/>
@@ -8249,7 +8287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="D28" s="27"/>
@@ -8264,7 +8302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="27"/>
@@ -8279,7 +8317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="27"/>
@@ -8294,7 +8332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="27"/>
@@ -8309,7 +8347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="27"/>
@@ -8324,7 +8362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="27"/>
@@ -8339,7 +8377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="27"/>
@@ -8354,7 +8392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="27"/>
@@ -8369,7 +8407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="27"/>
@@ -8384,7 +8422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="27"/>
@@ -8399,7 +8437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
       <c r="D38" s="27"/>
@@ -8414,7 +8452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="D39" s="27"/>
@@ -8429,7 +8467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
       <c r="D40" s="27"/>
@@ -8444,7 +8482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
       <c r="D41" s="27"/>
@@ -8459,7 +8497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="27"/>
@@ -8474,7 +8512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
       <c r="D43" s="27"/>
@@ -8489,7 +8527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="27"/>
@@ -8504,7 +8542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="27"/>
@@ -8519,7 +8557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="27"/>
@@ -8534,7 +8572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
@@ -8550,7 +8588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
@@ -8566,7 +8604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
@@ -8582,7 +8620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
@@ -8598,7 +8636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51"/>
       <c r="C51"/>
@@ -8614,7 +8652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -8630,7 +8668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="50"/>
       <c r="C53" s="11"/>
@@ -8646,7 +8684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="50"/>
       <c r="C54" s="11"/>
@@ -8662,7 +8700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="30"/>
       <c r="C55" s="50"/>
@@ -8678,7 +8716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="50"/>
       <c r="C56" s="11"/>
@@ -8694,7 +8732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="50"/>
       <c r="C57" s="11"/>
@@ -8710,7 +8748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="50"/>
       <c r="C58" s="30"/>
@@ -8726,7 +8764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="50"/>
       <c r="C59" s="11"/>
@@ -8742,7 +8780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="50"/>
       <c r="C60" s="11"/>
@@ -8758,7 +8796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="50"/>
       <c r="C61" s="11"/>
@@ -8774,7 +8812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="50"/>
       <c r="C62" s="11"/>
@@ -8790,7 +8828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="50"/>
       <c r="C63" s="11"/>
@@ -8806,7 +8844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="50"/>
       <c r="C64" s="11"/>
@@ -8822,7 +8860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="50"/>
       <c r="C65" s="11"/>
@@ -8838,7 +8876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="50"/>
       <c r="C66" s="11"/>
@@ -8854,7 +8892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="43" t="s">
         <v>19</v>
@@ -8865,11 +8903,11 @@
       <c r="F67" s="44"/>
       <c r="G67" s="53">
         <f>SUM(G7:G66)</f>
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="H67" s="54"/>
     </row>
-    <row r="68" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -8878,7 +8916,7 @@
       <c r="G68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -8887,7 +8925,7 @@
       <c r="G69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -8896,7 +8934,7 @@
       <c r="G70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -8905,7 +8943,7 @@
       <c r="G71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -8914,7 +8952,7 @@
       <c r="G72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -8923,7 +8961,7 @@
       <c r="G73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -8932,7 +8970,7 @@
       <c r="G74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -8941,7 +8979,7 @@
       <c r="G75"/>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -8950,7 +8988,7 @@
       <c r="G76"/>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -8959,7 +8997,7 @@
       <c r="G77"/>
       <c r="H77"/>
     </row>
-    <row r="78" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -8968,7 +9006,7 @@
       <c r="G78"/>
       <c r="H78"/>
     </row>
-    <row r="79" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -8977,7 +9015,7 @@
       <c r="G79"/>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -8986,7 +9024,7 @@
       <c r="G80"/>
       <c r="H80"/>
     </row>
-    <row r="81" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -8995,7 +9033,7 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -9004,7 +9042,7 @@
       <c r="G82"/>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -9013,7 +9051,7 @@
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -9022,7 +9060,7 @@
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -9031,7 +9069,7 @@
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -9040,7 +9078,7 @@
       <c r="G86"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -9049,7 +9087,7 @@
       <c r="G87"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -9058,7 +9096,7 @@
       <c r="G88"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -9067,7 +9105,7 @@
       <c r="G89"/>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -9076,7 +9114,7 @@
       <c r="G90"/>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -9085,7 +9123,7 @@
       <c r="G91"/>
       <c r="H91"/>
     </row>
-    <row r="92" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -9094,7 +9132,7 @@
       <c r="G92"/>
       <c r="H92"/>
     </row>
-    <row r="93" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -9103,7 +9141,7 @@
       <c r="G93"/>
       <c r="H93"/>
     </row>
-    <row r="94" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -9112,7 +9150,7 @@
       <c r="G94"/>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="11"/>
       <c r="B95" s="42"/>
       <c r="C95" s="11"/>
@@ -9121,7 +9159,7 @@
       <c r="G95"/>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -9130,7 +9168,7 @@
       <c r="G96"/>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -9139,7 +9177,7 @@
       <c r="G97"/>
       <c r="H97"/>
     </row>
-    <row r="98" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A98" s="11"/>
       <c r="B98" s="37"/>
       <c r="C98" s="11"/>
@@ -9148,7 +9186,7 @@
       <c r="G98"/>
       <c r="H98"/>
     </row>
-    <row r="99" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -9157,7 +9195,7 @@
       <c r="G99"/>
       <c r="H99"/>
     </row>
-    <row r="100" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="38"/>
       <c r="C100" s="38"/>
@@ -9166,7 +9204,7 @@
       <c r="G100"/>
       <c r="H100"/>
     </row>
-    <row r="101" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -9175,7 +9213,7 @@
       <c r="G101"/>
       <c r="H101"/>
     </row>
-    <row r="102" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -9184,7 +9222,7 @@
       <c r="G102"/>
       <c r="H102"/>
     </row>
-    <row r="103" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -9193,7 +9231,7 @@
       <c r="G103"/>
       <c r="H103"/>
     </row>
-    <row r="104" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -9202,7 +9240,7 @@
       <c r="G104"/>
       <c r="H104"/>
     </row>
-    <row r="105" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -9211,7 +9249,7 @@
       <c r="G105"/>
       <c r="H105"/>
     </row>
-    <row r="106" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -9220,7 +9258,7 @@
       <c r="G106"/>
       <c r="H106"/>
     </row>
-    <row r="107" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -9229,7 +9267,7 @@
       <c r="G107"/>
       <c r="H107"/>
     </row>
-    <row r="108" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -9238,7 +9276,7 @@
       <c r="G108"/>
       <c r="H108"/>
     </row>
-    <row r="109" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -9247,7 +9285,7 @@
       <c r="G109"/>
       <c r="H109"/>
     </row>
-    <row r="110" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -9256,7 +9294,7 @@
       <c r="G110"/>
       <c r="H110"/>
     </row>
-    <row r="111" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -9265,7 +9303,7 @@
       <c r="G111"/>
       <c r="H111"/>
     </row>
-    <row r="112" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -9274,7 +9312,7 @@
       <c r="G112"/>
       <c r="H112"/>
     </row>
-    <row r="113" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
@@ -9283,7 +9321,7 @@
       <c r="G113"/>
       <c r="H113"/>
     </row>
-    <row r="114" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
@@ -9292,7 +9330,7 @@
       <c r="G114"/>
       <c r="H114"/>
     </row>
-    <row r="115" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
@@ -9301,7 +9339,7 @@
       <c r="G115"/>
       <c r="H115"/>
     </row>
-    <row r="116" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
@@ -9310,7 +9348,7 @@
       <c r="G116"/>
       <c r="H116"/>
     </row>
-    <row r="117" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
@@ -9319,7 +9357,7 @@
       <c r="G117"/>
       <c r="H117"/>
     </row>
-    <row r="118" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
@@ -9328,7 +9366,7 @@
       <c r="G118"/>
       <c r="H118"/>
     </row>
-    <row r="119" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
@@ -9337,7 +9375,7 @@
       <c r="G119"/>
       <c r="H119"/>
     </row>
-    <row r="120" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
@@ -9346,7 +9384,7 @@
       <c r="G120"/>
       <c r="H120"/>
     </row>
-    <row r="121" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
@@ -9355,7 +9393,7 @@
       <c r="G121"/>
       <c r="H121"/>
     </row>
-    <row r="122" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="11"/>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
@@ -9364,7 +9402,7 @@
       <c r="G122"/>
       <c r="H122"/>
     </row>
-    <row r="123" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="11"/>
       <c r="B123" s="11"/>
       <c r="C123" s="11"/>
@@ -9373,7 +9411,7 @@
       <c r="G123"/>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="11"/>
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
@@ -9382,7 +9420,7 @@
       <c r="G124"/>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="11"/>
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
@@ -9391,7 +9429,7 @@
       <c r="G125"/>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="11"/>
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
@@ -9400,7 +9438,7 @@
       <c r="G126"/>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="11"/>
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
@@ -9409,7 +9447,7 @@
       <c r="G127"/>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="11"/>
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
@@ -9418,7 +9456,7 @@
       <c r="G128"/>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="11"/>
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
@@ -9427,7 +9465,7 @@
       <c r="G129"/>
       <c r="H129"/>
     </row>
-    <row r="130" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="11"/>
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
@@ -9436,7 +9474,7 @@
       <c r="G130"/>
       <c r="H130"/>
     </row>
-    <row r="131" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="11"/>
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
@@ -9445,7 +9483,7 @@
       <c r="G131"/>
       <c r="H131"/>
     </row>
-    <row r="132" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="11"/>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
@@ -9454,7 +9492,7 @@
       <c r="G132"/>
       <c r="H132"/>
     </row>
-    <row r="133" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="11"/>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
@@ -9463,7 +9501,7 @@
       <c r="G133"/>
       <c r="H133"/>
     </row>
-    <row r="134" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="11"/>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
@@ -9472,7 +9510,7 @@
       <c r="G134"/>
       <c r="H134"/>
     </row>
-    <row r="135" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="11"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
@@ -9481,7 +9519,7 @@
       <c r="G135"/>
       <c r="H135"/>
     </row>
-    <row r="136" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="11"/>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
@@ -9490,7 +9528,7 @@
       <c r="G136"/>
       <c r="H136"/>
     </row>
-    <row r="137" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="11"/>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
@@ -9499,7 +9537,7 @@
       <c r="G137"/>
       <c r="H137"/>
     </row>
-    <row r="138" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="11"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
@@ -9508,7 +9546,7 @@
       <c r="G138"/>
       <c r="H138"/>
     </row>
-    <row r="139" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="11"/>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
@@ -9517,7 +9555,7 @@
       <c r="G139"/>
       <c r="H139"/>
     </row>
-    <row r="140" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="11"/>
       <c r="B140" s="42"/>
       <c r="C140" s="11"/>
@@ -9526,7 +9564,7 @@
       <c r="G140"/>
       <c r="H140"/>
     </row>
-    <row r="141" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="11"/>
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
@@ -9535,7 +9573,7 @@
       <c r="G141"/>
       <c r="H141"/>
     </row>
-    <row r="142" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="11"/>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
@@ -9544,7 +9582,7 @@
       <c r="G142"/>
       <c r="H142"/>
     </row>
-    <row r="143" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A143" s="11"/>
       <c r="B143" s="37"/>
       <c r="C143" s="11"/>
@@ -9553,7 +9591,7 @@
       <c r="G143"/>
       <c r="H143"/>
     </row>
-    <row r="144" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="11"/>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
@@ -9562,7 +9600,7 @@
       <c r="G144"/>
       <c r="H144"/>
     </row>
-    <row r="145" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="11"/>
       <c r="B145" s="38"/>
       <c r="C145" s="38"/>
@@ -9571,7 +9609,7 @@
       <c r="G145"/>
       <c r="H145"/>
     </row>
-    <row r="146" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="11"/>
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
@@ -9580,7 +9618,7 @@
       <c r="G146"/>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="11"/>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
@@ -9589,7 +9627,7 @@
       <c r="G147"/>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="11"/>
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
@@ -9598,7 +9636,7 @@
       <c r="G148"/>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="11"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
@@ -9607,7 +9645,7 @@
       <c r="G149"/>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="11"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
@@ -9616,7 +9654,7 @@
       <c r="G150"/>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="11"/>
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
@@ -9625,7 +9663,7 @@
       <c r="G151"/>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="11"/>
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
@@ -9634,7 +9672,7 @@
       <c r="G152"/>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="11"/>
       <c r="B153" s="11"/>
       <c r="C153" s="11"/>
@@ -9643,7 +9681,7 @@
       <c r="G153"/>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="11"/>
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
@@ -9652,7 +9690,7 @@
       <c r="G154"/>
       <c r="H154"/>
     </row>
-    <row r="155" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="11"/>
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
@@ -9661,7 +9699,7 @@
       <c r="G155"/>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="11"/>
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
@@ -9670,7 +9708,7 @@
       <c r="G156"/>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="11"/>
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
@@ -9679,7 +9717,7 @@
       <c r="G157"/>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="11"/>
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
@@ -9688,7 +9726,7 @@
       <c r="G158"/>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="11"/>
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
@@ -9697,7 +9735,7 @@
       <c r="G159"/>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="11"/>
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
@@ -9706,7 +9744,7 @@
       <c r="G160"/>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="11"/>
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
@@ -9715,7 +9753,7 @@
       <c r="G161"/>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="11"/>
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
@@ -9724,7 +9762,7 @@
       <c r="G162"/>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="11"/>
       <c r="B163" s="11"/>
       <c r="C163" s="11"/>
@@ -9733,7 +9771,7 @@
       <c r="G163"/>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="11"/>
       <c r="B164" s="11"/>
       <c r="C164" s="11"/>
@@ -9742,7 +9780,7 @@
       <c r="G164"/>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="11"/>
       <c r="B165" s="11"/>
       <c r="C165" s="11"/>
@@ -9751,7 +9789,7 @@
       <c r="G165"/>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="11"/>
       <c r="B166" s="11"/>
       <c r="C166" s="11"/>
@@ -9760,7 +9798,7 @@
       <c r="G166"/>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="11"/>
       <c r="B167" s="11"/>
       <c r="C167" s="11"/>
@@ -9769,7 +9807,7 @@
       <c r="G167"/>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="11"/>
       <c r="B168" s="11"/>
       <c r="C168" s="11"/>
@@ -9778,7 +9816,7 @@
       <c r="G168"/>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="11"/>
       <c r="B169" s="11"/>
       <c r="C169" s="11"/>
@@ -9787,7 +9825,7 @@
       <c r="G169"/>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="11"/>
       <c r="B170" s="11"/>
       <c r="C170" s="11"/>
@@ -9796,7 +9834,7 @@
       <c r="G170"/>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="11"/>
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
@@ -9805,7 +9843,7 @@
       <c r="G171"/>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="11"/>
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
@@ -9814,7 +9852,7 @@
       <c r="G172"/>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="11"/>
       <c r="B173" s="11"/>
       <c r="C173" s="11"/>
@@ -9823,7 +9861,7 @@
       <c r="G173"/>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="11"/>
       <c r="B174" s="11"/>
       <c r="C174" s="11"/>
@@ -9832,7 +9870,7 @@
       <c r="G174"/>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="11"/>
       <c r="B175" s="11"/>
       <c r="C175" s="11"/>
@@ -9841,7 +9879,7 @@
       <c r="G175"/>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="11"/>
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
@@ -9850,7 +9888,7 @@
       <c r="G176"/>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="11"/>
       <c r="B177" s="11"/>
       <c r="C177" s="11"/>
@@ -9859,7 +9897,7 @@
       <c r="G177"/>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="11"/>
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
@@ -9868,7 +9906,7 @@
       <c r="G178"/>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="11"/>
       <c r="B179" s="11"/>
       <c r="C179" s="11"/>
@@ -9877,7 +9915,7 @@
       <c r="G179"/>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="11"/>
       <c r="B180" s="11"/>
       <c r="C180" s="11"/>
@@ -9886,7 +9924,7 @@
       <c r="G180"/>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="11"/>
       <c r="B181" s="11"/>
       <c r="C181" s="11"/>
@@ -9895,7 +9933,7 @@
       <c r="G181"/>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="11"/>
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
@@ -9904,7 +9942,7 @@
       <c r="G182"/>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="11"/>
       <c r="B183" s="11"/>
       <c r="C183" s="11"/>
@@ -9913,7 +9951,7 @@
       <c r="G183"/>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="11"/>
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
@@ -9922,7 +9960,7 @@
       <c r="G184"/>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="11"/>
       <c r="B185" s="42"/>
       <c r="C185" s="11"/>
@@ -9931,7 +9969,7 @@
       <c r="G185"/>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="11"/>
       <c r="B186" s="11"/>
       <c r="C186" s="11"/>
@@ -9940,7 +9978,7 @@
       <c r="G186"/>
       <c r="H186"/>
     </row>
-    <row r="187" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="11"/>
       <c r="B187" s="11"/>
       <c r="C187" s="11"/>
@@ -9949,7 +9987,7 @@
       <c r="G187"/>
       <c r="H187"/>
     </row>
-    <row r="188" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A188" s="11"/>
       <c r="B188" s="37"/>
       <c r="C188" s="11"/>
@@ -9958,7 +9996,7 @@
       <c r="G188"/>
       <c r="H188"/>
     </row>
-    <row r="189" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="11"/>
       <c r="B189" s="11"/>
       <c r="C189" s="11"/>
@@ -9967,7 +10005,7 @@
       <c r="G189"/>
       <c r="H189"/>
     </row>
-    <row r="190" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A190" s="11"/>
       <c r="B190" s="38"/>
       <c r="C190" s="38"/>
@@ -9976,7 +10014,7 @@
       <c r="G190"/>
       <c r="H190"/>
     </row>
-    <row r="191" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="11"/>
       <c r="B191" s="11"/>
       <c r="C191" s="11"/>
@@ -9985,7 +10023,7 @@
       <c r="G191"/>
       <c r="H191"/>
     </row>
-    <row r="192" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="11"/>
       <c r="B192" s="11"/>
       <c r="C192" s="11"/>
@@ -9994,7 +10032,7 @@
       <c r="G192"/>
       <c r="H192"/>
     </row>
-    <row r="193" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="11"/>
       <c r="B193" s="11"/>
       <c r="C193" s="11"/>
@@ -10003,7 +10041,7 @@
       <c r="G193"/>
       <c r="H193"/>
     </row>
-    <row r="194" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="11"/>
       <c r="B194" s="11"/>
       <c r="C194" s="11"/>
@@ -10012,7 +10050,7 @@
       <c r="G194"/>
       <c r="H194"/>
     </row>
-    <row r="195" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="11"/>
       <c r="B195" s="11"/>
       <c r="C195" s="11"/>
@@ -10021,7 +10059,7 @@
       <c r="G195"/>
       <c r="H195"/>
     </row>
-    <row r="196" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="11"/>
       <c r="B196" s="11"/>
       <c r="C196" s="11"/>
@@ -10030,7 +10068,7 @@
       <c r="G196"/>
       <c r="H196"/>
     </row>
-    <row r="197" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="11"/>
       <c r="B197" s="11"/>
       <c r="C197" s="11"/>
@@ -10039,7 +10077,7 @@
       <c r="G197"/>
       <c r="H197"/>
     </row>
-    <row r="198" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="11"/>
       <c r="B198" s="11"/>
       <c r="C198" s="11"/>
@@ -10048,7 +10086,7 @@
       <c r="G198"/>
       <c r="H198"/>
     </row>
-    <row r="199" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="11"/>
       <c r="B199" s="11"/>
       <c r="C199" s="11"/>
@@ -10057,7 +10095,7 @@
       <c r="G199"/>
       <c r="H199"/>
     </row>
-    <row r="200" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="11"/>
       <c r="B200" s="11"/>
       <c r="C200" s="11"/>
@@ -10066,7 +10104,7 @@
       <c r="G200"/>
       <c r="H200"/>
     </row>
-    <row r="201" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="11"/>
       <c r="B201" s="11"/>
       <c r="C201" s="11"/>
@@ -10075,7 +10113,7 @@
       <c r="G201"/>
       <c r="H201"/>
     </row>
-    <row r="202" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="11"/>
       <c r="B202" s="11"/>
       <c r="C202" s="11"/>
@@ -10084,7 +10122,7 @@
       <c r="G202"/>
       <c r="H202"/>
     </row>
-    <row r="203" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="11"/>
       <c r="B203" s="11"/>
       <c r="C203" s="11"/>
@@ -10093,7 +10131,7 @@
       <c r="G203"/>
       <c r="H203"/>
     </row>
-    <row r="204" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="11"/>
       <c r="B204" s="11"/>
       <c r="C204" s="11"/>
@@ -10102,7 +10140,7 @@
       <c r="G204"/>
       <c r="H204"/>
     </row>
-    <row r="205" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="11"/>
       <c r="B205" s="11"/>
       <c r="C205" s="11"/>
@@ -10111,7 +10149,7 @@
       <c r="G205"/>
       <c r="H205"/>
     </row>
-    <row r="206" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="11"/>
       <c r="B206" s="11"/>
       <c r="C206" s="11"/>
@@ -10120,7 +10158,7 @@
       <c r="G206"/>
       <c r="H206"/>
     </row>
-    <row r="207" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="11"/>
       <c r="B207" s="11"/>
       <c r="C207" s="11"/>
@@ -10129,7 +10167,7 @@
       <c r="G207"/>
       <c r="H207"/>
     </row>
-    <row r="208" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="11"/>
       <c r="B208" s="11"/>
       <c r="C208" s="11"/>
@@ -10138,7 +10176,7 @@
       <c r="G208"/>
       <c r="H208"/>
     </row>
-    <row r="209" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="11"/>
       <c r="B209" s="11"/>
       <c r="C209" s="11"/>
@@ -10147,7 +10185,7 @@
       <c r="G209"/>
       <c r="H209"/>
     </row>
-    <row r="210" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="11"/>
       <c r="B210" s="11"/>
       <c r="C210" s="11"/>
@@ -10156,7 +10194,7 @@
       <c r="G210"/>
       <c r="H210"/>
     </row>
-    <row r="211" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="11"/>
       <c r="B211" s="11"/>
       <c r="C211" s="11"/>
@@ -10165,7 +10203,7 @@
       <c r="G211"/>
       <c r="H211"/>
     </row>
-    <row r="212" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="11"/>
       <c r="B212" s="11"/>
       <c r="C212" s="11"/>
@@ -10174,7 +10212,7 @@
       <c r="G212"/>
       <c r="H212"/>
     </row>
-    <row r="213" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="11"/>
       <c r="B213" s="11"/>
       <c r="C213" s="11"/>
@@ -10183,7 +10221,7 @@
       <c r="G213"/>
       <c r="H213"/>
     </row>
-    <row r="214" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="11"/>
       <c r="B214" s="11"/>
       <c r="C214" s="11"/>
@@ -10192,7 +10230,7 @@
       <c r="G214"/>
       <c r="H214"/>
     </row>
-    <row r="215" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="11"/>
       <c r="B215" s="11"/>
       <c r="C215" s="11"/>
@@ -10201,7 +10239,7 @@
       <c r="G215"/>
       <c r="H215"/>
     </row>
-    <row r="216" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="11"/>
       <c r="B216" s="11"/>
       <c r="C216" s="11"/>
@@ -10210,7 +10248,7 @@
       <c r="G216"/>
       <c r="H216"/>
     </row>
-    <row r="217" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="11"/>
       <c r="B217" s="11"/>
       <c r="C217" s="11"/>
@@ -10219,7 +10257,7 @@
       <c r="G217"/>
       <c r="H217"/>
     </row>
-    <row r="218" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="11"/>
       <c r="B218" s="11"/>
       <c r="C218" s="11"/>
@@ -10228,7 +10266,7 @@
       <c r="G218"/>
       <c r="H218"/>
     </row>
-    <row r="219" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="11"/>
       <c r="B219" s="11"/>
       <c r="C219" s="11"/>
@@ -10237,7 +10275,7 @@
       <c r="G219"/>
       <c r="H219"/>
     </row>
-    <row r="220" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="11"/>
       <c r="B220" s="11"/>
       <c r="C220" s="11"/>
@@ -10246,7 +10284,7 @@
       <c r="G220"/>
       <c r="H220"/>
     </row>
-    <row r="221" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="11"/>
       <c r="B221" s="11"/>
       <c r="C221" s="11"/>
@@ -10255,7 +10293,7 @@
       <c r="G221"/>
       <c r="H221"/>
     </row>
-    <row r="222" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="11"/>
       <c r="B222" s="11"/>
       <c r="C222" s="11"/>
@@ -10264,7 +10302,7 @@
       <c r="G222"/>
       <c r="H222"/>
     </row>
-    <row r="223" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="11"/>
       <c r="B223" s="11"/>
       <c r="C223" s="11"/>
@@ -10273,31 +10311,31 @@
       <c r="G223"/>
       <c r="H223"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="11"/>
       <c r="B224" s="11"/>
       <c r="C224" s="11"/>
       <c r="D224" s="40"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="11"/>
       <c r="B225" s="11"/>
       <c r="C225" s="11"/>
       <c r="D225" s="40"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="11"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="11"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="11"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="11"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="11"/>
     </row>
   </sheetData>
@@ -10312,37 +10350,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A13F21B-0FD5-4A2C-BFFD-2CC06888678E}">
   <dimension ref="A2:H230"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" customWidth="1"/>
-    <col min="3" max="3" width="75.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="19" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="17"/>
       <c r="C3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="20" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="19"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="22" t="s">
         <v>13</v>
       </c>
@@ -10365,7 +10403,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="26" t="s">
         <v>24</v>
       </c>
@@ -10390,7 +10428,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="26" t="s">
         <v>26</v>
       </c>
@@ -10415,7 +10453,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="26" t="s">
         <v>24</v>
       </c>
@@ -10440,7 +10478,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="29"/>
       <c r="B10" s="26" t="s">
         <v>30</v>
@@ -10466,7 +10504,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="26" t="s">
         <v>30</v>
       </c>
@@ -10491,22 +10529,32 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="27">
+        <v>43391</v>
+      </c>
+      <c r="E12" s="28">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="F12" s="28">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="G12">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H12">
         <f>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
       <c r="D13" s="27"/>
@@ -10521,7 +10569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="27"/>
@@ -10536,7 +10584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
       <c r="D15" s="27"/>
@@ -10551,7 +10599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
       <c r="D16" s="27"/>
@@ -10566,7 +10614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
       <c r="D17" s="27"/>
@@ -10581,7 +10629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
       <c r="D18" s="27"/>
@@ -10596,7 +10644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
       <c r="D19" s="27"/>
@@ -10611,7 +10659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
       <c r="D20" s="27"/>
@@ -10626,7 +10674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
       <c r="D21" s="27"/>
@@ -10641,7 +10689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
       <c r="D22" s="27"/>
@@ -10656,7 +10704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
       <c r="D23" s="27"/>
@@ -10671,7 +10719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
       <c r="D24" s="27"/>
@@ -10686,7 +10734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="D25" s="27"/>
@@ -10701,7 +10749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
       <c r="D26" s="27"/>
@@ -10716,7 +10764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
       <c r="D27" s="27"/>
@@ -10731,7 +10779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="D28" s="27"/>
@@ -10746,7 +10794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="27"/>
@@ -10761,7 +10809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="27"/>
@@ -10776,7 +10824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="27"/>
@@ -10791,7 +10839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="27"/>
@@ -10806,7 +10854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="27"/>
@@ -10821,7 +10869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="27"/>
@@ -10836,7 +10884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="27"/>
@@ -10851,7 +10899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="27"/>
@@ -10866,7 +10914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="27"/>
@@ -10881,7 +10929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
       <c r="D38" s="27"/>
@@ -10896,7 +10944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="D39" s="27"/>
@@ -10911,7 +10959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
       <c r="D40" s="27"/>
@@ -10926,7 +10974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
       <c r="D41" s="27"/>
@@ -10941,7 +10989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="27"/>
@@ -10956,7 +11004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
       <c r="D43" s="27"/>
@@ -10971,7 +11019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="27"/>
@@ -10986,7 +11034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="27"/>
@@ -11001,7 +11049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="27"/>
@@ -11016,7 +11064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
@@ -11032,7 +11080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
@@ -11048,7 +11096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
@@ -11064,7 +11112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
@@ -11080,7 +11128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="35" t="s">
         <v>19</v>
@@ -11091,11 +11139,11 @@
       <c r="F51" s="36"/>
       <c r="G51">
         <f>SUM(G7:G50)</f>
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52"/>
       <c r="C52"/>
@@ -11104,7 +11152,7 @@
       <c r="G52"/>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -11113,7 +11161,7 @@
       <c r="G53"/>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="11"/>
       <c r="B54" s="37"/>
       <c r="C54" s="11"/>
@@ -11122,7 +11170,7 @@
       <c r="G54"/>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -11131,7 +11179,7 @@
       <c r="G55"/>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="38"/>
       <c r="C56" s="38"/>
@@ -11140,7 +11188,7 @@
       <c r="G56"/>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -11149,7 +11197,7 @@
       <c r="G57"/>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -11158,7 +11206,7 @@
       <c r="G58"/>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -11167,7 +11215,7 @@
       <c r="G59"/>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -11176,7 +11224,7 @@
       <c r="G60"/>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -11185,7 +11233,7 @@
       <c r="G61"/>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -11194,7 +11242,7 @@
       <c r="G62"/>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -11203,7 +11251,7 @@
       <c r="G63"/>
       <c r="H63"/>
     </row>
-    <row r="64" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="41"/>
       <c r="C64" s="11"/>
@@ -11212,7 +11260,7 @@
       <c r="G64"/>
       <c r="H64"/>
     </row>
-    <row r="65" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -11221,7 +11269,7 @@
       <c r="G65"/>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -11230,7 +11278,7 @@
       <c r="G66"/>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -11239,7 +11287,7 @@
       <c r="G67"/>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -11248,7 +11296,7 @@
       <c r="G68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -11257,7 +11305,7 @@
       <c r="G69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -11266,7 +11314,7 @@
       <c r="G70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -11275,7 +11323,7 @@
       <c r="G71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -11284,7 +11332,7 @@
       <c r="G72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -11293,7 +11341,7 @@
       <c r="G73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -11302,7 +11350,7 @@
       <c r="G74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -11311,7 +11359,7 @@
       <c r="G75"/>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -11320,7 +11368,7 @@
       <c r="G76"/>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -11329,7 +11377,7 @@
       <c r="G77"/>
       <c r="H77"/>
     </row>
-    <row r="78" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -11338,7 +11386,7 @@
       <c r="G78"/>
       <c r="H78"/>
     </row>
-    <row r="79" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -11347,7 +11395,7 @@
       <c r="G79"/>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -11356,7 +11404,7 @@
       <c r="G80"/>
       <c r="H80"/>
     </row>
-    <row r="81" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -11365,7 +11413,7 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -11374,7 +11422,7 @@
       <c r="G82"/>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -11383,7 +11431,7 @@
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -11392,7 +11440,7 @@
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -11401,7 +11449,7 @@
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -11410,7 +11458,7 @@
       <c r="G86"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -11419,7 +11467,7 @@
       <c r="G87"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -11428,7 +11476,7 @@
       <c r="G88"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -11437,7 +11485,7 @@
       <c r="G89"/>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -11446,7 +11494,7 @@
       <c r="G90"/>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -11455,7 +11503,7 @@
       <c r="G91"/>
       <c r="H91"/>
     </row>
-    <row r="92" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -11464,7 +11512,7 @@
       <c r="G92"/>
       <c r="H92"/>
     </row>
-    <row r="93" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -11473,7 +11521,7 @@
       <c r="G93"/>
       <c r="H93"/>
     </row>
-    <row r="94" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -11482,7 +11530,7 @@
       <c r="G94"/>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -11491,7 +11539,7 @@
       <c r="G95"/>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="11"/>
       <c r="B96" s="42"/>
       <c r="C96" s="11"/>
@@ -11500,7 +11548,7 @@
       <c r="G96"/>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -11509,7 +11557,7 @@
       <c r="G97"/>
       <c r="H97"/>
     </row>
-    <row r="98" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -11518,7 +11566,7 @@
       <c r="G98"/>
       <c r="H98"/>
     </row>
-    <row r="99" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A99" s="11"/>
       <c r="B99" s="37"/>
       <c r="C99" s="11"/>
@@ -11527,7 +11575,7 @@
       <c r="G99"/>
       <c r="H99"/>
     </row>
-    <row r="100" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -11536,7 +11584,7 @@
       <c r="G100"/>
       <c r="H100"/>
     </row>
-    <row r="101" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="38"/>
       <c r="C101" s="38"/>
@@ -11545,7 +11593,7 @@
       <c r="G101"/>
       <c r="H101"/>
     </row>
-    <row r="102" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -11554,7 +11602,7 @@
       <c r="G102"/>
       <c r="H102"/>
     </row>
-    <row r="103" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -11563,7 +11611,7 @@
       <c r="G103"/>
       <c r="H103"/>
     </row>
-    <row r="104" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -11572,7 +11620,7 @@
       <c r="G104"/>
       <c r="H104"/>
     </row>
-    <row r="105" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -11581,7 +11629,7 @@
       <c r="G105"/>
       <c r="H105"/>
     </row>
-    <row r="106" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -11590,7 +11638,7 @@
       <c r="G106"/>
       <c r="H106"/>
     </row>
-    <row r="107" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -11599,7 +11647,7 @@
       <c r="G107"/>
       <c r="H107"/>
     </row>
-    <row r="108" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -11608,7 +11656,7 @@
       <c r="G108"/>
       <c r="H108"/>
     </row>
-    <row r="109" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -11617,7 +11665,7 @@
       <c r="G109"/>
       <c r="H109"/>
     </row>
-    <row r="110" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -11626,7 +11674,7 @@
       <c r="G110"/>
       <c r="H110"/>
     </row>
-    <row r="111" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -11635,7 +11683,7 @@
       <c r="G111"/>
       <c r="H111"/>
     </row>
-    <row r="112" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -11644,7 +11692,7 @@
       <c r="G112"/>
       <c r="H112"/>
     </row>
-    <row r="113" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
@@ -11653,7 +11701,7 @@
       <c r="G113"/>
       <c r="H113"/>
     </row>
-    <row r="114" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
@@ -11662,7 +11710,7 @@
       <c r="G114"/>
       <c r="H114"/>
     </row>
-    <row r="115" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
@@ -11671,7 +11719,7 @@
       <c r="G115"/>
       <c r="H115"/>
     </row>
-    <row r="116" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
@@ -11680,7 +11728,7 @@
       <c r="G116"/>
       <c r="H116"/>
     </row>
-    <row r="117" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
@@ -11689,7 +11737,7 @@
       <c r="G117"/>
       <c r="H117"/>
     </row>
-    <row r="118" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
@@ -11698,7 +11746,7 @@
       <c r="G118"/>
       <c r="H118"/>
     </row>
-    <row r="119" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
@@ -11707,7 +11755,7 @@
       <c r="G119"/>
       <c r="H119"/>
     </row>
-    <row r="120" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
@@ -11716,7 +11764,7 @@
       <c r="G120"/>
       <c r="H120"/>
     </row>
-    <row r="121" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
@@ -11725,7 +11773,7 @@
       <c r="G121"/>
       <c r="H121"/>
     </row>
-    <row r="122" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="11"/>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
@@ -11734,7 +11782,7 @@
       <c r="G122"/>
       <c r="H122"/>
     </row>
-    <row r="123" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="11"/>
       <c r="B123" s="11"/>
       <c r="C123" s="11"/>
@@ -11743,7 +11791,7 @@
       <c r="G123"/>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="11"/>
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
@@ -11752,7 +11800,7 @@
       <c r="G124"/>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="11"/>
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
@@ -11761,7 +11809,7 @@
       <c r="G125"/>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="11"/>
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
@@ -11770,7 +11818,7 @@
       <c r="G126"/>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="11"/>
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
@@ -11779,7 +11827,7 @@
       <c r="G127"/>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="11"/>
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
@@ -11788,7 +11836,7 @@
       <c r="G128"/>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="11"/>
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
@@ -11797,7 +11845,7 @@
       <c r="G129"/>
       <c r="H129"/>
     </row>
-    <row r="130" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="11"/>
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
@@ -11806,7 +11854,7 @@
       <c r="G130"/>
       <c r="H130"/>
     </row>
-    <row r="131" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="11"/>
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
@@ -11815,7 +11863,7 @@
       <c r="G131"/>
       <c r="H131"/>
     </row>
-    <row r="132" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="11"/>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
@@ -11824,7 +11872,7 @@
       <c r="G132"/>
       <c r="H132"/>
     </row>
-    <row r="133" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="11"/>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
@@ -11833,7 +11881,7 @@
       <c r="G133"/>
       <c r="H133"/>
     </row>
-    <row r="134" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="11"/>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
@@ -11842,7 +11890,7 @@
       <c r="G134"/>
       <c r="H134"/>
     </row>
-    <row r="135" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="11"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
@@ -11851,7 +11899,7 @@
       <c r="G135"/>
       <c r="H135"/>
     </row>
-    <row r="136" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="11"/>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
@@ -11860,7 +11908,7 @@
       <c r="G136"/>
       <c r="H136"/>
     </row>
-    <row r="137" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="11"/>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
@@ -11869,7 +11917,7 @@
       <c r="G137"/>
       <c r="H137"/>
     </row>
-    <row r="138" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="11"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
@@ -11878,7 +11926,7 @@
       <c r="G138"/>
       <c r="H138"/>
     </row>
-    <row r="139" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="11"/>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
@@ -11887,7 +11935,7 @@
       <c r="G139"/>
       <c r="H139"/>
     </row>
-    <row r="140" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="11"/>
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
@@ -11896,7 +11944,7 @@
       <c r="G140"/>
       <c r="H140"/>
     </row>
-    <row r="141" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="11"/>
       <c r="B141" s="42"/>
       <c r="C141" s="11"/>
@@ -11905,7 +11953,7 @@
       <c r="G141"/>
       <c r="H141"/>
     </row>
-    <row r="142" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="11"/>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
@@ -11914,7 +11962,7 @@
       <c r="G142"/>
       <c r="H142"/>
     </row>
-    <row r="143" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="11"/>
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
@@ -11923,7 +11971,7 @@
       <c r="G143"/>
       <c r="H143"/>
     </row>
-    <row r="144" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A144" s="11"/>
       <c r="B144" s="37"/>
       <c r="C144" s="11"/>
@@ -11932,7 +11980,7 @@
       <c r="G144"/>
       <c r="H144"/>
     </row>
-    <row r="145" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="11"/>
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
@@ -11941,7 +11989,7 @@
       <c r="G145"/>
       <c r="H145"/>
     </row>
-    <row r="146" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="11"/>
       <c r="B146" s="38"/>
       <c r="C146" s="38"/>
@@ -11950,7 +11998,7 @@
       <c r="G146"/>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="11"/>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
@@ -11959,7 +12007,7 @@
       <c r="G147"/>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="11"/>
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
@@ -11968,7 +12016,7 @@
       <c r="G148"/>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="11"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
@@ -11977,7 +12025,7 @@
       <c r="G149"/>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="11"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
@@ -11986,7 +12034,7 @@
       <c r="G150"/>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="11"/>
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
@@ -11995,7 +12043,7 @@
       <c r="G151"/>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="11"/>
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
@@ -12004,7 +12052,7 @@
       <c r="G152"/>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="11"/>
       <c r="B153" s="11"/>
       <c r="C153" s="11"/>
@@ -12013,7 +12061,7 @@
       <c r="G153"/>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="11"/>
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
@@ -12022,7 +12070,7 @@
       <c r="G154"/>
       <c r="H154"/>
     </row>
-    <row r="155" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="11"/>
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
@@ -12031,7 +12079,7 @@
       <c r="G155"/>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="11"/>
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
@@ -12040,7 +12088,7 @@
       <c r="G156"/>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="11"/>
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
@@ -12049,7 +12097,7 @@
       <c r="G157"/>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="11"/>
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
@@ -12058,7 +12106,7 @@
       <c r="G158"/>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="11"/>
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
@@ -12067,7 +12115,7 @@
       <c r="G159"/>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="11"/>
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
@@ -12076,7 +12124,7 @@
       <c r="G160"/>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="11"/>
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
@@ -12085,7 +12133,7 @@
       <c r="G161"/>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="11"/>
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
@@ -12094,7 +12142,7 @@
       <c r="G162"/>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="11"/>
       <c r="B163" s="11"/>
       <c r="C163" s="11"/>
@@ -12103,7 +12151,7 @@
       <c r="G163"/>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="11"/>
       <c r="B164" s="11"/>
       <c r="C164" s="11"/>
@@ -12112,7 +12160,7 @@
       <c r="G164"/>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="11"/>
       <c r="B165" s="11"/>
       <c r="C165" s="11"/>
@@ -12121,7 +12169,7 @@
       <c r="G165"/>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="11"/>
       <c r="B166" s="11"/>
       <c r="C166" s="11"/>
@@ -12130,7 +12178,7 @@
       <c r="G166"/>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="11"/>
       <c r="B167" s="11"/>
       <c r="C167" s="11"/>
@@ -12139,7 +12187,7 @@
       <c r="G167"/>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="11"/>
       <c r="B168" s="11"/>
       <c r="C168" s="11"/>
@@ -12148,7 +12196,7 @@
       <c r="G168"/>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="11"/>
       <c r="B169" s="11"/>
       <c r="C169" s="11"/>
@@ -12157,7 +12205,7 @@
       <c r="G169"/>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="11"/>
       <c r="B170" s="11"/>
       <c r="C170" s="11"/>
@@ -12166,7 +12214,7 @@
       <c r="G170"/>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="11"/>
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
@@ -12175,7 +12223,7 @@
       <c r="G171"/>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="11"/>
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
@@ -12184,7 +12232,7 @@
       <c r="G172"/>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="11"/>
       <c r="B173" s="11"/>
       <c r="C173" s="11"/>
@@ -12193,7 +12241,7 @@
       <c r="G173"/>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="11"/>
       <c r="B174" s="11"/>
       <c r="C174" s="11"/>
@@ -12202,7 +12250,7 @@
       <c r="G174"/>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="11"/>
       <c r="B175" s="11"/>
       <c r="C175" s="11"/>
@@ -12211,7 +12259,7 @@
       <c r="G175"/>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="11"/>
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
@@ -12220,7 +12268,7 @@
       <c r="G176"/>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="11"/>
       <c r="B177" s="11"/>
       <c r="C177" s="11"/>
@@ -12229,7 +12277,7 @@
       <c r="G177"/>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="11"/>
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
@@ -12238,7 +12286,7 @@
       <c r="G178"/>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="11"/>
       <c r="B179" s="11"/>
       <c r="C179" s="11"/>
@@ -12247,7 +12295,7 @@
       <c r="G179"/>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="11"/>
       <c r="B180" s="11"/>
       <c r="C180" s="11"/>
@@ -12256,7 +12304,7 @@
       <c r="G180"/>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="11"/>
       <c r="B181" s="11"/>
       <c r="C181" s="11"/>
@@ -12265,7 +12313,7 @@
       <c r="G181"/>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="11"/>
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
@@ -12274,7 +12322,7 @@
       <c r="G182"/>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="11"/>
       <c r="B183" s="11"/>
       <c r="C183" s="11"/>
@@ -12283,7 +12331,7 @@
       <c r="G183"/>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="11"/>
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
@@ -12292,7 +12340,7 @@
       <c r="G184"/>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="11"/>
       <c r="B185" s="11"/>
       <c r="C185" s="11"/>
@@ -12301,7 +12349,7 @@
       <c r="G185"/>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="11"/>
       <c r="B186" s="42"/>
       <c r="C186" s="11"/>
@@ -12310,7 +12358,7 @@
       <c r="G186"/>
       <c r="H186"/>
     </row>
-    <row r="187" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="11"/>
       <c r="B187" s="11"/>
       <c r="C187" s="11"/>
@@ -12319,7 +12367,7 @@
       <c r="G187"/>
       <c r="H187"/>
     </row>
-    <row r="188" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="11"/>
       <c r="B188" s="11"/>
       <c r="C188" s="11"/>
@@ -12328,7 +12376,7 @@
       <c r="G188"/>
       <c r="H188"/>
     </row>
-    <row r="189" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A189" s="11"/>
       <c r="B189" s="37"/>
       <c r="C189" s="11"/>
@@ -12337,7 +12385,7 @@
       <c r="G189"/>
       <c r="H189"/>
     </row>
-    <row r="190" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="11"/>
       <c r="B190" s="11"/>
       <c r="C190" s="11"/>
@@ -12346,7 +12394,7 @@
       <c r="G190"/>
       <c r="H190"/>
     </row>
-    <row r="191" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A191" s="11"/>
       <c r="B191" s="38"/>
       <c r="C191" s="38"/>
@@ -12355,7 +12403,7 @@
       <c r="G191"/>
       <c r="H191"/>
     </row>
-    <row r="192" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="11"/>
       <c r="B192" s="11"/>
       <c r="C192" s="11"/>
@@ -12364,7 +12412,7 @@
       <c r="G192"/>
       <c r="H192"/>
     </row>
-    <row r="193" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="11"/>
       <c r="B193" s="11"/>
       <c r="C193" s="11"/>
@@ -12373,7 +12421,7 @@
       <c r="G193"/>
       <c r="H193"/>
     </row>
-    <row r="194" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="11"/>
       <c r="B194" s="11"/>
       <c r="C194" s="11"/>
@@ -12382,7 +12430,7 @@
       <c r="G194"/>
       <c r="H194"/>
     </row>
-    <row r="195" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="11"/>
       <c r="B195" s="11"/>
       <c r="C195" s="11"/>
@@ -12391,7 +12439,7 @@
       <c r="G195"/>
       <c r="H195"/>
     </row>
-    <row r="196" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="11"/>
       <c r="B196" s="11"/>
       <c r="C196" s="11"/>
@@ -12400,7 +12448,7 @@
       <c r="G196"/>
       <c r="H196"/>
     </row>
-    <row r="197" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="11"/>
       <c r="B197" s="11"/>
       <c r="C197" s="11"/>
@@ -12409,7 +12457,7 @@
       <c r="G197"/>
       <c r="H197"/>
     </row>
-    <row r="198" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="11"/>
       <c r="B198" s="11"/>
       <c r="C198" s="11"/>
@@ -12418,7 +12466,7 @@
       <c r="G198"/>
       <c r="H198"/>
     </row>
-    <row r="199" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="11"/>
       <c r="B199" s="11"/>
       <c r="C199" s="11"/>
@@ -12427,7 +12475,7 @@
       <c r="G199"/>
       <c r="H199"/>
     </row>
-    <row r="200" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="11"/>
       <c r="B200" s="11"/>
       <c r="C200" s="11"/>
@@ -12436,7 +12484,7 @@
       <c r="G200"/>
       <c r="H200"/>
     </row>
-    <row r="201" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="11"/>
       <c r="B201" s="11"/>
       <c r="C201" s="11"/>
@@ -12445,7 +12493,7 @@
       <c r="G201"/>
       <c r="H201"/>
     </row>
-    <row r="202" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="11"/>
       <c r="B202" s="11"/>
       <c r="C202" s="11"/>
@@ -12454,7 +12502,7 @@
       <c r="G202"/>
       <c r="H202"/>
     </row>
-    <row r="203" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="11"/>
       <c r="B203" s="11"/>
       <c r="C203" s="11"/>
@@ -12463,7 +12511,7 @@
       <c r="G203"/>
       <c r="H203"/>
     </row>
-    <row r="204" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="11"/>
       <c r="B204" s="11"/>
       <c r="C204" s="11"/>
@@ -12472,7 +12520,7 @@
       <c r="G204"/>
       <c r="H204"/>
     </row>
-    <row r="205" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="11"/>
       <c r="B205" s="11"/>
       <c r="C205" s="11"/>
@@ -12481,7 +12529,7 @@
       <c r="G205"/>
       <c r="H205"/>
     </row>
-    <row r="206" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="11"/>
       <c r="B206" s="11"/>
       <c r="C206" s="11"/>
@@ -12490,7 +12538,7 @@
       <c r="G206"/>
       <c r="H206"/>
     </row>
-    <row r="207" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="11"/>
       <c r="B207" s="11"/>
       <c r="C207" s="11"/>
@@ -12499,7 +12547,7 @@
       <c r="G207"/>
       <c r="H207"/>
     </row>
-    <row r="208" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="11"/>
       <c r="B208" s="11"/>
       <c r="C208" s="11"/>
@@ -12508,7 +12556,7 @@
       <c r="G208"/>
       <c r="H208"/>
     </row>
-    <row r="209" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="11"/>
       <c r="B209" s="11"/>
       <c r="C209" s="11"/>
@@ -12517,7 +12565,7 @@
       <c r="G209"/>
       <c r="H209"/>
     </row>
-    <row r="210" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="11"/>
       <c r="B210" s="11"/>
       <c r="C210" s="11"/>
@@ -12526,7 +12574,7 @@
       <c r="G210"/>
       <c r="H210"/>
     </row>
-    <row r="211" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="11"/>
       <c r="B211" s="11"/>
       <c r="C211" s="11"/>
@@ -12535,7 +12583,7 @@
       <c r="G211"/>
       <c r="H211"/>
     </row>
-    <row r="212" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="11"/>
       <c r="B212" s="11"/>
       <c r="C212" s="11"/>
@@ -12544,7 +12592,7 @@
       <c r="G212"/>
       <c r="H212"/>
     </row>
-    <row r="213" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="11"/>
       <c r="B213" s="11"/>
       <c r="C213" s="11"/>
@@ -12553,7 +12601,7 @@
       <c r="G213"/>
       <c r="H213"/>
     </row>
-    <row r="214" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="11"/>
       <c r="B214" s="11"/>
       <c r="C214" s="11"/>
@@ -12562,7 +12610,7 @@
       <c r="G214"/>
       <c r="H214"/>
     </row>
-    <row r="215" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="11"/>
       <c r="B215" s="11"/>
       <c r="C215" s="11"/>
@@ -12571,7 +12619,7 @@
       <c r="G215"/>
       <c r="H215"/>
     </row>
-    <row r="216" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="11"/>
       <c r="B216" s="11"/>
       <c r="C216" s="11"/>
@@ -12580,7 +12628,7 @@
       <c r="G216"/>
       <c r="H216"/>
     </row>
-    <row r="217" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="11"/>
       <c r="B217" s="11"/>
       <c r="C217" s="11"/>
@@ -12589,7 +12637,7 @@
       <c r="G217"/>
       <c r="H217"/>
     </row>
-    <row r="218" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="11"/>
       <c r="B218" s="11"/>
       <c r="C218" s="11"/>
@@ -12598,7 +12646,7 @@
       <c r="G218"/>
       <c r="H218"/>
     </row>
-    <row r="219" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="11"/>
       <c r="B219" s="11"/>
       <c r="C219" s="11"/>
@@ -12607,7 +12655,7 @@
       <c r="G219"/>
       <c r="H219"/>
     </row>
-    <row r="220" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="11"/>
       <c r="B220" s="11"/>
       <c r="C220" s="11"/>
@@ -12616,7 +12664,7 @@
       <c r="G220"/>
       <c r="H220"/>
     </row>
-    <row r="221" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="11"/>
       <c r="B221" s="11"/>
       <c r="C221" s="11"/>
@@ -12625,7 +12673,7 @@
       <c r="G221"/>
       <c r="H221"/>
     </row>
-    <row r="222" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="11"/>
       <c r="B222" s="11"/>
       <c r="C222" s="11"/>
@@ -12634,7 +12682,7 @@
       <c r="G222"/>
       <c r="H222"/>
     </row>
-    <row r="223" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="11"/>
       <c r="B223" s="11"/>
       <c r="C223" s="11"/>
@@ -12643,34 +12691,34 @@
       <c r="G223"/>
       <c r="H223"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="11"/>
       <c r="B224" s="11"/>
       <c r="C224" s="11"/>
       <c r="D224" s="40"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="11"/>
       <c r="B225" s="11"/>
       <c r="C225" s="11"/>
       <c r="D225" s="40"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="11"/>
       <c r="B226" s="11"/>
       <c r="C226" s="11"/>
       <c r="D226" s="40"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="11"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="11"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="11"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="11"/>
     </row>
   </sheetData>

--- a/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
+++ b/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\258321_DKE_PR\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62555763-B1E8-49D0-8B4B-97EA2AE52C9B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F76F29-CCE1-486D-8E85-190EE698B9BE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20010" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20010" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung_Gesamt" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="35">
   <si>
     <t xml:space="preserve">Aistleithner </t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t xml:space="preserve">Präsentation Anforderungen </t>
+  </si>
+  <si>
+    <t>Anforderungsanalyse</t>
   </si>
 </sst>
 </file>
@@ -835,7 +838,7 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>15.5</c:v>
@@ -1040,7 +1043,7 @@
                   <c:v>36.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2832,8 +2835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2882,7 +2885,7 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>B44</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1">
         <f t="shared" ref="B4:D4" si="0">C44</f>
@@ -3041,7 +3044,7 @@
       </c>
       <c r="B29" s="3">
         <f>SUMIF(Aistleithner!H9:H59,Zeiterfassung_Gesamt!A29,Aistleithner!G9:G59)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C29" s="3">
         <f>SUMIF(Dusanic!H9:H52,Zeiterfassung_Gesamt!A29,Dusanic!G9:G52)</f>
@@ -3057,7 +3060,7 @@
       </c>
       <c r="F29" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" s="12"/>
       <c r="K29" s="14"/>
@@ -3446,7 +3449,7 @@
       </c>
       <c r="B44" s="4">
         <f>SUM(B26:B43)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C44" s="4">
         <f t="shared" ref="C44:E44" si="3">SUM(C26:C43)</f>
@@ -3462,7 +3465,7 @@
       </c>
       <c r="F44" s="4">
         <f>SUM(F26:F43)</f>
-        <v>62.5</v>
+        <v>64.5</v>
       </c>
       <c r="J44" s="12"/>
       <c r="K44" s="14"/>
@@ -3487,8 +3490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C65BC6F-2EFC-4FEF-B846-1981218F4DC2}">
   <dimension ref="A2:H243"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3717,18 +3720,28 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
+      <c r="B14" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="27">
+        <v>43399</v>
+      </c>
+      <c r="E14" s="28">
+        <v>0.8125</v>
+      </c>
+      <c r="F14" s="28">
+        <v>0.89583333333333337</v>
+      </c>
       <c r="G14">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14">
         <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -4386,7 +4399,7 @@
       <c r="F58" s="36"/>
       <c r="G58">
         <f>SUM(G7:G57)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">

--- a/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
+++ b/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\258321_DKE_PR\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomic\Documents\GitHub\258321_DKE_PR\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F76F29-CCE1-486D-8E85-190EE698B9BE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA07CAA2-5017-4A90-957B-E071D832EF13}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20010" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20016" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung_Gesamt" sheetId="1" r:id="rId1"/>
@@ -19,22 +19,17 @@
     <sheet name="Teuchtmann" sheetId="4" r:id="rId4"/>
     <sheet name="Tomic" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="35">
   <si>
     <t xml:space="preserve">Aistleithner </t>
   </si>
@@ -529,8 +524,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Komma" xfId="1" builtinId="3"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -645,7 +640,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -847,7 +842,7 @@
                   <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.5</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -955,7 +950,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1043,7 +1038,7 @@
                   <c:v>36.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2537,7 +2532,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2839,21 +2834,21 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1" outlineLevel="1"/>
     <col min="4" max="4" width="37" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="41.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="41.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="56" t="s">
         <v>4</v>
       </c>
@@ -2865,7 +2860,7 @@
       <c r="H2" s="55"/>
       <c r="I2" s="55"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -2882,7 +2877,7 @@
       <c r="H3" s="55"/>
       <c r="I3" s="55"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f>B44</f>
         <v>19</v>
@@ -2897,19 +2892,19 @@
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="55"/>
       <c r="H4" s="55"/>
       <c r="I4" s="55"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G5" s="55"/>
       <c r="H5" s="55"/>
       <c r="I5" s="55"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="56" t="s">
         <v>5</v>
       </c>
@@ -2923,7 +2918,7 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
       <c r="B24" s="59" t="s">
         <v>7</v>
@@ -2935,7 +2930,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>6</v>
       </c>
@@ -2957,7 +2952,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="13"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>40</v>
       </c>
@@ -2984,7 +2979,7 @@
       <c r="J26" s="12"/>
       <c r="K26" s="13"/>
     </row>
-    <row r="27" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>41</v>
       </c>
@@ -3011,7 +3006,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="14"/>
     </row>
-    <row r="28" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>42</v>
       </c>
@@ -3038,7 +3033,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="14"/>
     </row>
-    <row r="29" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>43</v>
       </c>
@@ -3056,16 +3051,16 @@
       </c>
       <c r="E29" s="3">
         <f>SUMIF(Tomic!H9:H52,Zeiterfassung_Gesamt!A29,Tomic!G9:G52)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F29" s="3">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="J29" s="12"/>
       <c r="K29" s="14"/>
     </row>
-    <row r="30" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>44</v>
       </c>
@@ -3092,7 +3087,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="14"/>
     </row>
-    <row r="31" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>45</v>
       </c>
@@ -3119,7 +3114,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="14"/>
     </row>
-    <row r="32" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>46</v>
       </c>
@@ -3146,7 +3141,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="14"/>
     </row>
-    <row r="33" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>47</v>
       </c>
@@ -3173,7 +3168,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="14"/>
     </row>
-    <row r="34" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>48</v>
       </c>
@@ -3200,7 +3195,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="14"/>
     </row>
-    <row r="35" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>49</v>
       </c>
@@ -3227,7 +3222,7 @@
       <c r="J35" s="12"/>
       <c r="K35" s="14"/>
     </row>
-    <row r="36" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>50</v>
       </c>
@@ -3254,7 +3249,7 @@
       <c r="J36" s="12"/>
       <c r="K36" s="14"/>
     </row>
-    <row r="37" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>51</v>
       </c>
@@ -3281,7 +3276,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="14"/>
     </row>
-    <row r="38" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>52</v>
       </c>
@@ -3308,7 +3303,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="14"/>
     </row>
-    <row r="39" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>1</v>
       </c>
@@ -3335,7 +3330,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="14"/>
     </row>
-    <row r="40" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>2</v>
       </c>
@@ -3362,7 +3357,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="14"/>
     </row>
-    <row r="41" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>3</v>
       </c>
@@ -3389,7 +3384,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="14"/>
     </row>
-    <row r="42" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>4</v>
       </c>
@@ -3416,7 +3411,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="14"/>
     </row>
-    <row r="43" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>5</v>
       </c>
@@ -3443,7 +3438,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="14"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>10</v>
       </c>
@@ -3461,16 +3456,16 @@
       </c>
       <c r="E44" s="4">
         <f t="shared" si="3"/>
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="F44" s="4">
         <f>SUM(F26:F43)</f>
-        <v>64.5</v>
+        <v>66</v>
       </c>
       <c r="J44" s="12"/>
       <c r="K44" s="14"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
     </row>
@@ -3490,37 +3485,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C65BC6F-2EFC-4FEF-B846-1981218F4DC2}">
   <dimension ref="A2:H243"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="19" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="3" max="3" width="75.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B2" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B3" s="17"/>
       <c r="C3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="21"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="22" t="s">
         <v>13</v>
       </c>
@@ -3543,7 +3538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="26" t="s">
         <v>24</v>
       </c>
@@ -3568,7 +3563,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="26" t="s">
         <v>26</v>
       </c>
@@ -3593,7 +3588,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="26" t="s">
         <v>24</v>
       </c>
@@ -3618,7 +3613,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="26" t="s">
         <v>26</v>
       </c>
@@ -3643,7 +3638,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="29"/>
       <c r="B11" s="26" t="s">
         <v>30</v>
@@ -3669,7 +3664,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="26" t="s">
         <v>30</v>
       </c>
@@ -3694,7 +3689,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="26" t="s">
         <v>24</v>
       </c>
@@ -3719,7 +3714,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="26" t="s">
         <v>30</v>
       </c>
@@ -3744,7 +3739,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
       <c r="D15" s="27"/>
@@ -3759,7 +3754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
       <c r="D16" s="27"/>
@@ -3774,7 +3769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
       <c r="D17" s="27"/>
@@ -3789,7 +3784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
       <c r="D18" s="27"/>
@@ -3804,7 +3799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
       <c r="D19" s="27"/>
@@ -3819,7 +3814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
       <c r="D20" s="27"/>
@@ -3834,7 +3829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
       <c r="D21" s="27"/>
@@ -3849,7 +3844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
       <c r="D22" s="27"/>
@@ -3864,7 +3859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
       <c r="D23" s="27"/>
@@ -3879,7 +3874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
       <c r="D24" s="27"/>
@@ -3894,7 +3889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="D25" s="27"/>
@@ -3909,7 +3904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="26"/>
       <c r="C26" s="30"/>
       <c r="D26" s="27"/>
@@ -3924,7 +3919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
       <c r="D27" s="27"/>
@@ -3939,7 +3934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="D28" s="27"/>
@@ -3954,7 +3949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="27"/>
@@ -3969,7 +3964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="27"/>
@@ -3984,7 +3979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="27"/>
@@ -3999,7 +3994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="27"/>
@@ -4014,7 +4009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="27"/>
@@ -4029,7 +4024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="27"/>
@@ -4044,7 +4039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="27"/>
@@ -4059,7 +4054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="27"/>
@@ -4074,7 +4069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="27"/>
@@ -4089,7 +4084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
       <c r="D38" s="27"/>
@@ -4104,7 +4099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="D39" s="27"/>
@@ -4119,7 +4114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
       <c r="D40" s="27"/>
@@ -4134,7 +4129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
       <c r="D41" s="27"/>
@@ -4149,7 +4144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="27"/>
@@ -4164,7 +4159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
       <c r="D43" s="27"/>
@@ -4179,7 +4174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="27"/>
@@ -4194,7 +4189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="27"/>
@@ -4209,7 +4204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="27"/>
@@ -4224,7 +4219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
       <c r="D47" s="27"/>
@@ -4239,7 +4234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
       <c r="D48" s="32"/>
@@ -4254,7 +4249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
       <c r="D49" s="32"/>
@@ -4269,7 +4264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
       <c r="D50" s="27"/>
@@ -4284,7 +4279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B51" s="30"/>
       <c r="C51" s="30"/>
       <c r="D51" s="32"/>
@@ -4299,7 +4294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B52" s="30"/>
       <c r="C52" s="30"/>
       <c r="D52" s="27"/>
@@ -4314,7 +4309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B53" s="30"/>
       <c r="C53" s="30"/>
       <c r="D53" s="32"/>
@@ -4329,7 +4324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B54" s="30"/>
       <c r="C54" s="30"/>
       <c r="D54" s="27"/>
@@ -4344,7 +4339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B55" s="30"/>
       <c r="C55" s="30"/>
       <c r="D55" s="27"/>
@@ -4359,7 +4354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B56" s="30"/>
       <c r="C56" s="30"/>
       <c r="D56" s="27"/>
@@ -4374,7 +4369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B57" s="30"/>
       <c r="C57" s="30"/>
       <c r="D57" s="27"/>
@@ -4389,7 +4384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B58" s="35" t="s">
         <v>19</v>
       </c>
@@ -4402,1078 +4397,1078 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
     </row>
-    <row r="61" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A61" s="11"/>
       <c r="B61" s="37"/>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
     </row>
-    <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="11"/>
       <c r="B63" s="38"/>
       <c r="C63" s="38"/>
       <c r="D63" s="39"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
       <c r="D64" s="40"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
       <c r="D65" s="40"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
       <c r="D66" s="40"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
       <c r="D67" s="40"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
       <c r="D68" s="40"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
       <c r="D69" s="40"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
       <c r="D70" s="40"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="11"/>
       <c r="B71" s="41"/>
       <c r="C71" s="11"/>
       <c r="D71" s="40"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
       <c r="D72" s="40"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
       <c r="D73" s="40"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
       <c r="D74" s="40"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
       <c r="D75" s="40"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
       <c r="D76" s="40"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
       <c r="D77" s="40"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
       <c r="D78" s="40"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
       <c r="D79" s="40"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
       <c r="D80" s="40"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
       <c r="D81" s="40"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
       <c r="D82" s="40"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
       <c r="D83" s="40"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
       <c r="D84" s="40"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
       <c r="D85" s="40"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
       <c r="D86" s="40"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
       <c r="D87" s="40"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
       <c r="D88" s="40"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
       <c r="D89" s="40"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
       <c r="D90" s="40"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
       <c r="D91" s="40"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
       <c r="D92" s="40"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
       <c r="D93" s="40"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
       <c r="D94" s="40"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
       <c r="D95" s="40"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
       <c r="D96" s="40"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
       <c r="D97" s="40"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
       <c r="D98" s="40"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
       <c r="D99" s="40"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
       <c r="D100" s="40"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
       <c r="D101" s="40"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
       <c r="D102" s="40"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="11"/>
       <c r="B103" s="42"/>
       <c r="C103" s="11"/>
       <c r="D103" s="40"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
       <c r="D105" s="11"/>
     </row>
-    <row r="106" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A106" s="11"/>
       <c r="B106" s="37"/>
       <c r="C106" s="11"/>
       <c r="D106" s="11"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
       <c r="D107" s="11"/>
     </row>
-    <row r="108" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="11"/>
       <c r="B108" s="38"/>
       <c r="C108" s="38"/>
       <c r="D108" s="39"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
       <c r="D109" s="40"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
       <c r="D110" s="40"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
       <c r="D111" s="40"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
       <c r="D112" s="40"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
       <c r="D113" s="40"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
       <c r="D114" s="40"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
       <c r="D115" s="40"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
       <c r="D116" s="40"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
       <c r="D117" s="40"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
       <c r="D118" s="40"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
       <c r="D119" s="40"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
       <c r="D120" s="40"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
       <c r="D121" s="40"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="11"/>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
       <c r="D122" s="40"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="11"/>
       <c r="B123" s="11"/>
       <c r="C123" s="11"/>
       <c r="D123" s="40"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="11"/>
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
       <c r="D124" s="40"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="11"/>
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
       <c r="D125" s="40"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="11"/>
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
       <c r="D126" s="40"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="11"/>
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
       <c r="D127" s="40"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="11"/>
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
       <c r="D128" s="40"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="11"/>
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
       <c r="D129" s="40"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="11"/>
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
       <c r="D130" s="40"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="11"/>
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
       <c r="D131" s="40"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="11"/>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
       <c r="D132" s="40"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="11"/>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
       <c r="D133" s="40"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="11"/>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
       <c r="D134" s="40"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="11"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
       <c r="D135" s="40"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="11"/>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
       <c r="D136" s="40"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="11"/>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
       <c r="D137" s="40"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="11"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
       <c r="D138" s="40"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="11"/>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
       <c r="D139" s="40"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="11"/>
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
       <c r="D140" s="40"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="11"/>
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
       <c r="D141" s="40"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="11"/>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
       <c r="D142" s="40"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="11"/>
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
       <c r="D143" s="40"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="11"/>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
       <c r="D144" s="40"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="11"/>
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
       <c r="D145" s="40"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="11"/>
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
       <c r="D146" s="40"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="11"/>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
       <c r="D147" s="40"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="11"/>
       <c r="B148" s="42"/>
       <c r="C148" s="11"/>
       <c r="D148" s="40"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="11"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
       <c r="D149" s="11"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="11"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
       <c r="D150" s="11"/>
     </row>
-    <row r="151" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A151" s="11"/>
       <c r="B151" s="37"/>
       <c r="C151" s="11"/>
       <c r="D151" s="11"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="11"/>
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
       <c r="D152" s="11"/>
     </row>
-    <row r="153" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="11"/>
       <c r="B153" s="38"/>
       <c r="C153" s="38"/>
       <c r="D153" s="39"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="11"/>
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
       <c r="D154" s="40"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="11"/>
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
       <c r="D155" s="40"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="11"/>
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
       <c r="D156" s="40"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="11"/>
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
       <c r="D157" s="40"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="11"/>
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
       <c r="D158" s="40"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="11"/>
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
       <c r="D159" s="40"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="11"/>
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
       <c r="D160" s="40"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="11"/>
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
       <c r="D161" s="40"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="11"/>
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
       <c r="D162" s="40"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="11"/>
       <c r="B163" s="11"/>
       <c r="C163" s="11"/>
       <c r="D163" s="40"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="11"/>
       <c r="B164" s="11"/>
       <c r="C164" s="11"/>
       <c r="D164" s="40"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="11"/>
       <c r="B165" s="11"/>
       <c r="C165" s="11"/>
       <c r="D165" s="40"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="11"/>
       <c r="B166" s="11"/>
       <c r="C166" s="11"/>
       <c r="D166" s="40"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="11"/>
       <c r="B167" s="11"/>
       <c r="C167" s="11"/>
       <c r="D167" s="40"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="11"/>
       <c r="B168" s="11"/>
       <c r="C168" s="11"/>
       <c r="D168" s="40"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="11"/>
       <c r="B169" s="11"/>
       <c r="C169" s="11"/>
       <c r="D169" s="40"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="11"/>
       <c r="B170" s="11"/>
       <c r="C170" s="11"/>
       <c r="D170" s="40"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="11"/>
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
       <c r="D171" s="40"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="11"/>
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
       <c r="D172" s="40"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="11"/>
       <c r="B173" s="11"/>
       <c r="C173" s="11"/>
       <c r="D173" s="40"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="11"/>
       <c r="B174" s="11"/>
       <c r="C174" s="11"/>
       <c r="D174" s="40"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="11"/>
       <c r="B175" s="11"/>
       <c r="C175" s="11"/>
       <c r="D175" s="40"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="11"/>
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
       <c r="D176" s="40"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="11"/>
       <c r="B177" s="11"/>
       <c r="C177" s="11"/>
       <c r="D177" s="40"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="11"/>
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
       <c r="D178" s="40"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="11"/>
       <c r="B179" s="11"/>
       <c r="C179" s="11"/>
       <c r="D179" s="40"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="11"/>
       <c r="B180" s="11"/>
       <c r="C180" s="11"/>
       <c r="D180" s="40"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="11"/>
       <c r="B181" s="11"/>
       <c r="C181" s="11"/>
       <c r="D181" s="40"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="11"/>
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
       <c r="D182" s="40"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="11"/>
       <c r="B183" s="11"/>
       <c r="C183" s="11"/>
       <c r="D183" s="40"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="11"/>
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
       <c r="D184" s="40"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="11"/>
       <c r="B185" s="11"/>
       <c r="C185" s="11"/>
       <c r="D185" s="40"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="11"/>
       <c r="B186" s="11"/>
       <c r="C186" s="11"/>
       <c r="D186" s="40"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="11"/>
       <c r="B187" s="11"/>
       <c r="C187" s="11"/>
       <c r="D187" s="40"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="11"/>
       <c r="B188" s="11"/>
       <c r="C188" s="11"/>
       <c r="D188" s="40"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="11"/>
       <c r="B189" s="11"/>
       <c r="C189" s="11"/>
       <c r="D189" s="40"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="11"/>
       <c r="B190" s="11"/>
       <c r="C190" s="11"/>
       <c r="D190" s="40"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="11"/>
       <c r="B191" s="11"/>
       <c r="C191" s="11"/>
       <c r="D191" s="40"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="11"/>
       <c r="B192" s="11"/>
       <c r="C192" s="11"/>
       <c r="D192" s="40"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="11"/>
       <c r="B193" s="42"/>
       <c r="C193" s="11"/>
       <c r="D193" s="40"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="11"/>
       <c r="B194" s="11"/>
       <c r="C194" s="11"/>
       <c r="D194" s="11"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="11"/>
       <c r="B195" s="11"/>
       <c r="C195" s="11"/>
       <c r="D195" s="11"/>
     </row>
-    <row r="196" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A196" s="11"/>
       <c r="B196" s="37"/>
       <c r="C196" s="11"/>
       <c r="D196" s="11"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="11"/>
       <c r="B197" s="11"/>
       <c r="C197" s="11"/>
       <c r="D197" s="11"/>
     </row>
-    <row r="198" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="11"/>
       <c r="B198" s="38"/>
       <c r="C198" s="38"/>
       <c r="D198" s="39"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="11"/>
       <c r="B199" s="11"/>
       <c r="C199" s="11"/>
       <c r="D199" s="40"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="11"/>
       <c r="B200" s="11"/>
       <c r="C200" s="11"/>
       <c r="D200" s="40"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="11"/>
       <c r="B201" s="11"/>
       <c r="C201" s="11"/>
       <c r="D201" s="40"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="11"/>
       <c r="B202" s="11"/>
       <c r="C202" s="11"/>
       <c r="D202" s="40"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="11"/>
       <c r="B203" s="11"/>
       <c r="C203" s="11"/>
       <c r="D203" s="40"/>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="11"/>
       <c r="B204" s="11"/>
       <c r="C204" s="11"/>
       <c r="D204" s="40"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="11"/>
       <c r="B205" s="11"/>
       <c r="C205" s="11"/>
       <c r="D205" s="40"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="11"/>
       <c r="B206" s="11"/>
       <c r="C206" s="11"/>
       <c r="D206" s="40"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="11"/>
       <c r="B207" s="11"/>
       <c r="C207" s="11"/>
       <c r="D207" s="40"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="11"/>
       <c r="B208" s="11"/>
       <c r="C208" s="11"/>
       <c r="D208" s="40"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="11"/>
       <c r="B209" s="11"/>
       <c r="C209" s="11"/>
       <c r="D209" s="40"/>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="11"/>
       <c r="B210" s="11"/>
       <c r="C210" s="11"/>
       <c r="D210" s="40"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="11"/>
       <c r="B211" s="11"/>
       <c r="C211" s="11"/>
       <c r="D211" s="40"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="11"/>
       <c r="B212" s="11"/>
       <c r="C212" s="11"/>
       <c r="D212" s="40"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="11"/>
       <c r="B213" s="11"/>
       <c r="C213" s="11"/>
       <c r="D213" s="40"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="11"/>
       <c r="B214" s="11"/>
       <c r="C214" s="11"/>
       <c r="D214" s="40"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="11"/>
       <c r="B215" s="11"/>
       <c r="C215" s="11"/>
       <c r="D215" s="40"/>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="11"/>
       <c r="B216" s="11"/>
       <c r="C216" s="11"/>
       <c r="D216" s="40"/>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="11"/>
       <c r="B217" s="11"/>
       <c r="C217" s="11"/>
       <c r="D217" s="40"/>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="11"/>
       <c r="B218" s="11"/>
       <c r="C218" s="11"/>
       <c r="D218" s="40"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="11"/>
       <c r="B219" s="11"/>
       <c r="C219" s="11"/>
       <c r="D219" s="40"/>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="11"/>
       <c r="B220" s="11"/>
       <c r="C220" s="11"/>
       <c r="D220" s="40"/>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="11"/>
       <c r="B221" s="11"/>
       <c r="C221" s="11"/>
       <c r="D221" s="40"/>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="11"/>
       <c r="B222" s="11"/>
       <c r="C222" s="11"/>
       <c r="D222" s="40"/>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="11"/>
       <c r="B223" s="11"/>
       <c r="C223" s="11"/>
       <c r="D223" s="40"/>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="11"/>
       <c r="B224" s="11"/>
       <c r="C224" s="11"/>
       <c r="D224" s="40"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="11"/>
       <c r="B225" s="11"/>
       <c r="C225" s="11"/>
       <c r="D225" s="40"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="11"/>
       <c r="B226" s="11"/>
       <c r="C226" s="11"/>
       <c r="D226" s="40"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="11"/>
       <c r="B227" s="11"/>
       <c r="C227" s="11"/>
       <c r="D227" s="40"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="11"/>
       <c r="B228" s="11"/>
       <c r="C228" s="11"/>
       <c r="D228" s="40"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="11"/>
       <c r="B229" s="11"/>
       <c r="C229" s="11"/>
       <c r="D229" s="40"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="11"/>
       <c r="B230" s="11"/>
       <c r="C230" s="11"/>
       <c r="D230" s="40"/>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="11"/>
       <c r="B231" s="11"/>
       <c r="C231" s="11"/>
       <c r="D231" s="40"/>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="11"/>
       <c r="B232" s="11"/>
       <c r="C232" s="11"/>
       <c r="D232" s="40"/>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="11"/>
       <c r="B233" s="11"/>
       <c r="C233" s="11"/>
       <c r="D233" s="40"/>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="11"/>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="11"/>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="11"/>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="11"/>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="11"/>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="11"/>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="11"/>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" s="11"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" s="11"/>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" s="11"/>
     </row>
   </sheetData>
@@ -5492,33 +5487,33 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1"/>
-    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="19" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" customWidth="1"/>
+    <col min="3" max="3" width="75.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B2" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B3" s="17"/>
       <c r="C3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="20" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="21"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="22" t="s">
         <v>13</v>
       </c>
@@ -5541,7 +5536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="26" t="s">
         <v>24</v>
       </c>
@@ -5566,7 +5561,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="26" t="s">
         <v>26</v>
       </c>
@@ -5591,7 +5586,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="26" t="s">
         <v>24</v>
       </c>
@@ -5616,7 +5611,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="29"/>
       <c r="B10" s="26" t="s">
         <v>30</v>
@@ -5642,7 +5637,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" s="26" t="s">
         <v>30</v>
       </c>
@@ -5667,7 +5662,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="26" t="s">
         <v>24</v>
       </c>
@@ -5692,7 +5687,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
       <c r="D13" s="27"/>
@@ -5707,7 +5702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="27"/>
@@ -5722,7 +5717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
       <c r="D15" s="27"/>
@@ -5737,7 +5732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
       <c r="D16" s="27"/>
@@ -5752,7 +5747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
       <c r="D17" s="27"/>
@@ -5767,7 +5762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
       <c r="D18" s="27"/>
@@ -5782,7 +5777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
       <c r="D19" s="27"/>
@@ -5797,7 +5792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
       <c r="D20" s="27"/>
@@ -5812,7 +5807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
       <c r="D21" s="27"/>
@@ -5827,7 +5822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
       <c r="D22" s="27"/>
@@ -5842,7 +5837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
       <c r="D23" s="27"/>
@@ -5857,7 +5852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
       <c r="D24" s="27"/>
@@ -5872,7 +5867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="D25" s="27"/>
@@ -5887,7 +5882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
       <c r="D26" s="27"/>
@@ -5902,7 +5897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
       <c r="D27" s="27"/>
@@ -5917,7 +5912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="D28" s="27"/>
@@ -5932,7 +5927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="27"/>
@@ -5947,7 +5942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="27"/>
@@ -5962,7 +5957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="27"/>
@@ -5977,7 +5972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="27"/>
@@ -5992,7 +5987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="27"/>
@@ -6007,7 +6002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="27"/>
@@ -6022,7 +6017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="27"/>
@@ -6037,7 +6032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="27"/>
@@ -6052,7 +6047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="27"/>
@@ -6067,7 +6062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
       <c r="D38" s="27"/>
@@ -6082,7 +6077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="D39" s="27"/>
@@ -6097,7 +6092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
       <c r="D40" s="27"/>
@@ -6112,7 +6107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
       <c r="D41" s="27"/>
@@ -6127,7 +6122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="27"/>
@@ -6142,7 +6137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
       <c r="D43" s="27"/>
@@ -6157,7 +6152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="27"/>
@@ -6172,7 +6167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="27"/>
@@ -6187,7 +6182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="27"/>
@@ -6202,7 +6197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="11"/>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
@@ -6218,7 +6213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="11"/>
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
@@ -6234,7 +6229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="11"/>
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
@@ -6250,7 +6245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="11"/>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
@@ -6266,7 +6261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="11"/>
       <c r="B51" s="35" t="s">
         <v>19</v>
@@ -6281,7 +6276,7 @@
       </c>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="11"/>
       <c r="B52"/>
       <c r="C52"/>
@@ -6290,7 +6285,7 @@
       <c r="G52"/>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -6299,7 +6294,7 @@
       <c r="G53"/>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" s="11"/>
       <c r="B54" s="37"/>
       <c r="C54" s="11"/>
@@ -6308,7 +6303,7 @@
       <c r="G54"/>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -6317,7 +6312,7 @@
       <c r="G55"/>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="11"/>
       <c r="B56" s="38"/>
       <c r="C56" s="38"/>
@@ -6326,7 +6321,7 @@
       <c r="G56"/>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -6335,7 +6330,7 @@
       <c r="G57"/>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -6344,7 +6339,7 @@
       <c r="G58"/>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -6353,7 +6348,7 @@
       <c r="G59"/>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -6362,7 +6357,7 @@
       <c r="G60"/>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -6371,7 +6366,7 @@
       <c r="G61"/>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -6380,7 +6375,7 @@
       <c r="G62"/>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -6389,7 +6384,7 @@
       <c r="G63"/>
       <c r="H63"/>
     </row>
-    <row r="64" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="11"/>
       <c r="B64" s="41"/>
       <c r="C64" s="11"/>
@@ -6398,7 +6393,7 @@
       <c r="G64"/>
       <c r="H64"/>
     </row>
-    <row r="65" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -6407,7 +6402,7 @@
       <c r="G65"/>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -6416,7 +6411,7 @@
       <c r="G66"/>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -6425,7 +6420,7 @@
       <c r="G67"/>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -6434,7 +6429,7 @@
       <c r="G68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -6443,7 +6438,7 @@
       <c r="G69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -6452,7 +6447,7 @@
       <c r="G70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -6461,7 +6456,7 @@
       <c r="G71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -6470,7 +6465,7 @@
       <c r="G72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -6479,7 +6474,7 @@
       <c r="G73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -6488,7 +6483,7 @@
       <c r="G74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -6497,7 +6492,7 @@
       <c r="G75"/>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -6506,7 +6501,7 @@
       <c r="G76"/>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -6515,7 +6510,7 @@
       <c r="G77"/>
       <c r="H77"/>
     </row>
-    <row r="78" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -6524,7 +6519,7 @@
       <c r="G78"/>
       <c r="H78"/>
     </row>
-    <row r="79" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -6533,7 +6528,7 @@
       <c r="G79"/>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -6542,7 +6537,7 @@
       <c r="G80"/>
       <c r="H80"/>
     </row>
-    <row r="81" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -6551,7 +6546,7 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -6560,7 +6555,7 @@
       <c r="G82"/>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -6569,7 +6564,7 @@
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -6578,7 +6573,7 @@
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -6587,7 +6582,7 @@
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -6596,7 +6591,7 @@
       <c r="G86"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -6605,7 +6600,7 @@
       <c r="G87"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -6614,7 +6609,7 @@
       <c r="G88"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -6623,7 +6618,7 @@
       <c r="G89"/>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -6632,7 +6627,7 @@
       <c r="G90"/>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -6641,7 +6636,7 @@
       <c r="G91"/>
       <c r="H91"/>
     </row>
-    <row r="92" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -6650,7 +6645,7 @@
       <c r="G92"/>
       <c r="H92"/>
     </row>
-    <row r="93" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -6659,7 +6654,7 @@
       <c r="G93"/>
       <c r="H93"/>
     </row>
-    <row r="94" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -6668,7 +6663,7 @@
       <c r="G94"/>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -6677,7 +6672,7 @@
       <c r="G95"/>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="11"/>
       <c r="B96" s="42"/>
       <c r="C96" s="11"/>
@@ -6686,7 +6681,7 @@
       <c r="G96"/>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -6695,7 +6690,7 @@
       <c r="G97"/>
       <c r="H97"/>
     </row>
-    <row r="98" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -6704,7 +6699,7 @@
       <c r="G98"/>
       <c r="H98"/>
     </row>
-    <row r="99" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A99" s="11"/>
       <c r="B99" s="37"/>
       <c r="C99" s="11"/>
@@ -6713,7 +6708,7 @@
       <c r="G99"/>
       <c r="H99"/>
     </row>
-    <row r="100" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -6722,7 +6717,7 @@
       <c r="G100"/>
       <c r="H100"/>
     </row>
-    <row r="101" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="11"/>
       <c r="B101" s="38"/>
       <c r="C101" s="38"/>
@@ -6731,7 +6726,7 @@
       <c r="G101"/>
       <c r="H101"/>
     </row>
-    <row r="102" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -6740,7 +6735,7 @@
       <c r="G102"/>
       <c r="H102"/>
     </row>
-    <row r="103" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -6749,7 +6744,7 @@
       <c r="G103"/>
       <c r="H103"/>
     </row>
-    <row r="104" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -6758,7 +6753,7 @@
       <c r="G104"/>
       <c r="H104"/>
     </row>
-    <row r="105" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -6767,7 +6762,7 @@
       <c r="G105"/>
       <c r="H105"/>
     </row>
-    <row r="106" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -6776,7 +6771,7 @@
       <c r="G106"/>
       <c r="H106"/>
     </row>
-    <row r="107" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -6785,7 +6780,7 @@
       <c r="G107"/>
       <c r="H107"/>
     </row>
-    <row r="108" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -6794,7 +6789,7 @@
       <c r="G108"/>
       <c r="H108"/>
     </row>
-    <row r="109" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -6803,7 +6798,7 @@
       <c r="G109"/>
       <c r="H109"/>
     </row>
-    <row r="110" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -6812,7 +6807,7 @@
       <c r="G110"/>
       <c r="H110"/>
     </row>
-    <row r="111" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -6821,7 +6816,7 @@
       <c r="G111"/>
       <c r="H111"/>
     </row>
-    <row r="112" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -6830,7 +6825,7 @@
       <c r="G112"/>
       <c r="H112"/>
     </row>
-    <row r="113" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
@@ -6839,7 +6834,7 @@
       <c r="G113"/>
       <c r="H113"/>
     </row>
-    <row r="114" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
@@ -6848,7 +6843,7 @@
       <c r="G114"/>
       <c r="H114"/>
     </row>
-    <row r="115" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
@@ -6857,7 +6852,7 @@
       <c r="G115"/>
       <c r="H115"/>
     </row>
-    <row r="116" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
@@ -6866,7 +6861,7 @@
       <c r="G116"/>
       <c r="H116"/>
     </row>
-    <row r="117" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
@@ -6875,7 +6870,7 @@
       <c r="G117"/>
       <c r="H117"/>
     </row>
-    <row r="118" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
@@ -6884,7 +6879,7 @@
       <c r="G118"/>
       <c r="H118"/>
     </row>
-    <row r="119" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
@@ -6893,7 +6888,7 @@
       <c r="G119"/>
       <c r="H119"/>
     </row>
-    <row r="120" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
@@ -6902,7 +6897,7 @@
       <c r="G120"/>
       <c r="H120"/>
     </row>
-    <row r="121" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
@@ -6911,7 +6906,7 @@
       <c r="G121"/>
       <c r="H121"/>
     </row>
-    <row r="122" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="11"/>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
@@ -6920,7 +6915,7 @@
       <c r="G122"/>
       <c r="H122"/>
     </row>
-    <row r="123" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="11"/>
       <c r="B123" s="11"/>
       <c r="C123" s="11"/>
@@ -6929,7 +6924,7 @@
       <c r="G123"/>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="11"/>
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
@@ -6938,7 +6933,7 @@
       <c r="G124"/>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="11"/>
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
@@ -6947,7 +6942,7 @@
       <c r="G125"/>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="11"/>
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
@@ -6956,7 +6951,7 @@
       <c r="G126"/>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="11"/>
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
@@ -6965,7 +6960,7 @@
       <c r="G127"/>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="11"/>
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
@@ -6974,7 +6969,7 @@
       <c r="G128"/>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="11"/>
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
@@ -6983,7 +6978,7 @@
       <c r="G129"/>
       <c r="H129"/>
     </row>
-    <row r="130" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="11"/>
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
@@ -6992,7 +6987,7 @@
       <c r="G130"/>
       <c r="H130"/>
     </row>
-    <row r="131" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="11"/>
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
@@ -7001,7 +6996,7 @@
       <c r="G131"/>
       <c r="H131"/>
     </row>
-    <row r="132" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="11"/>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
@@ -7010,7 +7005,7 @@
       <c r="G132"/>
       <c r="H132"/>
     </row>
-    <row r="133" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="11"/>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
@@ -7019,7 +7014,7 @@
       <c r="G133"/>
       <c r="H133"/>
     </row>
-    <row r="134" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="11"/>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
@@ -7028,7 +7023,7 @@
       <c r="G134"/>
       <c r="H134"/>
     </row>
-    <row r="135" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="11"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
@@ -7037,7 +7032,7 @@
       <c r="G135"/>
       <c r="H135"/>
     </row>
-    <row r="136" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="11"/>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
@@ -7046,7 +7041,7 @@
       <c r="G136"/>
       <c r="H136"/>
     </row>
-    <row r="137" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="11"/>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
@@ -7055,7 +7050,7 @@
       <c r="G137"/>
       <c r="H137"/>
     </row>
-    <row r="138" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="11"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
@@ -7064,7 +7059,7 @@
       <c r="G138"/>
       <c r="H138"/>
     </row>
-    <row r="139" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="11"/>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
@@ -7073,7 +7068,7 @@
       <c r="G139"/>
       <c r="H139"/>
     </row>
-    <row r="140" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="11"/>
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
@@ -7082,7 +7077,7 @@
       <c r="G140"/>
       <c r="H140"/>
     </row>
-    <row r="141" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="11"/>
       <c r="B141" s="42"/>
       <c r="C141" s="11"/>
@@ -7091,7 +7086,7 @@
       <c r="G141"/>
       <c r="H141"/>
     </row>
-    <row r="142" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="11"/>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
@@ -7100,7 +7095,7 @@
       <c r="G142"/>
       <c r="H142"/>
     </row>
-    <row r="143" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="11"/>
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
@@ -7109,7 +7104,7 @@
       <c r="G143"/>
       <c r="H143"/>
     </row>
-    <row r="144" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A144" s="11"/>
       <c r="B144" s="37"/>
       <c r="C144" s="11"/>
@@ -7118,7 +7113,7 @@
       <c r="G144"/>
       <c r="H144"/>
     </row>
-    <row r="145" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="11"/>
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
@@ -7127,7 +7122,7 @@
       <c r="G145"/>
       <c r="H145"/>
     </row>
-    <row r="146" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="11"/>
       <c r="B146" s="38"/>
       <c r="C146" s="38"/>
@@ -7136,7 +7131,7 @@
       <c r="G146"/>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="11"/>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
@@ -7145,7 +7140,7 @@
       <c r="G147"/>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="11"/>
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
@@ -7154,7 +7149,7 @@
       <c r="G148"/>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="11"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
@@ -7163,7 +7158,7 @@
       <c r="G149"/>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="11"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
@@ -7172,7 +7167,7 @@
       <c r="G150"/>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="11"/>
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
@@ -7181,7 +7176,7 @@
       <c r="G151"/>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="11"/>
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
@@ -7190,7 +7185,7 @@
       <c r="G152"/>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="11"/>
       <c r="B153" s="11"/>
       <c r="C153" s="11"/>
@@ -7199,7 +7194,7 @@
       <c r="G153"/>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="11"/>
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
@@ -7208,7 +7203,7 @@
       <c r="G154"/>
       <c r="H154"/>
     </row>
-    <row r="155" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="11"/>
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
@@ -7217,7 +7212,7 @@
       <c r="G155"/>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="11"/>
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
@@ -7226,7 +7221,7 @@
       <c r="G156"/>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="11"/>
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
@@ -7235,7 +7230,7 @@
       <c r="G157"/>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="11"/>
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
@@ -7244,7 +7239,7 @@
       <c r="G158"/>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="11"/>
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
@@ -7253,7 +7248,7 @@
       <c r="G159"/>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="11"/>
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
@@ -7262,7 +7257,7 @@
       <c r="G160"/>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="11"/>
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
@@ -7271,7 +7266,7 @@
       <c r="G161"/>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="11"/>
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
@@ -7280,7 +7275,7 @@
       <c r="G162"/>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="11"/>
       <c r="B163" s="11"/>
       <c r="C163" s="11"/>
@@ -7289,7 +7284,7 @@
       <c r="G163"/>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="11"/>
       <c r="B164" s="11"/>
       <c r="C164" s="11"/>
@@ -7298,7 +7293,7 @@
       <c r="G164"/>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="11"/>
       <c r="B165" s="11"/>
       <c r="C165" s="11"/>
@@ -7307,7 +7302,7 @@
       <c r="G165"/>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="11"/>
       <c r="B166" s="11"/>
       <c r="C166" s="11"/>
@@ -7316,7 +7311,7 @@
       <c r="G166"/>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="11"/>
       <c r="B167" s="11"/>
       <c r="C167" s="11"/>
@@ -7325,7 +7320,7 @@
       <c r="G167"/>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="11"/>
       <c r="B168" s="11"/>
       <c r="C168" s="11"/>
@@ -7334,7 +7329,7 @@
       <c r="G168"/>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="11"/>
       <c r="B169" s="11"/>
       <c r="C169" s="11"/>
@@ -7343,7 +7338,7 @@
       <c r="G169"/>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="11"/>
       <c r="B170" s="11"/>
       <c r="C170" s="11"/>
@@ -7352,7 +7347,7 @@
       <c r="G170"/>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="11"/>
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
@@ -7361,7 +7356,7 @@
       <c r="G171"/>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="11"/>
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
@@ -7370,7 +7365,7 @@
       <c r="G172"/>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="11"/>
       <c r="B173" s="11"/>
       <c r="C173" s="11"/>
@@ -7379,7 +7374,7 @@
       <c r="G173"/>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="11"/>
       <c r="B174" s="11"/>
       <c r="C174" s="11"/>
@@ -7388,7 +7383,7 @@
       <c r="G174"/>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="11"/>
       <c r="B175" s="11"/>
       <c r="C175" s="11"/>
@@ -7397,7 +7392,7 @@
       <c r="G175"/>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="11"/>
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
@@ -7406,7 +7401,7 @@
       <c r="G176"/>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="11"/>
       <c r="B177" s="11"/>
       <c r="C177" s="11"/>
@@ -7415,7 +7410,7 @@
       <c r="G177"/>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="11"/>
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
@@ -7424,7 +7419,7 @@
       <c r="G178"/>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="11"/>
       <c r="B179" s="11"/>
       <c r="C179" s="11"/>
@@ -7433,7 +7428,7 @@
       <c r="G179"/>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A180" s="11"/>
       <c r="B180" s="11"/>
       <c r="C180" s="11"/>
@@ -7442,7 +7437,7 @@
       <c r="G180"/>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="11"/>
       <c r="B181" s="11"/>
       <c r="C181" s="11"/>
@@ -7451,7 +7446,7 @@
       <c r="G181"/>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="11"/>
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
@@ -7460,7 +7455,7 @@
       <c r="G182"/>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="11"/>
       <c r="B183" s="11"/>
       <c r="C183" s="11"/>
@@ -7469,7 +7464,7 @@
       <c r="G183"/>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="11"/>
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
@@ -7478,7 +7473,7 @@
       <c r="G184"/>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="11"/>
       <c r="B185" s="11"/>
       <c r="C185" s="11"/>
@@ -7487,7 +7482,7 @@
       <c r="G185"/>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="11"/>
       <c r="B186" s="42"/>
       <c r="C186" s="11"/>
@@ -7496,7 +7491,7 @@
       <c r="G186"/>
       <c r="H186"/>
     </row>
-    <row r="187" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="11"/>
       <c r="B187" s="11"/>
       <c r="C187" s="11"/>
@@ -7505,7 +7500,7 @@
       <c r="G187"/>
       <c r="H187"/>
     </row>
-    <row r="188" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="11"/>
       <c r="B188" s="11"/>
       <c r="C188" s="11"/>
@@ -7514,7 +7509,7 @@
       <c r="G188"/>
       <c r="H188"/>
     </row>
-    <row r="189" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A189" s="11"/>
       <c r="B189" s="37"/>
       <c r="C189" s="11"/>
@@ -7523,7 +7518,7 @@
       <c r="G189"/>
       <c r="H189"/>
     </row>
-    <row r="190" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="11"/>
       <c r="B190" s="11"/>
       <c r="C190" s="11"/>
@@ -7532,7 +7527,7 @@
       <c r="G190"/>
       <c r="H190"/>
     </row>
-    <row r="191" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="11"/>
       <c r="B191" s="38"/>
       <c r="C191" s="38"/>
@@ -7541,7 +7536,7 @@
       <c r="G191"/>
       <c r="H191"/>
     </row>
-    <row r="192" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="11"/>
       <c r="B192" s="11"/>
       <c r="C192" s="11"/>
@@ -7550,7 +7545,7 @@
       <c r="G192"/>
       <c r="H192"/>
     </row>
-    <row r="193" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="11"/>
       <c r="B193" s="11"/>
       <c r="C193" s="11"/>
@@ -7559,7 +7554,7 @@
       <c r="G193"/>
       <c r="H193"/>
     </row>
-    <row r="194" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="11"/>
       <c r="B194" s="11"/>
       <c r="C194" s="11"/>
@@ -7568,7 +7563,7 @@
       <c r="G194"/>
       <c r="H194"/>
     </row>
-    <row r="195" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="11"/>
       <c r="B195" s="11"/>
       <c r="C195" s="11"/>
@@ -7577,7 +7572,7 @@
       <c r="G195"/>
       <c r="H195"/>
     </row>
-    <row r="196" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="11"/>
       <c r="B196" s="11"/>
       <c r="C196" s="11"/>
@@ -7586,7 +7581,7 @@
       <c r="G196"/>
       <c r="H196"/>
     </row>
-    <row r="197" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="11"/>
       <c r="B197" s="11"/>
       <c r="C197" s="11"/>
@@ -7595,7 +7590,7 @@
       <c r="G197"/>
       <c r="H197"/>
     </row>
-    <row r="198" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="11"/>
       <c r="B198" s="11"/>
       <c r="C198" s="11"/>
@@ -7604,7 +7599,7 @@
       <c r="G198"/>
       <c r="H198"/>
     </row>
-    <row r="199" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="11"/>
       <c r="B199" s="11"/>
       <c r="C199" s="11"/>
@@ -7613,7 +7608,7 @@
       <c r="G199"/>
       <c r="H199"/>
     </row>
-    <row r="200" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="11"/>
       <c r="B200" s="11"/>
       <c r="C200" s="11"/>
@@ -7622,7 +7617,7 @@
       <c r="G200"/>
       <c r="H200"/>
     </row>
-    <row r="201" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="11"/>
       <c r="B201" s="11"/>
       <c r="C201" s="11"/>
@@ -7631,7 +7626,7 @@
       <c r="G201"/>
       <c r="H201"/>
     </row>
-    <row r="202" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="11"/>
       <c r="B202" s="11"/>
       <c r="C202" s="11"/>
@@ -7640,7 +7635,7 @@
       <c r="G202"/>
       <c r="H202"/>
     </row>
-    <row r="203" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="11"/>
       <c r="B203" s="11"/>
       <c r="C203" s="11"/>
@@ -7649,7 +7644,7 @@
       <c r="G203"/>
       <c r="H203"/>
     </row>
-    <row r="204" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="11"/>
       <c r="B204" s="11"/>
       <c r="C204" s="11"/>
@@ -7658,7 +7653,7 @@
       <c r="G204"/>
       <c r="H204"/>
     </row>
-    <row r="205" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="11"/>
       <c r="B205" s="11"/>
       <c r="C205" s="11"/>
@@ -7667,7 +7662,7 @@
       <c r="G205"/>
       <c r="H205"/>
     </row>
-    <row r="206" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="11"/>
       <c r="B206" s="11"/>
       <c r="C206" s="11"/>
@@ -7676,7 +7671,7 @@
       <c r="G206"/>
       <c r="H206"/>
     </row>
-    <row r="207" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A207" s="11"/>
       <c r="B207" s="11"/>
       <c r="C207" s="11"/>
@@ -7685,7 +7680,7 @@
       <c r="G207"/>
       <c r="H207"/>
     </row>
-    <row r="208" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="11"/>
       <c r="B208" s="11"/>
       <c r="C208" s="11"/>
@@ -7694,7 +7689,7 @@
       <c r="G208"/>
       <c r="H208"/>
     </row>
-    <row r="209" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="11"/>
       <c r="B209" s="11"/>
       <c r="C209" s="11"/>
@@ -7703,7 +7698,7 @@
       <c r="G209"/>
       <c r="H209"/>
     </row>
-    <row r="210" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="11"/>
       <c r="B210" s="11"/>
       <c r="C210" s="11"/>
@@ -7712,7 +7707,7 @@
       <c r="G210"/>
       <c r="H210"/>
     </row>
-    <row r="211" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="11"/>
       <c r="B211" s="11"/>
       <c r="C211" s="11"/>
@@ -7721,7 +7716,7 @@
       <c r="G211"/>
       <c r="H211"/>
     </row>
-    <row r="212" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="11"/>
       <c r="B212" s="11"/>
       <c r="C212" s="11"/>
@@ -7730,7 +7725,7 @@
       <c r="G212"/>
       <c r="H212"/>
     </row>
-    <row r="213" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="11"/>
       <c r="B213" s="11"/>
       <c r="C213" s="11"/>
@@ -7739,7 +7734,7 @@
       <c r="G213"/>
       <c r="H213"/>
     </row>
-    <row r="214" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="11"/>
       <c r="B214" s="11"/>
       <c r="C214" s="11"/>
@@ -7748,7 +7743,7 @@
       <c r="G214"/>
       <c r="H214"/>
     </row>
-    <row r="215" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="11"/>
       <c r="B215" s="11"/>
       <c r="C215" s="11"/>
@@ -7757,7 +7752,7 @@
       <c r="G215"/>
       <c r="H215"/>
     </row>
-    <row r="216" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="11"/>
       <c r="B216" s="11"/>
       <c r="C216" s="11"/>
@@ -7766,7 +7761,7 @@
       <c r="G216"/>
       <c r="H216"/>
     </row>
-    <row r="217" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A217" s="11"/>
       <c r="B217" s="11"/>
       <c r="C217" s="11"/>
@@ -7775,7 +7770,7 @@
       <c r="G217"/>
       <c r="H217"/>
     </row>
-    <row r="218" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="11"/>
       <c r="B218" s="11"/>
       <c r="C218" s="11"/>
@@ -7784,7 +7779,7 @@
       <c r="G218"/>
       <c r="H218"/>
     </row>
-    <row r="219" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="11"/>
       <c r="B219" s="11"/>
       <c r="C219" s="11"/>
@@ -7793,7 +7788,7 @@
       <c r="G219"/>
       <c r="H219"/>
     </row>
-    <row r="220" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="11"/>
       <c r="B220" s="11"/>
       <c r="C220" s="11"/>
@@ -7802,7 +7797,7 @@
       <c r="G220"/>
       <c r="H220"/>
     </row>
-    <row r="221" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="11"/>
       <c r="B221" s="11"/>
       <c r="C221" s="11"/>
@@ -7811,7 +7806,7 @@
       <c r="G221"/>
       <c r="H221"/>
     </row>
-    <row r="222" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="11"/>
       <c r="B222" s="11"/>
       <c r="C222" s="11"/>
@@ -7820,7 +7815,7 @@
       <c r="G222"/>
       <c r="H222"/>
     </row>
-    <row r="223" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="11"/>
       <c r="B223" s="11"/>
       <c r="C223" s="11"/>
@@ -7829,34 +7824,34 @@
       <c r="G223"/>
       <c r="H223"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="11"/>
       <c r="B224" s="11"/>
       <c r="C224" s="11"/>
       <c r="D224" s="40"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="11"/>
       <c r="B225" s="11"/>
       <c r="C225" s="11"/>
       <c r="D225" s="40"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="11"/>
       <c r="B226" s="11"/>
       <c r="C226" s="11"/>
       <c r="D226" s="40"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="11"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="11"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="11"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="11"/>
     </row>
   </sheetData>
@@ -7875,33 +7870,33 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="19" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="3" max="3" width="75.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B2" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B3" s="17"/>
       <c r="C3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="20" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="19"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="22" t="s">
         <v>13</v>
       </c>
@@ -7924,7 +7919,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="26" t="s">
         <v>24</v>
       </c>
@@ -7949,7 +7944,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="26" t="s">
         <v>26</v>
       </c>
@@ -7974,7 +7969,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="26" t="s">
         <v>24</v>
       </c>
@@ -7999,7 +7994,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="26" t="s">
         <v>30</v>
       </c>
@@ -8024,7 +8019,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="29"/>
       <c r="B11" s="26" t="s">
         <v>30</v>
@@ -8050,7 +8045,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="26" t="s">
         <v>24</v>
       </c>
@@ -8075,7 +8070,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
       <c r="D13" s="27"/>
@@ -8090,7 +8085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="27"/>
@@ -8105,7 +8100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
       <c r="D15" s="27"/>
@@ -8120,7 +8115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
       <c r="D16" s="27"/>
@@ -8135,7 +8130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
       <c r="D17" s="27"/>
@@ -8150,7 +8145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
       <c r="D18" s="27"/>
@@ -8165,7 +8160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
       <c r="D19" s="27"/>
@@ -8180,7 +8175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
       <c r="D20" s="27"/>
@@ -8195,7 +8190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
       <c r="D21" s="27"/>
@@ -8210,7 +8205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
       <c r="D22" s="27"/>
@@ -8225,7 +8220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="26"/>
       <c r="C23" s="30"/>
       <c r="D23" s="27"/>
@@ -8240,7 +8235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
       <c r="D24" s="27"/>
@@ -8255,7 +8250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
       <c r="D25" s="27"/>
@@ -8270,7 +8265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
       <c r="D26" s="27"/>
@@ -8285,7 +8280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
       <c r="D27" s="27"/>
@@ -8300,7 +8295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="D28" s="27"/>
@@ -8315,7 +8310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="27"/>
@@ -8330,7 +8325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="27"/>
@@ -8345,7 +8340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="27"/>
@@ -8360,7 +8355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="27"/>
@@ -8375,7 +8370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="27"/>
@@ -8390,7 +8385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="27"/>
@@ -8405,7 +8400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="27"/>
@@ -8420,7 +8415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="27"/>
@@ -8435,7 +8430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="27"/>
@@ -8450,7 +8445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
       <c r="D38" s="27"/>
@@ -8465,7 +8460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="D39" s="27"/>
@@ -8480,7 +8475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
       <c r="D40" s="27"/>
@@ -8495,7 +8490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
       <c r="D41" s="27"/>
@@ -8510,7 +8505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="27"/>
@@ -8525,7 +8520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
       <c r="D43" s="27"/>
@@ -8540,7 +8535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="27"/>
@@ -8555,7 +8550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="27"/>
@@ -8570,7 +8565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="27"/>
@@ -8585,7 +8580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="11"/>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
@@ -8601,7 +8596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="11"/>
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
@@ -8617,7 +8612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="11"/>
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
@@ -8633,7 +8628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="11"/>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
@@ -8649,7 +8644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="11"/>
       <c r="B51"/>
       <c r="C51"/>
@@ -8665,7 +8660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -8681,7 +8676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="11"/>
       <c r="B53" s="50"/>
       <c r="C53" s="11"/>
@@ -8697,7 +8692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="11"/>
       <c r="B54" s="50"/>
       <c r="C54" s="11"/>
@@ -8713,7 +8708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="11"/>
       <c r="B55" s="30"/>
       <c r="C55" s="50"/>
@@ -8729,7 +8724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="11"/>
       <c r="B56" s="50"/>
       <c r="C56" s="11"/>
@@ -8745,7 +8740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="11"/>
       <c r="B57" s="50"/>
       <c r="C57" s="11"/>
@@ -8761,7 +8756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="11"/>
       <c r="B58" s="50"/>
       <c r="C58" s="30"/>
@@ -8777,7 +8772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="11"/>
       <c r="B59" s="50"/>
       <c r="C59" s="11"/>
@@ -8793,7 +8788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="11"/>
       <c r="B60" s="50"/>
       <c r="C60" s="11"/>
@@ -8809,7 +8804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="11"/>
       <c r="B61" s="50"/>
       <c r="C61" s="11"/>
@@ -8825,7 +8820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="11"/>
       <c r="B62" s="50"/>
       <c r="C62" s="11"/>
@@ -8841,7 +8836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="11"/>
       <c r="B63" s="50"/>
       <c r="C63" s="11"/>
@@ -8857,7 +8852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="11"/>
       <c r="B64" s="50"/>
       <c r="C64" s="11"/>
@@ -8873,7 +8868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="11"/>
       <c r="B65" s="50"/>
       <c r="C65" s="11"/>
@@ -8889,7 +8884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="11"/>
       <c r="B66" s="50"/>
       <c r="C66" s="11"/>
@@ -8905,7 +8900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="11"/>
       <c r="B67" s="43" t="s">
         <v>19</v>
@@ -8920,7 +8915,7 @@
       </c>
       <c r="H67" s="54"/>
     </row>
-    <row r="68" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -8929,7 +8924,7 @@
       <c r="G68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -8938,7 +8933,7 @@
       <c r="G69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -8947,7 +8942,7 @@
       <c r="G70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -8956,7 +8951,7 @@
       <c r="G71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -8965,7 +8960,7 @@
       <c r="G72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -8974,7 +8969,7 @@
       <c r="G73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -8983,7 +8978,7 @@
       <c r="G74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -8992,7 +8987,7 @@
       <c r="G75"/>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -9001,7 +8996,7 @@
       <c r="G76"/>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -9010,7 +9005,7 @@
       <c r="G77"/>
       <c r="H77"/>
     </row>
-    <row r="78" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -9019,7 +9014,7 @@
       <c r="G78"/>
       <c r="H78"/>
     </row>
-    <row r="79" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -9028,7 +9023,7 @@
       <c r="G79"/>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -9037,7 +9032,7 @@
       <c r="G80"/>
       <c r="H80"/>
     </row>
-    <row r="81" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -9046,7 +9041,7 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -9055,7 +9050,7 @@
       <c r="G82"/>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -9064,7 +9059,7 @@
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -9073,7 +9068,7 @@
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -9082,7 +9077,7 @@
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -9091,7 +9086,7 @@
       <c r="G86"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -9100,7 +9095,7 @@
       <c r="G87"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -9109,7 +9104,7 @@
       <c r="G88"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -9118,7 +9113,7 @@
       <c r="G89"/>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -9127,7 +9122,7 @@
       <c r="G90"/>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -9136,7 +9131,7 @@
       <c r="G91"/>
       <c r="H91"/>
     </row>
-    <row r="92" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -9145,7 +9140,7 @@
       <c r="G92"/>
       <c r="H92"/>
     </row>
-    <row r="93" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -9154,7 +9149,7 @@
       <c r="G93"/>
       <c r="H93"/>
     </row>
-    <row r="94" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -9163,7 +9158,7 @@
       <c r="G94"/>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="11"/>
       <c r="B95" s="42"/>
       <c r="C95" s="11"/>
@@ -9172,7 +9167,7 @@
       <c r="G95"/>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -9181,7 +9176,7 @@
       <c r="G96"/>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -9190,7 +9185,7 @@
       <c r="G97"/>
       <c r="H97"/>
     </row>
-    <row r="98" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A98" s="11"/>
       <c r="B98" s="37"/>
       <c r="C98" s="11"/>
@@ -9199,7 +9194,7 @@
       <c r="G98"/>
       <c r="H98"/>
     </row>
-    <row r="99" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -9208,7 +9203,7 @@
       <c r="G99"/>
       <c r="H99"/>
     </row>
-    <row r="100" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="11"/>
       <c r="B100" s="38"/>
       <c r="C100" s="38"/>
@@ -9217,7 +9212,7 @@
       <c r="G100"/>
       <c r="H100"/>
     </row>
-    <row r="101" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -9226,7 +9221,7 @@
       <c r="G101"/>
       <c r="H101"/>
     </row>
-    <row r="102" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -9235,7 +9230,7 @@
       <c r="G102"/>
       <c r="H102"/>
     </row>
-    <row r="103" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -9244,7 +9239,7 @@
       <c r="G103"/>
       <c r="H103"/>
     </row>
-    <row r="104" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -9253,7 +9248,7 @@
       <c r="G104"/>
       <c r="H104"/>
     </row>
-    <row r="105" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -9262,7 +9257,7 @@
       <c r="G105"/>
       <c r="H105"/>
     </row>
-    <row r="106" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -9271,7 +9266,7 @@
       <c r="G106"/>
       <c r="H106"/>
     </row>
-    <row r="107" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -9280,7 +9275,7 @@
       <c r="G107"/>
       <c r="H107"/>
     </row>
-    <row r="108" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -9289,7 +9284,7 @@
       <c r="G108"/>
       <c r="H108"/>
     </row>
-    <row r="109" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -9298,7 +9293,7 @@
       <c r="G109"/>
       <c r="H109"/>
     </row>
-    <row r="110" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -9307,7 +9302,7 @@
       <c r="G110"/>
       <c r="H110"/>
     </row>
-    <row r="111" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -9316,7 +9311,7 @@
       <c r="G111"/>
       <c r="H111"/>
     </row>
-    <row r="112" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -9325,7 +9320,7 @@
       <c r="G112"/>
       <c r="H112"/>
     </row>
-    <row r="113" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
@@ -9334,7 +9329,7 @@
       <c r="G113"/>
       <c r="H113"/>
     </row>
-    <row r="114" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
@@ -9343,7 +9338,7 @@
       <c r="G114"/>
       <c r="H114"/>
     </row>
-    <row r="115" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
@@ -9352,7 +9347,7 @@
       <c r="G115"/>
       <c r="H115"/>
     </row>
-    <row r="116" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
@@ -9361,7 +9356,7 @@
       <c r="G116"/>
       <c r="H116"/>
     </row>
-    <row r="117" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
@@ -9370,7 +9365,7 @@
       <c r="G117"/>
       <c r="H117"/>
     </row>
-    <row r="118" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
@@ -9379,7 +9374,7 @@
       <c r="G118"/>
       <c r="H118"/>
     </row>
-    <row r="119" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
@@ -9388,7 +9383,7 @@
       <c r="G119"/>
       <c r="H119"/>
     </row>
-    <row r="120" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
@@ -9397,7 +9392,7 @@
       <c r="G120"/>
       <c r="H120"/>
     </row>
-    <row r="121" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
@@ -9406,7 +9401,7 @@
       <c r="G121"/>
       <c r="H121"/>
     </row>
-    <row r="122" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="11"/>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
@@ -9415,7 +9410,7 @@
       <c r="G122"/>
       <c r="H122"/>
     </row>
-    <row r="123" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="11"/>
       <c r="B123" s="11"/>
       <c r="C123" s="11"/>
@@ -9424,7 +9419,7 @@
       <c r="G123"/>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="11"/>
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
@@ -9433,7 +9428,7 @@
       <c r="G124"/>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="11"/>
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
@@ -9442,7 +9437,7 @@
       <c r="G125"/>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="11"/>
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
@@ -9451,7 +9446,7 @@
       <c r="G126"/>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="11"/>
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
@@ -9460,7 +9455,7 @@
       <c r="G127"/>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="11"/>
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
@@ -9469,7 +9464,7 @@
       <c r="G128"/>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="11"/>
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
@@ -9478,7 +9473,7 @@
       <c r="G129"/>
       <c r="H129"/>
     </row>
-    <row r="130" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="11"/>
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
@@ -9487,7 +9482,7 @@
       <c r="G130"/>
       <c r="H130"/>
     </row>
-    <row r="131" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="11"/>
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
@@ -9496,7 +9491,7 @@
       <c r="G131"/>
       <c r="H131"/>
     </row>
-    <row r="132" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="11"/>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
@@ -9505,7 +9500,7 @@
       <c r="G132"/>
       <c r="H132"/>
     </row>
-    <row r="133" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="11"/>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
@@ -9514,7 +9509,7 @@
       <c r="G133"/>
       <c r="H133"/>
     </row>
-    <row r="134" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="11"/>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
@@ -9523,7 +9518,7 @@
       <c r="G134"/>
       <c r="H134"/>
     </row>
-    <row r="135" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="11"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
@@ -9532,7 +9527,7 @@
       <c r="G135"/>
       <c r="H135"/>
     </row>
-    <row r="136" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="11"/>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
@@ -9541,7 +9536,7 @@
       <c r="G136"/>
       <c r="H136"/>
     </row>
-    <row r="137" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="11"/>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
@@ -9550,7 +9545,7 @@
       <c r="G137"/>
       <c r="H137"/>
     </row>
-    <row r="138" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="11"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
@@ -9559,7 +9554,7 @@
       <c r="G138"/>
       <c r="H138"/>
     </row>
-    <row r="139" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="11"/>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
@@ -9568,7 +9563,7 @@
       <c r="G139"/>
       <c r="H139"/>
     </row>
-    <row r="140" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="11"/>
       <c r="B140" s="42"/>
       <c r="C140" s="11"/>
@@ -9577,7 +9572,7 @@
       <c r="G140"/>
       <c r="H140"/>
     </row>
-    <row r="141" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="11"/>
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
@@ -9586,7 +9581,7 @@
       <c r="G141"/>
       <c r="H141"/>
     </row>
-    <row r="142" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="11"/>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
@@ -9595,7 +9590,7 @@
       <c r="G142"/>
       <c r="H142"/>
     </row>
-    <row r="143" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A143" s="11"/>
       <c r="B143" s="37"/>
       <c r="C143" s="11"/>
@@ -9604,7 +9599,7 @@
       <c r="G143"/>
       <c r="H143"/>
     </row>
-    <row r="144" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="11"/>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
@@ -9613,7 +9608,7 @@
       <c r="G144"/>
       <c r="H144"/>
     </row>
-    <row r="145" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="11"/>
       <c r="B145" s="38"/>
       <c r="C145" s="38"/>
@@ -9622,7 +9617,7 @@
       <c r="G145"/>
       <c r="H145"/>
     </row>
-    <row r="146" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="11"/>
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
@@ -9631,7 +9626,7 @@
       <c r="G146"/>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="11"/>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
@@ -9640,7 +9635,7 @@
       <c r="G147"/>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="11"/>
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
@@ -9649,7 +9644,7 @@
       <c r="G148"/>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="11"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
@@ -9658,7 +9653,7 @@
       <c r="G149"/>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="11"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
@@ -9667,7 +9662,7 @@
       <c r="G150"/>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="11"/>
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
@@ -9676,7 +9671,7 @@
       <c r="G151"/>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="11"/>
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
@@ -9685,7 +9680,7 @@
       <c r="G152"/>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="11"/>
       <c r="B153" s="11"/>
       <c r="C153" s="11"/>
@@ -9694,7 +9689,7 @@
       <c r="G153"/>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="11"/>
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
@@ -9703,7 +9698,7 @@
       <c r="G154"/>
       <c r="H154"/>
     </row>
-    <row r="155" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="11"/>
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
@@ -9712,7 +9707,7 @@
       <c r="G155"/>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="11"/>
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
@@ -9721,7 +9716,7 @@
       <c r="G156"/>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="11"/>
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
@@ -9730,7 +9725,7 @@
       <c r="G157"/>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="11"/>
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
@@ -9739,7 +9734,7 @@
       <c r="G158"/>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="11"/>
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
@@ -9748,7 +9743,7 @@
       <c r="G159"/>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="11"/>
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
@@ -9757,7 +9752,7 @@
       <c r="G160"/>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="11"/>
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
@@ -9766,7 +9761,7 @@
       <c r="G161"/>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="11"/>
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
@@ -9775,7 +9770,7 @@
       <c r="G162"/>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="11"/>
       <c r="B163" s="11"/>
       <c r="C163" s="11"/>
@@ -9784,7 +9779,7 @@
       <c r="G163"/>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="11"/>
       <c r="B164" s="11"/>
       <c r="C164" s="11"/>
@@ -9793,7 +9788,7 @@
       <c r="G164"/>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="11"/>
       <c r="B165" s="11"/>
       <c r="C165" s="11"/>
@@ -9802,7 +9797,7 @@
       <c r="G165"/>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="11"/>
       <c r="B166" s="11"/>
       <c r="C166" s="11"/>
@@ -9811,7 +9806,7 @@
       <c r="G166"/>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="11"/>
       <c r="B167" s="11"/>
       <c r="C167" s="11"/>
@@ -9820,7 +9815,7 @@
       <c r="G167"/>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="11"/>
       <c r="B168" s="11"/>
       <c r="C168" s="11"/>
@@ -9829,7 +9824,7 @@
       <c r="G168"/>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="11"/>
       <c r="B169" s="11"/>
       <c r="C169" s="11"/>
@@ -9838,7 +9833,7 @@
       <c r="G169"/>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="11"/>
       <c r="B170" s="11"/>
       <c r="C170" s="11"/>
@@ -9847,7 +9842,7 @@
       <c r="G170"/>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="11"/>
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
@@ -9856,7 +9851,7 @@
       <c r="G171"/>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="11"/>
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
@@ -9865,7 +9860,7 @@
       <c r="G172"/>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="11"/>
       <c r="B173" s="11"/>
       <c r="C173" s="11"/>
@@ -9874,7 +9869,7 @@
       <c r="G173"/>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="11"/>
       <c r="B174" s="11"/>
       <c r="C174" s="11"/>
@@ -9883,7 +9878,7 @@
       <c r="G174"/>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="11"/>
       <c r="B175" s="11"/>
       <c r="C175" s="11"/>
@@ -9892,7 +9887,7 @@
       <c r="G175"/>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="11"/>
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
@@ -9901,7 +9896,7 @@
       <c r="G176"/>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="11"/>
       <c r="B177" s="11"/>
       <c r="C177" s="11"/>
@@ -9910,7 +9905,7 @@
       <c r="G177"/>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="11"/>
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
@@ -9919,7 +9914,7 @@
       <c r="G178"/>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="11"/>
       <c r="B179" s="11"/>
       <c r="C179" s="11"/>
@@ -9928,7 +9923,7 @@
       <c r="G179"/>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A180" s="11"/>
       <c r="B180" s="11"/>
       <c r="C180" s="11"/>
@@ -9937,7 +9932,7 @@
       <c r="G180"/>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="11"/>
       <c r="B181" s="11"/>
       <c r="C181" s="11"/>
@@ -9946,7 +9941,7 @@
       <c r="G181"/>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="11"/>
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
@@ -9955,7 +9950,7 @@
       <c r="G182"/>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="11"/>
       <c r="B183" s="11"/>
       <c r="C183" s="11"/>
@@ -9964,7 +9959,7 @@
       <c r="G183"/>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="11"/>
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
@@ -9973,7 +9968,7 @@
       <c r="G184"/>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="11"/>
       <c r="B185" s="42"/>
       <c r="C185" s="11"/>
@@ -9982,7 +9977,7 @@
       <c r="G185"/>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="11"/>
       <c r="B186" s="11"/>
       <c r="C186" s="11"/>
@@ -9991,7 +9986,7 @@
       <c r="G186"/>
       <c r="H186"/>
     </row>
-    <row r="187" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="11"/>
       <c r="B187" s="11"/>
       <c r="C187" s="11"/>
@@ -10000,7 +9995,7 @@
       <c r="G187"/>
       <c r="H187"/>
     </row>
-    <row r="188" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A188" s="11"/>
       <c r="B188" s="37"/>
       <c r="C188" s="11"/>
@@ -10009,7 +10004,7 @@
       <c r="G188"/>
       <c r="H188"/>
     </row>
-    <row r="189" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A189" s="11"/>
       <c r="B189" s="11"/>
       <c r="C189" s="11"/>
@@ -10018,7 +10013,7 @@
       <c r="G189"/>
       <c r="H189"/>
     </row>
-    <row r="190" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="11"/>
       <c r="B190" s="38"/>
       <c r="C190" s="38"/>
@@ -10027,7 +10022,7 @@
       <c r="G190"/>
       <c r="H190"/>
     </row>
-    <row r="191" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="11"/>
       <c r="B191" s="11"/>
       <c r="C191" s="11"/>
@@ -10036,7 +10031,7 @@
       <c r="G191"/>
       <c r="H191"/>
     </row>
-    <row r="192" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="11"/>
       <c r="B192" s="11"/>
       <c r="C192" s="11"/>
@@ -10045,7 +10040,7 @@
       <c r="G192"/>
       <c r="H192"/>
     </row>
-    <row r="193" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="11"/>
       <c r="B193" s="11"/>
       <c r="C193" s="11"/>
@@ -10054,7 +10049,7 @@
       <c r="G193"/>
       <c r="H193"/>
     </row>
-    <row r="194" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="11"/>
       <c r="B194" s="11"/>
       <c r="C194" s="11"/>
@@ -10063,7 +10058,7 @@
       <c r="G194"/>
       <c r="H194"/>
     </row>
-    <row r="195" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="11"/>
       <c r="B195" s="11"/>
       <c r="C195" s="11"/>
@@ -10072,7 +10067,7 @@
       <c r="G195"/>
       <c r="H195"/>
     </row>
-    <row r="196" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="11"/>
       <c r="B196" s="11"/>
       <c r="C196" s="11"/>
@@ -10081,7 +10076,7 @@
       <c r="G196"/>
       <c r="H196"/>
     </row>
-    <row r="197" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="11"/>
       <c r="B197" s="11"/>
       <c r="C197" s="11"/>
@@ -10090,7 +10085,7 @@
       <c r="G197"/>
       <c r="H197"/>
     </row>
-    <row r="198" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="11"/>
       <c r="B198" s="11"/>
       <c r="C198" s="11"/>
@@ -10099,7 +10094,7 @@
       <c r="G198"/>
       <c r="H198"/>
     </row>
-    <row r="199" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="11"/>
       <c r="B199" s="11"/>
       <c r="C199" s="11"/>
@@ -10108,7 +10103,7 @@
       <c r="G199"/>
       <c r="H199"/>
     </row>
-    <row r="200" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="11"/>
       <c r="B200" s="11"/>
       <c r="C200" s="11"/>
@@ -10117,7 +10112,7 @@
       <c r="G200"/>
       <c r="H200"/>
     </row>
-    <row r="201" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="11"/>
       <c r="B201" s="11"/>
       <c r="C201" s="11"/>
@@ -10126,7 +10121,7 @@
       <c r="G201"/>
       <c r="H201"/>
     </row>
-    <row r="202" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="11"/>
       <c r="B202" s="11"/>
       <c r="C202" s="11"/>
@@ -10135,7 +10130,7 @@
       <c r="G202"/>
       <c r="H202"/>
     </row>
-    <row r="203" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="11"/>
       <c r="B203" s="11"/>
       <c r="C203" s="11"/>
@@ -10144,7 +10139,7 @@
       <c r="G203"/>
       <c r="H203"/>
     </row>
-    <row r="204" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="11"/>
       <c r="B204" s="11"/>
       <c r="C204" s="11"/>
@@ -10153,7 +10148,7 @@
       <c r="G204"/>
       <c r="H204"/>
     </row>
-    <row r="205" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="11"/>
       <c r="B205" s="11"/>
       <c r="C205" s="11"/>
@@ -10162,7 +10157,7 @@
       <c r="G205"/>
       <c r="H205"/>
     </row>
-    <row r="206" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="11"/>
       <c r="B206" s="11"/>
       <c r="C206" s="11"/>
@@ -10171,7 +10166,7 @@
       <c r="G206"/>
       <c r="H206"/>
     </row>
-    <row r="207" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A207" s="11"/>
       <c r="B207" s="11"/>
       <c r="C207" s="11"/>
@@ -10180,7 +10175,7 @@
       <c r="G207"/>
       <c r="H207"/>
     </row>
-    <row r="208" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="11"/>
       <c r="B208" s="11"/>
       <c r="C208" s="11"/>
@@ -10189,7 +10184,7 @@
       <c r="G208"/>
       <c r="H208"/>
     </row>
-    <row r="209" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="11"/>
       <c r="B209" s="11"/>
       <c r="C209" s="11"/>
@@ -10198,7 +10193,7 @@
       <c r="G209"/>
       <c r="H209"/>
     </row>
-    <row r="210" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="11"/>
       <c r="B210" s="11"/>
       <c r="C210" s="11"/>
@@ -10207,7 +10202,7 @@
       <c r="G210"/>
       <c r="H210"/>
     </row>
-    <row r="211" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="11"/>
       <c r="B211" s="11"/>
       <c r="C211" s="11"/>
@@ -10216,7 +10211,7 @@
       <c r="G211"/>
       <c r="H211"/>
     </row>
-    <row r="212" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="11"/>
       <c r="B212" s="11"/>
       <c r="C212" s="11"/>
@@ -10225,7 +10220,7 @@
       <c r="G212"/>
       <c r="H212"/>
     </row>
-    <row r="213" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="11"/>
       <c r="B213" s="11"/>
       <c r="C213" s="11"/>
@@ -10234,7 +10229,7 @@
       <c r="G213"/>
       <c r="H213"/>
     </row>
-    <row r="214" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="11"/>
       <c r="B214" s="11"/>
       <c r="C214" s="11"/>
@@ -10243,7 +10238,7 @@
       <c r="G214"/>
       <c r="H214"/>
     </row>
-    <row r="215" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="11"/>
       <c r="B215" s="11"/>
       <c r="C215" s="11"/>
@@ -10252,7 +10247,7 @@
       <c r="G215"/>
       <c r="H215"/>
     </row>
-    <row r="216" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="11"/>
       <c r="B216" s="11"/>
       <c r="C216" s="11"/>
@@ -10261,7 +10256,7 @@
       <c r="G216"/>
       <c r="H216"/>
     </row>
-    <row r="217" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A217" s="11"/>
       <c r="B217" s="11"/>
       <c r="C217" s="11"/>
@@ -10270,7 +10265,7 @@
       <c r="G217"/>
       <c r="H217"/>
     </row>
-    <row r="218" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="11"/>
       <c r="B218" s="11"/>
       <c r="C218" s="11"/>
@@ -10279,7 +10274,7 @@
       <c r="G218"/>
       <c r="H218"/>
     </row>
-    <row r="219" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="11"/>
       <c r="B219" s="11"/>
       <c r="C219" s="11"/>
@@ -10288,7 +10283,7 @@
       <c r="G219"/>
       <c r="H219"/>
     </row>
-    <row r="220" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="11"/>
       <c r="B220" s="11"/>
       <c r="C220" s="11"/>
@@ -10297,7 +10292,7 @@
       <c r="G220"/>
       <c r="H220"/>
     </row>
-    <row r="221" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="11"/>
       <c r="B221" s="11"/>
       <c r="C221" s="11"/>
@@ -10306,7 +10301,7 @@
       <c r="G221"/>
       <c r="H221"/>
     </row>
-    <row r="222" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="11"/>
       <c r="B222" s="11"/>
       <c r="C222" s="11"/>
@@ -10315,7 +10310,7 @@
       <c r="G222"/>
       <c r="H222"/>
     </row>
-    <row r="223" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="11"/>
       <c r="B223" s="11"/>
       <c r="C223" s="11"/>
@@ -10324,31 +10319,31 @@
       <c r="G223"/>
       <c r="H223"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="11"/>
       <c r="B224" s="11"/>
       <c r="C224" s="11"/>
       <c r="D224" s="40"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="11"/>
       <c r="B225" s="11"/>
       <c r="C225" s="11"/>
       <c r="D225" s="40"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="11"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="11"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="11"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="11"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="11"/>
     </row>
   </sheetData>
@@ -10363,37 +10358,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A13F21B-0FD5-4A2C-BFFD-2CC06888678E}">
   <dimension ref="A2:H230"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="19" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="3" max="3" width="75.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B2" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B3" s="17"/>
       <c r="C3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="20" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="19"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="22" t="s">
         <v>13</v>
       </c>
@@ -10416,7 +10411,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="26" t="s">
         <v>24</v>
       </c>
@@ -10441,7 +10436,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="26" t="s">
         <v>26</v>
       </c>
@@ -10466,7 +10461,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="26" t="s">
         <v>24</v>
       </c>
@@ -10491,7 +10486,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="29"/>
       <c r="B10" s="26" t="s">
         <v>30</v>
@@ -10517,7 +10512,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" s="26" t="s">
         <v>30</v>
       </c>
@@ -10542,7 +10537,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="26" t="s">
         <v>24</v>
       </c>
@@ -10567,22 +10562,32 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="27">
+        <v>43398</v>
+      </c>
+      <c r="E13" s="45">
+        <v>0.375</v>
+      </c>
+      <c r="F13" s="45">
+        <v>0.4375</v>
+      </c>
       <c r="G13">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H13">
         <f>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="27"/>
@@ -10597,7 +10602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
       <c r="D15" s="27"/>
@@ -10612,7 +10617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
       <c r="D16" s="27"/>
@@ -10627,7 +10632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
       <c r="D17" s="27"/>
@@ -10642,7 +10647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
       <c r="D18" s="27"/>
@@ -10657,7 +10662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
       <c r="D19" s="27"/>
@@ -10672,7 +10677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
       <c r="D20" s="27"/>
@@ -10687,7 +10692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
       <c r="D21" s="27"/>
@@ -10702,7 +10707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
       <c r="D22" s="27"/>
@@ -10717,7 +10722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
       <c r="D23" s="27"/>
@@ -10732,7 +10737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
       <c r="D24" s="27"/>
@@ -10747,7 +10752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="D25" s="27"/>
@@ -10762,7 +10767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
       <c r="D26" s="27"/>
@@ -10777,7 +10782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
       <c r="D27" s="27"/>
@@ -10792,7 +10797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="D28" s="27"/>
@@ -10807,7 +10812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="27"/>
@@ -10822,7 +10827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="27"/>
@@ -10837,7 +10842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="27"/>
@@ -10852,7 +10857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="27"/>
@@ -10867,7 +10872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="27"/>
@@ -10882,7 +10887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="27"/>
@@ -10897,7 +10902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="27"/>
@@ -10912,7 +10917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="27"/>
@@ -10927,7 +10932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="27"/>
@@ -10942,7 +10947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
       <c r="D38" s="27"/>
@@ -10957,7 +10962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="D39" s="27"/>
@@ -10972,7 +10977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
       <c r="D40" s="27"/>
@@ -10987,7 +10992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
       <c r="D41" s="27"/>
@@ -11002,7 +11007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="27"/>
@@ -11017,7 +11022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
       <c r="D43" s="27"/>
@@ -11032,7 +11037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="27"/>
@@ -11047,7 +11052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="27"/>
@@ -11062,7 +11067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="27"/>
@@ -11077,7 +11082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="11"/>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
@@ -11093,7 +11098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="11"/>
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
@@ -11109,7 +11114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="11"/>
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
@@ -11125,7 +11130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="11"/>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
@@ -11141,7 +11146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="11"/>
       <c r="B51" s="35" t="s">
         <v>19</v>
@@ -11152,11 +11157,11 @@
       <c r="F51" s="36"/>
       <c r="G51">
         <f>SUM(G7:G50)</f>
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="11"/>
       <c r="B52"/>
       <c r="C52"/>
@@ -11165,7 +11170,7 @@
       <c r="G52"/>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -11174,7 +11179,7 @@
       <c r="G53"/>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" s="11"/>
       <c r="B54" s="37"/>
       <c r="C54" s="11"/>
@@ -11183,7 +11188,7 @@
       <c r="G54"/>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -11192,7 +11197,7 @@
       <c r="G55"/>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="11"/>
       <c r="B56" s="38"/>
       <c r="C56" s="38"/>
@@ -11201,7 +11206,7 @@
       <c r="G56"/>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -11210,7 +11215,7 @@
       <c r="G57"/>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -11219,7 +11224,7 @@
       <c r="G58"/>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -11228,7 +11233,7 @@
       <c r="G59"/>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -11237,7 +11242,7 @@
       <c r="G60"/>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -11246,7 +11251,7 @@
       <c r="G61"/>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -11255,7 +11260,7 @@
       <c r="G62"/>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -11264,7 +11269,7 @@
       <c r="G63"/>
       <c r="H63"/>
     </row>
-    <row r="64" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="11"/>
       <c r="B64" s="41"/>
       <c r="C64" s="11"/>
@@ -11273,7 +11278,7 @@
       <c r="G64"/>
       <c r="H64"/>
     </row>
-    <row r="65" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -11282,7 +11287,7 @@
       <c r="G65"/>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -11291,7 +11296,7 @@
       <c r="G66"/>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -11300,7 +11305,7 @@
       <c r="G67"/>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -11309,7 +11314,7 @@
       <c r="G68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -11318,7 +11323,7 @@
       <c r="G69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -11327,7 +11332,7 @@
       <c r="G70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -11336,7 +11341,7 @@
       <c r="G71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -11345,7 +11350,7 @@
       <c r="G72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -11354,7 +11359,7 @@
       <c r="G73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -11363,7 +11368,7 @@
       <c r="G74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -11372,7 +11377,7 @@
       <c r="G75"/>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -11381,7 +11386,7 @@
       <c r="G76"/>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -11390,7 +11395,7 @@
       <c r="G77"/>
       <c r="H77"/>
     </row>
-    <row r="78" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -11399,7 +11404,7 @@
       <c r="G78"/>
       <c r="H78"/>
     </row>
-    <row r="79" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -11408,7 +11413,7 @@
       <c r="G79"/>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -11417,7 +11422,7 @@
       <c r="G80"/>
       <c r="H80"/>
     </row>
-    <row r="81" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -11426,7 +11431,7 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -11435,7 +11440,7 @@
       <c r="G82"/>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -11444,7 +11449,7 @@
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -11453,7 +11458,7 @@
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -11462,7 +11467,7 @@
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -11471,7 +11476,7 @@
       <c r="G86"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -11480,7 +11485,7 @@
       <c r="G87"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -11489,7 +11494,7 @@
       <c r="G88"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -11498,7 +11503,7 @@
       <c r="G89"/>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -11507,7 +11512,7 @@
       <c r="G90"/>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -11516,7 +11521,7 @@
       <c r="G91"/>
       <c r="H91"/>
     </row>
-    <row r="92" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -11525,7 +11530,7 @@
       <c r="G92"/>
       <c r="H92"/>
     </row>
-    <row r="93" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -11534,7 +11539,7 @@
       <c r="G93"/>
       <c r="H93"/>
     </row>
-    <row r="94" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -11543,7 +11548,7 @@
       <c r="G94"/>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -11552,7 +11557,7 @@
       <c r="G95"/>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="11"/>
       <c r="B96" s="42"/>
       <c r="C96" s="11"/>
@@ -11561,7 +11566,7 @@
       <c r="G96"/>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -11570,7 +11575,7 @@
       <c r="G97"/>
       <c r="H97"/>
     </row>
-    <row r="98" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -11579,7 +11584,7 @@
       <c r="G98"/>
       <c r="H98"/>
     </row>
-    <row r="99" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A99" s="11"/>
       <c r="B99" s="37"/>
       <c r="C99" s="11"/>
@@ -11588,7 +11593,7 @@
       <c r="G99"/>
       <c r="H99"/>
     </row>
-    <row r="100" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -11597,7 +11602,7 @@
       <c r="G100"/>
       <c r="H100"/>
     </row>
-    <row r="101" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="11"/>
       <c r="B101" s="38"/>
       <c r="C101" s="38"/>
@@ -11606,7 +11611,7 @@
       <c r="G101"/>
       <c r="H101"/>
     </row>
-    <row r="102" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -11615,7 +11620,7 @@
       <c r="G102"/>
       <c r="H102"/>
     </row>
-    <row r="103" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -11624,7 +11629,7 @@
       <c r="G103"/>
       <c r="H103"/>
     </row>
-    <row r="104" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -11633,7 +11638,7 @@
       <c r="G104"/>
       <c r="H104"/>
     </row>
-    <row r="105" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -11642,7 +11647,7 @@
       <c r="G105"/>
       <c r="H105"/>
     </row>
-    <row r="106" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -11651,7 +11656,7 @@
       <c r="G106"/>
       <c r="H106"/>
     </row>
-    <row r="107" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -11660,7 +11665,7 @@
       <c r="G107"/>
       <c r="H107"/>
     </row>
-    <row r="108" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -11669,7 +11674,7 @@
       <c r="G108"/>
       <c r="H108"/>
     </row>
-    <row r="109" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -11678,7 +11683,7 @@
       <c r="G109"/>
       <c r="H109"/>
     </row>
-    <row r="110" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -11687,7 +11692,7 @@
       <c r="G110"/>
       <c r="H110"/>
     </row>
-    <row r="111" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -11696,7 +11701,7 @@
       <c r="G111"/>
       <c r="H111"/>
     </row>
-    <row r="112" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -11705,7 +11710,7 @@
       <c r="G112"/>
       <c r="H112"/>
     </row>
-    <row r="113" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
@@ -11714,7 +11719,7 @@
       <c r="G113"/>
       <c r="H113"/>
     </row>
-    <row r="114" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
@@ -11723,7 +11728,7 @@
       <c r="G114"/>
       <c r="H114"/>
     </row>
-    <row r="115" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
@@ -11732,7 +11737,7 @@
       <c r="G115"/>
       <c r="H115"/>
     </row>
-    <row r="116" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
@@ -11741,7 +11746,7 @@
       <c r="G116"/>
       <c r="H116"/>
     </row>
-    <row r="117" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
@@ -11750,7 +11755,7 @@
       <c r="G117"/>
       <c r="H117"/>
     </row>
-    <row r="118" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
@@ -11759,7 +11764,7 @@
       <c r="G118"/>
       <c r="H118"/>
     </row>
-    <row r="119" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
@@ -11768,7 +11773,7 @@
       <c r="G119"/>
       <c r="H119"/>
     </row>
-    <row r="120" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
@@ -11777,7 +11782,7 @@
       <c r="G120"/>
       <c r="H120"/>
     </row>
-    <row r="121" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
@@ -11786,7 +11791,7 @@
       <c r="G121"/>
       <c r="H121"/>
     </row>
-    <row r="122" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="11"/>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
@@ -11795,7 +11800,7 @@
       <c r="G122"/>
       <c r="H122"/>
     </row>
-    <row r="123" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="11"/>
       <c r="B123" s="11"/>
       <c r="C123" s="11"/>
@@ -11804,7 +11809,7 @@
       <c r="G123"/>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="11"/>
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
@@ -11813,7 +11818,7 @@
       <c r="G124"/>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="11"/>
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
@@ -11822,7 +11827,7 @@
       <c r="G125"/>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="11"/>
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
@@ -11831,7 +11836,7 @@
       <c r="G126"/>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="11"/>
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
@@ -11840,7 +11845,7 @@
       <c r="G127"/>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="11"/>
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
@@ -11849,7 +11854,7 @@
       <c r="G128"/>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="11"/>
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
@@ -11858,7 +11863,7 @@
       <c r="G129"/>
       <c r="H129"/>
     </row>
-    <row r="130" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="11"/>
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
@@ -11867,7 +11872,7 @@
       <c r="G130"/>
       <c r="H130"/>
     </row>
-    <row r="131" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="11"/>
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
@@ -11876,7 +11881,7 @@
       <c r="G131"/>
       <c r="H131"/>
     </row>
-    <row r="132" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="11"/>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
@@ -11885,7 +11890,7 @@
       <c r="G132"/>
       <c r="H132"/>
     </row>
-    <row r="133" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="11"/>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
@@ -11894,7 +11899,7 @@
       <c r="G133"/>
       <c r="H133"/>
     </row>
-    <row r="134" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="11"/>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
@@ -11903,7 +11908,7 @@
       <c r="G134"/>
       <c r="H134"/>
     </row>
-    <row r="135" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="11"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
@@ -11912,7 +11917,7 @@
       <c r="G135"/>
       <c r="H135"/>
     </row>
-    <row r="136" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="11"/>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
@@ -11921,7 +11926,7 @@
       <c r="G136"/>
       <c r="H136"/>
     </row>
-    <row r="137" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="11"/>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
@@ -11930,7 +11935,7 @@
       <c r="G137"/>
       <c r="H137"/>
     </row>
-    <row r="138" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="11"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
@@ -11939,7 +11944,7 @@
       <c r="G138"/>
       <c r="H138"/>
     </row>
-    <row r="139" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="11"/>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
@@ -11948,7 +11953,7 @@
       <c r="G139"/>
       <c r="H139"/>
     </row>
-    <row r="140" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="11"/>
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
@@ -11957,7 +11962,7 @@
       <c r="G140"/>
       <c r="H140"/>
     </row>
-    <row r="141" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="11"/>
       <c r="B141" s="42"/>
       <c r="C141" s="11"/>
@@ -11966,7 +11971,7 @@
       <c r="G141"/>
       <c r="H141"/>
     </row>
-    <row r="142" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="11"/>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
@@ -11975,7 +11980,7 @@
       <c r="G142"/>
       <c r="H142"/>
     </row>
-    <row r="143" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="11"/>
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
@@ -11984,7 +11989,7 @@
       <c r="G143"/>
       <c r="H143"/>
     </row>
-    <row r="144" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A144" s="11"/>
       <c r="B144" s="37"/>
       <c r="C144" s="11"/>
@@ -11993,7 +11998,7 @@
       <c r="G144"/>
       <c r="H144"/>
     </row>
-    <row r="145" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="11"/>
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
@@ -12002,7 +12007,7 @@
       <c r="G145"/>
       <c r="H145"/>
     </row>
-    <row r="146" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="11"/>
       <c r="B146" s="38"/>
       <c r="C146" s="38"/>
@@ -12011,7 +12016,7 @@
       <c r="G146"/>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="11"/>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
@@ -12020,7 +12025,7 @@
       <c r="G147"/>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="11"/>
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
@@ -12029,7 +12034,7 @@
       <c r="G148"/>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="11"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
@@ -12038,7 +12043,7 @@
       <c r="G149"/>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="11"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
@@ -12047,7 +12052,7 @@
       <c r="G150"/>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="11"/>
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
@@ -12056,7 +12061,7 @@
       <c r="G151"/>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="11"/>
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
@@ -12065,7 +12070,7 @@
       <c r="G152"/>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="11"/>
       <c r="B153" s="11"/>
       <c r="C153" s="11"/>
@@ -12074,7 +12079,7 @@
       <c r="G153"/>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="11"/>
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
@@ -12083,7 +12088,7 @@
       <c r="G154"/>
       <c r="H154"/>
     </row>
-    <row r="155" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="11"/>
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
@@ -12092,7 +12097,7 @@
       <c r="G155"/>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="11"/>
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
@@ -12101,7 +12106,7 @@
       <c r="G156"/>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="11"/>
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
@@ -12110,7 +12115,7 @@
       <c r="G157"/>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="11"/>
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
@@ -12119,7 +12124,7 @@
       <c r="G158"/>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="11"/>
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
@@ -12128,7 +12133,7 @@
       <c r="G159"/>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="11"/>
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
@@ -12137,7 +12142,7 @@
       <c r="G160"/>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="11"/>
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
@@ -12146,7 +12151,7 @@
       <c r="G161"/>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="11"/>
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
@@ -12155,7 +12160,7 @@
       <c r="G162"/>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="11"/>
       <c r="B163" s="11"/>
       <c r="C163" s="11"/>
@@ -12164,7 +12169,7 @@
       <c r="G163"/>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="11"/>
       <c r="B164" s="11"/>
       <c r="C164" s="11"/>
@@ -12173,7 +12178,7 @@
       <c r="G164"/>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="11"/>
       <c r="B165" s="11"/>
       <c r="C165" s="11"/>
@@ -12182,7 +12187,7 @@
       <c r="G165"/>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="11"/>
       <c r="B166" s="11"/>
       <c r="C166" s="11"/>
@@ -12191,7 +12196,7 @@
       <c r="G166"/>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="11"/>
       <c r="B167" s="11"/>
       <c r="C167" s="11"/>
@@ -12200,7 +12205,7 @@
       <c r="G167"/>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="11"/>
       <c r="B168" s="11"/>
       <c r="C168" s="11"/>
@@ -12209,7 +12214,7 @@
       <c r="G168"/>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="11"/>
       <c r="B169" s="11"/>
       <c r="C169" s="11"/>
@@ -12218,7 +12223,7 @@
       <c r="G169"/>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="11"/>
       <c r="B170" s="11"/>
       <c r="C170" s="11"/>
@@ -12227,7 +12232,7 @@
       <c r="G170"/>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="11"/>
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
@@ -12236,7 +12241,7 @@
       <c r="G171"/>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="11"/>
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
@@ -12245,7 +12250,7 @@
       <c r="G172"/>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="11"/>
       <c r="B173" s="11"/>
       <c r="C173" s="11"/>
@@ -12254,7 +12259,7 @@
       <c r="G173"/>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="11"/>
       <c r="B174" s="11"/>
       <c r="C174" s="11"/>
@@ -12263,7 +12268,7 @@
       <c r="G174"/>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="11"/>
       <c r="B175" s="11"/>
       <c r="C175" s="11"/>
@@ -12272,7 +12277,7 @@
       <c r="G175"/>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="11"/>
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
@@ -12281,7 +12286,7 @@
       <c r="G176"/>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="11"/>
       <c r="B177" s="11"/>
       <c r="C177" s="11"/>
@@ -12290,7 +12295,7 @@
       <c r="G177"/>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="11"/>
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
@@ -12299,7 +12304,7 @@
       <c r="G178"/>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="11"/>
       <c r="B179" s="11"/>
       <c r="C179" s="11"/>
@@ -12308,7 +12313,7 @@
       <c r="G179"/>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A180" s="11"/>
       <c r="B180" s="11"/>
       <c r="C180" s="11"/>
@@ -12317,7 +12322,7 @@
       <c r="G180"/>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="11"/>
       <c r="B181" s="11"/>
       <c r="C181" s="11"/>
@@ -12326,7 +12331,7 @@
       <c r="G181"/>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="11"/>
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
@@ -12335,7 +12340,7 @@
       <c r="G182"/>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="11"/>
       <c r="B183" s="11"/>
       <c r="C183" s="11"/>
@@ -12344,7 +12349,7 @@
       <c r="G183"/>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="11"/>
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
@@ -12353,7 +12358,7 @@
       <c r="G184"/>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="11"/>
       <c r="B185" s="11"/>
       <c r="C185" s="11"/>
@@ -12362,7 +12367,7 @@
       <c r="G185"/>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="11"/>
       <c r="B186" s="42"/>
       <c r="C186" s="11"/>
@@ -12371,7 +12376,7 @@
       <c r="G186"/>
       <c r="H186"/>
     </row>
-    <row r="187" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="11"/>
       <c r="B187" s="11"/>
       <c r="C187" s="11"/>
@@ -12380,7 +12385,7 @@
       <c r="G187"/>
       <c r="H187"/>
     </row>
-    <row r="188" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="11"/>
       <c r="B188" s="11"/>
       <c r="C188" s="11"/>
@@ -12389,7 +12394,7 @@
       <c r="G188"/>
       <c r="H188"/>
     </row>
-    <row r="189" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A189" s="11"/>
       <c r="B189" s="37"/>
       <c r="C189" s="11"/>
@@ -12398,7 +12403,7 @@
       <c r="G189"/>
       <c r="H189"/>
     </row>
-    <row r="190" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="11"/>
       <c r="B190" s="11"/>
       <c r="C190" s="11"/>
@@ -12407,7 +12412,7 @@
       <c r="G190"/>
       <c r="H190"/>
     </row>
-    <row r="191" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="11"/>
       <c r="B191" s="38"/>
       <c r="C191" s="38"/>
@@ -12416,7 +12421,7 @@
       <c r="G191"/>
       <c r="H191"/>
     </row>
-    <row r="192" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="11"/>
       <c r="B192" s="11"/>
       <c r="C192" s="11"/>
@@ -12425,7 +12430,7 @@
       <c r="G192"/>
       <c r="H192"/>
     </row>
-    <row r="193" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="11"/>
       <c r="B193" s="11"/>
       <c r="C193" s="11"/>
@@ -12434,7 +12439,7 @@
       <c r="G193"/>
       <c r="H193"/>
     </row>
-    <row r="194" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="11"/>
       <c r="B194" s="11"/>
       <c r="C194" s="11"/>
@@ -12443,7 +12448,7 @@
       <c r="G194"/>
       <c r="H194"/>
     </row>
-    <row r="195" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="11"/>
       <c r="B195" s="11"/>
       <c r="C195" s="11"/>
@@ -12452,7 +12457,7 @@
       <c r="G195"/>
       <c r="H195"/>
     </row>
-    <row r="196" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="11"/>
       <c r="B196" s="11"/>
       <c r="C196" s="11"/>
@@ -12461,7 +12466,7 @@
       <c r="G196"/>
       <c r="H196"/>
     </row>
-    <row r="197" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="11"/>
       <c r="B197" s="11"/>
       <c r="C197" s="11"/>
@@ -12470,7 +12475,7 @@
       <c r="G197"/>
       <c r="H197"/>
     </row>
-    <row r="198" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="11"/>
       <c r="B198" s="11"/>
       <c r="C198" s="11"/>
@@ -12479,7 +12484,7 @@
       <c r="G198"/>
       <c r="H198"/>
     </row>
-    <row r="199" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="11"/>
       <c r="B199" s="11"/>
       <c r="C199" s="11"/>
@@ -12488,7 +12493,7 @@
       <c r="G199"/>
       <c r="H199"/>
     </row>
-    <row r="200" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="11"/>
       <c r="B200" s="11"/>
       <c r="C200" s="11"/>
@@ -12497,7 +12502,7 @@
       <c r="G200"/>
       <c r="H200"/>
     </row>
-    <row r="201" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="11"/>
       <c r="B201" s="11"/>
       <c r="C201" s="11"/>
@@ -12506,7 +12511,7 @@
       <c r="G201"/>
       <c r="H201"/>
     </row>
-    <row r="202" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="11"/>
       <c r="B202" s="11"/>
       <c r="C202" s="11"/>
@@ -12515,7 +12520,7 @@
       <c r="G202"/>
       <c r="H202"/>
     </row>
-    <row r="203" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="11"/>
       <c r="B203" s="11"/>
       <c r="C203" s="11"/>
@@ -12524,7 +12529,7 @@
       <c r="G203"/>
       <c r="H203"/>
     </row>
-    <row r="204" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="11"/>
       <c r="B204" s="11"/>
       <c r="C204" s="11"/>
@@ -12533,7 +12538,7 @@
       <c r="G204"/>
       <c r="H204"/>
     </row>
-    <row r="205" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="11"/>
       <c r="B205" s="11"/>
       <c r="C205" s="11"/>
@@ -12542,7 +12547,7 @@
       <c r="G205"/>
       <c r="H205"/>
     </row>
-    <row r="206" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="11"/>
       <c r="B206" s="11"/>
       <c r="C206" s="11"/>
@@ -12551,7 +12556,7 @@
       <c r="G206"/>
       <c r="H206"/>
     </row>
-    <row r="207" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A207" s="11"/>
       <c r="B207" s="11"/>
       <c r="C207" s="11"/>
@@ -12560,7 +12565,7 @@
       <c r="G207"/>
       <c r="H207"/>
     </row>
-    <row r="208" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="11"/>
       <c r="B208" s="11"/>
       <c r="C208" s="11"/>
@@ -12569,7 +12574,7 @@
       <c r="G208"/>
       <c r="H208"/>
     </row>
-    <row r="209" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="11"/>
       <c r="B209" s="11"/>
       <c r="C209" s="11"/>
@@ -12578,7 +12583,7 @@
       <c r="G209"/>
       <c r="H209"/>
     </row>
-    <row r="210" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="11"/>
       <c r="B210" s="11"/>
       <c r="C210" s="11"/>
@@ -12587,7 +12592,7 @@
       <c r="G210"/>
       <c r="H210"/>
     </row>
-    <row r="211" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="11"/>
       <c r="B211" s="11"/>
       <c r="C211" s="11"/>
@@ -12596,7 +12601,7 @@
       <c r="G211"/>
       <c r="H211"/>
     </row>
-    <row r="212" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="11"/>
       <c r="B212" s="11"/>
       <c r="C212" s="11"/>
@@ -12605,7 +12610,7 @@
       <c r="G212"/>
       <c r="H212"/>
     </row>
-    <row r="213" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="11"/>
       <c r="B213" s="11"/>
       <c r="C213" s="11"/>
@@ -12614,7 +12619,7 @@
       <c r="G213"/>
       <c r="H213"/>
     </row>
-    <row r="214" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="11"/>
       <c r="B214" s="11"/>
       <c r="C214" s="11"/>
@@ -12623,7 +12628,7 @@
       <c r="G214"/>
       <c r="H214"/>
     </row>
-    <row r="215" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="11"/>
       <c r="B215" s="11"/>
       <c r="C215" s="11"/>
@@ -12632,7 +12637,7 @@
       <c r="G215"/>
       <c r="H215"/>
     </row>
-    <row r="216" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="11"/>
       <c r="B216" s="11"/>
       <c r="C216" s="11"/>
@@ -12641,7 +12646,7 @@
       <c r="G216"/>
       <c r="H216"/>
     </row>
-    <row r="217" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A217" s="11"/>
       <c r="B217" s="11"/>
       <c r="C217" s="11"/>
@@ -12650,7 +12655,7 @@
       <c r="G217"/>
       <c r="H217"/>
     </row>
-    <row r="218" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="11"/>
       <c r="B218" s="11"/>
       <c r="C218" s="11"/>
@@ -12659,7 +12664,7 @@
       <c r="G218"/>
       <c r="H218"/>
     </row>
-    <row r="219" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="11"/>
       <c r="B219" s="11"/>
       <c r="C219" s="11"/>
@@ -12668,7 +12673,7 @@
       <c r="G219"/>
       <c r="H219"/>
     </row>
-    <row r="220" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="11"/>
       <c r="B220" s="11"/>
       <c r="C220" s="11"/>
@@ -12677,7 +12682,7 @@
       <c r="G220"/>
       <c r="H220"/>
     </row>
-    <row r="221" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="11"/>
       <c r="B221" s="11"/>
       <c r="C221" s="11"/>
@@ -12686,7 +12691,7 @@
       <c r="G221"/>
       <c r="H221"/>
     </row>
-    <row r="222" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="11"/>
       <c r="B222" s="11"/>
       <c r="C222" s="11"/>
@@ -12695,7 +12700,7 @@
       <c r="G222"/>
       <c r="H222"/>
     </row>
-    <row r="223" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="11"/>
       <c r="B223" s="11"/>
       <c r="C223" s="11"/>
@@ -12704,34 +12709,34 @@
       <c r="G223"/>
       <c r="H223"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="11"/>
       <c r="B224" s="11"/>
       <c r="C224" s="11"/>
       <c r="D224" s="40"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="11"/>
       <c r="B225" s="11"/>
       <c r="C225" s="11"/>
       <c r="D225" s="40"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="11"/>
       <c r="B226" s="11"/>
       <c r="C226" s="11"/>
       <c r="D226" s="40"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="11"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="11"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="11"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="11"/>
     </row>
   </sheetData>

--- a/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
+++ b/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\258321_DKE_PR\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Documents\GitHub\258321_DKE_PR\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86338E18-E256-4966-9390-D972DBD1E97F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A241A96B-FCF1-4449-8BB3-95DE60CB5F9C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20010" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,22 +19,17 @@
     <sheet name="Teuchtmann" sheetId="4" r:id="rId4"/>
     <sheet name="Tomic" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="36">
   <si>
     <t xml:space="preserve">Aistleithner </t>
   </si>
@@ -140,15 +135,18 @@
   <si>
     <t>Anforderungsanalyse</t>
   </si>
+  <si>
+    <t xml:space="preserve">Gruppenbesprechung </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="hh:mm;@"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -390,18 +388,18 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -417,20 +415,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -450,7 +448,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -462,11 +460,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -491,20 +489,20 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -835,19 +833,19 @@
             <c:numRef>
               <c:f>Zeiterfassung_Gesamt!$A$4:$D$4</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-* #\ ##0.00\ _€_-;\-* #\ ##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.5</c:v>
+                  <c:v>16.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1031,7 +1029,7 @@
             <c:numRef>
               <c:f>Zeiterfassung_Gesamt!$F$26:$F$43</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-* #\ ##0.00\ _€_-;\-* #\ ##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
@@ -1049,7 +1047,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1181,7 +1179,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="_-* #\ ##0.00\ _€_-;\-* #\ ##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2836,7 +2834,7 @@
   <dimension ref="A2:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2885,11 +2883,11 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>B44</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
         <f t="shared" ref="B4:D4" si="0">C44</f>
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
@@ -2897,7 +2895,7 @@
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="55"/>
@@ -3098,11 +3096,11 @@
       </c>
       <c r="B31" s="3">
         <f>SUMIF(Aistleithner!H11:H61,Zeiterfassung_Gesamt!A31,Aistleithner!G11:G61)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" s="3">
         <f>SUMIF(Dusanic!H11:H54,Zeiterfassung_Gesamt!A31,Dusanic!G11:G54)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="3">
         <f>SUMIF(Tabelle35[KW],Zeiterfassung_Gesamt!A31,Tabelle35[Dauer])</f>
@@ -3110,11 +3108,11 @@
       </c>
       <c r="E31" s="3">
         <f>SUMIF(Tomic!H11:H54,Zeiterfassung_Gesamt!A31,Tomic!G11:G54)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J31" s="12"/>
       <c r="K31" s="14"/>
@@ -3449,11 +3447,11 @@
       </c>
       <c r="B44" s="4">
         <f>SUM(B26:B43)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C44" s="4">
         <f t="shared" ref="C44:E44" si="3">SUM(C26:C43)</f>
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="D44" s="4">
         <f t="shared" si="3"/>
@@ -3461,11 +3459,11 @@
       </c>
       <c r="E44" s="4">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F44" s="4">
         <f>SUM(F26:F43)</f>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J44" s="12"/>
       <c r="K44" s="14"/>
@@ -3490,8 +3488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C65BC6F-2EFC-4FEF-B846-1981218F4DC2}">
   <dimension ref="A2:H243"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3770,18 +3768,28 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
+      <c r="B16" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="27">
+        <v>43413</v>
+      </c>
+      <c r="E16" s="28">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="F16" s="28">
+        <v>0.39583333333333331</v>
+      </c>
       <c r="G16">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
         <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -4409,7 +4417,7 @@
       <c r="F58" s="36"/>
       <c r="G58">
         <f>SUM(G7:G57)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -5499,7 +5507,7 @@
   <dimension ref="A2:H230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B13" sqref="B13:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5703,18 +5711,28 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
+      <c r="B13" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="27">
+        <v>43413</v>
+      </c>
+      <c r="E13" s="28">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="F13" s="28">
+        <v>0.39583333333333331</v>
+      </c>
       <c r="G13">
         <f>(Tabelle34[[#This Row],[bis]]*24)-(Tabelle34[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <f>WEEKNUM(Tabelle34[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -6287,7 +6305,7 @@
       <c r="F51" s="36"/>
       <c r="G51">
         <f>SUM(G7:G50)</f>
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="H51"/>
     </row>
@@ -7882,7 +7900,7 @@
   <dimension ref="A2:H230"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B13" sqref="B13:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10373,8 +10391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A13F21B-0FD5-4A2C-BFFD-2CC06888678E}">
   <dimension ref="A2:H230"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10603,18 +10621,28 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
+      <c r="B14" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="27">
+        <v>43413</v>
+      </c>
+      <c r="E14" s="28">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="F14" s="28">
+        <v>0.39583333333333331</v>
+      </c>
       <c r="G14">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <f>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -11172,7 +11200,7 @@
       <c r="F51" s="36"/>
       <c r="G51">
         <f>SUM(G7:G50)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H51"/>
     </row>

--- a/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
+++ b/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Documents\GitHub\258321_DKE_PR\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A241A96B-FCF1-4449-8BB3-95DE60CB5F9C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8BE0E240-2594-4FAA-ABBB-3999E96E7A78}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20010" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="38">
   <si>
     <t xml:space="preserve">Aistleithner </t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t xml:space="preserve">Gruppenbesprechung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokumentation </t>
+  </si>
+  <si>
+    <t>Konzeptueller Entwurf, Gruppenmeeting</t>
   </si>
 </sst>
 </file>
@@ -836,16 +842,16 @@
                 <c:formatCode>_-* #\ ##0.00\ _€_-;\-* #\ ##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.5</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.5</c:v>
+                  <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1047,7 +1053,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2883,19 +2889,19 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>B44</f>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1">
         <f t="shared" ref="B4:D4" si="0">C44</f>
-        <v>16.5</v>
+        <v>22.5</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>20.5</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="55"/>
@@ -3096,23 +3102,23 @@
       </c>
       <c r="B31" s="3">
         <f>SUMIF(Aistleithner!H11:H61,Zeiterfassung_Gesamt!A31,Aistleithner!G11:G61)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C31" s="3">
         <f>SUMIF(Dusanic!H11:H54,Zeiterfassung_Gesamt!A31,Dusanic!G11:G54)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D31" s="3">
         <f>SUMIF(Tabelle35[KW],Zeiterfassung_Gesamt!A31,Tabelle35[Dauer])</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E31" s="3">
         <f>SUMIF(Tomic!H11:H54,Zeiterfassung_Gesamt!A31,Tomic!G11:G54)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F31" s="3">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="J31" s="12"/>
       <c r="K31" s="14"/>
@@ -3447,23 +3453,23 @@
       </c>
       <c r="B44" s="4">
         <f>SUM(B26:B43)</f>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C44" s="4">
         <f t="shared" ref="C44:E44" si="3">SUM(C26:C43)</f>
-        <v>16.5</v>
+        <v>22.5</v>
       </c>
       <c r="D44" s="4">
         <f t="shared" si="3"/>
-        <v>14.5</v>
+        <v>20.5</v>
       </c>
       <c r="E44" s="4">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F44" s="4">
         <f>SUM(F26:F43)</f>
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="J44" s="12"/>
       <c r="K44" s="14"/>
@@ -3488,8 +3494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C65BC6F-2EFC-4FEF-B846-1981218F4DC2}">
   <dimension ref="A2:H243"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:F16"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3775,7 +3781,7 @@
         <v>35</v>
       </c>
       <c r="D16" s="27">
-        <v>43413</v>
+        <v>43412</v>
       </c>
       <c r="E16" s="28">
         <v>0.35416666666666669</v>
@@ -3793,18 +3799,28 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
+      <c r="B17" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="27">
+        <v>43413</v>
+      </c>
+      <c r="E17" s="28">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F17" s="28">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="G17">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H17">
         <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -4417,7 +4433,7 @@
       <c r="F58" s="36"/>
       <c r="G58">
         <f>SUM(G7:G57)</f>
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -5507,7 +5523,7 @@
   <dimension ref="A2:H230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:F13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5718,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="D13" s="27">
-        <v>43413</v>
+        <v>43412</v>
       </c>
       <c r="E13" s="28">
         <v>0.35416666666666669</v>
@@ -5736,18 +5752,28 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
+      <c r="B14" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="27">
+        <v>43413</v>
+      </c>
+      <c r="E14" s="28">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F14" s="28">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="G14">
         <f>(Tabelle34[[#This Row],[bis]]*24)-(Tabelle34[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H14">
         <f>WEEKNUM(Tabelle34[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -6305,7 +6331,7 @@
       <c r="F51" s="36"/>
       <c r="G51">
         <f>SUM(G7:G50)</f>
-        <v>16.5</v>
+        <v>22.5</v>
       </c>
       <c r="H51"/>
     </row>
@@ -7900,7 +7926,7 @@
   <dimension ref="A2:H230"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:F13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8104,18 +8130,28 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
+      <c r="B13" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="27">
+        <v>43413</v>
+      </c>
+      <c r="E13" s="28">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F13" s="28">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="G13">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H13">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -8944,7 +8980,7 @@
       <c r="F67" s="44"/>
       <c r="G67" s="53">
         <f>SUM(G7:G66)</f>
-        <v>14.5</v>
+        <v>20.5</v>
       </c>
       <c r="H67" s="54"/>
     </row>
@@ -10392,7 +10428,7 @@
   <dimension ref="A2:H230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10628,7 +10664,7 @@
         <v>35</v>
       </c>
       <c r="D14" s="27">
-        <v>43413</v>
+        <v>43412</v>
       </c>
       <c r="E14" s="28">
         <v>0.35416666666666669</v>
@@ -10646,18 +10682,28 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
+      <c r="B15" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="27">
+        <v>43413</v>
+      </c>
+      <c r="E15" s="28">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F15" s="28">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="G15">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H15">
         <f>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -11200,7 +11246,7 @@
       <c r="F51" s="36"/>
       <c r="G51">
         <f>SUM(G7:G50)</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H51"/>
     </row>

--- a/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
+++ b/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Documents\GitHub\258321_DKE_PR\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8BE0E240-2594-4FAA-ABBB-3999E96E7A78}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D9C7243C-FEA6-4D03-8DFC-70CCA2900E84}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20010" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="38">
   <si>
     <t xml:space="preserve">Aistleithner </t>
   </si>
@@ -842,16 +842,16 @@
                 <c:formatCode>_-* #\ ##0.00\ _€_-;\-* #\ ##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>27</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.5</c:v>
+                  <c:v>24.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1056,7 +1056,7 @@
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -2840,7 +2840,7 @@
   <dimension ref="A2:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2889,11 +2889,11 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>B44</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1">
         <f t="shared" ref="B4:D4" si="0">C44</f>
-        <v>22.5</v>
+        <v>24.5</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="55"/>
@@ -3129,11 +3129,11 @@
       </c>
       <c r="B32" s="3">
         <f>SUMIF(Aistleithner!H12:H62,Zeiterfassung_Gesamt!A32,Aistleithner!G12:G62)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C32" s="3">
         <f>SUMIF(Dusanic!H12:H55,Zeiterfassung_Gesamt!A32,Dusanic!G12:G55)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D32" s="3">
         <f>SUMIF(Tabelle35[KW],Zeiterfassung_Gesamt!A32,Tabelle35[Dauer])</f>
@@ -3141,11 +3141,11 @@
       </c>
       <c r="E32" s="3">
         <f>SUMIF(Tomic!H12:H55,Zeiterfassung_Gesamt!A32,Tomic!G12:G55)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F32" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J32" s="12"/>
       <c r="K32" s="14"/>
@@ -3453,11 +3453,11 @@
       </c>
       <c r="B44" s="4">
         <f>SUM(B26:B43)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C44" s="4">
         <f t="shared" ref="C44:E44" si="3">SUM(C26:C43)</f>
-        <v>22.5</v>
+        <v>24.5</v>
       </c>
       <c r="D44" s="4">
         <f t="shared" si="3"/>
@@ -3465,11 +3465,11 @@
       </c>
       <c r="E44" s="4">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F44" s="4">
         <f>SUM(F26:F43)</f>
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J44" s="12"/>
       <c r="K44" s="14"/>
@@ -3495,7 +3495,7 @@
   <dimension ref="A2:H243"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B18" sqref="B18:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3824,18 +3824,28 @@
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
+      <c r="B18" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="27">
+        <v>43416</v>
+      </c>
+      <c r="E18" s="28">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F18" s="28">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="G18">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18">
         <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -4433,7 +4443,7 @@
       <c r="F58" s="36"/>
       <c r="G58">
         <f>SUM(G7:G57)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -5523,7 +5533,7 @@
   <dimension ref="A2:H230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B15" sqref="B15:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5777,18 +5787,28 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
+      <c r="B15" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="27">
+        <v>43416</v>
+      </c>
+      <c r="E15" s="28">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F15" s="28">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="G15">
         <f>(Tabelle34[[#This Row],[bis]]*24)-(Tabelle34[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15">
         <f>WEEKNUM(Tabelle34[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -6331,7 +6351,7 @@
       <c r="F51" s="36"/>
       <c r="G51">
         <f>SUM(G7:G50)</f>
-        <v>22.5</v>
+        <v>24.5</v>
       </c>
       <c r="H51"/>
     </row>
@@ -10428,7 +10448,7 @@
   <dimension ref="A2:H230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B16" sqref="B16:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10707,18 +10727,28 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
+      <c r="B16" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="27">
+        <v>43416</v>
+      </c>
+      <c r="E16" s="28">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F16" s="28">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="G16">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16">
         <f>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -11246,7 +11276,7 @@
       <c r="F51" s="36"/>
       <c r="G51">
         <f>SUM(G7:G50)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H51"/>
     </row>

--- a/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
+++ b/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Documents\GitHub\258321_DKE_PR\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D9C7243C-FEA6-4D03-8DFC-70CCA2900E84}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E64FC665-9F25-4BF0-BA4A-B35825E1DEE8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20010" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2840,7 +2840,7 @@
   <dimension ref="A2:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -3494,8 +3494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C65BC6F-2EFC-4FEF-B846-1981218F4DC2}">
   <dimension ref="A2:H243"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5533,7 +5533,7 @@
   <dimension ref="A2:H230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:F15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7946,7 +7946,7 @@
   <dimension ref="A2:H230"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10448,7 +10448,7 @@
   <dimension ref="A2:H230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:F16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
+++ b/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Documents\GitHub\258321_DKE_PR\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomic\Documents\GitHub\258321_DKE_PR\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E64FC665-9F25-4BF0-BA4A-B35825E1DEE8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4FB046-17B6-478B-8461-2E044014C716}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20010" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20016" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung_Gesamt" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Teuchtmann" sheetId="4" r:id="rId4"/>
     <sheet name="Tomic" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="39">
   <si>
     <t xml:space="preserve">Aistleithner </t>
   </si>
@@ -144,15 +144,18 @@
   <si>
     <t>Konzeptueller Entwurf, Gruppenmeeting</t>
   </si>
+  <si>
+    <t>Konzeptueller Entwurf</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="hh:mm;@"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -394,18 +397,18 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -421,20 +424,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -454,7 +457,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -466,11 +469,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -495,20 +498,20 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -533,8 +536,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Komma" xfId="1" builtinId="3"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -649,7 +652,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -839,7 +842,7 @@
             <c:numRef>
               <c:f>Zeiterfassung_Gesamt!$A$4:$D$4</c:f>
               <c:numCache>
-                <c:formatCode>_-* #\ ##0.00\ _€_-;\-* #\ ##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>29</c:v>
@@ -851,7 +854,7 @@
                   <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -959,7 +962,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1035,7 +1038,7 @@
             <c:numRef>
               <c:f>Zeiterfassung_Gesamt!$F$26:$F$43</c:f>
               <c:numCache>
-                <c:formatCode>_-* #\ ##0.00\ _€_-;\-* #\ ##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
@@ -1056,7 +1059,7 @@
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1185,7 +1188,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_-* #\ ##0.00\ _€_-;\-* #\ ##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-" sourceLinked="1"/>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2541,7 +2544,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2839,25 +2842,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="28.140625" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="41.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="28.109375" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="41.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="56" t="s">
         <v>4</v>
       </c>
@@ -2869,7 +2872,7 @@
       <c r="H2" s="55"/>
       <c r="I2" s="55"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -2886,7 +2889,7 @@
       <c r="H3" s="55"/>
       <c r="I3" s="55"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f>B44</f>
         <v>29</v>
@@ -2901,19 +2904,19 @@
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>27.5</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="55"/>
       <c r="H4" s="55"/>
       <c r="I4" s="55"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G5" s="55"/>
       <c r="H5" s="55"/>
       <c r="I5" s="55"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="56" t="s">
         <v>5</v>
       </c>
@@ -2927,7 +2930,7 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
       <c r="B24" s="59" t="s">
         <v>7</v>
@@ -2939,7 +2942,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>6</v>
       </c>
@@ -2961,7 +2964,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="13"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>40</v>
       </c>
@@ -2988,7 +2991,7 @@
       <c r="J26" s="12"/>
       <c r="K26" s="13"/>
     </row>
-    <row r="27" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>41</v>
       </c>
@@ -3015,7 +3018,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="14"/>
     </row>
-    <row r="28" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>42</v>
       </c>
@@ -3042,7 +3045,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="14"/>
     </row>
-    <row r="29" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>43</v>
       </c>
@@ -3069,7 +3072,7 @@
       <c r="J29" s="12"/>
       <c r="K29" s="14"/>
     </row>
-    <row r="30" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>44</v>
       </c>
@@ -3096,7 +3099,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="14"/>
     </row>
-    <row r="31" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>45</v>
       </c>
@@ -3123,7 +3126,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="14"/>
     </row>
-    <row r="32" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>46</v>
       </c>
@@ -3141,16 +3144,16 @@
       </c>
       <c r="E32" s="3">
         <f>SUMIF(Tomic!H12:H55,Zeiterfassung_Gesamt!A32,Tomic!G12:G55)</f>
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="F32" s="3">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="J32" s="12"/>
       <c r="K32" s="14"/>
     </row>
-    <row r="33" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>47</v>
       </c>
@@ -3177,7 +3180,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="14"/>
     </row>
-    <row r="34" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>48</v>
       </c>
@@ -3204,7 +3207,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="14"/>
     </row>
-    <row r="35" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>49</v>
       </c>
@@ -3231,7 +3234,7 @@
       <c r="J35" s="12"/>
       <c r="K35" s="14"/>
     </row>
-    <row r="36" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>50</v>
       </c>
@@ -3258,7 +3261,7 @@
       <c r="J36" s="12"/>
       <c r="K36" s="14"/>
     </row>
-    <row r="37" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>51</v>
       </c>
@@ -3285,7 +3288,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="14"/>
     </row>
-    <row r="38" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>52</v>
       </c>
@@ -3312,7 +3315,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="14"/>
     </row>
-    <row r="39" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>1</v>
       </c>
@@ -3339,7 +3342,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="14"/>
     </row>
-    <row r="40" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>2</v>
       </c>
@@ -3366,7 +3369,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="14"/>
     </row>
-    <row r="41" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>3</v>
       </c>
@@ -3393,7 +3396,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="14"/>
     </row>
-    <row r="42" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>4</v>
       </c>
@@ -3420,7 +3423,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="14"/>
     </row>
-    <row r="43" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>5</v>
       </c>
@@ -3447,7 +3450,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="14"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>10</v>
       </c>
@@ -3465,16 +3468,16 @@
       </c>
       <c r="E44" s="4">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>27.5</v>
       </c>
       <c r="F44" s="4">
         <f>SUM(F26:F43)</f>
-        <v>100</v>
+        <v>101.5</v>
       </c>
       <c r="J44" s="12"/>
       <c r="K44" s="14"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
     </row>
@@ -3498,33 +3501,33 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="19" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="3" max="3" width="75.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B2" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B3" s="17"/>
       <c r="C3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="21"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="22" t="s">
         <v>13</v>
       </c>
@@ -3547,7 +3550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="26" t="s">
         <v>24</v>
       </c>
@@ -3572,7 +3575,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="26" t="s">
         <v>26</v>
       </c>
@@ -3597,7 +3600,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="26" t="s">
         <v>24</v>
       </c>
@@ -3622,7 +3625,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="26" t="s">
         <v>26</v>
       </c>
@@ -3647,7 +3650,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="29"/>
       <c r="B11" s="26" t="s">
         <v>30</v>
@@ -3673,7 +3676,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="26" t="s">
         <v>30</v>
       </c>
@@ -3698,7 +3701,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="26" t="s">
         <v>24</v>
       </c>
@@ -3723,7 +3726,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="26" t="s">
         <v>30</v>
       </c>
@@ -3748,7 +3751,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="26" t="s">
         <v>30</v>
       </c>
@@ -3773,7 +3776,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="26" t="s">
         <v>24</v>
       </c>
@@ -3798,7 +3801,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="26" t="s">
         <v>36</v>
       </c>
@@ -3823,7 +3826,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="26" t="s">
         <v>30</v>
       </c>
@@ -3848,7 +3851,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
       <c r="D19" s="27"/>
@@ -3863,7 +3866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
       <c r="D20" s="27"/>
@@ -3878,7 +3881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
       <c r="D21" s="27"/>
@@ -3893,7 +3896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
       <c r="D22" s="27"/>
@@ -3908,7 +3911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
       <c r="D23" s="27"/>
@@ -3923,7 +3926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
       <c r="D24" s="27"/>
@@ -3938,7 +3941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="D25" s="27"/>
@@ -3953,7 +3956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="26"/>
       <c r="C26" s="30"/>
       <c r="D26" s="27"/>
@@ -3968,7 +3971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
       <c r="D27" s="27"/>
@@ -3983,7 +3986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="D28" s="27"/>
@@ -3998,7 +4001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="27"/>
@@ -4013,7 +4016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="27"/>
@@ -4028,7 +4031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="27"/>
@@ -4043,7 +4046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="27"/>
@@ -4058,7 +4061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="27"/>
@@ -4073,7 +4076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="27"/>
@@ -4088,7 +4091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="27"/>
@@ -4103,7 +4106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="27"/>
@@ -4118,7 +4121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="27"/>
@@ -4133,7 +4136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
       <c r="D38" s="27"/>
@@ -4148,7 +4151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="D39" s="27"/>
@@ -4163,7 +4166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
       <c r="D40" s="27"/>
@@ -4178,7 +4181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
       <c r="D41" s="27"/>
@@ -4193,7 +4196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="27"/>
@@ -4208,7 +4211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
       <c r="D43" s="27"/>
@@ -4223,7 +4226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="27"/>
@@ -4238,7 +4241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="27"/>
@@ -4253,7 +4256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="27"/>
@@ -4268,7 +4271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
       <c r="D47" s="27"/>
@@ -4283,7 +4286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
       <c r="D48" s="32"/>
@@ -4298,7 +4301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
       <c r="D49" s="32"/>
@@ -4313,7 +4316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
       <c r="D50" s="27"/>
@@ -4328,7 +4331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B51" s="30"/>
       <c r="C51" s="30"/>
       <c r="D51" s="32"/>
@@ -4343,7 +4346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B52" s="30"/>
       <c r="C52" s="30"/>
       <c r="D52" s="27"/>
@@ -4358,7 +4361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B53" s="30"/>
       <c r="C53" s="30"/>
       <c r="D53" s="32"/>
@@ -4373,7 +4376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B54" s="30"/>
       <c r="C54" s="30"/>
       <c r="D54" s="27"/>
@@ -4388,7 +4391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B55" s="30"/>
       <c r="C55" s="30"/>
       <c r="D55" s="27"/>
@@ -4403,7 +4406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B56" s="30"/>
       <c r="C56" s="30"/>
       <c r="D56" s="27"/>
@@ -4418,7 +4421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B57" s="30"/>
       <c r="C57" s="30"/>
       <c r="D57" s="27"/>
@@ -4433,7 +4436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B58" s="35" t="s">
         <v>19</v>
       </c>
@@ -4446,1078 +4449,1078 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
     </row>
-    <row r="61" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A61" s="11"/>
       <c r="B61" s="37"/>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
     </row>
-    <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="11"/>
       <c r="B63" s="38"/>
       <c r="C63" s="38"/>
       <c r="D63" s="39"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
       <c r="D64" s="40"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
       <c r="D65" s="40"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
       <c r="D66" s="40"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
       <c r="D67" s="40"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
       <c r="D68" s="40"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
       <c r="D69" s="40"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
       <c r="D70" s="40"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="11"/>
       <c r="B71" s="41"/>
       <c r="C71" s="11"/>
       <c r="D71" s="40"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
       <c r="D72" s="40"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
       <c r="D73" s="40"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
       <c r="D74" s="40"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
       <c r="D75" s="40"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
       <c r="D76" s="40"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
       <c r="D77" s="40"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
       <c r="D78" s="40"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
       <c r="D79" s="40"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
       <c r="D80" s="40"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
       <c r="D81" s="40"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
       <c r="D82" s="40"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
       <c r="D83" s="40"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
       <c r="D84" s="40"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
       <c r="D85" s="40"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
       <c r="D86" s="40"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
       <c r="D87" s="40"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
       <c r="D88" s="40"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
       <c r="D89" s="40"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
       <c r="D90" s="40"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
       <c r="D91" s="40"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
       <c r="D92" s="40"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
       <c r="D93" s="40"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
       <c r="D94" s="40"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
       <c r="D95" s="40"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
       <c r="D96" s="40"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
       <c r="D97" s="40"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
       <c r="D98" s="40"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
       <c r="D99" s="40"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
       <c r="D100" s="40"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
       <c r="D101" s="40"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
       <c r="D102" s="40"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="11"/>
       <c r="B103" s="42"/>
       <c r="C103" s="11"/>
       <c r="D103" s="40"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
       <c r="D105" s="11"/>
     </row>
-    <row r="106" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A106" s="11"/>
       <c r="B106" s="37"/>
       <c r="C106" s="11"/>
       <c r="D106" s="11"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
       <c r="D107" s="11"/>
     </row>
-    <row r="108" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="11"/>
       <c r="B108" s="38"/>
       <c r="C108" s="38"/>
       <c r="D108" s="39"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
       <c r="D109" s="40"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
       <c r="D110" s="40"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
       <c r="D111" s="40"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
       <c r="D112" s="40"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
       <c r="D113" s="40"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
       <c r="D114" s="40"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
       <c r="D115" s="40"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
       <c r="D116" s="40"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
       <c r="D117" s="40"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
       <c r="D118" s="40"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
       <c r="D119" s="40"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
       <c r="D120" s="40"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
       <c r="D121" s="40"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="11"/>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
       <c r="D122" s="40"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="11"/>
       <c r="B123" s="11"/>
       <c r="C123" s="11"/>
       <c r="D123" s="40"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="11"/>
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
       <c r="D124" s="40"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="11"/>
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
       <c r="D125" s="40"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="11"/>
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
       <c r="D126" s="40"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="11"/>
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
       <c r="D127" s="40"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="11"/>
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
       <c r="D128" s="40"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="11"/>
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
       <c r="D129" s="40"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="11"/>
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
       <c r="D130" s="40"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="11"/>
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
       <c r="D131" s="40"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="11"/>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
       <c r="D132" s="40"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="11"/>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
       <c r="D133" s="40"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="11"/>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
       <c r="D134" s="40"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="11"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
       <c r="D135" s="40"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="11"/>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
       <c r="D136" s="40"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="11"/>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
       <c r="D137" s="40"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="11"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
       <c r="D138" s="40"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="11"/>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
       <c r="D139" s="40"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="11"/>
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
       <c r="D140" s="40"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="11"/>
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
       <c r="D141" s="40"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="11"/>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
       <c r="D142" s="40"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="11"/>
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
       <c r="D143" s="40"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="11"/>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
       <c r="D144" s="40"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="11"/>
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
       <c r="D145" s="40"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="11"/>
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
       <c r="D146" s="40"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="11"/>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
       <c r="D147" s="40"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="11"/>
       <c r="B148" s="42"/>
       <c r="C148" s="11"/>
       <c r="D148" s="40"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="11"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
       <c r="D149" s="11"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="11"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
       <c r="D150" s="11"/>
     </row>
-    <row r="151" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A151" s="11"/>
       <c r="B151" s="37"/>
       <c r="C151" s="11"/>
       <c r="D151" s="11"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="11"/>
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
       <c r="D152" s="11"/>
     </row>
-    <row r="153" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="11"/>
       <c r="B153" s="38"/>
       <c r="C153" s="38"/>
       <c r="D153" s="39"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="11"/>
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
       <c r="D154" s="40"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="11"/>
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
       <c r="D155" s="40"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="11"/>
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
       <c r="D156" s="40"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="11"/>
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
       <c r="D157" s="40"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="11"/>
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
       <c r="D158" s="40"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="11"/>
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
       <c r="D159" s="40"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="11"/>
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
       <c r="D160" s="40"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="11"/>
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
       <c r="D161" s="40"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="11"/>
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
       <c r="D162" s="40"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="11"/>
       <c r="B163" s="11"/>
       <c r="C163" s="11"/>
       <c r="D163" s="40"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="11"/>
       <c r="B164" s="11"/>
       <c r="C164" s="11"/>
       <c r="D164" s="40"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="11"/>
       <c r="B165" s="11"/>
       <c r="C165" s="11"/>
       <c r="D165" s="40"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="11"/>
       <c r="B166" s="11"/>
       <c r="C166" s="11"/>
       <c r="D166" s="40"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="11"/>
       <c r="B167" s="11"/>
       <c r="C167" s="11"/>
       <c r="D167" s="40"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="11"/>
       <c r="B168" s="11"/>
       <c r="C168" s="11"/>
       <c r="D168" s="40"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="11"/>
       <c r="B169" s="11"/>
       <c r="C169" s="11"/>
       <c r="D169" s="40"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="11"/>
       <c r="B170" s="11"/>
       <c r="C170" s="11"/>
       <c r="D170" s="40"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="11"/>
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
       <c r="D171" s="40"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="11"/>
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
       <c r="D172" s="40"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="11"/>
       <c r="B173" s="11"/>
       <c r="C173" s="11"/>
       <c r="D173" s="40"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="11"/>
       <c r="B174" s="11"/>
       <c r="C174" s="11"/>
       <c r="D174" s="40"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="11"/>
       <c r="B175" s="11"/>
       <c r="C175" s="11"/>
       <c r="D175" s="40"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="11"/>
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
       <c r="D176" s="40"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="11"/>
       <c r="B177" s="11"/>
       <c r="C177" s="11"/>
       <c r="D177" s="40"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="11"/>
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
       <c r="D178" s="40"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="11"/>
       <c r="B179" s="11"/>
       <c r="C179" s="11"/>
       <c r="D179" s="40"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="11"/>
       <c r="B180" s="11"/>
       <c r="C180" s="11"/>
       <c r="D180" s="40"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="11"/>
       <c r="B181" s="11"/>
       <c r="C181" s="11"/>
       <c r="D181" s="40"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="11"/>
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
       <c r="D182" s="40"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="11"/>
       <c r="B183" s="11"/>
       <c r="C183" s="11"/>
       <c r="D183" s="40"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="11"/>
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
       <c r="D184" s="40"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="11"/>
       <c r="B185" s="11"/>
       <c r="C185" s="11"/>
       <c r="D185" s="40"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="11"/>
       <c r="B186" s="11"/>
       <c r="C186" s="11"/>
       <c r="D186" s="40"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="11"/>
       <c r="B187" s="11"/>
       <c r="C187" s="11"/>
       <c r="D187" s="40"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="11"/>
       <c r="B188" s="11"/>
       <c r="C188" s="11"/>
       <c r="D188" s="40"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="11"/>
       <c r="B189" s="11"/>
       <c r="C189" s="11"/>
       <c r="D189" s="40"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="11"/>
       <c r="B190" s="11"/>
       <c r="C190" s="11"/>
       <c r="D190" s="40"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="11"/>
       <c r="B191" s="11"/>
       <c r="C191" s="11"/>
       <c r="D191" s="40"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="11"/>
       <c r="B192" s="11"/>
       <c r="C192" s="11"/>
       <c r="D192" s="40"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="11"/>
       <c r="B193" s="42"/>
       <c r="C193" s="11"/>
       <c r="D193" s="40"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="11"/>
       <c r="B194" s="11"/>
       <c r="C194" s="11"/>
       <c r="D194" s="11"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="11"/>
       <c r="B195" s="11"/>
       <c r="C195" s="11"/>
       <c r="D195" s="11"/>
     </row>
-    <row r="196" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A196" s="11"/>
       <c r="B196" s="37"/>
       <c r="C196" s="11"/>
       <c r="D196" s="11"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="11"/>
       <c r="B197" s="11"/>
       <c r="C197" s="11"/>
       <c r="D197" s="11"/>
     </row>
-    <row r="198" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="11"/>
       <c r="B198" s="38"/>
       <c r="C198" s="38"/>
       <c r="D198" s="39"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="11"/>
       <c r="B199" s="11"/>
       <c r="C199" s="11"/>
       <c r="D199" s="40"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="11"/>
       <c r="B200" s="11"/>
       <c r="C200" s="11"/>
       <c r="D200" s="40"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="11"/>
       <c r="B201" s="11"/>
       <c r="C201" s="11"/>
       <c r="D201" s="40"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="11"/>
       <c r="B202" s="11"/>
       <c r="C202" s="11"/>
       <c r="D202" s="40"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="11"/>
       <c r="B203" s="11"/>
       <c r="C203" s="11"/>
       <c r="D203" s="40"/>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="11"/>
       <c r="B204" s="11"/>
       <c r="C204" s="11"/>
       <c r="D204" s="40"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="11"/>
       <c r="B205" s="11"/>
       <c r="C205" s="11"/>
       <c r="D205" s="40"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="11"/>
       <c r="B206" s="11"/>
       <c r="C206" s="11"/>
       <c r="D206" s="40"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="11"/>
       <c r="B207" s="11"/>
       <c r="C207" s="11"/>
       <c r="D207" s="40"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="11"/>
       <c r="B208" s="11"/>
       <c r="C208" s="11"/>
       <c r="D208" s="40"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="11"/>
       <c r="B209" s="11"/>
       <c r="C209" s="11"/>
       <c r="D209" s="40"/>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="11"/>
       <c r="B210" s="11"/>
       <c r="C210" s="11"/>
       <c r="D210" s="40"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="11"/>
       <c r="B211" s="11"/>
       <c r="C211" s="11"/>
       <c r="D211" s="40"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="11"/>
       <c r="B212" s="11"/>
       <c r="C212" s="11"/>
       <c r="D212" s="40"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="11"/>
       <c r="B213" s="11"/>
       <c r="C213" s="11"/>
       <c r="D213" s="40"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="11"/>
       <c r="B214" s="11"/>
       <c r="C214" s="11"/>
       <c r="D214" s="40"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="11"/>
       <c r="B215" s="11"/>
       <c r="C215" s="11"/>
       <c r="D215" s="40"/>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="11"/>
       <c r="B216" s="11"/>
       <c r="C216" s="11"/>
       <c r="D216" s="40"/>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="11"/>
       <c r="B217" s="11"/>
       <c r="C217" s="11"/>
       <c r="D217" s="40"/>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="11"/>
       <c r="B218" s="11"/>
       <c r="C218" s="11"/>
       <c r="D218" s="40"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="11"/>
       <c r="B219" s="11"/>
       <c r="C219" s="11"/>
       <c r="D219" s="40"/>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="11"/>
       <c r="B220" s="11"/>
       <c r="C220" s="11"/>
       <c r="D220" s="40"/>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="11"/>
       <c r="B221" s="11"/>
       <c r="C221" s="11"/>
       <c r="D221" s="40"/>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="11"/>
       <c r="B222" s="11"/>
       <c r="C222" s="11"/>
       <c r="D222" s="40"/>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="11"/>
       <c r="B223" s="11"/>
       <c r="C223" s="11"/>
       <c r="D223" s="40"/>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="11"/>
       <c r="B224" s="11"/>
       <c r="C224" s="11"/>
       <c r="D224" s="40"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="11"/>
       <c r="B225" s="11"/>
       <c r="C225" s="11"/>
       <c r="D225" s="40"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="11"/>
       <c r="B226" s="11"/>
       <c r="C226" s="11"/>
       <c r="D226" s="40"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="11"/>
       <c r="B227" s="11"/>
       <c r="C227" s="11"/>
       <c r="D227" s="40"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="11"/>
       <c r="B228" s="11"/>
       <c r="C228" s="11"/>
       <c r="D228" s="40"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="11"/>
       <c r="B229" s="11"/>
       <c r="C229" s="11"/>
       <c r="D229" s="40"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="11"/>
       <c r="B230" s="11"/>
       <c r="C230" s="11"/>
       <c r="D230" s="40"/>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="11"/>
       <c r="B231" s="11"/>
       <c r="C231" s="11"/>
       <c r="D231" s="40"/>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="11"/>
       <c r="B232" s="11"/>
       <c r="C232" s="11"/>
       <c r="D232" s="40"/>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="11"/>
       <c r="B233" s="11"/>
       <c r="C233" s="11"/>
       <c r="D233" s="40"/>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="11"/>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="11"/>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="11"/>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="11"/>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="11"/>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="11"/>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="11"/>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" s="11"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" s="11"/>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" s="11"/>
     </row>
   </sheetData>
@@ -5536,33 +5539,33 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1"/>
-    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="19" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" customWidth="1"/>
+    <col min="3" max="3" width="75.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B2" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B3" s="17"/>
       <c r="C3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="20" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="21"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="22" t="s">
         <v>13</v>
       </c>
@@ -5585,7 +5588,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="26" t="s">
         <v>24</v>
       </c>
@@ -5610,7 +5613,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="26" t="s">
         <v>26</v>
       </c>
@@ -5635,7 +5638,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="26" t="s">
         <v>24</v>
       </c>
@@ -5660,7 +5663,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="29"/>
       <c r="B10" s="26" t="s">
         <v>30</v>
@@ -5686,7 +5689,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" s="26" t="s">
         <v>30</v>
       </c>
@@ -5711,7 +5714,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="26" t="s">
         <v>24</v>
       </c>
@@ -5736,7 +5739,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="26" t="s">
         <v>24</v>
       </c>
@@ -5761,7 +5764,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="26" t="s">
         <v>36</v>
       </c>
@@ -5786,7 +5789,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="26" t="s">
         <v>30</v>
       </c>
@@ -5811,7 +5814,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
       <c r="D16" s="27"/>
@@ -5826,7 +5829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
       <c r="D17" s="27"/>
@@ -5841,7 +5844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
       <c r="D18" s="27"/>
@@ -5856,7 +5859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
       <c r="D19" s="27"/>
@@ -5871,7 +5874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
       <c r="D20" s="27"/>
@@ -5886,7 +5889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
       <c r="D21" s="27"/>
@@ -5901,7 +5904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
       <c r="D22" s="27"/>
@@ -5916,7 +5919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
       <c r="D23" s="27"/>
@@ -5931,7 +5934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
       <c r="D24" s="27"/>
@@ -5946,7 +5949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="D25" s="27"/>
@@ -5961,7 +5964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
       <c r="D26" s="27"/>
@@ -5976,7 +5979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
       <c r="D27" s="27"/>
@@ -5991,7 +5994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="D28" s="27"/>
@@ -6006,7 +6009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="27"/>
@@ -6021,7 +6024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="27"/>
@@ -6036,7 +6039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="27"/>
@@ -6051,7 +6054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="27"/>
@@ -6066,7 +6069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="27"/>
@@ -6081,7 +6084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="27"/>
@@ -6096,7 +6099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="27"/>
@@ -6111,7 +6114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="27"/>
@@ -6126,7 +6129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="27"/>
@@ -6141,7 +6144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
       <c r="D38" s="27"/>
@@ -6156,7 +6159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="D39" s="27"/>
@@ -6171,7 +6174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
       <c r="D40" s="27"/>
@@ -6186,7 +6189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
       <c r="D41" s="27"/>
@@ -6201,7 +6204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="27"/>
@@ -6216,7 +6219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
       <c r="D43" s="27"/>
@@ -6231,7 +6234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="27"/>
@@ -6246,7 +6249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="27"/>
@@ -6261,7 +6264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="27"/>
@@ -6276,7 +6279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="11"/>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
@@ -6292,7 +6295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="11"/>
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
@@ -6308,7 +6311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="11"/>
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
@@ -6324,7 +6327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="11"/>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
@@ -6340,7 +6343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="11"/>
       <c r="B51" s="35" t="s">
         <v>19</v>
@@ -6355,7 +6358,7 @@
       </c>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="11"/>
       <c r="B52"/>
       <c r="C52"/>
@@ -6364,7 +6367,7 @@
       <c r="G52"/>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -6373,7 +6376,7 @@
       <c r="G53"/>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" s="11"/>
       <c r="B54" s="37"/>
       <c r="C54" s="11"/>
@@ -6382,7 +6385,7 @@
       <c r="G54"/>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -6391,7 +6394,7 @@
       <c r="G55"/>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="11"/>
       <c r="B56" s="38"/>
       <c r="C56" s="38"/>
@@ -6400,7 +6403,7 @@
       <c r="G56"/>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -6409,7 +6412,7 @@
       <c r="G57"/>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -6418,7 +6421,7 @@
       <c r="G58"/>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -6427,7 +6430,7 @@
       <c r="G59"/>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -6436,7 +6439,7 @@
       <c r="G60"/>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -6445,7 +6448,7 @@
       <c r="G61"/>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -6454,7 +6457,7 @@
       <c r="G62"/>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -6463,7 +6466,7 @@
       <c r="G63"/>
       <c r="H63"/>
     </row>
-    <row r="64" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="11"/>
       <c r="B64" s="41"/>
       <c r="C64" s="11"/>
@@ -6472,7 +6475,7 @@
       <c r="G64"/>
       <c r="H64"/>
     </row>
-    <row r="65" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -6481,7 +6484,7 @@
       <c r="G65"/>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -6490,7 +6493,7 @@
       <c r="G66"/>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -6499,7 +6502,7 @@
       <c r="G67"/>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -6508,7 +6511,7 @@
       <c r="G68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -6517,7 +6520,7 @@
       <c r="G69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -6526,7 +6529,7 @@
       <c r="G70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -6535,7 +6538,7 @@
       <c r="G71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -6544,7 +6547,7 @@
       <c r="G72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -6553,7 +6556,7 @@
       <c r="G73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -6562,7 +6565,7 @@
       <c r="G74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -6571,7 +6574,7 @@
       <c r="G75"/>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -6580,7 +6583,7 @@
       <c r="G76"/>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -6589,7 +6592,7 @@
       <c r="G77"/>
       <c r="H77"/>
     </row>
-    <row r="78" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -6598,7 +6601,7 @@
       <c r="G78"/>
       <c r="H78"/>
     </row>
-    <row r="79" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -6607,7 +6610,7 @@
       <c r="G79"/>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -6616,7 +6619,7 @@
       <c r="G80"/>
       <c r="H80"/>
     </row>
-    <row r="81" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -6625,7 +6628,7 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -6634,7 +6637,7 @@
       <c r="G82"/>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -6643,7 +6646,7 @@
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -6652,7 +6655,7 @@
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -6661,7 +6664,7 @@
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -6670,7 +6673,7 @@
       <c r="G86"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -6679,7 +6682,7 @@
       <c r="G87"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -6688,7 +6691,7 @@
       <c r="G88"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -6697,7 +6700,7 @@
       <c r="G89"/>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -6706,7 +6709,7 @@
       <c r="G90"/>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -6715,7 +6718,7 @@
       <c r="G91"/>
       <c r="H91"/>
     </row>
-    <row r="92" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -6724,7 +6727,7 @@
       <c r="G92"/>
       <c r="H92"/>
     </row>
-    <row r="93" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -6733,7 +6736,7 @@
       <c r="G93"/>
       <c r="H93"/>
     </row>
-    <row r="94" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -6742,7 +6745,7 @@
       <c r="G94"/>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -6751,7 +6754,7 @@
       <c r="G95"/>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="11"/>
       <c r="B96" s="42"/>
       <c r="C96" s="11"/>
@@ -6760,7 +6763,7 @@
       <c r="G96"/>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -6769,7 +6772,7 @@
       <c r="G97"/>
       <c r="H97"/>
     </row>
-    <row r="98" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -6778,7 +6781,7 @@
       <c r="G98"/>
       <c r="H98"/>
     </row>
-    <row r="99" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A99" s="11"/>
       <c r="B99" s="37"/>
       <c r="C99" s="11"/>
@@ -6787,7 +6790,7 @@
       <c r="G99"/>
       <c r="H99"/>
     </row>
-    <row r="100" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -6796,7 +6799,7 @@
       <c r="G100"/>
       <c r="H100"/>
     </row>
-    <row r="101" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="11"/>
       <c r="B101" s="38"/>
       <c r="C101" s="38"/>
@@ -6805,7 +6808,7 @@
       <c r="G101"/>
       <c r="H101"/>
     </row>
-    <row r="102" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -6814,7 +6817,7 @@
       <c r="G102"/>
       <c r="H102"/>
     </row>
-    <row r="103" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -6823,7 +6826,7 @@
       <c r="G103"/>
       <c r="H103"/>
     </row>
-    <row r="104" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -6832,7 +6835,7 @@
       <c r="G104"/>
       <c r="H104"/>
     </row>
-    <row r="105" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -6841,7 +6844,7 @@
       <c r="G105"/>
       <c r="H105"/>
     </row>
-    <row r="106" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -6850,7 +6853,7 @@
       <c r="G106"/>
       <c r="H106"/>
     </row>
-    <row r="107" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -6859,7 +6862,7 @@
       <c r="G107"/>
       <c r="H107"/>
     </row>
-    <row r="108" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -6868,7 +6871,7 @@
       <c r="G108"/>
       <c r="H108"/>
     </row>
-    <row r="109" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -6877,7 +6880,7 @@
       <c r="G109"/>
       <c r="H109"/>
     </row>
-    <row r="110" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -6886,7 +6889,7 @@
       <c r="G110"/>
       <c r="H110"/>
     </row>
-    <row r="111" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -6895,7 +6898,7 @@
       <c r="G111"/>
       <c r="H111"/>
     </row>
-    <row r="112" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -6904,7 +6907,7 @@
       <c r="G112"/>
       <c r="H112"/>
     </row>
-    <row r="113" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
@@ -6913,7 +6916,7 @@
       <c r="G113"/>
       <c r="H113"/>
     </row>
-    <row r="114" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
@@ -6922,7 +6925,7 @@
       <c r="G114"/>
       <c r="H114"/>
     </row>
-    <row r="115" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
@@ -6931,7 +6934,7 @@
       <c r="G115"/>
       <c r="H115"/>
     </row>
-    <row r="116" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
@@ -6940,7 +6943,7 @@
       <c r="G116"/>
       <c r="H116"/>
     </row>
-    <row r="117" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
@@ -6949,7 +6952,7 @@
       <c r="G117"/>
       <c r="H117"/>
     </row>
-    <row r="118" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
@@ -6958,7 +6961,7 @@
       <c r="G118"/>
       <c r="H118"/>
     </row>
-    <row r="119" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
@@ -6967,7 +6970,7 @@
       <c r="G119"/>
       <c r="H119"/>
     </row>
-    <row r="120" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
@@ -6976,7 +6979,7 @@
       <c r="G120"/>
       <c r="H120"/>
     </row>
-    <row r="121" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
@@ -6985,7 +6988,7 @@
       <c r="G121"/>
       <c r="H121"/>
     </row>
-    <row r="122" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="11"/>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
@@ -6994,7 +6997,7 @@
       <c r="G122"/>
       <c r="H122"/>
     </row>
-    <row r="123" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="11"/>
       <c r="B123" s="11"/>
       <c r="C123" s="11"/>
@@ -7003,7 +7006,7 @@
       <c r="G123"/>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="11"/>
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
@@ -7012,7 +7015,7 @@
       <c r="G124"/>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="11"/>
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
@@ -7021,7 +7024,7 @@
       <c r="G125"/>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="11"/>
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
@@ -7030,7 +7033,7 @@
       <c r="G126"/>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="11"/>
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
@@ -7039,7 +7042,7 @@
       <c r="G127"/>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="11"/>
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
@@ -7048,7 +7051,7 @@
       <c r="G128"/>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="11"/>
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
@@ -7057,7 +7060,7 @@
       <c r="G129"/>
       <c r="H129"/>
     </row>
-    <row r="130" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="11"/>
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
@@ -7066,7 +7069,7 @@
       <c r="G130"/>
       <c r="H130"/>
     </row>
-    <row r="131" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="11"/>
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
@@ -7075,7 +7078,7 @@
       <c r="G131"/>
       <c r="H131"/>
     </row>
-    <row r="132" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="11"/>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
@@ -7084,7 +7087,7 @@
       <c r="G132"/>
       <c r="H132"/>
     </row>
-    <row r="133" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="11"/>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
@@ -7093,7 +7096,7 @@
       <c r="G133"/>
       <c r="H133"/>
     </row>
-    <row r="134" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="11"/>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
@@ -7102,7 +7105,7 @@
       <c r="G134"/>
       <c r="H134"/>
     </row>
-    <row r="135" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="11"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
@@ -7111,7 +7114,7 @@
       <c r="G135"/>
       <c r="H135"/>
     </row>
-    <row r="136" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="11"/>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
@@ -7120,7 +7123,7 @@
       <c r="G136"/>
       <c r="H136"/>
     </row>
-    <row r="137" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="11"/>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
@@ -7129,7 +7132,7 @@
       <c r="G137"/>
       <c r="H137"/>
     </row>
-    <row r="138" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="11"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
@@ -7138,7 +7141,7 @@
       <c r="G138"/>
       <c r="H138"/>
     </row>
-    <row r="139" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="11"/>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
@@ -7147,7 +7150,7 @@
       <c r="G139"/>
       <c r="H139"/>
     </row>
-    <row r="140" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="11"/>
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
@@ -7156,7 +7159,7 @@
       <c r="G140"/>
       <c r="H140"/>
     </row>
-    <row r="141" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="11"/>
       <c r="B141" s="42"/>
       <c r="C141" s="11"/>
@@ -7165,7 +7168,7 @@
       <c r="G141"/>
       <c r="H141"/>
     </row>
-    <row r="142" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="11"/>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
@@ -7174,7 +7177,7 @@
       <c r="G142"/>
       <c r="H142"/>
     </row>
-    <row r="143" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="11"/>
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
@@ -7183,7 +7186,7 @@
       <c r="G143"/>
       <c r="H143"/>
     </row>
-    <row r="144" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A144" s="11"/>
       <c r="B144" s="37"/>
       <c r="C144" s="11"/>
@@ -7192,7 +7195,7 @@
       <c r="G144"/>
       <c r="H144"/>
     </row>
-    <row r="145" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="11"/>
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
@@ -7201,7 +7204,7 @@
       <c r="G145"/>
       <c r="H145"/>
     </row>
-    <row r="146" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="11"/>
       <c r="B146" s="38"/>
       <c r="C146" s="38"/>
@@ -7210,7 +7213,7 @@
       <c r="G146"/>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="11"/>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
@@ -7219,7 +7222,7 @@
       <c r="G147"/>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="11"/>
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
@@ -7228,7 +7231,7 @@
       <c r="G148"/>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="11"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
@@ -7237,7 +7240,7 @@
       <c r="G149"/>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="11"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
@@ -7246,7 +7249,7 @@
       <c r="G150"/>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="11"/>
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
@@ -7255,7 +7258,7 @@
       <c r="G151"/>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="11"/>
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
@@ -7264,7 +7267,7 @@
       <c r="G152"/>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="11"/>
       <c r="B153" s="11"/>
       <c r="C153" s="11"/>
@@ -7273,7 +7276,7 @@
       <c r="G153"/>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="11"/>
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
@@ -7282,7 +7285,7 @@
       <c r="G154"/>
       <c r="H154"/>
     </row>
-    <row r="155" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="11"/>
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
@@ -7291,7 +7294,7 @@
       <c r="G155"/>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="11"/>
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
@@ -7300,7 +7303,7 @@
       <c r="G156"/>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="11"/>
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
@@ -7309,7 +7312,7 @@
       <c r="G157"/>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="11"/>
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
@@ -7318,7 +7321,7 @@
       <c r="G158"/>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="11"/>
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
@@ -7327,7 +7330,7 @@
       <c r="G159"/>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="11"/>
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
@@ -7336,7 +7339,7 @@
       <c r="G160"/>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="11"/>
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
@@ -7345,7 +7348,7 @@
       <c r="G161"/>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="11"/>
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
@@ -7354,7 +7357,7 @@
       <c r="G162"/>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="11"/>
       <c r="B163" s="11"/>
       <c r="C163" s="11"/>
@@ -7363,7 +7366,7 @@
       <c r="G163"/>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="11"/>
       <c r="B164" s="11"/>
       <c r="C164" s="11"/>
@@ -7372,7 +7375,7 @@
       <c r="G164"/>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="11"/>
       <c r="B165" s="11"/>
       <c r="C165" s="11"/>
@@ -7381,7 +7384,7 @@
       <c r="G165"/>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="11"/>
       <c r="B166" s="11"/>
       <c r="C166" s="11"/>
@@ -7390,7 +7393,7 @@
       <c r="G166"/>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="11"/>
       <c r="B167" s="11"/>
       <c r="C167" s="11"/>
@@ -7399,7 +7402,7 @@
       <c r="G167"/>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="11"/>
       <c r="B168" s="11"/>
       <c r="C168" s="11"/>
@@ -7408,7 +7411,7 @@
       <c r="G168"/>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="11"/>
       <c r="B169" s="11"/>
       <c r="C169" s="11"/>
@@ -7417,7 +7420,7 @@
       <c r="G169"/>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="11"/>
       <c r="B170" s="11"/>
       <c r="C170" s="11"/>
@@ -7426,7 +7429,7 @@
       <c r="G170"/>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="11"/>
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
@@ -7435,7 +7438,7 @@
       <c r="G171"/>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="11"/>
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
@@ -7444,7 +7447,7 @@
       <c r="G172"/>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="11"/>
       <c r="B173" s="11"/>
       <c r="C173" s="11"/>
@@ -7453,7 +7456,7 @@
       <c r="G173"/>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="11"/>
       <c r="B174" s="11"/>
       <c r="C174" s="11"/>
@@ -7462,7 +7465,7 @@
       <c r="G174"/>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="11"/>
       <c r="B175" s="11"/>
       <c r="C175" s="11"/>
@@ -7471,7 +7474,7 @@
       <c r="G175"/>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="11"/>
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
@@ -7480,7 +7483,7 @@
       <c r="G176"/>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="11"/>
       <c r="B177" s="11"/>
       <c r="C177" s="11"/>
@@ -7489,7 +7492,7 @@
       <c r="G177"/>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="11"/>
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
@@ -7498,7 +7501,7 @@
       <c r="G178"/>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="11"/>
       <c r="B179" s="11"/>
       <c r="C179" s="11"/>
@@ -7507,7 +7510,7 @@
       <c r="G179"/>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A180" s="11"/>
       <c r="B180" s="11"/>
       <c r="C180" s="11"/>
@@ -7516,7 +7519,7 @@
       <c r="G180"/>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="11"/>
       <c r="B181" s="11"/>
       <c r="C181" s="11"/>
@@ -7525,7 +7528,7 @@
       <c r="G181"/>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="11"/>
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
@@ -7534,7 +7537,7 @@
       <c r="G182"/>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="11"/>
       <c r="B183" s="11"/>
       <c r="C183" s="11"/>
@@ -7543,7 +7546,7 @@
       <c r="G183"/>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="11"/>
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
@@ -7552,7 +7555,7 @@
       <c r="G184"/>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="11"/>
       <c r="B185" s="11"/>
       <c r="C185" s="11"/>
@@ -7561,7 +7564,7 @@
       <c r="G185"/>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="11"/>
       <c r="B186" s="42"/>
       <c r="C186" s="11"/>
@@ -7570,7 +7573,7 @@
       <c r="G186"/>
       <c r="H186"/>
     </row>
-    <row r="187" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="11"/>
       <c r="B187" s="11"/>
       <c r="C187" s="11"/>
@@ -7579,7 +7582,7 @@
       <c r="G187"/>
       <c r="H187"/>
     </row>
-    <row r="188" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="11"/>
       <c r="B188" s="11"/>
       <c r="C188" s="11"/>
@@ -7588,7 +7591,7 @@
       <c r="G188"/>
       <c r="H188"/>
     </row>
-    <row r="189" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A189" s="11"/>
       <c r="B189" s="37"/>
       <c r="C189" s="11"/>
@@ -7597,7 +7600,7 @@
       <c r="G189"/>
       <c r="H189"/>
     </row>
-    <row r="190" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="11"/>
       <c r="B190" s="11"/>
       <c r="C190" s="11"/>
@@ -7606,7 +7609,7 @@
       <c r="G190"/>
       <c r="H190"/>
     </row>
-    <row r="191" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="11"/>
       <c r="B191" s="38"/>
       <c r="C191" s="38"/>
@@ -7615,7 +7618,7 @@
       <c r="G191"/>
       <c r="H191"/>
     </row>
-    <row r="192" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="11"/>
       <c r="B192" s="11"/>
       <c r="C192" s="11"/>
@@ -7624,7 +7627,7 @@
       <c r="G192"/>
       <c r="H192"/>
     </row>
-    <row r="193" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="11"/>
       <c r="B193" s="11"/>
       <c r="C193" s="11"/>
@@ -7633,7 +7636,7 @@
       <c r="G193"/>
       <c r="H193"/>
     </row>
-    <row r="194" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="11"/>
       <c r="B194" s="11"/>
       <c r="C194" s="11"/>
@@ -7642,7 +7645,7 @@
       <c r="G194"/>
       <c r="H194"/>
     </row>
-    <row r="195" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="11"/>
       <c r="B195" s="11"/>
       <c r="C195" s="11"/>
@@ -7651,7 +7654,7 @@
       <c r="G195"/>
       <c r="H195"/>
     </row>
-    <row r="196" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="11"/>
       <c r="B196" s="11"/>
       <c r="C196" s="11"/>
@@ -7660,7 +7663,7 @@
       <c r="G196"/>
       <c r="H196"/>
     </row>
-    <row r="197" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="11"/>
       <c r="B197" s="11"/>
       <c r="C197" s="11"/>
@@ -7669,7 +7672,7 @@
       <c r="G197"/>
       <c r="H197"/>
     </row>
-    <row r="198" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="11"/>
       <c r="B198" s="11"/>
       <c r="C198" s="11"/>
@@ -7678,7 +7681,7 @@
       <c r="G198"/>
       <c r="H198"/>
     </row>
-    <row r="199" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="11"/>
       <c r="B199" s="11"/>
       <c r="C199" s="11"/>
@@ -7687,7 +7690,7 @@
       <c r="G199"/>
       <c r="H199"/>
     </row>
-    <row r="200" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="11"/>
       <c r="B200" s="11"/>
       <c r="C200" s="11"/>
@@ -7696,7 +7699,7 @@
       <c r="G200"/>
       <c r="H200"/>
     </row>
-    <row r="201" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="11"/>
       <c r="B201" s="11"/>
       <c r="C201" s="11"/>
@@ -7705,7 +7708,7 @@
       <c r="G201"/>
       <c r="H201"/>
     </row>
-    <row r="202" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="11"/>
       <c r="B202" s="11"/>
       <c r="C202" s="11"/>
@@ -7714,7 +7717,7 @@
       <c r="G202"/>
       <c r="H202"/>
     </row>
-    <row r="203" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="11"/>
       <c r="B203" s="11"/>
       <c r="C203" s="11"/>
@@ -7723,7 +7726,7 @@
       <c r="G203"/>
       <c r="H203"/>
     </row>
-    <row r="204" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="11"/>
       <c r="B204" s="11"/>
       <c r="C204" s="11"/>
@@ -7732,7 +7735,7 @@
       <c r="G204"/>
       <c r="H204"/>
     </row>
-    <row r="205" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="11"/>
       <c r="B205" s="11"/>
       <c r="C205" s="11"/>
@@ -7741,7 +7744,7 @@
       <c r="G205"/>
       <c r="H205"/>
     </row>
-    <row r="206" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="11"/>
       <c r="B206" s="11"/>
       <c r="C206" s="11"/>
@@ -7750,7 +7753,7 @@
       <c r="G206"/>
       <c r="H206"/>
     </row>
-    <row r="207" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A207" s="11"/>
       <c r="B207" s="11"/>
       <c r="C207" s="11"/>
@@ -7759,7 +7762,7 @@
       <c r="G207"/>
       <c r="H207"/>
     </row>
-    <row r="208" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="11"/>
       <c r="B208" s="11"/>
       <c r="C208" s="11"/>
@@ -7768,7 +7771,7 @@
       <c r="G208"/>
       <c r="H208"/>
     </row>
-    <row r="209" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="11"/>
       <c r="B209" s="11"/>
       <c r="C209" s="11"/>
@@ -7777,7 +7780,7 @@
       <c r="G209"/>
       <c r="H209"/>
     </row>
-    <row r="210" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="11"/>
       <c r="B210" s="11"/>
       <c r="C210" s="11"/>
@@ -7786,7 +7789,7 @@
       <c r="G210"/>
       <c r="H210"/>
     </row>
-    <row r="211" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="11"/>
       <c r="B211" s="11"/>
       <c r="C211" s="11"/>
@@ -7795,7 +7798,7 @@
       <c r="G211"/>
       <c r="H211"/>
     </row>
-    <row r="212" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="11"/>
       <c r="B212" s="11"/>
       <c r="C212" s="11"/>
@@ -7804,7 +7807,7 @@
       <c r="G212"/>
       <c r="H212"/>
     </row>
-    <row r="213" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="11"/>
       <c r="B213" s="11"/>
       <c r="C213" s="11"/>
@@ -7813,7 +7816,7 @@
       <c r="G213"/>
       <c r="H213"/>
     </row>
-    <row r="214" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="11"/>
       <c r="B214" s="11"/>
       <c r="C214" s="11"/>
@@ -7822,7 +7825,7 @@
       <c r="G214"/>
       <c r="H214"/>
     </row>
-    <row r="215" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="11"/>
       <c r="B215" s="11"/>
       <c r="C215" s="11"/>
@@ -7831,7 +7834,7 @@
       <c r="G215"/>
       <c r="H215"/>
     </row>
-    <row r="216" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="11"/>
       <c r="B216" s="11"/>
       <c r="C216" s="11"/>
@@ -7840,7 +7843,7 @@
       <c r="G216"/>
       <c r="H216"/>
     </row>
-    <row r="217" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A217" s="11"/>
       <c r="B217" s="11"/>
       <c r="C217" s="11"/>
@@ -7849,7 +7852,7 @@
       <c r="G217"/>
       <c r="H217"/>
     </row>
-    <row r="218" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="11"/>
       <c r="B218" s="11"/>
       <c r="C218" s="11"/>
@@ -7858,7 +7861,7 @@
       <c r="G218"/>
       <c r="H218"/>
     </row>
-    <row r="219" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="11"/>
       <c r="B219" s="11"/>
       <c r="C219" s="11"/>
@@ -7867,7 +7870,7 @@
       <c r="G219"/>
       <c r="H219"/>
     </row>
-    <row r="220" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="11"/>
       <c r="B220" s="11"/>
       <c r="C220" s="11"/>
@@ -7876,7 +7879,7 @@
       <c r="G220"/>
       <c r="H220"/>
     </row>
-    <row r="221" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="11"/>
       <c r="B221" s="11"/>
       <c r="C221" s="11"/>
@@ -7885,7 +7888,7 @@
       <c r="G221"/>
       <c r="H221"/>
     </row>
-    <row r="222" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="11"/>
       <c r="B222" s="11"/>
       <c r="C222" s="11"/>
@@ -7894,7 +7897,7 @@
       <c r="G222"/>
       <c r="H222"/>
     </row>
-    <row r="223" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="11"/>
       <c r="B223" s="11"/>
       <c r="C223" s="11"/>
@@ -7903,34 +7906,34 @@
       <c r="G223"/>
       <c r="H223"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="11"/>
       <c r="B224" s="11"/>
       <c r="C224" s="11"/>
       <c r="D224" s="40"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="11"/>
       <c r="B225" s="11"/>
       <c r="C225" s="11"/>
       <c r="D225" s="40"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="11"/>
       <c r="B226" s="11"/>
       <c r="C226" s="11"/>
       <c r="D226" s="40"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="11"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="11"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="11"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="11"/>
     </row>
   </sheetData>
@@ -7949,33 +7952,33 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="19" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="3" max="3" width="75.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B2" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B3" s="17"/>
       <c r="C3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="20" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="19"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="22" t="s">
         <v>13</v>
       </c>
@@ -7998,7 +8001,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="26" t="s">
         <v>24</v>
       </c>
@@ -8023,7 +8026,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="26" t="s">
         <v>26</v>
       </c>
@@ -8048,7 +8051,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="26" t="s">
         <v>24</v>
       </c>
@@ -8073,7 +8076,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="26" t="s">
         <v>30</v>
       </c>
@@ -8098,7 +8101,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="29"/>
       <c r="B11" s="26" t="s">
         <v>30</v>
@@ -8124,7 +8127,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="26" t="s">
         <v>24</v>
       </c>
@@ -8149,7 +8152,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="26" t="s">
         <v>36</v>
       </c>
@@ -8174,7 +8177,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="27"/>
@@ -8189,7 +8192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
       <c r="D15" s="27"/>
@@ -8204,7 +8207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
       <c r="D16" s="27"/>
@@ -8219,7 +8222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
       <c r="D17" s="27"/>
@@ -8234,7 +8237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
       <c r="D18" s="27"/>
@@ -8249,7 +8252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
       <c r="D19" s="27"/>
@@ -8264,7 +8267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
       <c r="D20" s="27"/>
@@ -8279,7 +8282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
       <c r="D21" s="27"/>
@@ -8294,7 +8297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
       <c r="D22" s="27"/>
@@ -8309,7 +8312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="26"/>
       <c r="C23" s="30"/>
       <c r="D23" s="27"/>
@@ -8324,7 +8327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
       <c r="D24" s="27"/>
@@ -8339,7 +8342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
       <c r="D25" s="27"/>
@@ -8354,7 +8357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
       <c r="D26" s="27"/>
@@ -8369,7 +8372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
       <c r="D27" s="27"/>
@@ -8384,7 +8387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="D28" s="27"/>
@@ -8399,7 +8402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="27"/>
@@ -8414,7 +8417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="27"/>
@@ -8429,7 +8432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="27"/>
@@ -8444,7 +8447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="27"/>
@@ -8459,7 +8462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="27"/>
@@ -8474,7 +8477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="27"/>
@@ -8489,7 +8492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="27"/>
@@ -8504,7 +8507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="27"/>
@@ -8519,7 +8522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="27"/>
@@ -8534,7 +8537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
       <c r="D38" s="27"/>
@@ -8549,7 +8552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="D39" s="27"/>
@@ -8564,7 +8567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
       <c r="D40" s="27"/>
@@ -8579,7 +8582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
       <c r="D41" s="27"/>
@@ -8594,7 +8597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="27"/>
@@ -8609,7 +8612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
       <c r="D43" s="27"/>
@@ -8624,7 +8627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="27"/>
@@ -8639,7 +8642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="27"/>
@@ -8654,7 +8657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="27"/>
@@ -8669,7 +8672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="11"/>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
@@ -8685,7 +8688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="11"/>
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
@@ -8701,7 +8704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="11"/>
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
@@ -8717,7 +8720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="11"/>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
@@ -8733,7 +8736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="11"/>
       <c r="B51"/>
       <c r="C51"/>
@@ -8749,7 +8752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -8765,7 +8768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="11"/>
       <c r="B53" s="50"/>
       <c r="C53" s="11"/>
@@ -8781,7 +8784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="11"/>
       <c r="B54" s="50"/>
       <c r="C54" s="11"/>
@@ -8797,7 +8800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="11"/>
       <c r="B55" s="30"/>
       <c r="C55" s="50"/>
@@ -8813,7 +8816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="11"/>
       <c r="B56" s="50"/>
       <c r="C56" s="11"/>
@@ -8829,7 +8832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="11"/>
       <c r="B57" s="50"/>
       <c r="C57" s="11"/>
@@ -8845,7 +8848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="11"/>
       <c r="B58" s="50"/>
       <c r="C58" s="30"/>
@@ -8861,7 +8864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="11"/>
       <c r="B59" s="50"/>
       <c r="C59" s="11"/>
@@ -8877,7 +8880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="11"/>
       <c r="B60" s="50"/>
       <c r="C60" s="11"/>
@@ -8893,7 +8896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="11"/>
       <c r="B61" s="50"/>
       <c r="C61" s="11"/>
@@ -8909,7 +8912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="11"/>
       <c r="B62" s="50"/>
       <c r="C62" s="11"/>
@@ -8925,7 +8928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="11"/>
       <c r="B63" s="50"/>
       <c r="C63" s="11"/>
@@ -8941,7 +8944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="11"/>
       <c r="B64" s="50"/>
       <c r="C64" s="11"/>
@@ -8957,7 +8960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="11"/>
       <c r="B65" s="50"/>
       <c r="C65" s="11"/>
@@ -8973,7 +8976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="11"/>
       <c r="B66" s="50"/>
       <c r="C66" s="11"/>
@@ -8989,7 +8992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="11"/>
       <c r="B67" s="43" t="s">
         <v>19</v>
@@ -9004,7 +9007,7 @@
       </c>
       <c r="H67" s="54"/>
     </row>
-    <row r="68" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -9013,7 +9016,7 @@
       <c r="G68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -9022,7 +9025,7 @@
       <c r="G69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -9031,7 +9034,7 @@
       <c r="G70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -9040,7 +9043,7 @@
       <c r="G71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -9049,7 +9052,7 @@
       <c r="G72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -9058,7 +9061,7 @@
       <c r="G73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -9067,7 +9070,7 @@
       <c r="G74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -9076,7 +9079,7 @@
       <c r="G75"/>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -9085,7 +9088,7 @@
       <c r="G76"/>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -9094,7 +9097,7 @@
       <c r="G77"/>
       <c r="H77"/>
     </row>
-    <row r="78" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -9103,7 +9106,7 @@
       <c r="G78"/>
       <c r="H78"/>
     </row>
-    <row r="79" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -9112,7 +9115,7 @@
       <c r="G79"/>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -9121,7 +9124,7 @@
       <c r="G80"/>
       <c r="H80"/>
     </row>
-    <row r="81" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -9130,7 +9133,7 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -9139,7 +9142,7 @@
       <c r="G82"/>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -9148,7 +9151,7 @@
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -9157,7 +9160,7 @@
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -9166,7 +9169,7 @@
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -9175,7 +9178,7 @@
       <c r="G86"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -9184,7 +9187,7 @@
       <c r="G87"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -9193,7 +9196,7 @@
       <c r="G88"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -9202,7 +9205,7 @@
       <c r="G89"/>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -9211,7 +9214,7 @@
       <c r="G90"/>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -9220,7 +9223,7 @@
       <c r="G91"/>
       <c r="H91"/>
     </row>
-    <row r="92" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -9229,7 +9232,7 @@
       <c r="G92"/>
       <c r="H92"/>
     </row>
-    <row r="93" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -9238,7 +9241,7 @@
       <c r="G93"/>
       <c r="H93"/>
     </row>
-    <row r="94" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -9247,7 +9250,7 @@
       <c r="G94"/>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="11"/>
       <c r="B95" s="42"/>
       <c r="C95" s="11"/>
@@ -9256,7 +9259,7 @@
       <c r="G95"/>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -9265,7 +9268,7 @@
       <c r="G96"/>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -9274,7 +9277,7 @@
       <c r="G97"/>
       <c r="H97"/>
     </row>
-    <row r="98" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A98" s="11"/>
       <c r="B98" s="37"/>
       <c r="C98" s="11"/>
@@ -9283,7 +9286,7 @@
       <c r="G98"/>
       <c r="H98"/>
     </row>
-    <row r="99" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -9292,7 +9295,7 @@
       <c r="G99"/>
       <c r="H99"/>
     </row>
-    <row r="100" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="11"/>
       <c r="B100" s="38"/>
       <c r="C100" s="38"/>
@@ -9301,7 +9304,7 @@
       <c r="G100"/>
       <c r="H100"/>
     </row>
-    <row r="101" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -9310,7 +9313,7 @@
       <c r="G101"/>
       <c r="H101"/>
     </row>
-    <row r="102" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -9319,7 +9322,7 @@
       <c r="G102"/>
       <c r="H102"/>
     </row>
-    <row r="103" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -9328,7 +9331,7 @@
       <c r="G103"/>
       <c r="H103"/>
     </row>
-    <row r="104" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -9337,7 +9340,7 @@
       <c r="G104"/>
       <c r="H104"/>
     </row>
-    <row r="105" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -9346,7 +9349,7 @@
       <c r="G105"/>
       <c r="H105"/>
     </row>
-    <row r="106" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -9355,7 +9358,7 @@
       <c r="G106"/>
       <c r="H106"/>
     </row>
-    <row r="107" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -9364,7 +9367,7 @@
       <c r="G107"/>
       <c r="H107"/>
     </row>
-    <row r="108" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -9373,7 +9376,7 @@
       <c r="G108"/>
       <c r="H108"/>
     </row>
-    <row r="109" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -9382,7 +9385,7 @@
       <c r="G109"/>
       <c r="H109"/>
     </row>
-    <row r="110" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -9391,7 +9394,7 @@
       <c r="G110"/>
       <c r="H110"/>
     </row>
-    <row r="111" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -9400,7 +9403,7 @@
       <c r="G111"/>
       <c r="H111"/>
     </row>
-    <row r="112" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -9409,7 +9412,7 @@
       <c r="G112"/>
       <c r="H112"/>
     </row>
-    <row r="113" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
@@ -9418,7 +9421,7 @@
       <c r="G113"/>
       <c r="H113"/>
     </row>
-    <row r="114" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
@@ -9427,7 +9430,7 @@
       <c r="G114"/>
       <c r="H114"/>
     </row>
-    <row r="115" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
@@ -9436,7 +9439,7 @@
       <c r="G115"/>
       <c r="H115"/>
     </row>
-    <row r="116" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
@@ -9445,7 +9448,7 @@
       <c r="G116"/>
       <c r="H116"/>
     </row>
-    <row r="117" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
@@ -9454,7 +9457,7 @@
       <c r="G117"/>
       <c r="H117"/>
     </row>
-    <row r="118" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
@@ -9463,7 +9466,7 @@
       <c r="G118"/>
       <c r="H118"/>
     </row>
-    <row r="119" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
@@ -9472,7 +9475,7 @@
       <c r="G119"/>
       <c r="H119"/>
     </row>
-    <row r="120" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
@@ -9481,7 +9484,7 @@
       <c r="G120"/>
       <c r="H120"/>
     </row>
-    <row r="121" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
@@ -9490,7 +9493,7 @@
       <c r="G121"/>
       <c r="H121"/>
     </row>
-    <row r="122" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="11"/>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
@@ -9499,7 +9502,7 @@
       <c r="G122"/>
       <c r="H122"/>
     </row>
-    <row r="123" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="11"/>
       <c r="B123" s="11"/>
       <c r="C123" s="11"/>
@@ -9508,7 +9511,7 @@
       <c r="G123"/>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="11"/>
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
@@ -9517,7 +9520,7 @@
       <c r="G124"/>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="11"/>
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
@@ -9526,7 +9529,7 @@
       <c r="G125"/>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="11"/>
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
@@ -9535,7 +9538,7 @@
       <c r="G126"/>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="11"/>
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
@@ -9544,7 +9547,7 @@
       <c r="G127"/>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="11"/>
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
@@ -9553,7 +9556,7 @@
       <c r="G128"/>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="11"/>
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
@@ -9562,7 +9565,7 @@
       <c r="G129"/>
       <c r="H129"/>
     </row>
-    <row r="130" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="11"/>
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
@@ -9571,7 +9574,7 @@
       <c r="G130"/>
       <c r="H130"/>
     </row>
-    <row r="131" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="11"/>
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
@@ -9580,7 +9583,7 @@
       <c r="G131"/>
       <c r="H131"/>
     </row>
-    <row r="132" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="11"/>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
@@ -9589,7 +9592,7 @@
       <c r="G132"/>
       <c r="H132"/>
     </row>
-    <row r="133" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="11"/>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
@@ -9598,7 +9601,7 @@
       <c r="G133"/>
       <c r="H133"/>
     </row>
-    <row r="134" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="11"/>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
@@ -9607,7 +9610,7 @@
       <c r="G134"/>
       <c r="H134"/>
     </row>
-    <row r="135" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="11"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
@@ -9616,7 +9619,7 @@
       <c r="G135"/>
       <c r="H135"/>
     </row>
-    <row r="136" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="11"/>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
@@ -9625,7 +9628,7 @@
       <c r="G136"/>
       <c r="H136"/>
     </row>
-    <row r="137" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="11"/>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
@@ -9634,7 +9637,7 @@
       <c r="G137"/>
       <c r="H137"/>
     </row>
-    <row r="138" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="11"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
@@ -9643,7 +9646,7 @@
       <c r="G138"/>
       <c r="H138"/>
     </row>
-    <row r="139" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="11"/>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
@@ -9652,7 +9655,7 @@
       <c r="G139"/>
       <c r="H139"/>
     </row>
-    <row r="140" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="11"/>
       <c r="B140" s="42"/>
       <c r="C140" s="11"/>
@@ -9661,7 +9664,7 @@
       <c r="G140"/>
       <c r="H140"/>
     </row>
-    <row r="141" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="11"/>
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
@@ -9670,7 +9673,7 @@
       <c r="G141"/>
       <c r="H141"/>
     </row>
-    <row r="142" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="11"/>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
@@ -9679,7 +9682,7 @@
       <c r="G142"/>
       <c r="H142"/>
     </row>
-    <row r="143" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A143" s="11"/>
       <c r="B143" s="37"/>
       <c r="C143" s="11"/>
@@ -9688,7 +9691,7 @@
       <c r="G143"/>
       <c r="H143"/>
     </row>
-    <row r="144" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="11"/>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
@@ -9697,7 +9700,7 @@
       <c r="G144"/>
       <c r="H144"/>
     </row>
-    <row r="145" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="11"/>
       <c r="B145" s="38"/>
       <c r="C145" s="38"/>
@@ -9706,7 +9709,7 @@
       <c r="G145"/>
       <c r="H145"/>
     </row>
-    <row r="146" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="11"/>
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
@@ -9715,7 +9718,7 @@
       <c r="G146"/>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="11"/>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
@@ -9724,7 +9727,7 @@
       <c r="G147"/>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="11"/>
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
@@ -9733,7 +9736,7 @@
       <c r="G148"/>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="11"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
@@ -9742,7 +9745,7 @@
       <c r="G149"/>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="11"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
@@ -9751,7 +9754,7 @@
       <c r="G150"/>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="11"/>
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
@@ -9760,7 +9763,7 @@
       <c r="G151"/>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="11"/>
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
@@ -9769,7 +9772,7 @@
       <c r="G152"/>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="11"/>
       <c r="B153" s="11"/>
       <c r="C153" s="11"/>
@@ -9778,7 +9781,7 @@
       <c r="G153"/>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="11"/>
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
@@ -9787,7 +9790,7 @@
       <c r="G154"/>
       <c r="H154"/>
     </row>
-    <row r="155" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="11"/>
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
@@ -9796,7 +9799,7 @@
       <c r="G155"/>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="11"/>
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
@@ -9805,7 +9808,7 @@
       <c r="G156"/>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="11"/>
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
@@ -9814,7 +9817,7 @@
       <c r="G157"/>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="11"/>
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
@@ -9823,7 +9826,7 @@
       <c r="G158"/>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="11"/>
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
@@ -9832,7 +9835,7 @@
       <c r="G159"/>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="11"/>
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
@@ -9841,7 +9844,7 @@
       <c r="G160"/>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="11"/>
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
@@ -9850,7 +9853,7 @@
       <c r="G161"/>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="11"/>
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
@@ -9859,7 +9862,7 @@
       <c r="G162"/>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="11"/>
       <c r="B163" s="11"/>
       <c r="C163" s="11"/>
@@ -9868,7 +9871,7 @@
       <c r="G163"/>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="11"/>
       <c r="B164" s="11"/>
       <c r="C164" s="11"/>
@@ -9877,7 +9880,7 @@
       <c r="G164"/>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="11"/>
       <c r="B165" s="11"/>
       <c r="C165" s="11"/>
@@ -9886,7 +9889,7 @@
       <c r="G165"/>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="11"/>
       <c r="B166" s="11"/>
       <c r="C166" s="11"/>
@@ -9895,7 +9898,7 @@
       <c r="G166"/>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="11"/>
       <c r="B167" s="11"/>
       <c r="C167" s="11"/>
@@ -9904,7 +9907,7 @@
       <c r="G167"/>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="11"/>
       <c r="B168" s="11"/>
       <c r="C168" s="11"/>
@@ -9913,7 +9916,7 @@
       <c r="G168"/>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="11"/>
       <c r="B169" s="11"/>
       <c r="C169" s="11"/>
@@ -9922,7 +9925,7 @@
       <c r="G169"/>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="11"/>
       <c r="B170" s="11"/>
       <c r="C170" s="11"/>
@@ -9931,7 +9934,7 @@
       <c r="G170"/>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="11"/>
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
@@ -9940,7 +9943,7 @@
       <c r="G171"/>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="11"/>
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
@@ -9949,7 +9952,7 @@
       <c r="G172"/>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="11"/>
       <c r="B173" s="11"/>
       <c r="C173" s="11"/>
@@ -9958,7 +9961,7 @@
       <c r="G173"/>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="11"/>
       <c r="B174" s="11"/>
       <c r="C174" s="11"/>
@@ -9967,7 +9970,7 @@
       <c r="G174"/>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="11"/>
       <c r="B175" s="11"/>
       <c r="C175" s="11"/>
@@ -9976,7 +9979,7 @@
       <c r="G175"/>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="11"/>
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
@@ -9985,7 +9988,7 @@
       <c r="G176"/>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="11"/>
       <c r="B177" s="11"/>
       <c r="C177" s="11"/>
@@ -9994,7 +9997,7 @@
       <c r="G177"/>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="11"/>
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
@@ -10003,7 +10006,7 @@
       <c r="G178"/>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="11"/>
       <c r="B179" s="11"/>
       <c r="C179" s="11"/>
@@ -10012,7 +10015,7 @@
       <c r="G179"/>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A180" s="11"/>
       <c r="B180" s="11"/>
       <c r="C180" s="11"/>
@@ -10021,7 +10024,7 @@
       <c r="G180"/>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="11"/>
       <c r="B181" s="11"/>
       <c r="C181" s="11"/>
@@ -10030,7 +10033,7 @@
       <c r="G181"/>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="11"/>
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
@@ -10039,7 +10042,7 @@
       <c r="G182"/>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="11"/>
       <c r="B183" s="11"/>
       <c r="C183" s="11"/>
@@ -10048,7 +10051,7 @@
       <c r="G183"/>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="11"/>
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
@@ -10057,7 +10060,7 @@
       <c r="G184"/>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="11"/>
       <c r="B185" s="42"/>
       <c r="C185" s="11"/>
@@ -10066,7 +10069,7 @@
       <c r="G185"/>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="11"/>
       <c r="B186" s="11"/>
       <c r="C186" s="11"/>
@@ -10075,7 +10078,7 @@
       <c r="G186"/>
       <c r="H186"/>
     </row>
-    <row r="187" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="11"/>
       <c r="B187" s="11"/>
       <c r="C187" s="11"/>
@@ -10084,7 +10087,7 @@
       <c r="G187"/>
       <c r="H187"/>
     </row>
-    <row r="188" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A188" s="11"/>
       <c r="B188" s="37"/>
       <c r="C188" s="11"/>
@@ -10093,7 +10096,7 @@
       <c r="G188"/>
       <c r="H188"/>
     </row>
-    <row r="189" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A189" s="11"/>
       <c r="B189" s="11"/>
       <c r="C189" s="11"/>
@@ -10102,7 +10105,7 @@
       <c r="G189"/>
       <c r="H189"/>
     </row>
-    <row r="190" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="11"/>
       <c r="B190" s="38"/>
       <c r="C190" s="38"/>
@@ -10111,7 +10114,7 @@
       <c r="G190"/>
       <c r="H190"/>
     </row>
-    <row r="191" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="11"/>
       <c r="B191" s="11"/>
       <c r="C191" s="11"/>
@@ -10120,7 +10123,7 @@
       <c r="G191"/>
       <c r="H191"/>
     </row>
-    <row r="192" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="11"/>
       <c r="B192" s="11"/>
       <c r="C192" s="11"/>
@@ -10129,7 +10132,7 @@
       <c r="G192"/>
       <c r="H192"/>
     </row>
-    <row r="193" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="11"/>
       <c r="B193" s="11"/>
       <c r="C193" s="11"/>
@@ -10138,7 +10141,7 @@
       <c r="G193"/>
       <c r="H193"/>
     </row>
-    <row r="194" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="11"/>
       <c r="B194" s="11"/>
       <c r="C194" s="11"/>
@@ -10147,7 +10150,7 @@
       <c r="G194"/>
       <c r="H194"/>
     </row>
-    <row r="195" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="11"/>
       <c r="B195" s="11"/>
       <c r="C195" s="11"/>
@@ -10156,7 +10159,7 @@
       <c r="G195"/>
       <c r="H195"/>
     </row>
-    <row r="196" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="11"/>
       <c r="B196" s="11"/>
       <c r="C196" s="11"/>
@@ -10165,7 +10168,7 @@
       <c r="G196"/>
       <c r="H196"/>
     </row>
-    <row r="197" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="11"/>
       <c r="B197" s="11"/>
       <c r="C197" s="11"/>
@@ -10174,7 +10177,7 @@
       <c r="G197"/>
       <c r="H197"/>
     </row>
-    <row r="198" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="11"/>
       <c r="B198" s="11"/>
       <c r="C198" s="11"/>
@@ -10183,7 +10186,7 @@
       <c r="G198"/>
       <c r="H198"/>
     </row>
-    <row r="199" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="11"/>
       <c r="B199" s="11"/>
       <c r="C199" s="11"/>
@@ -10192,7 +10195,7 @@
       <c r="G199"/>
       <c r="H199"/>
     </row>
-    <row r="200" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="11"/>
       <c r="B200" s="11"/>
       <c r="C200" s="11"/>
@@ -10201,7 +10204,7 @@
       <c r="G200"/>
       <c r="H200"/>
     </row>
-    <row r="201" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="11"/>
       <c r="B201" s="11"/>
       <c r="C201" s="11"/>
@@ -10210,7 +10213,7 @@
       <c r="G201"/>
       <c r="H201"/>
     </row>
-    <row r="202" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="11"/>
       <c r="B202" s="11"/>
       <c r="C202" s="11"/>
@@ -10219,7 +10222,7 @@
       <c r="G202"/>
       <c r="H202"/>
     </row>
-    <row r="203" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="11"/>
       <c r="B203" s="11"/>
       <c r="C203" s="11"/>
@@ -10228,7 +10231,7 @@
       <c r="G203"/>
       <c r="H203"/>
     </row>
-    <row r="204" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="11"/>
       <c r="B204" s="11"/>
       <c r="C204" s="11"/>
@@ -10237,7 +10240,7 @@
       <c r="G204"/>
       <c r="H204"/>
     </row>
-    <row r="205" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="11"/>
       <c r="B205" s="11"/>
       <c r="C205" s="11"/>
@@ -10246,7 +10249,7 @@
       <c r="G205"/>
       <c r="H205"/>
     </row>
-    <row r="206" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="11"/>
       <c r="B206" s="11"/>
       <c r="C206" s="11"/>
@@ -10255,7 +10258,7 @@
       <c r="G206"/>
       <c r="H206"/>
     </row>
-    <row r="207" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A207" s="11"/>
       <c r="B207" s="11"/>
       <c r="C207" s="11"/>
@@ -10264,7 +10267,7 @@
       <c r="G207"/>
       <c r="H207"/>
     </row>
-    <row r="208" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="11"/>
       <c r="B208" s="11"/>
       <c r="C208" s="11"/>
@@ -10273,7 +10276,7 @@
       <c r="G208"/>
       <c r="H208"/>
     </row>
-    <row r="209" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="11"/>
       <c r="B209" s="11"/>
       <c r="C209" s="11"/>
@@ -10282,7 +10285,7 @@
       <c r="G209"/>
       <c r="H209"/>
     </row>
-    <row r="210" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="11"/>
       <c r="B210" s="11"/>
       <c r="C210" s="11"/>
@@ -10291,7 +10294,7 @@
       <c r="G210"/>
       <c r="H210"/>
     </row>
-    <row r="211" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="11"/>
       <c r="B211" s="11"/>
       <c r="C211" s="11"/>
@@ -10300,7 +10303,7 @@
       <c r="G211"/>
       <c r="H211"/>
     </row>
-    <row r="212" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="11"/>
       <c r="B212" s="11"/>
       <c r="C212" s="11"/>
@@ -10309,7 +10312,7 @@
       <c r="G212"/>
       <c r="H212"/>
     </row>
-    <row r="213" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="11"/>
       <c r="B213" s="11"/>
       <c r="C213" s="11"/>
@@ -10318,7 +10321,7 @@
       <c r="G213"/>
       <c r="H213"/>
     </row>
-    <row r="214" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="11"/>
       <c r="B214" s="11"/>
       <c r="C214" s="11"/>
@@ -10327,7 +10330,7 @@
       <c r="G214"/>
       <c r="H214"/>
     </row>
-    <row r="215" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="11"/>
       <c r="B215" s="11"/>
       <c r="C215" s="11"/>
@@ -10336,7 +10339,7 @@
       <c r="G215"/>
       <c r="H215"/>
     </row>
-    <row r="216" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="11"/>
       <c r="B216" s="11"/>
       <c r="C216" s="11"/>
@@ -10345,7 +10348,7 @@
       <c r="G216"/>
       <c r="H216"/>
     </row>
-    <row r="217" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A217" s="11"/>
       <c r="B217" s="11"/>
       <c r="C217" s="11"/>
@@ -10354,7 +10357,7 @@
       <c r="G217"/>
       <c r="H217"/>
     </row>
-    <row r="218" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="11"/>
       <c r="B218" s="11"/>
       <c r="C218" s="11"/>
@@ -10363,7 +10366,7 @@
       <c r="G218"/>
       <c r="H218"/>
     </row>
-    <row r="219" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="11"/>
       <c r="B219" s="11"/>
       <c r="C219" s="11"/>
@@ -10372,7 +10375,7 @@
       <c r="G219"/>
       <c r="H219"/>
     </row>
-    <row r="220" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="11"/>
       <c r="B220" s="11"/>
       <c r="C220" s="11"/>
@@ -10381,7 +10384,7 @@
       <c r="G220"/>
       <c r="H220"/>
     </row>
-    <row r="221" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="11"/>
       <c r="B221" s="11"/>
       <c r="C221" s="11"/>
@@ -10390,7 +10393,7 @@
       <c r="G221"/>
       <c r="H221"/>
     </row>
-    <row r="222" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="11"/>
       <c r="B222" s="11"/>
       <c r="C222" s="11"/>
@@ -10399,7 +10402,7 @@
       <c r="G222"/>
       <c r="H222"/>
     </row>
-    <row r="223" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="11"/>
       <c r="B223" s="11"/>
       <c r="C223" s="11"/>
@@ -10408,31 +10411,31 @@
       <c r="G223"/>
       <c r="H223"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="11"/>
       <c r="B224" s="11"/>
       <c r="C224" s="11"/>
       <c r="D224" s="40"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="11"/>
       <c r="B225" s="11"/>
       <c r="C225" s="11"/>
       <c r="D225" s="40"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="11"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="11"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="11"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="11"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="11"/>
     </row>
   </sheetData>
@@ -10447,37 +10450,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A13F21B-0FD5-4A2C-BFFD-2CC06888678E}">
   <dimension ref="A2:H230"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="19" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="3" max="3" width="75.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B2" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B3" s="17"/>
       <c r="C3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="20" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="19"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="22" t="s">
         <v>13</v>
       </c>
@@ -10500,7 +10503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="26" t="s">
         <v>24</v>
       </c>
@@ -10525,7 +10528,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="26" t="s">
         <v>26</v>
       </c>
@@ -10550,7 +10553,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="26" t="s">
         <v>24</v>
       </c>
@@ -10575,7 +10578,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="29"/>
       <c r="B10" s="26" t="s">
         <v>30</v>
@@ -10601,7 +10604,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" s="26" t="s">
         <v>30</v>
       </c>
@@ -10626,7 +10629,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="26" t="s">
         <v>24</v>
       </c>
@@ -10651,7 +10654,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="26" t="s">
         <v>30</v>
       </c>
@@ -10676,7 +10679,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="26" t="s">
         <v>24</v>
       </c>
@@ -10701,7 +10704,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="26" t="s">
         <v>36</v>
       </c>
@@ -10726,7 +10729,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="26" t="s">
         <v>30</v>
       </c>
@@ -10751,22 +10754,32 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="27">
+        <v>43420</v>
+      </c>
+      <c r="E17" s="28">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F17" s="28">
+        <v>0.47916666666666669</v>
+      </c>
       <c r="G17">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H17">
         <f>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
       <c r="D18" s="27"/>
@@ -10781,7 +10794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
       <c r="D19" s="27"/>
@@ -10796,7 +10809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
       <c r="D20" s="27"/>
@@ -10811,7 +10824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
       <c r="D21" s="27"/>
@@ -10826,7 +10839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
       <c r="D22" s="27"/>
@@ -10841,7 +10854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
       <c r="D23" s="27"/>
@@ -10856,7 +10869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
       <c r="D24" s="27"/>
@@ -10871,7 +10884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="D25" s="27"/>
@@ -10886,7 +10899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
       <c r="D26" s="27"/>
@@ -10901,7 +10914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
       <c r="D27" s="27"/>
@@ -10916,7 +10929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="D28" s="27"/>
@@ -10931,7 +10944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="27"/>
@@ -10946,7 +10959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="27"/>
@@ -10961,7 +10974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="27"/>
@@ -10976,7 +10989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="27"/>
@@ -10991,7 +11004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="27"/>
@@ -11006,7 +11019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="27"/>
@@ -11021,7 +11034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="27"/>
@@ -11036,7 +11049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="27"/>
@@ -11051,7 +11064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="27"/>
@@ -11066,7 +11079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
       <c r="D38" s="27"/>
@@ -11081,7 +11094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="D39" s="27"/>
@@ -11096,7 +11109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
       <c r="D40" s="27"/>
@@ -11111,7 +11124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
       <c r="D41" s="27"/>
@@ -11126,7 +11139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="27"/>
@@ -11141,7 +11154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
       <c r="D43" s="27"/>
@@ -11156,7 +11169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="27"/>
@@ -11171,7 +11184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="27"/>
@@ -11186,7 +11199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="27"/>
@@ -11201,7 +11214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="11"/>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
@@ -11217,7 +11230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="11"/>
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
@@ -11233,7 +11246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="11"/>
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
@@ -11249,7 +11262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="11"/>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
@@ -11265,7 +11278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="11"/>
       <c r="B51" s="35" t="s">
         <v>19</v>
@@ -11276,11 +11289,11 @@
       <c r="F51" s="36"/>
       <c r="G51">
         <f>SUM(G7:G50)</f>
-        <v>26</v>
+        <v>27.5</v>
       </c>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="11"/>
       <c r="B52"/>
       <c r="C52"/>
@@ -11289,7 +11302,7 @@
       <c r="G52"/>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -11298,7 +11311,7 @@
       <c r="G53"/>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" s="11"/>
       <c r="B54" s="37"/>
       <c r="C54" s="11"/>
@@ -11307,7 +11320,7 @@
       <c r="G54"/>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -11316,7 +11329,7 @@
       <c r="G55"/>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="11"/>
       <c r="B56" s="38"/>
       <c r="C56" s="38"/>
@@ -11325,7 +11338,7 @@
       <c r="G56"/>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -11334,7 +11347,7 @@
       <c r="G57"/>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -11343,7 +11356,7 @@
       <c r="G58"/>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -11352,7 +11365,7 @@
       <c r="G59"/>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -11361,7 +11374,7 @@
       <c r="G60"/>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -11370,7 +11383,7 @@
       <c r="G61"/>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -11379,7 +11392,7 @@
       <c r="G62"/>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -11388,7 +11401,7 @@
       <c r="G63"/>
       <c r="H63"/>
     </row>
-    <row r="64" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="11"/>
       <c r="B64" s="41"/>
       <c r="C64" s="11"/>
@@ -11397,7 +11410,7 @@
       <c r="G64"/>
       <c r="H64"/>
     </row>
-    <row r="65" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -11406,7 +11419,7 @@
       <c r="G65"/>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -11415,7 +11428,7 @@
       <c r="G66"/>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -11424,7 +11437,7 @@
       <c r="G67"/>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -11433,7 +11446,7 @@
       <c r="G68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -11442,7 +11455,7 @@
       <c r="G69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -11451,7 +11464,7 @@
       <c r="G70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -11460,7 +11473,7 @@
       <c r="G71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -11469,7 +11482,7 @@
       <c r="G72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -11478,7 +11491,7 @@
       <c r="G73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -11487,7 +11500,7 @@
       <c r="G74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -11496,7 +11509,7 @@
       <c r="G75"/>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -11505,7 +11518,7 @@
       <c r="G76"/>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -11514,7 +11527,7 @@
       <c r="G77"/>
       <c r="H77"/>
     </row>
-    <row r="78" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -11523,7 +11536,7 @@
       <c r="G78"/>
       <c r="H78"/>
     </row>
-    <row r="79" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -11532,7 +11545,7 @@
       <c r="G79"/>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -11541,7 +11554,7 @@
       <c r="G80"/>
       <c r="H80"/>
     </row>
-    <row r="81" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -11550,7 +11563,7 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -11559,7 +11572,7 @@
       <c r="G82"/>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -11568,7 +11581,7 @@
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -11577,7 +11590,7 @@
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -11586,7 +11599,7 @@
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -11595,7 +11608,7 @@
       <c r="G86"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -11604,7 +11617,7 @@
       <c r="G87"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -11613,7 +11626,7 @@
       <c r="G88"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -11622,7 +11635,7 @@
       <c r="G89"/>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -11631,7 +11644,7 @@
       <c r="G90"/>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -11640,7 +11653,7 @@
       <c r="G91"/>
       <c r="H91"/>
     </row>
-    <row r="92" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -11649,7 +11662,7 @@
       <c r="G92"/>
       <c r="H92"/>
     </row>
-    <row r="93" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -11658,7 +11671,7 @@
       <c r="G93"/>
       <c r="H93"/>
     </row>
-    <row r="94" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -11667,7 +11680,7 @@
       <c r="G94"/>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -11676,7 +11689,7 @@
       <c r="G95"/>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="11"/>
       <c r="B96" s="42"/>
       <c r="C96" s="11"/>
@@ -11685,7 +11698,7 @@
       <c r="G96"/>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -11694,7 +11707,7 @@
       <c r="G97"/>
       <c r="H97"/>
     </row>
-    <row r="98" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -11703,7 +11716,7 @@
       <c r="G98"/>
       <c r="H98"/>
     </row>
-    <row r="99" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A99" s="11"/>
       <c r="B99" s="37"/>
       <c r="C99" s="11"/>
@@ -11712,7 +11725,7 @@
       <c r="G99"/>
       <c r="H99"/>
     </row>
-    <row r="100" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -11721,7 +11734,7 @@
       <c r="G100"/>
       <c r="H100"/>
     </row>
-    <row r="101" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="11"/>
       <c r="B101" s="38"/>
       <c r="C101" s="38"/>
@@ -11730,7 +11743,7 @@
       <c r="G101"/>
       <c r="H101"/>
     </row>
-    <row r="102" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -11739,7 +11752,7 @@
       <c r="G102"/>
       <c r="H102"/>
     </row>
-    <row r="103" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -11748,7 +11761,7 @@
       <c r="G103"/>
       <c r="H103"/>
     </row>
-    <row r="104" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -11757,7 +11770,7 @@
       <c r="G104"/>
       <c r="H104"/>
     </row>
-    <row r="105" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -11766,7 +11779,7 @@
       <c r="G105"/>
       <c r="H105"/>
     </row>
-    <row r="106" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -11775,7 +11788,7 @@
       <c r="G106"/>
       <c r="H106"/>
     </row>
-    <row r="107" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -11784,7 +11797,7 @@
       <c r="G107"/>
       <c r="H107"/>
     </row>
-    <row r="108" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -11793,7 +11806,7 @@
       <c r="G108"/>
       <c r="H108"/>
     </row>
-    <row r="109" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -11802,7 +11815,7 @@
       <c r="G109"/>
       <c r="H109"/>
     </row>
-    <row r="110" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -11811,7 +11824,7 @@
       <c r="G110"/>
       <c r="H110"/>
     </row>
-    <row r="111" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -11820,7 +11833,7 @@
       <c r="G111"/>
       <c r="H111"/>
     </row>
-    <row r="112" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -11829,7 +11842,7 @@
       <c r="G112"/>
       <c r="H112"/>
     </row>
-    <row r="113" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
@@ -11838,7 +11851,7 @@
       <c r="G113"/>
       <c r="H113"/>
     </row>
-    <row r="114" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
@@ -11847,7 +11860,7 @@
       <c r="G114"/>
       <c r="H114"/>
     </row>
-    <row r="115" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
@@ -11856,7 +11869,7 @@
       <c r="G115"/>
       <c r="H115"/>
     </row>
-    <row r="116" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
@@ -11865,7 +11878,7 @@
       <c r="G116"/>
       <c r="H116"/>
     </row>
-    <row r="117" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
@@ -11874,7 +11887,7 @@
       <c r="G117"/>
       <c r="H117"/>
     </row>
-    <row r="118" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
@@ -11883,7 +11896,7 @@
       <c r="G118"/>
       <c r="H118"/>
     </row>
-    <row r="119" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
@@ -11892,7 +11905,7 @@
       <c r="G119"/>
       <c r="H119"/>
     </row>
-    <row r="120" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
@@ -11901,7 +11914,7 @@
       <c r="G120"/>
       <c r="H120"/>
     </row>
-    <row r="121" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
@@ -11910,7 +11923,7 @@
       <c r="G121"/>
       <c r="H121"/>
     </row>
-    <row r="122" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="11"/>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
@@ -11919,7 +11932,7 @@
       <c r="G122"/>
       <c r="H122"/>
     </row>
-    <row r="123" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="11"/>
       <c r="B123" s="11"/>
       <c r="C123" s="11"/>
@@ -11928,7 +11941,7 @@
       <c r="G123"/>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="11"/>
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
@@ -11937,7 +11950,7 @@
       <c r="G124"/>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="11"/>
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
@@ -11946,7 +11959,7 @@
       <c r="G125"/>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="11"/>
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
@@ -11955,7 +11968,7 @@
       <c r="G126"/>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="11"/>
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
@@ -11964,7 +11977,7 @@
       <c r="G127"/>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="11"/>
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
@@ -11973,7 +11986,7 @@
       <c r="G128"/>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="11"/>
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
@@ -11982,7 +11995,7 @@
       <c r="G129"/>
       <c r="H129"/>
     </row>
-    <row r="130" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="11"/>
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
@@ -11991,7 +12004,7 @@
       <c r="G130"/>
       <c r="H130"/>
     </row>
-    <row r="131" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="11"/>
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
@@ -12000,7 +12013,7 @@
       <c r="G131"/>
       <c r="H131"/>
     </row>
-    <row r="132" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="11"/>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
@@ -12009,7 +12022,7 @@
       <c r="G132"/>
       <c r="H132"/>
     </row>
-    <row r="133" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="11"/>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
@@ -12018,7 +12031,7 @@
       <c r="G133"/>
       <c r="H133"/>
     </row>
-    <row r="134" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="11"/>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
@@ -12027,7 +12040,7 @@
       <c r="G134"/>
       <c r="H134"/>
     </row>
-    <row r="135" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="11"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
@@ -12036,7 +12049,7 @@
       <c r="G135"/>
       <c r="H135"/>
     </row>
-    <row r="136" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="11"/>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
@@ -12045,7 +12058,7 @@
       <c r="G136"/>
       <c r="H136"/>
     </row>
-    <row r="137" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="11"/>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
@@ -12054,7 +12067,7 @@
       <c r="G137"/>
       <c r="H137"/>
     </row>
-    <row r="138" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="11"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
@@ -12063,7 +12076,7 @@
       <c r="G138"/>
       <c r="H138"/>
     </row>
-    <row r="139" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="11"/>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
@@ -12072,7 +12085,7 @@
       <c r="G139"/>
       <c r="H139"/>
     </row>
-    <row r="140" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="11"/>
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
@@ -12081,7 +12094,7 @@
       <c r="G140"/>
       <c r="H140"/>
     </row>
-    <row r="141" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="11"/>
       <c r="B141" s="42"/>
       <c r="C141" s="11"/>
@@ -12090,7 +12103,7 @@
       <c r="G141"/>
       <c r="H141"/>
     </row>
-    <row r="142" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="11"/>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
@@ -12099,7 +12112,7 @@
       <c r="G142"/>
       <c r="H142"/>
     </row>
-    <row r="143" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="11"/>
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
@@ -12108,7 +12121,7 @@
       <c r="G143"/>
       <c r="H143"/>
     </row>
-    <row r="144" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A144" s="11"/>
       <c r="B144" s="37"/>
       <c r="C144" s="11"/>
@@ -12117,7 +12130,7 @@
       <c r="G144"/>
       <c r="H144"/>
     </row>
-    <row r="145" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="11"/>
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
@@ -12126,7 +12139,7 @@
       <c r="G145"/>
       <c r="H145"/>
     </row>
-    <row r="146" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="11"/>
       <c r="B146" s="38"/>
       <c r="C146" s="38"/>
@@ -12135,7 +12148,7 @@
       <c r="G146"/>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="11"/>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
@@ -12144,7 +12157,7 @@
       <c r="G147"/>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="11"/>
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
@@ -12153,7 +12166,7 @@
       <c r="G148"/>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="11"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
@@ -12162,7 +12175,7 @@
       <c r="G149"/>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="11"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
@@ -12171,7 +12184,7 @@
       <c r="G150"/>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="11"/>
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
@@ -12180,7 +12193,7 @@
       <c r="G151"/>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="11"/>
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
@@ -12189,7 +12202,7 @@
       <c r="G152"/>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="11"/>
       <c r="B153" s="11"/>
       <c r="C153" s="11"/>
@@ -12198,7 +12211,7 @@
       <c r="G153"/>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="11"/>
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
@@ -12207,7 +12220,7 @@
       <c r="G154"/>
       <c r="H154"/>
     </row>
-    <row r="155" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="11"/>
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
@@ -12216,7 +12229,7 @@
       <c r="G155"/>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="11"/>
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
@@ -12225,7 +12238,7 @@
       <c r="G156"/>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="11"/>
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
@@ -12234,7 +12247,7 @@
       <c r="G157"/>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="11"/>
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
@@ -12243,7 +12256,7 @@
       <c r="G158"/>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="11"/>
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
@@ -12252,7 +12265,7 @@
       <c r="G159"/>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="11"/>
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
@@ -12261,7 +12274,7 @@
       <c r="G160"/>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="11"/>
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
@@ -12270,7 +12283,7 @@
       <c r="G161"/>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="11"/>
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
@@ -12279,7 +12292,7 @@
       <c r="G162"/>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="11"/>
       <c r="B163" s="11"/>
       <c r="C163" s="11"/>
@@ -12288,7 +12301,7 @@
       <c r="G163"/>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="11"/>
       <c r="B164" s="11"/>
       <c r="C164" s="11"/>
@@ -12297,7 +12310,7 @@
       <c r="G164"/>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="11"/>
       <c r="B165" s="11"/>
       <c r="C165" s="11"/>
@@ -12306,7 +12319,7 @@
       <c r="G165"/>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="11"/>
       <c r="B166" s="11"/>
       <c r="C166" s="11"/>
@@ -12315,7 +12328,7 @@
       <c r="G166"/>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="11"/>
       <c r="B167" s="11"/>
       <c r="C167" s="11"/>
@@ -12324,7 +12337,7 @@
       <c r="G167"/>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="11"/>
       <c r="B168" s="11"/>
       <c r="C168" s="11"/>
@@ -12333,7 +12346,7 @@
       <c r="G168"/>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="11"/>
       <c r="B169" s="11"/>
       <c r="C169" s="11"/>
@@ -12342,7 +12355,7 @@
       <c r="G169"/>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="11"/>
       <c r="B170" s="11"/>
       <c r="C170" s="11"/>
@@ -12351,7 +12364,7 @@
       <c r="G170"/>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="11"/>
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
@@ -12360,7 +12373,7 @@
       <c r="G171"/>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="11"/>
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
@@ -12369,7 +12382,7 @@
       <c r="G172"/>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="11"/>
       <c r="B173" s="11"/>
       <c r="C173" s="11"/>
@@ -12378,7 +12391,7 @@
       <c r="G173"/>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="11"/>
       <c r="B174" s="11"/>
       <c r="C174" s="11"/>
@@ -12387,7 +12400,7 @@
       <c r="G174"/>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="11"/>
       <c r="B175" s="11"/>
       <c r="C175" s="11"/>
@@ -12396,7 +12409,7 @@
       <c r="G175"/>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="11"/>
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
@@ -12405,7 +12418,7 @@
       <c r="G176"/>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="11"/>
       <c r="B177" s="11"/>
       <c r="C177" s="11"/>
@@ -12414,7 +12427,7 @@
       <c r="G177"/>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="11"/>
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
@@ -12423,7 +12436,7 @@
       <c r="G178"/>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="11"/>
       <c r="B179" s="11"/>
       <c r="C179" s="11"/>
@@ -12432,7 +12445,7 @@
       <c r="G179"/>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A180" s="11"/>
       <c r="B180" s="11"/>
       <c r="C180" s="11"/>
@@ -12441,7 +12454,7 @@
       <c r="G180"/>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="11"/>
       <c r="B181" s="11"/>
       <c r="C181" s="11"/>
@@ -12450,7 +12463,7 @@
       <c r="G181"/>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="11"/>
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
@@ -12459,7 +12472,7 @@
       <c r="G182"/>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="11"/>
       <c r="B183" s="11"/>
       <c r="C183" s="11"/>
@@ -12468,7 +12481,7 @@
       <c r="G183"/>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="11"/>
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
@@ -12477,7 +12490,7 @@
       <c r="G184"/>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="11"/>
       <c r="B185" s="11"/>
       <c r="C185" s="11"/>
@@ -12486,7 +12499,7 @@
       <c r="G185"/>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="11"/>
       <c r="B186" s="42"/>
       <c r="C186" s="11"/>
@@ -12495,7 +12508,7 @@
       <c r="G186"/>
       <c r="H186"/>
     </row>
-    <row r="187" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="11"/>
       <c r="B187" s="11"/>
       <c r="C187" s="11"/>
@@ -12504,7 +12517,7 @@
       <c r="G187"/>
       <c r="H187"/>
     </row>
-    <row r="188" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="11"/>
       <c r="B188" s="11"/>
       <c r="C188" s="11"/>
@@ -12513,7 +12526,7 @@
       <c r="G188"/>
       <c r="H188"/>
     </row>
-    <row r="189" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A189" s="11"/>
       <c r="B189" s="37"/>
       <c r="C189" s="11"/>
@@ -12522,7 +12535,7 @@
       <c r="G189"/>
       <c r="H189"/>
     </row>
-    <row r="190" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="11"/>
       <c r="B190" s="11"/>
       <c r="C190" s="11"/>
@@ -12531,7 +12544,7 @@
       <c r="G190"/>
       <c r="H190"/>
     </row>
-    <row r="191" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="11"/>
       <c r="B191" s="38"/>
       <c r="C191" s="38"/>
@@ -12540,7 +12553,7 @@
       <c r="G191"/>
       <c r="H191"/>
     </row>
-    <row r="192" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="11"/>
       <c r="B192" s="11"/>
       <c r="C192" s="11"/>
@@ -12549,7 +12562,7 @@
       <c r="G192"/>
       <c r="H192"/>
     </row>
-    <row r="193" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="11"/>
       <c r="B193" s="11"/>
       <c r="C193" s="11"/>
@@ -12558,7 +12571,7 @@
       <c r="G193"/>
       <c r="H193"/>
     </row>
-    <row r="194" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="11"/>
       <c r="B194" s="11"/>
       <c r="C194" s="11"/>
@@ -12567,7 +12580,7 @@
       <c r="G194"/>
       <c r="H194"/>
     </row>
-    <row r="195" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="11"/>
       <c r="B195" s="11"/>
       <c r="C195" s="11"/>
@@ -12576,7 +12589,7 @@
       <c r="G195"/>
       <c r="H195"/>
     </row>
-    <row r="196" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="11"/>
       <c r="B196" s="11"/>
       <c r="C196" s="11"/>
@@ -12585,7 +12598,7 @@
       <c r="G196"/>
       <c r="H196"/>
     </row>
-    <row r="197" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="11"/>
       <c r="B197" s="11"/>
       <c r="C197" s="11"/>
@@ -12594,7 +12607,7 @@
       <c r="G197"/>
       <c r="H197"/>
     </row>
-    <row r="198" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="11"/>
       <c r="B198" s="11"/>
       <c r="C198" s="11"/>
@@ -12603,7 +12616,7 @@
       <c r="G198"/>
       <c r="H198"/>
     </row>
-    <row r="199" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="11"/>
       <c r="B199" s="11"/>
       <c r="C199" s="11"/>
@@ -12612,7 +12625,7 @@
       <c r="G199"/>
       <c r="H199"/>
     </row>
-    <row r="200" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="11"/>
       <c r="B200" s="11"/>
       <c r="C200" s="11"/>
@@ -12621,7 +12634,7 @@
       <c r="G200"/>
       <c r="H200"/>
     </row>
-    <row r="201" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="11"/>
       <c r="B201" s="11"/>
       <c r="C201" s="11"/>
@@ -12630,7 +12643,7 @@
       <c r="G201"/>
       <c r="H201"/>
     </row>
-    <row r="202" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="11"/>
       <c r="B202" s="11"/>
       <c r="C202" s="11"/>
@@ -12639,7 +12652,7 @@
       <c r="G202"/>
       <c r="H202"/>
     </row>
-    <row r="203" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="11"/>
       <c r="B203" s="11"/>
       <c r="C203" s="11"/>
@@ -12648,7 +12661,7 @@
       <c r="G203"/>
       <c r="H203"/>
     </row>
-    <row r="204" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="11"/>
       <c r="B204" s="11"/>
       <c r="C204" s="11"/>
@@ -12657,7 +12670,7 @@
       <c r="G204"/>
       <c r="H204"/>
     </row>
-    <row r="205" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="11"/>
       <c r="B205" s="11"/>
       <c r="C205" s="11"/>
@@ -12666,7 +12679,7 @@
       <c r="G205"/>
       <c r="H205"/>
     </row>
-    <row r="206" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="11"/>
       <c r="B206" s="11"/>
       <c r="C206" s="11"/>
@@ -12675,7 +12688,7 @@
       <c r="G206"/>
       <c r="H206"/>
     </row>
-    <row r="207" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A207" s="11"/>
       <c r="B207" s="11"/>
       <c r="C207" s="11"/>
@@ -12684,7 +12697,7 @@
       <c r="G207"/>
       <c r="H207"/>
     </row>
-    <row r="208" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="11"/>
       <c r="B208" s="11"/>
       <c r="C208" s="11"/>
@@ -12693,7 +12706,7 @@
       <c r="G208"/>
       <c r="H208"/>
     </row>
-    <row r="209" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="11"/>
       <c r="B209" s="11"/>
       <c r="C209" s="11"/>
@@ -12702,7 +12715,7 @@
       <c r="G209"/>
       <c r="H209"/>
     </row>
-    <row r="210" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="11"/>
       <c r="B210" s="11"/>
       <c r="C210" s="11"/>
@@ -12711,7 +12724,7 @@
       <c r="G210"/>
       <c r="H210"/>
     </row>
-    <row r="211" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="11"/>
       <c r="B211" s="11"/>
       <c r="C211" s="11"/>
@@ -12720,7 +12733,7 @@
       <c r="G211"/>
       <c r="H211"/>
     </row>
-    <row r="212" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="11"/>
       <c r="B212" s="11"/>
       <c r="C212" s="11"/>
@@ -12729,7 +12742,7 @@
       <c r="G212"/>
       <c r="H212"/>
     </row>
-    <row r="213" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="11"/>
       <c r="B213" s="11"/>
       <c r="C213" s="11"/>
@@ -12738,7 +12751,7 @@
       <c r="G213"/>
       <c r="H213"/>
     </row>
-    <row r="214" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="11"/>
       <c r="B214" s="11"/>
       <c r="C214" s="11"/>
@@ -12747,7 +12760,7 @@
       <c r="G214"/>
       <c r="H214"/>
     </row>
-    <row r="215" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="11"/>
       <c r="B215" s="11"/>
       <c r="C215" s="11"/>
@@ -12756,7 +12769,7 @@
       <c r="G215"/>
       <c r="H215"/>
     </row>
-    <row r="216" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="11"/>
       <c r="B216" s="11"/>
       <c r="C216" s="11"/>
@@ -12765,7 +12778,7 @@
       <c r="G216"/>
       <c r="H216"/>
     </row>
-    <row r="217" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A217" s="11"/>
       <c r="B217" s="11"/>
       <c r="C217" s="11"/>
@@ -12774,7 +12787,7 @@
       <c r="G217"/>
       <c r="H217"/>
     </row>
-    <row r="218" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="11"/>
       <c r="B218" s="11"/>
       <c r="C218" s="11"/>
@@ -12783,7 +12796,7 @@
       <c r="G218"/>
       <c r="H218"/>
     </row>
-    <row r="219" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="11"/>
       <c r="B219" s="11"/>
       <c r="C219" s="11"/>
@@ -12792,7 +12805,7 @@
       <c r="G219"/>
       <c r="H219"/>
     </row>
-    <row r="220" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="11"/>
       <c r="B220" s="11"/>
       <c r="C220" s="11"/>
@@ -12801,7 +12814,7 @@
       <c r="G220"/>
       <c r="H220"/>
     </row>
-    <row r="221" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="11"/>
       <c r="B221" s="11"/>
       <c r="C221" s="11"/>
@@ -12810,7 +12823,7 @@
       <c r="G221"/>
       <c r="H221"/>
     </row>
-    <row r="222" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="11"/>
       <c r="B222" s="11"/>
       <c r="C222" s="11"/>
@@ -12819,7 +12832,7 @@
       <c r="G222"/>
       <c r="H222"/>
     </row>
-    <row r="223" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="11"/>
       <c r="B223" s="11"/>
       <c r="C223" s="11"/>
@@ -12828,34 +12841,34 @@
       <c r="G223"/>
       <c r="H223"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="11"/>
       <c r="B224" s="11"/>
       <c r="C224" s="11"/>
       <c r="D224" s="40"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="11"/>
       <c r="B225" s="11"/>
       <c r="C225" s="11"/>
       <c r="D225" s="40"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="11"/>
       <c r="B226" s="11"/>
       <c r="C226" s="11"/>
       <c r="D226" s="40"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="11"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="11"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="11"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="11"/>
     </row>
   </sheetData>

--- a/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
+++ b/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomic\Documents\GitHub\258321_DKE_PR\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ateuc\Documents\GitHub\258321_DKE_PR\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4FB046-17B6-478B-8461-2E044014C716}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B072380D-C4CB-45CA-A01A-DA90A462F545}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20016" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20010" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung_Gesamt" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Teuchtmann" sheetId="4" r:id="rId4"/>
     <sheet name="Tomic" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="41">
   <si>
     <t xml:space="preserve">Aistleithner </t>
   </si>
@@ -147,15 +147,21 @@
   <si>
     <t>Konzeptueller Entwurf</t>
   </si>
+  <si>
+    <t>technische Umsetzung</t>
+  </si>
+  <si>
+    <t>Erstellung der mySQL Datenbank</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="hh:mm;@"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -397,18 +403,18 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -424,20 +430,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -457,7 +463,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -469,11 +475,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -498,20 +504,20 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -536,8 +542,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -652,7 +658,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -842,7 +848,7 @@
             <c:numRef>
               <c:f>Zeiterfassung_Gesamt!$A$4:$D$4</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>29</c:v>
@@ -851,7 +857,7 @@
                   <c:v>24.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.5</c:v>
+                  <c:v>24.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>27.5</c:v>
@@ -962,7 +968,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1038,7 +1044,7 @@
             <c:numRef>
               <c:f>Zeiterfassung_Gesamt!$F$26:$F$43</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
@@ -1062,7 +1068,7 @@
                   <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1188,7 +1194,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2544,7 +2550,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2846,21 +2852,21 @@
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="2" max="2" width="15.5546875" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="28.109375" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="41.5546875" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="28.140625" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="41.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
         <v>4</v>
       </c>
@@ -2872,7 +2878,7 @@
       <c r="H2" s="55"/>
       <c r="I2" s="55"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -2889,7 +2895,7 @@
       <c r="H3" s="55"/>
       <c r="I3" s="55"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>B44</f>
         <v>29</v>
@@ -2900,7 +2906,7 @@
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>20.5</v>
+        <v>24.25</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
@@ -2911,12 +2917,12 @@
       <c r="H4" s="55"/>
       <c r="I4" s="55"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G5" s="55"/>
       <c r="H5" s="55"/>
       <c r="I5" s="55"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="56" t="s">
         <v>5</v>
       </c>
@@ -2930,7 +2936,7 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="59" t="s">
         <v>7</v>
@@ -2942,7 +2948,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>6</v>
       </c>
@@ -2964,7 +2970,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="13"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>40</v>
       </c>
@@ -2991,7 +2997,7 @@
       <c r="J26" s="12"/>
       <c r="K26" s="13"/>
     </row>
-    <row r="27" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>41</v>
       </c>
@@ -3018,7 +3024,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="14"/>
     </row>
-    <row r="28" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>42</v>
       </c>
@@ -3045,7 +3051,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="14"/>
     </row>
-    <row r="29" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43</v>
       </c>
@@ -3072,7 +3078,7 @@
       <c r="J29" s="12"/>
       <c r="K29" s="14"/>
     </row>
-    <row r="30" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>44</v>
       </c>
@@ -3099,7 +3105,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="14"/>
     </row>
-    <row r="31" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>45</v>
       </c>
@@ -3126,7 +3132,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="14"/>
     </row>
-    <row r="32" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>46</v>
       </c>
@@ -3153,7 +3159,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="14"/>
     </row>
-    <row r="33" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>47</v>
       </c>
@@ -3167,7 +3173,7 @@
       </c>
       <c r="D33" s="3">
         <f>SUMIF(Tabelle35[KW],Zeiterfassung_Gesamt!A33,Tabelle35[Dauer])</f>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="E33" s="3">
         <f>SUMIF(Tomic!H13:H56,Zeiterfassung_Gesamt!A33,Tomic!G13:G56)</f>
@@ -3175,12 +3181,12 @@
       </c>
       <c r="F33" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="J33" s="12"/>
       <c r="K33" s="14"/>
     </row>
-    <row r="34" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>48</v>
       </c>
@@ -3207,7 +3213,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="14"/>
     </row>
-    <row r="35" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>49</v>
       </c>
@@ -3234,7 +3240,7 @@
       <c r="J35" s="12"/>
       <c r="K35" s="14"/>
     </row>
-    <row r="36" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>50</v>
       </c>
@@ -3261,7 +3267,7 @@
       <c r="J36" s="12"/>
       <c r="K36" s="14"/>
     </row>
-    <row r="37" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>51</v>
       </c>
@@ -3288,7 +3294,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="14"/>
     </row>
-    <row r="38" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>52</v>
       </c>
@@ -3315,7 +3321,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="14"/>
     </row>
-    <row r="39" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>1</v>
       </c>
@@ -3342,7 +3348,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="14"/>
     </row>
-    <row r="40" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>2</v>
       </c>
@@ -3369,7 +3375,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="14"/>
     </row>
-    <row r="41" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>3</v>
       </c>
@@ -3396,7 +3402,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="14"/>
     </row>
-    <row r="42" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>4</v>
       </c>
@@ -3423,7 +3429,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="14"/>
     </row>
-    <row r="43" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>5</v>
       </c>
@@ -3450,7 +3456,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="14"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>10</v>
       </c>
@@ -3464,7 +3470,7 @@
       </c>
       <c r="D44" s="4">
         <f t="shared" si="3"/>
-        <v>20.5</v>
+        <v>24.25</v>
       </c>
       <c r="E44" s="4">
         <f t="shared" si="3"/>
@@ -3472,12 +3478,12 @@
       </c>
       <c r="F44" s="4">
         <f>SUM(F26:F43)</f>
-        <v>101.5</v>
+        <v>105.25</v>
       </c>
       <c r="J44" s="12"/>
       <c r="K44" s="14"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
     </row>
@@ -3501,33 +3507,33 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" customWidth="1"/>
-    <col min="3" max="3" width="75.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="19" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="17"/>
       <c r="C3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="21"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="22" t="s">
         <v>13</v>
       </c>
@@ -3550,7 +3556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="26" t="s">
         <v>24</v>
       </c>
@@ -3575,7 +3581,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="26" t="s">
         <v>26</v>
       </c>
@@ -3600,7 +3606,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="26" t="s">
         <v>24</v>
       </c>
@@ -3625,7 +3631,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="26" t="s">
         <v>26</v>
       </c>
@@ -3650,7 +3656,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="29"/>
       <c r="B11" s="26" t="s">
         <v>30</v>
@@ -3676,7 +3682,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="26" t="s">
         <v>30</v>
       </c>
@@ -3701,7 +3707,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="26" t="s">
         <v>24</v>
       </c>
@@ -3726,7 +3732,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="26" t="s">
         <v>30</v>
       </c>
@@ -3751,7 +3757,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="26" t="s">
         <v>30</v>
       </c>
@@ -3776,7 +3782,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="26" t="s">
         <v>24</v>
       </c>
@@ -3801,7 +3807,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="26" t="s">
         <v>36</v>
       </c>
@@ -3826,7 +3832,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="26" t="s">
         <v>30</v>
       </c>
@@ -3851,7 +3857,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
       <c r="D19" s="27"/>
@@ -3866,7 +3872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
       <c r="D20" s="27"/>
@@ -3881,7 +3887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
       <c r="D21" s="27"/>
@@ -3896,7 +3902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
       <c r="D22" s="27"/>
@@ -3911,7 +3917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
       <c r="D23" s="27"/>
@@ -3926,7 +3932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
       <c r="D24" s="27"/>
@@ -3941,7 +3947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="D25" s="27"/>
@@ -3956,7 +3962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="26"/>
       <c r="C26" s="30"/>
       <c r="D26" s="27"/>
@@ -3971,7 +3977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
       <c r="D27" s="27"/>
@@ -3986,7 +3992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="D28" s="27"/>
@@ -4001,7 +4007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="27"/>
@@ -4016,7 +4022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="27"/>
@@ -4031,7 +4037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="27"/>
@@ -4046,7 +4052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="27"/>
@@ -4061,7 +4067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="27"/>
@@ -4076,7 +4082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="27"/>
@@ -4091,7 +4097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="27"/>
@@ -4106,7 +4112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="27"/>
@@ -4121,7 +4127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="27"/>
@@ -4136,7 +4142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
       <c r="D38" s="27"/>
@@ -4151,7 +4157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="D39" s="27"/>
@@ -4166,7 +4172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
       <c r="D40" s="27"/>
@@ -4181,7 +4187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
       <c r="D41" s="27"/>
@@ -4196,7 +4202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="27"/>
@@ -4211,7 +4217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
       <c r="D43" s="27"/>
@@ -4226,7 +4232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="27"/>
@@ -4241,7 +4247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="27"/>
@@ -4256,7 +4262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="27"/>
@@ -4271,7 +4277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
       <c r="D47" s="27"/>
@@ -4286,7 +4292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
       <c r="D48" s="32"/>
@@ -4301,7 +4307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
       <c r="D49" s="32"/>
@@ -4316,7 +4322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
       <c r="D50" s="27"/>
@@ -4331,7 +4337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B51" s="30"/>
       <c r="C51" s="30"/>
       <c r="D51" s="32"/>
@@ -4346,7 +4352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B52" s="30"/>
       <c r="C52" s="30"/>
       <c r="D52" s="27"/>
@@ -4361,7 +4367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B53" s="30"/>
       <c r="C53" s="30"/>
       <c r="D53" s="32"/>
@@ -4376,7 +4382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B54" s="30"/>
       <c r="C54" s="30"/>
       <c r="D54" s="27"/>
@@ -4391,7 +4397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B55" s="30"/>
       <c r="C55" s="30"/>
       <c r="D55" s="27"/>
@@ -4406,7 +4412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B56" s="30"/>
       <c r="C56" s="30"/>
       <c r="D56" s="27"/>
@@ -4421,7 +4427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B57" s="30"/>
       <c r="C57" s="30"/>
       <c r="D57" s="27"/>
@@ -4436,7 +4442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B58" s="35" t="s">
         <v>19</v>
       </c>
@@ -4449,1078 +4455,1078 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
     </row>
-    <row r="61" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="11"/>
       <c r="B61" s="37"/>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="38"/>
       <c r="C63" s="38"/>
       <c r="D63" s="39"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
       <c r="D64" s="40"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
       <c r="D65" s="40"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
       <c r="D66" s="40"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
       <c r="D67" s="40"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
       <c r="D68" s="40"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
       <c r="D69" s="40"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
       <c r="D70" s="40"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="41"/>
       <c r="C71" s="11"/>
       <c r="D71" s="40"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
       <c r="D72" s="40"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
       <c r="D73" s="40"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
       <c r="D74" s="40"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
       <c r="D75" s="40"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
       <c r="D76" s="40"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
       <c r="D77" s="40"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
       <c r="D78" s="40"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
       <c r="D79" s="40"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
       <c r="D80" s="40"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
       <c r="D81" s="40"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
       <c r="D82" s="40"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
       <c r="D83" s="40"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
       <c r="D84" s="40"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
       <c r="D85" s="40"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
       <c r="D86" s="40"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
       <c r="D87" s="40"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
       <c r="D88" s="40"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
       <c r="D89" s="40"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
       <c r="D90" s="40"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
       <c r="D91" s="40"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
       <c r="D92" s="40"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
       <c r="D93" s="40"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
       <c r="D94" s="40"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
       <c r="D95" s="40"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
       <c r="D96" s="40"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
       <c r="D97" s="40"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
       <c r="D98" s="40"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
       <c r="D99" s="40"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
       <c r="D100" s="40"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
       <c r="D101" s="40"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
       <c r="D102" s="40"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
       <c r="B103" s="42"/>
       <c r="C103" s="11"/>
       <c r="D103" s="40"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
       <c r="D105" s="11"/>
     </row>
-    <row r="106" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A106" s="11"/>
       <c r="B106" s="37"/>
       <c r="C106" s="11"/>
       <c r="D106" s="11"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
       <c r="D107" s="11"/>
     </row>
-    <row r="108" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="11"/>
       <c r="B108" s="38"/>
       <c r="C108" s="38"/>
       <c r="D108" s="39"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
       <c r="D109" s="40"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
       <c r="D110" s="40"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
       <c r="D111" s="40"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
       <c r="D112" s="40"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
       <c r="D113" s="40"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
       <c r="D114" s="40"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
       <c r="D115" s="40"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
       <c r="D116" s="40"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
       <c r="D117" s="40"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
       <c r="D118" s="40"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
       <c r="D119" s="40"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
       <c r="D120" s="40"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
       <c r="D121" s="40"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="11"/>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
       <c r="D122" s="40"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="11"/>
       <c r="B123" s="11"/>
       <c r="C123" s="11"/>
       <c r="D123" s="40"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="11"/>
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
       <c r="D124" s="40"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="11"/>
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
       <c r="D125" s="40"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="11"/>
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
       <c r="D126" s="40"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="11"/>
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
       <c r="D127" s="40"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="11"/>
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
       <c r="D128" s="40"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="11"/>
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
       <c r="D129" s="40"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="11"/>
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
       <c r="D130" s="40"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="11"/>
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
       <c r="D131" s="40"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="11"/>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
       <c r="D132" s="40"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="11"/>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
       <c r="D133" s="40"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="11"/>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
       <c r="D134" s="40"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="11"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
       <c r="D135" s="40"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="11"/>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
       <c r="D136" s="40"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="11"/>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
       <c r="D137" s="40"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="11"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
       <c r="D138" s="40"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="11"/>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
       <c r="D139" s="40"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="11"/>
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
       <c r="D140" s="40"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="11"/>
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
       <c r="D141" s="40"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="11"/>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
       <c r="D142" s="40"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="11"/>
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
       <c r="D143" s="40"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="11"/>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
       <c r="D144" s="40"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="11"/>
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
       <c r="D145" s="40"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="11"/>
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
       <c r="D146" s="40"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="11"/>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
       <c r="D147" s="40"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="11"/>
       <c r="B148" s="42"/>
       <c r="C148" s="11"/>
       <c r="D148" s="40"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="11"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
       <c r="D149" s="11"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="11"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
       <c r="D150" s="11"/>
     </row>
-    <row r="151" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A151" s="11"/>
       <c r="B151" s="37"/>
       <c r="C151" s="11"/>
       <c r="D151" s="11"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="11"/>
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
       <c r="D152" s="11"/>
     </row>
-    <row r="153" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="11"/>
       <c r="B153" s="38"/>
       <c r="C153" s="38"/>
       <c r="D153" s="39"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="11"/>
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
       <c r="D154" s="40"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="11"/>
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
       <c r="D155" s="40"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="11"/>
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
       <c r="D156" s="40"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="11"/>
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
       <c r="D157" s="40"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="11"/>
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
       <c r="D158" s="40"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="11"/>
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
       <c r="D159" s="40"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="11"/>
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
       <c r="D160" s="40"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="11"/>
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
       <c r="D161" s="40"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="11"/>
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
       <c r="D162" s="40"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="11"/>
       <c r="B163" s="11"/>
       <c r="C163" s="11"/>
       <c r="D163" s="40"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="11"/>
       <c r="B164" s="11"/>
       <c r="C164" s="11"/>
       <c r="D164" s="40"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="11"/>
       <c r="B165" s="11"/>
       <c r="C165" s="11"/>
       <c r="D165" s="40"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="11"/>
       <c r="B166" s="11"/>
       <c r="C166" s="11"/>
       <c r="D166" s="40"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="11"/>
       <c r="B167" s="11"/>
       <c r="C167" s="11"/>
       <c r="D167" s="40"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="11"/>
       <c r="B168" s="11"/>
       <c r="C168" s="11"/>
       <c r="D168" s="40"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="11"/>
       <c r="B169" s="11"/>
       <c r="C169" s="11"/>
       <c r="D169" s="40"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="11"/>
       <c r="B170" s="11"/>
       <c r="C170" s="11"/>
       <c r="D170" s="40"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="11"/>
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
       <c r="D171" s="40"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="11"/>
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
       <c r="D172" s="40"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="11"/>
       <c r="B173" s="11"/>
       <c r="C173" s="11"/>
       <c r="D173" s="40"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="11"/>
       <c r="B174" s="11"/>
       <c r="C174" s="11"/>
       <c r="D174" s="40"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="11"/>
       <c r="B175" s="11"/>
       <c r="C175" s="11"/>
       <c r="D175" s="40"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="11"/>
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
       <c r="D176" s="40"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="11"/>
       <c r="B177" s="11"/>
       <c r="C177" s="11"/>
       <c r="D177" s="40"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="11"/>
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
       <c r="D178" s="40"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="11"/>
       <c r="B179" s="11"/>
       <c r="C179" s="11"/>
       <c r="D179" s="40"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="11"/>
       <c r="B180" s="11"/>
       <c r="C180" s="11"/>
       <c r="D180" s="40"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="11"/>
       <c r="B181" s="11"/>
       <c r="C181" s="11"/>
       <c r="D181" s="40"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="11"/>
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
       <c r="D182" s="40"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="11"/>
       <c r="B183" s="11"/>
       <c r="C183" s="11"/>
       <c r="D183" s="40"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="11"/>
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
       <c r="D184" s="40"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="11"/>
       <c r="B185" s="11"/>
       <c r="C185" s="11"/>
       <c r="D185" s="40"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="11"/>
       <c r="B186" s="11"/>
       <c r="C186" s="11"/>
       <c r="D186" s="40"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="11"/>
       <c r="B187" s="11"/>
       <c r="C187" s="11"/>
       <c r="D187" s="40"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="11"/>
       <c r="B188" s="11"/>
       <c r="C188" s="11"/>
       <c r="D188" s="40"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="11"/>
       <c r="B189" s="11"/>
       <c r="C189" s="11"/>
       <c r="D189" s="40"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="11"/>
       <c r="B190" s="11"/>
       <c r="C190" s="11"/>
       <c r="D190" s="40"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="11"/>
       <c r="B191" s="11"/>
       <c r="C191" s="11"/>
       <c r="D191" s="40"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="11"/>
       <c r="B192" s="11"/>
       <c r="C192" s="11"/>
       <c r="D192" s="40"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="11"/>
       <c r="B193" s="42"/>
       <c r="C193" s="11"/>
       <c r="D193" s="40"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="11"/>
       <c r="B194" s="11"/>
       <c r="C194" s="11"/>
       <c r="D194" s="11"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="11"/>
       <c r="B195" s="11"/>
       <c r="C195" s="11"/>
       <c r="D195" s="11"/>
     </row>
-    <row r="196" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A196" s="11"/>
       <c r="B196" s="37"/>
       <c r="C196" s="11"/>
       <c r="D196" s="11"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="11"/>
       <c r="B197" s="11"/>
       <c r="C197" s="11"/>
       <c r="D197" s="11"/>
     </row>
-    <row r="198" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="11"/>
       <c r="B198" s="38"/>
       <c r="C198" s="38"/>
       <c r="D198" s="39"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="11"/>
       <c r="B199" s="11"/>
       <c r="C199" s="11"/>
       <c r="D199" s="40"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="11"/>
       <c r="B200" s="11"/>
       <c r="C200" s="11"/>
       <c r="D200" s="40"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="11"/>
       <c r="B201" s="11"/>
       <c r="C201" s="11"/>
       <c r="D201" s="40"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="11"/>
       <c r="B202" s="11"/>
       <c r="C202" s="11"/>
       <c r="D202" s="40"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="11"/>
       <c r="B203" s="11"/>
       <c r="C203" s="11"/>
       <c r="D203" s="40"/>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="11"/>
       <c r="B204" s="11"/>
       <c r="C204" s="11"/>
       <c r="D204" s="40"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="11"/>
       <c r="B205" s="11"/>
       <c r="C205" s="11"/>
       <c r="D205" s="40"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="11"/>
       <c r="B206" s="11"/>
       <c r="C206" s="11"/>
       <c r="D206" s="40"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="11"/>
       <c r="B207" s="11"/>
       <c r="C207" s="11"/>
       <c r="D207" s="40"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="11"/>
       <c r="B208" s="11"/>
       <c r="C208" s="11"/>
       <c r="D208" s="40"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="11"/>
       <c r="B209" s="11"/>
       <c r="C209" s="11"/>
       <c r="D209" s="40"/>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="11"/>
       <c r="B210" s="11"/>
       <c r="C210" s="11"/>
       <c r="D210" s="40"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="11"/>
       <c r="B211" s="11"/>
       <c r="C211" s="11"/>
       <c r="D211" s="40"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="11"/>
       <c r="B212" s="11"/>
       <c r="C212" s="11"/>
       <c r="D212" s="40"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="11"/>
       <c r="B213" s="11"/>
       <c r="C213" s="11"/>
       <c r="D213" s="40"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="11"/>
       <c r="B214" s="11"/>
       <c r="C214" s="11"/>
       <c r="D214" s="40"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="11"/>
       <c r="B215" s="11"/>
       <c r="C215" s="11"/>
       <c r="D215" s="40"/>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="11"/>
       <c r="B216" s="11"/>
       <c r="C216" s="11"/>
       <c r="D216" s="40"/>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="11"/>
       <c r="B217" s="11"/>
       <c r="C217" s="11"/>
       <c r="D217" s="40"/>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="11"/>
       <c r="B218" s="11"/>
       <c r="C218" s="11"/>
       <c r="D218" s="40"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="11"/>
       <c r="B219" s="11"/>
       <c r="C219" s="11"/>
       <c r="D219" s="40"/>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="11"/>
       <c r="B220" s="11"/>
       <c r="C220" s="11"/>
       <c r="D220" s="40"/>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="11"/>
       <c r="B221" s="11"/>
       <c r="C221" s="11"/>
       <c r="D221" s="40"/>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="11"/>
       <c r="B222" s="11"/>
       <c r="C222" s="11"/>
       <c r="D222" s="40"/>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="11"/>
       <c r="B223" s="11"/>
       <c r="C223" s="11"/>
       <c r="D223" s="40"/>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="11"/>
       <c r="B224" s="11"/>
       <c r="C224" s="11"/>
       <c r="D224" s="40"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="11"/>
       <c r="B225" s="11"/>
       <c r="C225" s="11"/>
       <c r="D225" s="40"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="11"/>
       <c r="B226" s="11"/>
       <c r="C226" s="11"/>
       <c r="D226" s="40"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="11"/>
       <c r="B227" s="11"/>
       <c r="C227" s="11"/>
       <c r="D227" s="40"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="11"/>
       <c r="B228" s="11"/>
       <c r="C228" s="11"/>
       <c r="D228" s="40"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="11"/>
       <c r="B229" s="11"/>
       <c r="C229" s="11"/>
       <c r="D229" s="40"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="11"/>
       <c r="B230" s="11"/>
       <c r="C230" s="11"/>
       <c r="D230" s="40"/>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="11"/>
       <c r="B231" s="11"/>
       <c r="C231" s="11"/>
       <c r="D231" s="40"/>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="11"/>
       <c r="B232" s="11"/>
       <c r="C232" s="11"/>
       <c r="D232" s="40"/>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="11"/>
       <c r="B233" s="11"/>
       <c r="C233" s="11"/>
       <c r="D233" s="40"/>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="11"/>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="11"/>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="11"/>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="11"/>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="11"/>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="11"/>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="11"/>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="11"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="11"/>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="11"/>
     </row>
   </sheetData>
@@ -5535,37 +5541,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09ED2EE7-F057-4BE3-8BEF-61F9A2A5EE76}">
   <dimension ref="A2:H230"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1"/>
-    <col min="3" max="3" width="75.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1"/>
+    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="19" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="17"/>
       <c r="C3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="20" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="21"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="22" t="s">
         <v>13</v>
       </c>
@@ -5588,7 +5594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="26" t="s">
         <v>24</v>
       </c>
@@ -5613,7 +5619,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="26" t="s">
         <v>26</v>
       </c>
@@ -5638,7 +5644,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="26" t="s">
         <v>24</v>
       </c>
@@ -5663,7 +5669,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="29"/>
       <c r="B10" s="26" t="s">
         <v>30</v>
@@ -5689,7 +5695,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="26" t="s">
         <v>30</v>
       </c>
@@ -5714,7 +5720,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="26" t="s">
         <v>24</v>
       </c>
@@ -5739,7 +5745,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="26" t="s">
         <v>24</v>
       </c>
@@ -5764,7 +5770,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="26" t="s">
         <v>36</v>
       </c>
@@ -5789,7 +5795,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="26" t="s">
         <v>30</v>
       </c>
@@ -5814,7 +5820,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
       <c r="D16" s="27"/>
@@ -5829,7 +5835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
       <c r="D17" s="27"/>
@@ -5844,7 +5850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
       <c r="D18" s="27"/>
@@ -5859,7 +5865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
       <c r="D19" s="27"/>
@@ -5874,7 +5880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
       <c r="D20" s="27"/>
@@ -5889,7 +5895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
       <c r="D21" s="27"/>
@@ -5904,7 +5910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
       <c r="D22" s="27"/>
@@ -5919,7 +5925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
       <c r="D23" s="27"/>
@@ -5934,7 +5940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
       <c r="D24" s="27"/>
@@ -5949,7 +5955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="D25" s="27"/>
@@ -5964,7 +5970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
       <c r="D26" s="27"/>
@@ -5979,7 +5985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
       <c r="D27" s="27"/>
@@ -5994,7 +6000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="D28" s="27"/>
@@ -6009,7 +6015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="27"/>
@@ -6024,7 +6030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="27"/>
@@ -6039,7 +6045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="27"/>
@@ -6054,7 +6060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="27"/>
@@ -6069,7 +6075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="27"/>
@@ -6084,7 +6090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="27"/>
@@ -6099,7 +6105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="27"/>
@@ -6114,7 +6120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="27"/>
@@ -6129,7 +6135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="27"/>
@@ -6144,7 +6150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
       <c r="D38" s="27"/>
@@ -6159,7 +6165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="D39" s="27"/>
@@ -6174,7 +6180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
       <c r="D40" s="27"/>
@@ -6189,7 +6195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
       <c r="D41" s="27"/>
@@ -6204,7 +6210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="27"/>
@@ -6219,7 +6225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
       <c r="D43" s="27"/>
@@ -6234,7 +6240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="27"/>
@@ -6249,7 +6255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="27"/>
@@ -6264,7 +6270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="27"/>
@@ -6279,7 +6285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
@@ -6295,7 +6301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
@@ -6311,7 +6317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
@@ -6327,7 +6333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
@@ -6343,7 +6349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="35" t="s">
         <v>19</v>
@@ -6358,7 +6364,7 @@
       </c>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52"/>
       <c r="C52"/>
@@ -6367,7 +6373,7 @@
       <c r="G52"/>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -6376,7 +6382,7 @@
       <c r="G53"/>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="11"/>
       <c r="B54" s="37"/>
       <c r="C54" s="11"/>
@@ -6385,7 +6391,7 @@
       <c r="G54"/>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -6394,7 +6400,7 @@
       <c r="G55"/>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="38"/>
       <c r="C56" s="38"/>
@@ -6403,7 +6409,7 @@
       <c r="G56"/>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -6412,7 +6418,7 @@
       <c r="G57"/>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -6421,7 +6427,7 @@
       <c r="G58"/>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -6430,7 +6436,7 @@
       <c r="G59"/>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -6439,7 +6445,7 @@
       <c r="G60"/>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -6448,7 +6454,7 @@
       <c r="G61"/>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -6457,7 +6463,7 @@
       <c r="G62"/>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -6466,7 +6472,7 @@
       <c r="G63"/>
       <c r="H63"/>
     </row>
-    <row r="64" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="41"/>
       <c r="C64" s="11"/>
@@ -6475,7 +6481,7 @@
       <c r="G64"/>
       <c r="H64"/>
     </row>
-    <row r="65" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -6484,7 +6490,7 @@
       <c r="G65"/>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -6493,7 +6499,7 @@
       <c r="G66"/>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -6502,7 +6508,7 @@
       <c r="G67"/>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -6511,7 +6517,7 @@
       <c r="G68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -6520,7 +6526,7 @@
       <c r="G69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -6529,7 +6535,7 @@
       <c r="G70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -6538,7 +6544,7 @@
       <c r="G71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -6547,7 +6553,7 @@
       <c r="G72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -6556,7 +6562,7 @@
       <c r="G73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -6565,7 +6571,7 @@
       <c r="G74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -6574,7 +6580,7 @@
       <c r="G75"/>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -6583,7 +6589,7 @@
       <c r="G76"/>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -6592,7 +6598,7 @@
       <c r="G77"/>
       <c r="H77"/>
     </row>
-    <row r="78" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -6601,7 +6607,7 @@
       <c r="G78"/>
       <c r="H78"/>
     </row>
-    <row r="79" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -6610,7 +6616,7 @@
       <c r="G79"/>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -6619,7 +6625,7 @@
       <c r="G80"/>
       <c r="H80"/>
     </row>
-    <row r="81" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -6628,7 +6634,7 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -6637,7 +6643,7 @@
       <c r="G82"/>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -6646,7 +6652,7 @@
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -6655,7 +6661,7 @@
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -6664,7 +6670,7 @@
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -6673,7 +6679,7 @@
       <c r="G86"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -6682,7 +6688,7 @@
       <c r="G87"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -6691,7 +6697,7 @@
       <c r="G88"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -6700,7 +6706,7 @@
       <c r="G89"/>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -6709,7 +6715,7 @@
       <c r="G90"/>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -6718,7 +6724,7 @@
       <c r="G91"/>
       <c r="H91"/>
     </row>
-    <row r="92" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -6727,7 +6733,7 @@
       <c r="G92"/>
       <c r="H92"/>
     </row>
-    <row r="93" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -6736,7 +6742,7 @@
       <c r="G93"/>
       <c r="H93"/>
     </row>
-    <row r="94" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -6745,7 +6751,7 @@
       <c r="G94"/>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -6754,7 +6760,7 @@
       <c r="G95"/>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="11"/>
       <c r="B96" s="42"/>
       <c r="C96" s="11"/>
@@ -6763,7 +6769,7 @@
       <c r="G96"/>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -6772,7 +6778,7 @@
       <c r="G97"/>
       <c r="H97"/>
     </row>
-    <row r="98" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -6781,7 +6787,7 @@
       <c r="G98"/>
       <c r="H98"/>
     </row>
-    <row r="99" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A99" s="11"/>
       <c r="B99" s="37"/>
       <c r="C99" s="11"/>
@@ -6790,7 +6796,7 @@
       <c r="G99"/>
       <c r="H99"/>
     </row>
-    <row r="100" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -6799,7 +6805,7 @@
       <c r="G100"/>
       <c r="H100"/>
     </row>
-    <row r="101" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="38"/>
       <c r="C101" s="38"/>
@@ -6808,7 +6814,7 @@
       <c r="G101"/>
       <c r="H101"/>
     </row>
-    <row r="102" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -6817,7 +6823,7 @@
       <c r="G102"/>
       <c r="H102"/>
     </row>
-    <row r="103" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -6826,7 +6832,7 @@
       <c r="G103"/>
       <c r="H103"/>
     </row>
-    <row r="104" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -6835,7 +6841,7 @@
       <c r="G104"/>
       <c r="H104"/>
     </row>
-    <row r="105" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -6844,7 +6850,7 @@
       <c r="G105"/>
       <c r="H105"/>
     </row>
-    <row r="106" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -6853,7 +6859,7 @@
       <c r="G106"/>
       <c r="H106"/>
     </row>
-    <row r="107" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -6862,7 +6868,7 @@
       <c r="G107"/>
       <c r="H107"/>
     </row>
-    <row r="108" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -6871,7 +6877,7 @@
       <c r="G108"/>
       <c r="H108"/>
     </row>
-    <row r="109" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -6880,7 +6886,7 @@
       <c r="G109"/>
       <c r="H109"/>
     </row>
-    <row r="110" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -6889,7 +6895,7 @@
       <c r="G110"/>
       <c r="H110"/>
     </row>
-    <row r="111" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -6898,7 +6904,7 @@
       <c r="G111"/>
       <c r="H111"/>
     </row>
-    <row r="112" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -6907,7 +6913,7 @@
       <c r="G112"/>
       <c r="H112"/>
     </row>
-    <row r="113" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
@@ -6916,7 +6922,7 @@
       <c r="G113"/>
       <c r="H113"/>
     </row>
-    <row r="114" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
@@ -6925,7 +6931,7 @@
       <c r="G114"/>
       <c r="H114"/>
     </row>
-    <row r="115" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
@@ -6934,7 +6940,7 @@
       <c r="G115"/>
       <c r="H115"/>
     </row>
-    <row r="116" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
@@ -6943,7 +6949,7 @@
       <c r="G116"/>
       <c r="H116"/>
     </row>
-    <row r="117" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
@@ -6952,7 +6958,7 @@
       <c r="G117"/>
       <c r="H117"/>
     </row>
-    <row r="118" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
@@ -6961,7 +6967,7 @@
       <c r="G118"/>
       <c r="H118"/>
     </row>
-    <row r="119" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
@@ -6970,7 +6976,7 @@
       <c r="G119"/>
       <c r="H119"/>
     </row>
-    <row r="120" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
@@ -6979,7 +6985,7 @@
       <c r="G120"/>
       <c r="H120"/>
     </row>
-    <row r="121" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
@@ -6988,7 +6994,7 @@
       <c r="G121"/>
       <c r="H121"/>
     </row>
-    <row r="122" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="11"/>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
@@ -6997,7 +7003,7 @@
       <c r="G122"/>
       <c r="H122"/>
     </row>
-    <row r="123" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="11"/>
       <c r="B123" s="11"/>
       <c r="C123" s="11"/>
@@ -7006,7 +7012,7 @@
       <c r="G123"/>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="11"/>
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
@@ -7015,7 +7021,7 @@
       <c r="G124"/>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="11"/>
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
@@ -7024,7 +7030,7 @@
       <c r="G125"/>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="11"/>
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
@@ -7033,7 +7039,7 @@
       <c r="G126"/>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="11"/>
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
@@ -7042,7 +7048,7 @@
       <c r="G127"/>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="11"/>
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
@@ -7051,7 +7057,7 @@
       <c r="G128"/>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="11"/>
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
@@ -7060,7 +7066,7 @@
       <c r="G129"/>
       <c r="H129"/>
     </row>
-    <row r="130" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="11"/>
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
@@ -7069,7 +7075,7 @@
       <c r="G130"/>
       <c r="H130"/>
     </row>
-    <row r="131" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="11"/>
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
@@ -7078,7 +7084,7 @@
       <c r="G131"/>
       <c r="H131"/>
     </row>
-    <row r="132" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="11"/>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
@@ -7087,7 +7093,7 @@
       <c r="G132"/>
       <c r="H132"/>
     </row>
-    <row r="133" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="11"/>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
@@ -7096,7 +7102,7 @@
       <c r="G133"/>
       <c r="H133"/>
     </row>
-    <row r="134" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="11"/>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
@@ -7105,7 +7111,7 @@
       <c r="G134"/>
       <c r="H134"/>
     </row>
-    <row r="135" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="11"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
@@ -7114,7 +7120,7 @@
       <c r="G135"/>
       <c r="H135"/>
     </row>
-    <row r="136" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="11"/>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
@@ -7123,7 +7129,7 @@
       <c r="G136"/>
       <c r="H136"/>
     </row>
-    <row r="137" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="11"/>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
@@ -7132,7 +7138,7 @@
       <c r="G137"/>
       <c r="H137"/>
     </row>
-    <row r="138" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="11"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
@@ -7141,7 +7147,7 @@
       <c r="G138"/>
       <c r="H138"/>
     </row>
-    <row r="139" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="11"/>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
@@ -7150,7 +7156,7 @@
       <c r="G139"/>
       <c r="H139"/>
     </row>
-    <row r="140" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="11"/>
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
@@ -7159,7 +7165,7 @@
       <c r="G140"/>
       <c r="H140"/>
     </row>
-    <row r="141" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="11"/>
       <c r="B141" s="42"/>
       <c r="C141" s="11"/>
@@ -7168,7 +7174,7 @@
       <c r="G141"/>
       <c r="H141"/>
     </row>
-    <row r="142" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="11"/>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
@@ -7177,7 +7183,7 @@
       <c r="G142"/>
       <c r="H142"/>
     </row>
-    <row r="143" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="11"/>
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
@@ -7186,7 +7192,7 @@
       <c r="G143"/>
       <c r="H143"/>
     </row>
-    <row r="144" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A144" s="11"/>
       <c r="B144" s="37"/>
       <c r="C144" s="11"/>
@@ -7195,7 +7201,7 @@
       <c r="G144"/>
       <c r="H144"/>
     </row>
-    <row r="145" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="11"/>
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
@@ -7204,7 +7210,7 @@
       <c r="G145"/>
       <c r="H145"/>
     </row>
-    <row r="146" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="11"/>
       <c r="B146" s="38"/>
       <c r="C146" s="38"/>
@@ -7213,7 +7219,7 @@
       <c r="G146"/>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="11"/>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
@@ -7222,7 +7228,7 @@
       <c r="G147"/>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="11"/>
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
@@ -7231,7 +7237,7 @@
       <c r="G148"/>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="11"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
@@ -7240,7 +7246,7 @@
       <c r="G149"/>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="11"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
@@ -7249,7 +7255,7 @@
       <c r="G150"/>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="11"/>
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
@@ -7258,7 +7264,7 @@
       <c r="G151"/>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="11"/>
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
@@ -7267,7 +7273,7 @@
       <c r="G152"/>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="11"/>
       <c r="B153" s="11"/>
       <c r="C153" s="11"/>
@@ -7276,7 +7282,7 @@
       <c r="G153"/>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="11"/>
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
@@ -7285,7 +7291,7 @@
       <c r="G154"/>
       <c r="H154"/>
     </row>
-    <row r="155" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="11"/>
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
@@ -7294,7 +7300,7 @@
       <c r="G155"/>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="11"/>
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
@@ -7303,7 +7309,7 @@
       <c r="G156"/>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="11"/>
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
@@ -7312,7 +7318,7 @@
       <c r="G157"/>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="11"/>
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
@@ -7321,7 +7327,7 @@
       <c r="G158"/>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="11"/>
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
@@ -7330,7 +7336,7 @@
       <c r="G159"/>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="11"/>
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
@@ -7339,7 +7345,7 @@
       <c r="G160"/>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="11"/>
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
@@ -7348,7 +7354,7 @@
       <c r="G161"/>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="11"/>
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
@@ -7357,7 +7363,7 @@
       <c r="G162"/>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="11"/>
       <c r="B163" s="11"/>
       <c r="C163" s="11"/>
@@ -7366,7 +7372,7 @@
       <c r="G163"/>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="11"/>
       <c r="B164" s="11"/>
       <c r="C164" s="11"/>
@@ -7375,7 +7381,7 @@
       <c r="G164"/>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="11"/>
       <c r="B165" s="11"/>
       <c r="C165" s="11"/>
@@ -7384,7 +7390,7 @@
       <c r="G165"/>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="11"/>
       <c r="B166" s="11"/>
       <c r="C166" s="11"/>
@@ -7393,7 +7399,7 @@
       <c r="G166"/>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="11"/>
       <c r="B167" s="11"/>
       <c r="C167" s="11"/>
@@ -7402,7 +7408,7 @@
       <c r="G167"/>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="11"/>
       <c r="B168" s="11"/>
       <c r="C168" s="11"/>
@@ -7411,7 +7417,7 @@
       <c r="G168"/>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="11"/>
       <c r="B169" s="11"/>
       <c r="C169" s="11"/>
@@ -7420,7 +7426,7 @@
       <c r="G169"/>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="11"/>
       <c r="B170" s="11"/>
       <c r="C170" s="11"/>
@@ -7429,7 +7435,7 @@
       <c r="G170"/>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="11"/>
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
@@ -7438,7 +7444,7 @@
       <c r="G171"/>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="11"/>
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
@@ -7447,7 +7453,7 @@
       <c r="G172"/>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="11"/>
       <c r="B173" s="11"/>
       <c r="C173" s="11"/>
@@ -7456,7 +7462,7 @@
       <c r="G173"/>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="11"/>
       <c r="B174" s="11"/>
       <c r="C174" s="11"/>
@@ -7465,7 +7471,7 @@
       <c r="G174"/>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="11"/>
       <c r="B175" s="11"/>
       <c r="C175" s="11"/>
@@ -7474,7 +7480,7 @@
       <c r="G175"/>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="11"/>
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
@@ -7483,7 +7489,7 @@
       <c r="G176"/>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="11"/>
       <c r="B177" s="11"/>
       <c r="C177" s="11"/>
@@ -7492,7 +7498,7 @@
       <c r="G177"/>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="11"/>
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
@@ -7501,7 +7507,7 @@
       <c r="G178"/>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="11"/>
       <c r="B179" s="11"/>
       <c r="C179" s="11"/>
@@ -7510,7 +7516,7 @@
       <c r="G179"/>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="11"/>
       <c r="B180" s="11"/>
       <c r="C180" s="11"/>
@@ -7519,7 +7525,7 @@
       <c r="G180"/>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="11"/>
       <c r="B181" s="11"/>
       <c r="C181" s="11"/>
@@ -7528,7 +7534,7 @@
       <c r="G181"/>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="11"/>
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
@@ -7537,7 +7543,7 @@
       <c r="G182"/>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="11"/>
       <c r="B183" s="11"/>
       <c r="C183" s="11"/>
@@ -7546,7 +7552,7 @@
       <c r="G183"/>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="11"/>
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
@@ -7555,7 +7561,7 @@
       <c r="G184"/>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="11"/>
       <c r="B185" s="11"/>
       <c r="C185" s="11"/>
@@ -7564,7 +7570,7 @@
       <c r="G185"/>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="11"/>
       <c r="B186" s="42"/>
       <c r="C186" s="11"/>
@@ -7573,7 +7579,7 @@
       <c r="G186"/>
       <c r="H186"/>
     </row>
-    <row r="187" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="11"/>
       <c r="B187" s="11"/>
       <c r="C187" s="11"/>
@@ -7582,7 +7588,7 @@
       <c r="G187"/>
       <c r="H187"/>
     </row>
-    <row r="188" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="11"/>
       <c r="B188" s="11"/>
       <c r="C188" s="11"/>
@@ -7591,7 +7597,7 @@
       <c r="G188"/>
       <c r="H188"/>
     </row>
-    <row r="189" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A189" s="11"/>
       <c r="B189" s="37"/>
       <c r="C189" s="11"/>
@@ -7600,7 +7606,7 @@
       <c r="G189"/>
       <c r="H189"/>
     </row>
-    <row r="190" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="11"/>
       <c r="B190" s="11"/>
       <c r="C190" s="11"/>
@@ -7609,7 +7615,7 @@
       <c r="G190"/>
       <c r="H190"/>
     </row>
-    <row r="191" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A191" s="11"/>
       <c r="B191" s="38"/>
       <c r="C191" s="38"/>
@@ -7618,7 +7624,7 @@
       <c r="G191"/>
       <c r="H191"/>
     </row>
-    <row r="192" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="11"/>
       <c r="B192" s="11"/>
       <c r="C192" s="11"/>
@@ -7627,7 +7633,7 @@
       <c r="G192"/>
       <c r="H192"/>
     </row>
-    <row r="193" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="11"/>
       <c r="B193" s="11"/>
       <c r="C193" s="11"/>
@@ -7636,7 +7642,7 @@
       <c r="G193"/>
       <c r="H193"/>
     </row>
-    <row r="194" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="11"/>
       <c r="B194" s="11"/>
       <c r="C194" s="11"/>
@@ -7645,7 +7651,7 @@
       <c r="G194"/>
       <c r="H194"/>
     </row>
-    <row r="195" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="11"/>
       <c r="B195" s="11"/>
       <c r="C195" s="11"/>
@@ -7654,7 +7660,7 @@
       <c r="G195"/>
       <c r="H195"/>
     </row>
-    <row r="196" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="11"/>
       <c r="B196" s="11"/>
       <c r="C196" s="11"/>
@@ -7663,7 +7669,7 @@
       <c r="G196"/>
       <c r="H196"/>
     </row>
-    <row r="197" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="11"/>
       <c r="B197" s="11"/>
       <c r="C197" s="11"/>
@@ -7672,7 +7678,7 @@
       <c r="G197"/>
       <c r="H197"/>
     </row>
-    <row r="198" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="11"/>
       <c r="B198" s="11"/>
       <c r="C198" s="11"/>
@@ -7681,7 +7687,7 @@
       <c r="G198"/>
       <c r="H198"/>
     </row>
-    <row r="199" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="11"/>
       <c r="B199" s="11"/>
       <c r="C199" s="11"/>
@@ -7690,7 +7696,7 @@
       <c r="G199"/>
       <c r="H199"/>
     </row>
-    <row r="200" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="11"/>
       <c r="B200" s="11"/>
       <c r="C200" s="11"/>
@@ -7699,7 +7705,7 @@
       <c r="G200"/>
       <c r="H200"/>
     </row>
-    <row r="201" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="11"/>
       <c r="B201" s="11"/>
       <c r="C201" s="11"/>
@@ -7708,7 +7714,7 @@
       <c r="G201"/>
       <c r="H201"/>
     </row>
-    <row r="202" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="11"/>
       <c r="B202" s="11"/>
       <c r="C202" s="11"/>
@@ -7717,7 +7723,7 @@
       <c r="G202"/>
       <c r="H202"/>
     </row>
-    <row r="203" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="11"/>
       <c r="B203" s="11"/>
       <c r="C203" s="11"/>
@@ -7726,7 +7732,7 @@
       <c r="G203"/>
       <c r="H203"/>
     </row>
-    <row r="204" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="11"/>
       <c r="B204" s="11"/>
       <c r="C204" s="11"/>
@@ -7735,7 +7741,7 @@
       <c r="G204"/>
       <c r="H204"/>
     </row>
-    <row r="205" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="11"/>
       <c r="B205" s="11"/>
       <c r="C205" s="11"/>
@@ -7744,7 +7750,7 @@
       <c r="G205"/>
       <c r="H205"/>
     </row>
-    <row r="206" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="11"/>
       <c r="B206" s="11"/>
       <c r="C206" s="11"/>
@@ -7753,7 +7759,7 @@
       <c r="G206"/>
       <c r="H206"/>
     </row>
-    <row r="207" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="11"/>
       <c r="B207" s="11"/>
       <c r="C207" s="11"/>
@@ -7762,7 +7768,7 @@
       <c r="G207"/>
       <c r="H207"/>
     </row>
-    <row r="208" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="11"/>
       <c r="B208" s="11"/>
       <c r="C208" s="11"/>
@@ -7771,7 +7777,7 @@
       <c r="G208"/>
       <c r="H208"/>
     </row>
-    <row r="209" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="11"/>
       <c r="B209" s="11"/>
       <c r="C209" s="11"/>
@@ -7780,7 +7786,7 @@
       <c r="G209"/>
       <c r="H209"/>
     </row>
-    <row r="210" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="11"/>
       <c r="B210" s="11"/>
       <c r="C210" s="11"/>
@@ -7789,7 +7795,7 @@
       <c r="G210"/>
       <c r="H210"/>
     </row>
-    <row r="211" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="11"/>
       <c r="B211" s="11"/>
       <c r="C211" s="11"/>
@@ -7798,7 +7804,7 @@
       <c r="G211"/>
       <c r="H211"/>
     </row>
-    <row r="212" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="11"/>
       <c r="B212" s="11"/>
       <c r="C212" s="11"/>
@@ -7807,7 +7813,7 @@
       <c r="G212"/>
       <c r="H212"/>
     </row>
-    <row r="213" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="11"/>
       <c r="B213" s="11"/>
       <c r="C213" s="11"/>
@@ -7816,7 +7822,7 @@
       <c r="G213"/>
       <c r="H213"/>
     </row>
-    <row r="214" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="11"/>
       <c r="B214" s="11"/>
       <c r="C214" s="11"/>
@@ -7825,7 +7831,7 @@
       <c r="G214"/>
       <c r="H214"/>
     </row>
-    <row r="215" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="11"/>
       <c r="B215" s="11"/>
       <c r="C215" s="11"/>
@@ -7834,7 +7840,7 @@
       <c r="G215"/>
       <c r="H215"/>
     </row>
-    <row r="216" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="11"/>
       <c r="B216" s="11"/>
       <c r="C216" s="11"/>
@@ -7843,7 +7849,7 @@
       <c r="G216"/>
       <c r="H216"/>
     </row>
-    <row r="217" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="11"/>
       <c r="B217" s="11"/>
       <c r="C217" s="11"/>
@@ -7852,7 +7858,7 @@
       <c r="G217"/>
       <c r="H217"/>
     </row>
-    <row r="218" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="11"/>
       <c r="B218" s="11"/>
       <c r="C218" s="11"/>
@@ -7861,7 +7867,7 @@
       <c r="G218"/>
       <c r="H218"/>
     </row>
-    <row r="219" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="11"/>
       <c r="B219" s="11"/>
       <c r="C219" s="11"/>
@@ -7870,7 +7876,7 @@
       <c r="G219"/>
       <c r="H219"/>
     </row>
-    <row r="220" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="11"/>
       <c r="B220" s="11"/>
       <c r="C220" s="11"/>
@@ -7879,7 +7885,7 @@
       <c r="G220"/>
       <c r="H220"/>
     </row>
-    <row r="221" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="11"/>
       <c r="B221" s="11"/>
       <c r="C221" s="11"/>
@@ -7888,7 +7894,7 @@
       <c r="G221"/>
       <c r="H221"/>
     </row>
-    <row r="222" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="11"/>
       <c r="B222" s="11"/>
       <c r="C222" s="11"/>
@@ -7897,7 +7903,7 @@
       <c r="G222"/>
       <c r="H222"/>
     </row>
-    <row r="223" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="11"/>
       <c r="B223" s="11"/>
       <c r="C223" s="11"/>
@@ -7906,34 +7912,34 @@
       <c r="G223"/>
       <c r="H223"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="11"/>
       <c r="B224" s="11"/>
       <c r="C224" s="11"/>
       <c r="D224" s="40"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="11"/>
       <c r="B225" s="11"/>
       <c r="C225" s="11"/>
       <c r="D225" s="40"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="11"/>
       <c r="B226" s="11"/>
       <c r="C226" s="11"/>
       <c r="D226" s="40"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="11"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="11"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="11"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="11"/>
     </row>
   </sheetData>
@@ -7948,37 +7954,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EAEEAAC-2A2F-4AA4-872E-37CAC64D3E9A}">
   <dimension ref="A2:H230"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" customWidth="1"/>
-    <col min="3" max="3" width="75.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" style="19" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="17"/>
       <c r="C3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="20" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="19"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="22" t="s">
         <v>13</v>
       </c>
@@ -8001,7 +8007,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="26" t="s">
         <v>24</v>
       </c>
@@ -8026,7 +8032,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="26" t="s">
         <v>26</v>
       </c>
@@ -8051,7 +8057,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="26" t="s">
         <v>24</v>
       </c>
@@ -8076,7 +8082,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="26" t="s">
         <v>30</v>
       </c>
@@ -8101,7 +8107,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="29"/>
       <c r="B11" s="26" t="s">
         <v>30</v>
@@ -8127,7 +8133,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="26" t="s">
         <v>24</v>
       </c>
@@ -8152,7 +8158,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="26" t="s">
         <v>36</v>
       </c>
@@ -8177,37 +8183,57 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="27">
+        <v>43423</v>
+      </c>
+      <c r="E14" s="45">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F14" s="45">
+        <v>0.60416666666666663</v>
+      </c>
       <c r="G14">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="27">
+        <v>43424</v>
+      </c>
+      <c r="E15" s="45">
+        <v>0.625</v>
+      </c>
+      <c r="F15" s="45">
+        <v>0.69791666666666663</v>
+      </c>
       <c r="G15">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="H15">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
       <c r="D16" s="27"/>
@@ -8222,7 +8248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
       <c r="D17" s="27"/>
@@ -8237,7 +8263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
       <c r="D18" s="27"/>
@@ -8252,7 +8278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
       <c r="D19" s="27"/>
@@ -8267,7 +8293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
       <c r="D20" s="27"/>
@@ -8282,7 +8308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
       <c r="D21" s="27"/>
@@ -8297,7 +8323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
       <c r="D22" s="27"/>
@@ -8312,7 +8338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="26"/>
       <c r="C23" s="30"/>
       <c r="D23" s="27"/>
@@ -8327,7 +8353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
       <c r="D24" s="27"/>
@@ -8342,7 +8368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
       <c r="D25" s="27"/>
@@ -8357,7 +8383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
       <c r="D26" s="27"/>
@@ -8372,7 +8398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
       <c r="D27" s="27"/>
@@ -8387,7 +8413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="D28" s="27"/>
@@ -8402,7 +8428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="27"/>
@@ -8417,7 +8443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="27"/>
@@ -8432,7 +8458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="27"/>
@@ -8447,7 +8473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="27"/>
@@ -8462,7 +8488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="27"/>
@@ -8477,7 +8503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="27"/>
@@ -8492,7 +8518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="27"/>
@@ -8507,7 +8533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="27"/>
@@ -8522,7 +8548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="27"/>
@@ -8537,7 +8563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
       <c r="D38" s="27"/>
@@ -8552,7 +8578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="D39" s="27"/>
@@ -8567,7 +8593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
       <c r="D40" s="27"/>
@@ -8582,7 +8608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
       <c r="D41" s="27"/>
@@ -8597,7 +8623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="27"/>
@@ -8612,7 +8638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
       <c r="D43" s="27"/>
@@ -8627,7 +8653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="27"/>
@@ -8642,7 +8668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="27"/>
@@ -8657,7 +8683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="27"/>
@@ -8672,7 +8698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
@@ -8688,7 +8714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
@@ -8704,7 +8730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
@@ -8720,7 +8746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
@@ -8736,7 +8762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51"/>
       <c r="C51"/>
@@ -8752,7 +8778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -8768,7 +8794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="50"/>
       <c r="C53" s="11"/>
@@ -8784,7 +8810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="50"/>
       <c r="C54" s="11"/>
@@ -8800,7 +8826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="30"/>
       <c r="C55" s="50"/>
@@ -8816,7 +8842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="50"/>
       <c r="C56" s="11"/>
@@ -8832,7 +8858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="50"/>
       <c r="C57" s="11"/>
@@ -8848,7 +8874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="50"/>
       <c r="C58" s="30"/>
@@ -8864,7 +8890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="50"/>
       <c r="C59" s="11"/>
@@ -8880,7 +8906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="50"/>
       <c r="C60" s="11"/>
@@ -8896,7 +8922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="50"/>
       <c r="C61" s="11"/>
@@ -8912,7 +8938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="50"/>
       <c r="C62" s="11"/>
@@ -8928,7 +8954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="50"/>
       <c r="C63" s="11"/>
@@ -8944,7 +8970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="50"/>
       <c r="C64" s="11"/>
@@ -8960,7 +8986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="50"/>
       <c r="C65" s="11"/>
@@ -8976,7 +9002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="50"/>
       <c r="C66" s="11"/>
@@ -8992,7 +9018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="43" t="s">
         <v>19</v>
@@ -9003,11 +9029,11 @@
       <c r="F67" s="44"/>
       <c r="G67" s="53">
         <f>SUM(G7:G66)</f>
-        <v>20.5</v>
+        <v>24.25</v>
       </c>
       <c r="H67" s="54"/>
     </row>
-    <row r="68" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -9016,7 +9042,7 @@
       <c r="G68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -9025,7 +9051,7 @@
       <c r="G69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -9034,7 +9060,7 @@
       <c r="G70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -9043,7 +9069,7 @@
       <c r="G71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -9052,7 +9078,7 @@
       <c r="G72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -9061,7 +9087,7 @@
       <c r="G73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -9070,7 +9096,7 @@
       <c r="G74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -9079,7 +9105,7 @@
       <c r="G75"/>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -9088,7 +9114,7 @@
       <c r="G76"/>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -9097,7 +9123,7 @@
       <c r="G77"/>
       <c r="H77"/>
     </row>
-    <row r="78" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -9106,7 +9132,7 @@
       <c r="G78"/>
       <c r="H78"/>
     </row>
-    <row r="79" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -9115,7 +9141,7 @@
       <c r="G79"/>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -9124,7 +9150,7 @@
       <c r="G80"/>
       <c r="H80"/>
     </row>
-    <row r="81" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -9133,7 +9159,7 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -9142,7 +9168,7 @@
       <c r="G82"/>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -9151,7 +9177,7 @@
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -9160,7 +9186,7 @@
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -9169,7 +9195,7 @@
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -9178,7 +9204,7 @@
       <c r="G86"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -9187,7 +9213,7 @@
       <c r="G87"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -9196,7 +9222,7 @@
       <c r="G88"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -9205,7 +9231,7 @@
       <c r="G89"/>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -9214,7 +9240,7 @@
       <c r="G90"/>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -9223,7 +9249,7 @@
       <c r="G91"/>
       <c r="H91"/>
     </row>
-    <row r="92" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -9232,7 +9258,7 @@
       <c r="G92"/>
       <c r="H92"/>
     </row>
-    <row r="93" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -9241,7 +9267,7 @@
       <c r="G93"/>
       <c r="H93"/>
     </row>
-    <row r="94" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -9250,7 +9276,7 @@
       <c r="G94"/>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="11"/>
       <c r="B95" s="42"/>
       <c r="C95" s="11"/>
@@ -9259,7 +9285,7 @@
       <c r="G95"/>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -9268,7 +9294,7 @@
       <c r="G96"/>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -9277,7 +9303,7 @@
       <c r="G97"/>
       <c r="H97"/>
     </row>
-    <row r="98" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A98" s="11"/>
       <c r="B98" s="37"/>
       <c r="C98" s="11"/>
@@ -9286,7 +9312,7 @@
       <c r="G98"/>
       <c r="H98"/>
     </row>
-    <row r="99" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -9295,7 +9321,7 @@
       <c r="G99"/>
       <c r="H99"/>
     </row>
-    <row r="100" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="38"/>
       <c r="C100" s="38"/>
@@ -9304,7 +9330,7 @@
       <c r="G100"/>
       <c r="H100"/>
     </row>
-    <row r="101" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -9313,7 +9339,7 @@
       <c r="G101"/>
       <c r="H101"/>
     </row>
-    <row r="102" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -9322,7 +9348,7 @@
       <c r="G102"/>
       <c r="H102"/>
     </row>
-    <row r="103" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -9331,7 +9357,7 @@
       <c r="G103"/>
       <c r="H103"/>
     </row>
-    <row r="104" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -9340,7 +9366,7 @@
       <c r="G104"/>
       <c r="H104"/>
     </row>
-    <row r="105" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -9349,7 +9375,7 @@
       <c r="G105"/>
       <c r="H105"/>
     </row>
-    <row r="106" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -9358,7 +9384,7 @@
       <c r="G106"/>
       <c r="H106"/>
     </row>
-    <row r="107" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -9367,7 +9393,7 @@
       <c r="G107"/>
       <c r="H107"/>
     </row>
-    <row r="108" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -9376,7 +9402,7 @@
       <c r="G108"/>
       <c r="H108"/>
     </row>
-    <row r="109" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -9385,7 +9411,7 @@
       <c r="G109"/>
       <c r="H109"/>
     </row>
-    <row r="110" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -9394,7 +9420,7 @@
       <c r="G110"/>
       <c r="H110"/>
     </row>
-    <row r="111" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -9403,7 +9429,7 @@
       <c r="G111"/>
       <c r="H111"/>
     </row>
-    <row r="112" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -9412,7 +9438,7 @@
       <c r="G112"/>
       <c r="H112"/>
     </row>
-    <row r="113" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
@@ -9421,7 +9447,7 @@
       <c r="G113"/>
       <c r="H113"/>
     </row>
-    <row r="114" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
@@ -9430,7 +9456,7 @@
       <c r="G114"/>
       <c r="H114"/>
     </row>
-    <row r="115" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
@@ -9439,7 +9465,7 @@
       <c r="G115"/>
       <c r="H115"/>
     </row>
-    <row r="116" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
@@ -9448,7 +9474,7 @@
       <c r="G116"/>
       <c r="H116"/>
     </row>
-    <row r="117" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
@@ -9457,7 +9483,7 @@
       <c r="G117"/>
       <c r="H117"/>
     </row>
-    <row r="118" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
@@ -9466,7 +9492,7 @@
       <c r="G118"/>
       <c r="H118"/>
     </row>
-    <row r="119" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
@@ -9475,7 +9501,7 @@
       <c r="G119"/>
       <c r="H119"/>
     </row>
-    <row r="120" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
@@ -9484,7 +9510,7 @@
       <c r="G120"/>
       <c r="H120"/>
     </row>
-    <row r="121" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
@@ -9493,7 +9519,7 @@
       <c r="G121"/>
       <c r="H121"/>
     </row>
-    <row r="122" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="11"/>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
@@ -9502,7 +9528,7 @@
       <c r="G122"/>
       <c r="H122"/>
     </row>
-    <row r="123" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="11"/>
       <c r="B123" s="11"/>
       <c r="C123" s="11"/>
@@ -9511,7 +9537,7 @@
       <c r="G123"/>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="11"/>
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
@@ -9520,7 +9546,7 @@
       <c r="G124"/>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="11"/>
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
@@ -9529,7 +9555,7 @@
       <c r="G125"/>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="11"/>
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
@@ -9538,7 +9564,7 @@
       <c r="G126"/>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="11"/>
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
@@ -9547,7 +9573,7 @@
       <c r="G127"/>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="11"/>
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
@@ -9556,7 +9582,7 @@
       <c r="G128"/>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="11"/>
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
@@ -9565,7 +9591,7 @@
       <c r="G129"/>
       <c r="H129"/>
     </row>
-    <row r="130" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="11"/>
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
@@ -9574,7 +9600,7 @@
       <c r="G130"/>
       <c r="H130"/>
     </row>
-    <row r="131" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="11"/>
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
@@ -9583,7 +9609,7 @@
       <c r="G131"/>
       <c r="H131"/>
     </row>
-    <row r="132" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="11"/>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
@@ -9592,7 +9618,7 @@
       <c r="G132"/>
       <c r="H132"/>
     </row>
-    <row r="133" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="11"/>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
@@ -9601,7 +9627,7 @@
       <c r="G133"/>
       <c r="H133"/>
     </row>
-    <row r="134" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="11"/>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
@@ -9610,7 +9636,7 @@
       <c r="G134"/>
       <c r="H134"/>
     </row>
-    <row r="135" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="11"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
@@ -9619,7 +9645,7 @@
       <c r="G135"/>
       <c r="H135"/>
     </row>
-    <row r="136" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="11"/>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
@@ -9628,7 +9654,7 @@
       <c r="G136"/>
       <c r="H136"/>
     </row>
-    <row r="137" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="11"/>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
@@ -9637,7 +9663,7 @@
       <c r="G137"/>
       <c r="H137"/>
     </row>
-    <row r="138" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="11"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
@@ -9646,7 +9672,7 @@
       <c r="G138"/>
       <c r="H138"/>
     </row>
-    <row r="139" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="11"/>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
@@ -9655,7 +9681,7 @@
       <c r="G139"/>
       <c r="H139"/>
     </row>
-    <row r="140" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="11"/>
       <c r="B140" s="42"/>
       <c r="C140" s="11"/>
@@ -9664,7 +9690,7 @@
       <c r="G140"/>
       <c r="H140"/>
     </row>
-    <row r="141" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="11"/>
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
@@ -9673,7 +9699,7 @@
       <c r="G141"/>
       <c r="H141"/>
     </row>
-    <row r="142" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="11"/>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
@@ -9682,7 +9708,7 @@
       <c r="G142"/>
       <c r="H142"/>
     </row>
-    <row r="143" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A143" s="11"/>
       <c r="B143" s="37"/>
       <c r="C143" s="11"/>
@@ -9691,7 +9717,7 @@
       <c r="G143"/>
       <c r="H143"/>
     </row>
-    <row r="144" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="11"/>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
@@ -9700,7 +9726,7 @@
       <c r="G144"/>
       <c r="H144"/>
     </row>
-    <row r="145" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="11"/>
       <c r="B145" s="38"/>
       <c r="C145" s="38"/>
@@ -9709,7 +9735,7 @@
       <c r="G145"/>
       <c r="H145"/>
     </row>
-    <row r="146" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="11"/>
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
@@ -9718,7 +9744,7 @@
       <c r="G146"/>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="11"/>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
@@ -9727,7 +9753,7 @@
       <c r="G147"/>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="11"/>
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
@@ -9736,7 +9762,7 @@
       <c r="G148"/>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="11"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
@@ -9745,7 +9771,7 @@
       <c r="G149"/>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="11"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
@@ -9754,7 +9780,7 @@
       <c r="G150"/>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="11"/>
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
@@ -9763,7 +9789,7 @@
       <c r="G151"/>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="11"/>
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
@@ -9772,7 +9798,7 @@
       <c r="G152"/>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="11"/>
       <c r="B153" s="11"/>
       <c r="C153" s="11"/>
@@ -9781,7 +9807,7 @@
       <c r="G153"/>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="11"/>
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
@@ -9790,7 +9816,7 @@
       <c r="G154"/>
       <c r="H154"/>
     </row>
-    <row r="155" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="11"/>
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
@@ -9799,7 +9825,7 @@
       <c r="G155"/>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="11"/>
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
@@ -9808,7 +9834,7 @@
       <c r="G156"/>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="11"/>
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
@@ -9817,7 +9843,7 @@
       <c r="G157"/>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="11"/>
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
@@ -9826,7 +9852,7 @@
       <c r="G158"/>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="11"/>
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
@@ -9835,7 +9861,7 @@
       <c r="G159"/>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="11"/>
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
@@ -9844,7 +9870,7 @@
       <c r="G160"/>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="11"/>
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
@@ -9853,7 +9879,7 @@
       <c r="G161"/>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="11"/>
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
@@ -9862,7 +9888,7 @@
       <c r="G162"/>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="11"/>
       <c r="B163" s="11"/>
       <c r="C163" s="11"/>
@@ -9871,7 +9897,7 @@
       <c r="G163"/>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="11"/>
       <c r="B164" s="11"/>
       <c r="C164" s="11"/>
@@ -9880,7 +9906,7 @@
       <c r="G164"/>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="11"/>
       <c r="B165" s="11"/>
       <c r="C165" s="11"/>
@@ -9889,7 +9915,7 @@
       <c r="G165"/>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="11"/>
       <c r="B166" s="11"/>
       <c r="C166" s="11"/>
@@ -9898,7 +9924,7 @@
       <c r="G166"/>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="11"/>
       <c r="B167" s="11"/>
       <c r="C167" s="11"/>
@@ -9907,7 +9933,7 @@
       <c r="G167"/>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="11"/>
       <c r="B168" s="11"/>
       <c r="C168" s="11"/>
@@ -9916,7 +9942,7 @@
       <c r="G168"/>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="11"/>
       <c r="B169" s="11"/>
       <c r="C169" s="11"/>
@@ -9925,7 +9951,7 @@
       <c r="G169"/>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="11"/>
       <c r="B170" s="11"/>
       <c r="C170" s="11"/>
@@ -9934,7 +9960,7 @@
       <c r="G170"/>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="11"/>
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
@@ -9943,7 +9969,7 @@
       <c r="G171"/>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="11"/>
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
@@ -9952,7 +9978,7 @@
       <c r="G172"/>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="11"/>
       <c r="B173" s="11"/>
       <c r="C173" s="11"/>
@@ -9961,7 +9987,7 @@
       <c r="G173"/>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="11"/>
       <c r="B174" s="11"/>
       <c r="C174" s="11"/>
@@ -9970,7 +9996,7 @@
       <c r="G174"/>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="11"/>
       <c r="B175" s="11"/>
       <c r="C175" s="11"/>
@@ -9979,7 +10005,7 @@
       <c r="G175"/>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="11"/>
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
@@ -9988,7 +10014,7 @@
       <c r="G176"/>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="11"/>
       <c r="B177" s="11"/>
       <c r="C177" s="11"/>
@@ -9997,7 +10023,7 @@
       <c r="G177"/>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="11"/>
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
@@ -10006,7 +10032,7 @@
       <c r="G178"/>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="11"/>
       <c r="B179" s="11"/>
       <c r="C179" s="11"/>
@@ -10015,7 +10041,7 @@
       <c r="G179"/>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="11"/>
       <c r="B180" s="11"/>
       <c r="C180" s="11"/>
@@ -10024,7 +10050,7 @@
       <c r="G180"/>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="11"/>
       <c r="B181" s="11"/>
       <c r="C181" s="11"/>
@@ -10033,7 +10059,7 @@
       <c r="G181"/>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="11"/>
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
@@ -10042,7 +10068,7 @@
       <c r="G182"/>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="11"/>
       <c r="B183" s="11"/>
       <c r="C183" s="11"/>
@@ -10051,7 +10077,7 @@
       <c r="G183"/>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="11"/>
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
@@ -10060,7 +10086,7 @@
       <c r="G184"/>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="11"/>
       <c r="B185" s="42"/>
       <c r="C185" s="11"/>
@@ -10069,7 +10095,7 @@
       <c r="G185"/>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="11"/>
       <c r="B186" s="11"/>
       <c r="C186" s="11"/>
@@ -10078,7 +10104,7 @@
       <c r="G186"/>
       <c r="H186"/>
     </row>
-    <row r="187" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="11"/>
       <c r="B187" s="11"/>
       <c r="C187" s="11"/>
@@ -10087,7 +10113,7 @@
       <c r="G187"/>
       <c r="H187"/>
     </row>
-    <row r="188" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A188" s="11"/>
       <c r="B188" s="37"/>
       <c r="C188" s="11"/>
@@ -10096,7 +10122,7 @@
       <c r="G188"/>
       <c r="H188"/>
     </row>
-    <row r="189" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="11"/>
       <c r="B189" s="11"/>
       <c r="C189" s="11"/>
@@ -10105,7 +10131,7 @@
       <c r="G189"/>
       <c r="H189"/>
     </row>
-    <row r="190" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A190" s="11"/>
       <c r="B190" s="38"/>
       <c r="C190" s="38"/>
@@ -10114,7 +10140,7 @@
       <c r="G190"/>
       <c r="H190"/>
     </row>
-    <row r="191" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="11"/>
       <c r="B191" s="11"/>
       <c r="C191" s="11"/>
@@ -10123,7 +10149,7 @@
       <c r="G191"/>
       <c r="H191"/>
     </row>
-    <row r="192" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="11"/>
       <c r="B192" s="11"/>
       <c r="C192" s="11"/>
@@ -10132,7 +10158,7 @@
       <c r="G192"/>
       <c r="H192"/>
     </row>
-    <row r="193" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="11"/>
       <c r="B193" s="11"/>
       <c r="C193" s="11"/>
@@ -10141,7 +10167,7 @@
       <c r="G193"/>
       <c r="H193"/>
     </row>
-    <row r="194" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="11"/>
       <c r="B194" s="11"/>
       <c r="C194" s="11"/>
@@ -10150,7 +10176,7 @@
       <c r="G194"/>
       <c r="H194"/>
     </row>
-    <row r="195" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="11"/>
       <c r="B195" s="11"/>
       <c r="C195" s="11"/>
@@ -10159,7 +10185,7 @@
       <c r="G195"/>
       <c r="H195"/>
     </row>
-    <row r="196" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="11"/>
       <c r="B196" s="11"/>
       <c r="C196" s="11"/>
@@ -10168,7 +10194,7 @@
       <c r="G196"/>
       <c r="H196"/>
     </row>
-    <row r="197" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="11"/>
       <c r="B197" s="11"/>
       <c r="C197" s="11"/>
@@ -10177,7 +10203,7 @@
       <c r="G197"/>
       <c r="H197"/>
     </row>
-    <row r="198" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="11"/>
       <c r="B198" s="11"/>
       <c r="C198" s="11"/>
@@ -10186,7 +10212,7 @@
       <c r="G198"/>
       <c r="H198"/>
     </row>
-    <row r="199" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="11"/>
       <c r="B199" s="11"/>
       <c r="C199" s="11"/>
@@ -10195,7 +10221,7 @@
       <c r="G199"/>
       <c r="H199"/>
     </row>
-    <row r="200" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="11"/>
       <c r="B200" s="11"/>
       <c r="C200" s="11"/>
@@ -10204,7 +10230,7 @@
       <c r="G200"/>
       <c r="H200"/>
     </row>
-    <row r="201" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="11"/>
       <c r="B201" s="11"/>
       <c r="C201" s="11"/>
@@ -10213,7 +10239,7 @@
       <c r="G201"/>
       <c r="H201"/>
     </row>
-    <row r="202" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="11"/>
       <c r="B202" s="11"/>
       <c r="C202" s="11"/>
@@ -10222,7 +10248,7 @@
       <c r="G202"/>
       <c r="H202"/>
     </row>
-    <row r="203" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="11"/>
       <c r="B203" s="11"/>
       <c r="C203" s="11"/>
@@ -10231,7 +10257,7 @@
       <c r="G203"/>
       <c r="H203"/>
     </row>
-    <row r="204" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="11"/>
       <c r="B204" s="11"/>
       <c r="C204" s="11"/>
@@ -10240,7 +10266,7 @@
       <c r="G204"/>
       <c r="H204"/>
     </row>
-    <row r="205" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="11"/>
       <c r="B205" s="11"/>
       <c r="C205" s="11"/>
@@ -10249,7 +10275,7 @@
       <c r="G205"/>
       <c r="H205"/>
     </row>
-    <row r="206" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="11"/>
       <c r="B206" s="11"/>
       <c r="C206" s="11"/>
@@ -10258,7 +10284,7 @@
       <c r="G206"/>
       <c r="H206"/>
     </row>
-    <row r="207" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="11"/>
       <c r="B207" s="11"/>
       <c r="C207" s="11"/>
@@ -10267,7 +10293,7 @@
       <c r="G207"/>
       <c r="H207"/>
     </row>
-    <row r="208" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="11"/>
       <c r="B208" s="11"/>
       <c r="C208" s="11"/>
@@ -10276,7 +10302,7 @@
       <c r="G208"/>
       <c r="H208"/>
     </row>
-    <row r="209" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="11"/>
       <c r="B209" s="11"/>
       <c r="C209" s="11"/>
@@ -10285,7 +10311,7 @@
       <c r="G209"/>
       <c r="H209"/>
     </row>
-    <row r="210" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="11"/>
       <c r="B210" s="11"/>
       <c r="C210" s="11"/>
@@ -10294,7 +10320,7 @@
       <c r="G210"/>
       <c r="H210"/>
     </row>
-    <row r="211" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="11"/>
       <c r="B211" s="11"/>
       <c r="C211" s="11"/>
@@ -10303,7 +10329,7 @@
       <c r="G211"/>
       <c r="H211"/>
     </row>
-    <row r="212" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="11"/>
       <c r="B212" s="11"/>
       <c r="C212" s="11"/>
@@ -10312,7 +10338,7 @@
       <c r="G212"/>
       <c r="H212"/>
     </row>
-    <row r="213" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="11"/>
       <c r="B213" s="11"/>
       <c r="C213" s="11"/>
@@ -10321,7 +10347,7 @@
       <c r="G213"/>
       <c r="H213"/>
     </row>
-    <row r="214" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="11"/>
       <c r="B214" s="11"/>
       <c r="C214" s="11"/>
@@ -10330,7 +10356,7 @@
       <c r="G214"/>
       <c r="H214"/>
     </row>
-    <row r="215" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="11"/>
       <c r="B215" s="11"/>
       <c r="C215" s="11"/>
@@ -10339,7 +10365,7 @@
       <c r="G215"/>
       <c r="H215"/>
     </row>
-    <row r="216" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="11"/>
       <c r="B216" s="11"/>
       <c r="C216" s="11"/>
@@ -10348,7 +10374,7 @@
       <c r="G216"/>
       <c r="H216"/>
     </row>
-    <row r="217" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="11"/>
       <c r="B217" s="11"/>
       <c r="C217" s="11"/>
@@ -10357,7 +10383,7 @@
       <c r="G217"/>
       <c r="H217"/>
     </row>
-    <row r="218" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="11"/>
       <c r="B218" s="11"/>
       <c r="C218" s="11"/>
@@ -10366,7 +10392,7 @@
       <c r="G218"/>
       <c r="H218"/>
     </row>
-    <row r="219" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="11"/>
       <c r="B219" s="11"/>
       <c r="C219" s="11"/>
@@ -10375,7 +10401,7 @@
       <c r="G219"/>
       <c r="H219"/>
     </row>
-    <row r="220" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="11"/>
       <c r="B220" s="11"/>
       <c r="C220" s="11"/>
@@ -10384,7 +10410,7 @@
       <c r="G220"/>
       <c r="H220"/>
     </row>
-    <row r="221" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="11"/>
       <c r="B221" s="11"/>
       <c r="C221" s="11"/>
@@ -10393,7 +10419,7 @@
       <c r="G221"/>
       <c r="H221"/>
     </row>
-    <row r="222" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="11"/>
       <c r="B222" s="11"/>
       <c r="C222" s="11"/>
@@ -10402,7 +10428,7 @@
       <c r="G222"/>
       <c r="H222"/>
     </row>
-    <row r="223" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="11"/>
       <c r="B223" s="11"/>
       <c r="C223" s="11"/>
@@ -10411,31 +10437,31 @@
       <c r="G223"/>
       <c r="H223"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="11"/>
       <c r="B224" s="11"/>
       <c r="C224" s="11"/>
       <c r="D224" s="40"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="11"/>
       <c r="B225" s="11"/>
       <c r="C225" s="11"/>
       <c r="D225" s="40"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="11"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="11"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="11"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="11"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="11"/>
     </row>
   </sheetData>
@@ -10450,37 +10476,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A13F21B-0FD5-4A2C-BFFD-2CC06888678E}">
   <dimension ref="A2:H230"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" customWidth="1"/>
-    <col min="3" max="3" width="75.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="19" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="17"/>
       <c r="C3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="20" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="19"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="22" t="s">
         <v>13</v>
       </c>
@@ -10503,7 +10529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="26" t="s">
         <v>24</v>
       </c>
@@ -10528,7 +10554,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="26" t="s">
         <v>26</v>
       </c>
@@ -10553,7 +10579,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="26" t="s">
         <v>24</v>
       </c>
@@ -10578,7 +10604,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="29"/>
       <c r="B10" s="26" t="s">
         <v>30</v>
@@ -10604,7 +10630,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="26" t="s">
         <v>30</v>
       </c>
@@ -10629,7 +10655,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="26" t="s">
         <v>24</v>
       </c>
@@ -10654,7 +10680,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="26" t="s">
         <v>30</v>
       </c>
@@ -10679,7 +10705,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="26" t="s">
         <v>24</v>
       </c>
@@ -10704,7 +10730,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="26" t="s">
         <v>36</v>
       </c>
@@ -10729,7 +10755,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="26" t="s">
         <v>30</v>
       </c>
@@ -10754,7 +10780,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="26" t="s">
         <v>30</v>
       </c>
@@ -10779,7 +10805,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
       <c r="D18" s="27"/>
@@ -10794,7 +10820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
       <c r="D19" s="27"/>
@@ -10809,7 +10835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
       <c r="D20" s="27"/>
@@ -10824,7 +10850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
       <c r="D21" s="27"/>
@@ -10839,7 +10865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
       <c r="D22" s="27"/>
@@ -10854,7 +10880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
       <c r="D23" s="27"/>
@@ -10869,7 +10895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
       <c r="D24" s="27"/>
@@ -10884,7 +10910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="D25" s="27"/>
@@ -10899,7 +10925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
       <c r="D26" s="27"/>
@@ -10914,7 +10940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
       <c r="D27" s="27"/>
@@ -10929,7 +10955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="D28" s="27"/>
@@ -10944,7 +10970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="27"/>
@@ -10959,7 +10985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="27"/>
@@ -10974,7 +11000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="27"/>
@@ -10989,7 +11015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="27"/>
@@ -11004,7 +11030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="27"/>
@@ -11019,7 +11045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="27"/>
@@ -11034,7 +11060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="27"/>
@@ -11049,7 +11075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="27"/>
@@ -11064,7 +11090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="27"/>
@@ -11079,7 +11105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
       <c r="D38" s="27"/>
@@ -11094,7 +11120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="D39" s="27"/>
@@ -11109,7 +11135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
       <c r="D40" s="27"/>
@@ -11124,7 +11150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
       <c r="D41" s="27"/>
@@ -11139,7 +11165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="27"/>
@@ -11154,7 +11180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
       <c r="D43" s="27"/>
@@ -11169,7 +11195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="27"/>
@@ -11184,7 +11210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="27"/>
@@ -11199,7 +11225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="27"/>
@@ -11214,7 +11240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
@@ -11230,7 +11256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
@@ -11246,7 +11272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
@@ -11262,7 +11288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
@@ -11278,7 +11304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="35" t="s">
         <v>19</v>
@@ -11293,7 +11319,7 @@
       </c>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52"/>
       <c r="C52"/>
@@ -11302,7 +11328,7 @@
       <c r="G52"/>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -11311,7 +11337,7 @@
       <c r="G53"/>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="11"/>
       <c r="B54" s="37"/>
       <c r="C54" s="11"/>
@@ -11320,7 +11346,7 @@
       <c r="G54"/>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -11329,7 +11355,7 @@
       <c r="G55"/>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="38"/>
       <c r="C56" s="38"/>
@@ -11338,7 +11364,7 @@
       <c r="G56"/>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -11347,7 +11373,7 @@
       <c r="G57"/>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -11356,7 +11382,7 @@
       <c r="G58"/>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -11365,7 +11391,7 @@
       <c r="G59"/>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -11374,7 +11400,7 @@
       <c r="G60"/>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -11383,7 +11409,7 @@
       <c r="G61"/>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -11392,7 +11418,7 @@
       <c r="G62"/>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -11401,7 +11427,7 @@
       <c r="G63"/>
       <c r="H63"/>
     </row>
-    <row r="64" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="41"/>
       <c r="C64" s="11"/>
@@ -11410,7 +11436,7 @@
       <c r="G64"/>
       <c r="H64"/>
     </row>
-    <row r="65" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -11419,7 +11445,7 @@
       <c r="G65"/>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -11428,7 +11454,7 @@
       <c r="G66"/>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -11437,7 +11463,7 @@
       <c r="G67"/>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -11446,7 +11472,7 @@
       <c r="G68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -11455,7 +11481,7 @@
       <c r="G69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -11464,7 +11490,7 @@
       <c r="G70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -11473,7 +11499,7 @@
       <c r="G71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -11482,7 +11508,7 @@
       <c r="G72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -11491,7 +11517,7 @@
       <c r="G73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -11500,7 +11526,7 @@
       <c r="G74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -11509,7 +11535,7 @@
       <c r="G75"/>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -11518,7 +11544,7 @@
       <c r="G76"/>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -11527,7 +11553,7 @@
       <c r="G77"/>
       <c r="H77"/>
     </row>
-    <row r="78" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -11536,7 +11562,7 @@
       <c r="G78"/>
       <c r="H78"/>
     </row>
-    <row r="79" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -11545,7 +11571,7 @@
       <c r="G79"/>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -11554,7 +11580,7 @@
       <c r="G80"/>
       <c r="H80"/>
     </row>
-    <row r="81" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -11563,7 +11589,7 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -11572,7 +11598,7 @@
       <c r="G82"/>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -11581,7 +11607,7 @@
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -11590,7 +11616,7 @@
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -11599,7 +11625,7 @@
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -11608,7 +11634,7 @@
       <c r="G86"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -11617,7 +11643,7 @@
       <c r="G87"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -11626,7 +11652,7 @@
       <c r="G88"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -11635,7 +11661,7 @@
       <c r="G89"/>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -11644,7 +11670,7 @@
       <c r="G90"/>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -11653,7 +11679,7 @@
       <c r="G91"/>
       <c r="H91"/>
     </row>
-    <row r="92" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -11662,7 +11688,7 @@
       <c r="G92"/>
       <c r="H92"/>
     </row>
-    <row r="93" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -11671,7 +11697,7 @@
       <c r="G93"/>
       <c r="H93"/>
     </row>
-    <row r="94" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -11680,7 +11706,7 @@
       <c r="G94"/>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -11689,7 +11715,7 @@
       <c r="G95"/>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="11"/>
       <c r="B96" s="42"/>
       <c r="C96" s="11"/>
@@ -11698,7 +11724,7 @@
       <c r="G96"/>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -11707,7 +11733,7 @@
       <c r="G97"/>
       <c r="H97"/>
     </row>
-    <row r="98" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -11716,7 +11742,7 @@
       <c r="G98"/>
       <c r="H98"/>
     </row>
-    <row r="99" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A99" s="11"/>
       <c r="B99" s="37"/>
       <c r="C99" s="11"/>
@@ -11725,7 +11751,7 @@
       <c r="G99"/>
       <c r="H99"/>
     </row>
-    <row r="100" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -11734,7 +11760,7 @@
       <c r="G100"/>
       <c r="H100"/>
     </row>
-    <row r="101" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="38"/>
       <c r="C101" s="38"/>
@@ -11743,7 +11769,7 @@
       <c r="G101"/>
       <c r="H101"/>
     </row>
-    <row r="102" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -11752,7 +11778,7 @@
       <c r="G102"/>
       <c r="H102"/>
     </row>
-    <row r="103" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -11761,7 +11787,7 @@
       <c r="G103"/>
       <c r="H103"/>
     </row>
-    <row r="104" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -11770,7 +11796,7 @@
       <c r="G104"/>
       <c r="H104"/>
     </row>
-    <row r="105" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -11779,7 +11805,7 @@
       <c r="G105"/>
       <c r="H105"/>
     </row>
-    <row r="106" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -11788,7 +11814,7 @@
       <c r="G106"/>
       <c r="H106"/>
     </row>
-    <row r="107" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -11797,7 +11823,7 @@
       <c r="G107"/>
       <c r="H107"/>
     </row>
-    <row r="108" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -11806,7 +11832,7 @@
       <c r="G108"/>
       <c r="H108"/>
     </row>
-    <row r="109" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -11815,7 +11841,7 @@
       <c r="G109"/>
       <c r="H109"/>
     </row>
-    <row r="110" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -11824,7 +11850,7 @@
       <c r="G110"/>
       <c r="H110"/>
     </row>
-    <row r="111" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -11833,7 +11859,7 @@
       <c r="G111"/>
       <c r="H111"/>
     </row>
-    <row r="112" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -11842,7 +11868,7 @@
       <c r="G112"/>
       <c r="H112"/>
     </row>
-    <row r="113" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
@@ -11851,7 +11877,7 @@
       <c r="G113"/>
       <c r="H113"/>
     </row>
-    <row r="114" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
@@ -11860,7 +11886,7 @@
       <c r="G114"/>
       <c r="H114"/>
     </row>
-    <row r="115" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
@@ -11869,7 +11895,7 @@
       <c r="G115"/>
       <c r="H115"/>
     </row>
-    <row r="116" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
@@ -11878,7 +11904,7 @@
       <c r="G116"/>
       <c r="H116"/>
     </row>
-    <row r="117" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
@@ -11887,7 +11913,7 @@
       <c r="G117"/>
       <c r="H117"/>
     </row>
-    <row r="118" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
@@ -11896,7 +11922,7 @@
       <c r="G118"/>
       <c r="H118"/>
     </row>
-    <row r="119" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
@@ -11905,7 +11931,7 @@
       <c r="G119"/>
       <c r="H119"/>
     </row>
-    <row r="120" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
@@ -11914,7 +11940,7 @@
       <c r="G120"/>
       <c r="H120"/>
     </row>
-    <row r="121" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
@@ -11923,7 +11949,7 @@
       <c r="G121"/>
       <c r="H121"/>
     </row>
-    <row r="122" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="11"/>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
@@ -11932,7 +11958,7 @@
       <c r="G122"/>
       <c r="H122"/>
     </row>
-    <row r="123" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="11"/>
       <c r="B123" s="11"/>
       <c r="C123" s="11"/>
@@ -11941,7 +11967,7 @@
       <c r="G123"/>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="11"/>
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
@@ -11950,7 +11976,7 @@
       <c r="G124"/>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="11"/>
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
@@ -11959,7 +11985,7 @@
       <c r="G125"/>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="11"/>
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
@@ -11968,7 +11994,7 @@
       <c r="G126"/>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="11"/>
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
@@ -11977,7 +12003,7 @@
       <c r="G127"/>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="11"/>
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
@@ -11986,7 +12012,7 @@
       <c r="G128"/>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="11"/>
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
@@ -11995,7 +12021,7 @@
       <c r="G129"/>
       <c r="H129"/>
     </row>
-    <row r="130" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="11"/>
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
@@ -12004,7 +12030,7 @@
       <c r="G130"/>
       <c r="H130"/>
     </row>
-    <row r="131" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="11"/>
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
@@ -12013,7 +12039,7 @@
       <c r="G131"/>
       <c r="H131"/>
     </row>
-    <row r="132" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="11"/>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
@@ -12022,7 +12048,7 @@
       <c r="G132"/>
       <c r="H132"/>
     </row>
-    <row r="133" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="11"/>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
@@ -12031,7 +12057,7 @@
       <c r="G133"/>
       <c r="H133"/>
     </row>
-    <row r="134" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="11"/>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
@@ -12040,7 +12066,7 @@
       <c r="G134"/>
       <c r="H134"/>
     </row>
-    <row r="135" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="11"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
@@ -12049,7 +12075,7 @@
       <c r="G135"/>
       <c r="H135"/>
     </row>
-    <row r="136" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="11"/>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
@@ -12058,7 +12084,7 @@
       <c r="G136"/>
       <c r="H136"/>
     </row>
-    <row r="137" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="11"/>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
@@ -12067,7 +12093,7 @@
       <c r="G137"/>
       <c r="H137"/>
     </row>
-    <row r="138" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="11"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
@@ -12076,7 +12102,7 @@
       <c r="G138"/>
       <c r="H138"/>
     </row>
-    <row r="139" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="11"/>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
@@ -12085,7 +12111,7 @@
       <c r="G139"/>
       <c r="H139"/>
     </row>
-    <row r="140" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="11"/>
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
@@ -12094,7 +12120,7 @@
       <c r="G140"/>
       <c r="H140"/>
     </row>
-    <row r="141" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="11"/>
       <c r="B141" s="42"/>
       <c r="C141" s="11"/>
@@ -12103,7 +12129,7 @@
       <c r="G141"/>
       <c r="H141"/>
     </row>
-    <row r="142" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="11"/>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
@@ -12112,7 +12138,7 @@
       <c r="G142"/>
       <c r="H142"/>
     </row>
-    <row r="143" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="11"/>
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
@@ -12121,7 +12147,7 @@
       <c r="G143"/>
       <c r="H143"/>
     </row>
-    <row r="144" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A144" s="11"/>
       <c r="B144" s="37"/>
       <c r="C144" s="11"/>
@@ -12130,7 +12156,7 @@
       <c r="G144"/>
       <c r="H144"/>
     </row>
-    <row r="145" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="11"/>
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
@@ -12139,7 +12165,7 @@
       <c r="G145"/>
       <c r="H145"/>
     </row>
-    <row r="146" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="11"/>
       <c r="B146" s="38"/>
       <c r="C146" s="38"/>
@@ -12148,7 +12174,7 @@
       <c r="G146"/>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="11"/>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
@@ -12157,7 +12183,7 @@
       <c r="G147"/>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="11"/>
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
@@ -12166,7 +12192,7 @@
       <c r="G148"/>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="11"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
@@ -12175,7 +12201,7 @@
       <c r="G149"/>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="11"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
@@ -12184,7 +12210,7 @@
       <c r="G150"/>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="11"/>
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
@@ -12193,7 +12219,7 @@
       <c r="G151"/>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="11"/>
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
@@ -12202,7 +12228,7 @@
       <c r="G152"/>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="11"/>
       <c r="B153" s="11"/>
       <c r="C153" s="11"/>
@@ -12211,7 +12237,7 @@
       <c r="G153"/>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="11"/>
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
@@ -12220,7 +12246,7 @@
       <c r="G154"/>
       <c r="H154"/>
     </row>
-    <row r="155" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="11"/>
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
@@ -12229,7 +12255,7 @@
       <c r="G155"/>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="11"/>
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
@@ -12238,7 +12264,7 @@
       <c r="G156"/>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="11"/>
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
@@ -12247,7 +12273,7 @@
       <c r="G157"/>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="11"/>
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
@@ -12256,7 +12282,7 @@
       <c r="G158"/>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="11"/>
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
@@ -12265,7 +12291,7 @@
       <c r="G159"/>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="11"/>
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
@@ -12274,7 +12300,7 @@
       <c r="G160"/>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="11"/>
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
@@ -12283,7 +12309,7 @@
       <c r="G161"/>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="11"/>
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
@@ -12292,7 +12318,7 @@
       <c r="G162"/>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="11"/>
       <c r="B163" s="11"/>
       <c r="C163" s="11"/>
@@ -12301,7 +12327,7 @@
       <c r="G163"/>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="11"/>
       <c r="B164" s="11"/>
       <c r="C164" s="11"/>
@@ -12310,7 +12336,7 @@
       <c r="G164"/>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="11"/>
       <c r="B165" s="11"/>
       <c r="C165" s="11"/>
@@ -12319,7 +12345,7 @@
       <c r="G165"/>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="11"/>
       <c r="B166" s="11"/>
       <c r="C166" s="11"/>
@@ -12328,7 +12354,7 @@
       <c r="G166"/>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="11"/>
       <c r="B167" s="11"/>
       <c r="C167" s="11"/>
@@ -12337,7 +12363,7 @@
       <c r="G167"/>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="11"/>
       <c r="B168" s="11"/>
       <c r="C168" s="11"/>
@@ -12346,7 +12372,7 @@
       <c r="G168"/>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="11"/>
       <c r="B169" s="11"/>
       <c r="C169" s="11"/>
@@ -12355,7 +12381,7 @@
       <c r="G169"/>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="11"/>
       <c r="B170" s="11"/>
       <c r="C170" s="11"/>
@@ -12364,7 +12390,7 @@
       <c r="G170"/>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="11"/>
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
@@ -12373,7 +12399,7 @@
       <c r="G171"/>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="11"/>
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
@@ -12382,7 +12408,7 @@
       <c r="G172"/>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="11"/>
       <c r="B173" s="11"/>
       <c r="C173" s="11"/>
@@ -12391,7 +12417,7 @@
       <c r="G173"/>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="11"/>
       <c r="B174" s="11"/>
       <c r="C174" s="11"/>
@@ -12400,7 +12426,7 @@
       <c r="G174"/>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="11"/>
       <c r="B175" s="11"/>
       <c r="C175" s="11"/>
@@ -12409,7 +12435,7 @@
       <c r="G175"/>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="11"/>
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
@@ -12418,7 +12444,7 @@
       <c r="G176"/>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="11"/>
       <c r="B177" s="11"/>
       <c r="C177" s="11"/>
@@ -12427,7 +12453,7 @@
       <c r="G177"/>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="11"/>
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
@@ -12436,7 +12462,7 @@
       <c r="G178"/>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="11"/>
       <c r="B179" s="11"/>
       <c r="C179" s="11"/>
@@ -12445,7 +12471,7 @@
       <c r="G179"/>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="11"/>
       <c r="B180" s="11"/>
       <c r="C180" s="11"/>
@@ -12454,7 +12480,7 @@
       <c r="G180"/>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="11"/>
       <c r="B181" s="11"/>
       <c r="C181" s="11"/>
@@ -12463,7 +12489,7 @@
       <c r="G181"/>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="11"/>
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
@@ -12472,7 +12498,7 @@
       <c r="G182"/>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="11"/>
       <c r="B183" s="11"/>
       <c r="C183" s="11"/>
@@ -12481,7 +12507,7 @@
       <c r="G183"/>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="11"/>
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
@@ -12490,7 +12516,7 @@
       <c r="G184"/>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="11"/>
       <c r="B185" s="11"/>
       <c r="C185" s="11"/>
@@ -12499,7 +12525,7 @@
       <c r="G185"/>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="11"/>
       <c r="B186" s="42"/>
       <c r="C186" s="11"/>
@@ -12508,7 +12534,7 @@
       <c r="G186"/>
       <c r="H186"/>
     </row>
-    <row r="187" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="11"/>
       <c r="B187" s="11"/>
       <c r="C187" s="11"/>
@@ -12517,7 +12543,7 @@
       <c r="G187"/>
       <c r="H187"/>
     </row>
-    <row r="188" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="11"/>
       <c r="B188" s="11"/>
       <c r="C188" s="11"/>
@@ -12526,7 +12552,7 @@
       <c r="G188"/>
       <c r="H188"/>
     </row>
-    <row r="189" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A189" s="11"/>
       <c r="B189" s="37"/>
       <c r="C189" s="11"/>
@@ -12535,7 +12561,7 @@
       <c r="G189"/>
       <c r="H189"/>
     </row>
-    <row r="190" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="11"/>
       <c r="B190" s="11"/>
       <c r="C190" s="11"/>
@@ -12544,7 +12570,7 @@
       <c r="G190"/>
       <c r="H190"/>
     </row>
-    <row r="191" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A191" s="11"/>
       <c r="B191" s="38"/>
       <c r="C191" s="38"/>
@@ -12553,7 +12579,7 @@
       <c r="G191"/>
       <c r="H191"/>
     </row>
-    <row r="192" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="11"/>
       <c r="B192" s="11"/>
       <c r="C192" s="11"/>
@@ -12562,7 +12588,7 @@
       <c r="G192"/>
       <c r="H192"/>
     </row>
-    <row r="193" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="11"/>
       <c r="B193" s="11"/>
       <c r="C193" s="11"/>
@@ -12571,7 +12597,7 @@
       <c r="G193"/>
       <c r="H193"/>
     </row>
-    <row r="194" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="11"/>
       <c r="B194" s="11"/>
       <c r="C194" s="11"/>
@@ -12580,7 +12606,7 @@
       <c r="G194"/>
       <c r="H194"/>
     </row>
-    <row r="195" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="11"/>
       <c r="B195" s="11"/>
       <c r="C195" s="11"/>
@@ -12589,7 +12615,7 @@
       <c r="G195"/>
       <c r="H195"/>
     </row>
-    <row r="196" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="11"/>
       <c r="B196" s="11"/>
       <c r="C196" s="11"/>
@@ -12598,7 +12624,7 @@
       <c r="G196"/>
       <c r="H196"/>
     </row>
-    <row r="197" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="11"/>
       <c r="B197" s="11"/>
       <c r="C197" s="11"/>
@@ -12607,7 +12633,7 @@
       <c r="G197"/>
       <c r="H197"/>
     </row>
-    <row r="198" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="11"/>
       <c r="B198" s="11"/>
       <c r="C198" s="11"/>
@@ -12616,7 +12642,7 @@
       <c r="G198"/>
       <c r="H198"/>
     </row>
-    <row r="199" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="11"/>
       <c r="B199" s="11"/>
       <c r="C199" s="11"/>
@@ -12625,7 +12651,7 @@
       <c r="G199"/>
       <c r="H199"/>
     </row>
-    <row r="200" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="11"/>
       <c r="B200" s="11"/>
       <c r="C200" s="11"/>
@@ -12634,7 +12660,7 @@
       <c r="G200"/>
       <c r="H200"/>
     </row>
-    <row r="201" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="11"/>
       <c r="B201" s="11"/>
       <c r="C201" s="11"/>
@@ -12643,7 +12669,7 @@
       <c r="G201"/>
       <c r="H201"/>
     </row>
-    <row r="202" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="11"/>
       <c r="B202" s="11"/>
       <c r="C202" s="11"/>
@@ -12652,7 +12678,7 @@
       <c r="G202"/>
       <c r="H202"/>
     </row>
-    <row r="203" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="11"/>
       <c r="B203" s="11"/>
       <c r="C203" s="11"/>
@@ -12661,7 +12687,7 @@
       <c r="G203"/>
       <c r="H203"/>
     </row>
-    <row r="204" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="11"/>
       <c r="B204" s="11"/>
       <c r="C204" s="11"/>
@@ -12670,7 +12696,7 @@
       <c r="G204"/>
       <c r="H204"/>
     </row>
-    <row r="205" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="11"/>
       <c r="B205" s="11"/>
       <c r="C205" s="11"/>
@@ -12679,7 +12705,7 @@
       <c r="G205"/>
       <c r="H205"/>
     </row>
-    <row r="206" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="11"/>
       <c r="B206" s="11"/>
       <c r="C206" s="11"/>
@@ -12688,7 +12714,7 @@
       <c r="G206"/>
       <c r="H206"/>
     </row>
-    <row r="207" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="11"/>
       <c r="B207" s="11"/>
       <c r="C207" s="11"/>
@@ -12697,7 +12723,7 @@
       <c r="G207"/>
       <c r="H207"/>
     </row>
-    <row r="208" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="11"/>
       <c r="B208" s="11"/>
       <c r="C208" s="11"/>
@@ -12706,7 +12732,7 @@
       <c r="G208"/>
       <c r="H208"/>
     </row>
-    <row r="209" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="11"/>
       <c r="B209" s="11"/>
       <c r="C209" s="11"/>
@@ -12715,7 +12741,7 @@
       <c r="G209"/>
       <c r="H209"/>
     </row>
-    <row r="210" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="11"/>
       <c r="B210" s="11"/>
       <c r="C210" s="11"/>
@@ -12724,7 +12750,7 @@
       <c r="G210"/>
       <c r="H210"/>
     </row>
-    <row r="211" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="11"/>
       <c r="B211" s="11"/>
       <c r="C211" s="11"/>
@@ -12733,7 +12759,7 @@
       <c r="G211"/>
       <c r="H211"/>
     </row>
-    <row r="212" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="11"/>
       <c r="B212" s="11"/>
       <c r="C212" s="11"/>
@@ -12742,7 +12768,7 @@
       <c r="G212"/>
       <c r="H212"/>
     </row>
-    <row r="213" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="11"/>
       <c r="B213" s="11"/>
       <c r="C213" s="11"/>
@@ -12751,7 +12777,7 @@
       <c r="G213"/>
       <c r="H213"/>
     </row>
-    <row r="214" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="11"/>
       <c r="B214" s="11"/>
       <c r="C214" s="11"/>
@@ -12760,7 +12786,7 @@
       <c r="G214"/>
       <c r="H214"/>
     </row>
-    <row r="215" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="11"/>
       <c r="B215" s="11"/>
       <c r="C215" s="11"/>
@@ -12769,7 +12795,7 @@
       <c r="G215"/>
       <c r="H215"/>
     </row>
-    <row r="216" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="11"/>
       <c r="B216" s="11"/>
       <c r="C216" s="11"/>
@@ -12778,7 +12804,7 @@
       <c r="G216"/>
       <c r="H216"/>
     </row>
-    <row r="217" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="11"/>
       <c r="B217" s="11"/>
       <c r="C217" s="11"/>
@@ -12787,7 +12813,7 @@
       <c r="G217"/>
       <c r="H217"/>
     </row>
-    <row r="218" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="11"/>
       <c r="B218" s="11"/>
       <c r="C218" s="11"/>
@@ -12796,7 +12822,7 @@
       <c r="G218"/>
       <c r="H218"/>
     </row>
-    <row r="219" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="11"/>
       <c r="B219" s="11"/>
       <c r="C219" s="11"/>
@@ -12805,7 +12831,7 @@
       <c r="G219"/>
       <c r="H219"/>
     </row>
-    <row r="220" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="11"/>
       <c r="B220" s="11"/>
       <c r="C220" s="11"/>
@@ -12814,7 +12840,7 @@
       <c r="G220"/>
       <c r="H220"/>
     </row>
-    <row r="221" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="11"/>
       <c r="B221" s="11"/>
       <c r="C221" s="11"/>
@@ -12823,7 +12849,7 @@
       <c r="G221"/>
       <c r="H221"/>
     </row>
-    <row r="222" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="11"/>
       <c r="B222" s="11"/>
       <c r="C222" s="11"/>
@@ -12832,7 +12858,7 @@
       <c r="G222"/>
       <c r="H222"/>
     </row>
-    <row r="223" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="11"/>
       <c r="B223" s="11"/>
       <c r="C223" s="11"/>
@@ -12841,34 +12867,34 @@
       <c r="G223"/>
       <c r="H223"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="11"/>
       <c r="B224" s="11"/>
       <c r="C224" s="11"/>
       <c r="D224" s="40"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="11"/>
       <c r="B225" s="11"/>
       <c r="C225" s="11"/>
       <c r="D225" s="40"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="11"/>
       <c r="B226" s="11"/>
       <c r="C226" s="11"/>
       <c r="D226" s="40"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="11"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="11"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="11"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="11"/>
     </row>
   </sheetData>

--- a/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
+++ b/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ateuc\Documents\GitHub\258321_DKE_PR\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Documents\GitHub\258321_DKE_PR\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B072380D-C4CB-45CA-A01A-DA90A462F545}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C0C8F0AF-D26C-424E-9F64-EF383C5F077D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20010" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20010" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung_Gesamt" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="43">
   <si>
     <t xml:space="preserve">Aistleithner </t>
   </si>
@@ -152,6 +152,12 @@
   </si>
   <si>
     <t>Erstellung der mySQL Datenbank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einzelbesprechung </t>
+  </si>
+  <si>
+    <t>Aktualisierung Konzeptueller Entwurf, allgemeine Beschreibung, Grafiken</t>
   </si>
 </sst>
 </file>
@@ -848,19 +854,19 @@
             <c:numRef>
               <c:f>Zeiterfassung_Gesamt!$A$4:$D$4</c:f>
               <c:numCache>
-                <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
+                <c:formatCode>_-* #\ ##0.00\ _€_-;\-* #\ ##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>29</c:v>
+                  <c:v>33.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.5</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.25</c:v>
+                  <c:v>26.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.5</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1044,7 +1050,7 @@
             <c:numRef>
               <c:f>Zeiterfassung_Gesamt!$F$26:$F$43</c:f>
               <c:numCache>
-                <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
+                <c:formatCode>_-* #\ ##0.00\ _€_-;\-* #\ ##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
@@ -1068,7 +1074,7 @@
                   <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.75</c:v>
+                  <c:v>15.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1194,7 +1200,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-" sourceLinked="1"/>
+        <c:numFmt formatCode="_-* #\ ##0.00\ _€_-;\-* #\ ##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2848,7 +2854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K45"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
@@ -2898,19 +2904,19 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>B44</f>
-        <v>29</v>
+        <v>33.5</v>
       </c>
       <c r="B4" s="1">
         <f t="shared" ref="B4:D4" si="0">C44</f>
-        <v>24.5</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>24.25</v>
+        <v>26.75</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>27.5</v>
+        <v>30</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="55"/>
@@ -3165,23 +3171,23 @@
       </c>
       <c r="B33" s="3">
         <f>SUMIF(Aistleithner!H13:H63,Zeiterfassung_Gesamt!A33,Aistleithner!G13:G63)</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="C33" s="3">
         <f>SUMIF(Dusanic!H13:H56,Zeiterfassung_Gesamt!A33,Dusanic!G13:G56)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="D33" s="3">
         <f>SUMIF(Tabelle35[KW],Zeiterfassung_Gesamt!A33,Tabelle35[Dauer])</f>
-        <v>3.75</v>
+        <v>6.25</v>
       </c>
       <c r="E33" s="3">
         <f>SUMIF(Tomic!H13:H56,Zeiterfassung_Gesamt!A33,Tomic!G13:G56)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="F33" s="3">
         <f t="shared" si="2"/>
-        <v>3.75</v>
+        <v>15.75</v>
       </c>
       <c r="J33" s="12"/>
       <c r="K33" s="14"/>
@@ -3462,23 +3468,23 @@
       </c>
       <c r="B44" s="4">
         <f>SUM(B26:B43)</f>
-        <v>29</v>
+        <v>33.5</v>
       </c>
       <c r="C44" s="4">
         <f t="shared" ref="C44:E44" si="3">SUM(C26:C43)</f>
-        <v>24.5</v>
+        <v>27</v>
       </c>
       <c r="D44" s="4">
         <f t="shared" si="3"/>
-        <v>24.25</v>
+        <v>26.75</v>
       </c>
       <c r="E44" s="4">
         <f t="shared" si="3"/>
-        <v>27.5</v>
+        <v>30</v>
       </c>
       <c r="F44" s="4">
         <f>SUM(F26:F43)</f>
-        <v>105.25</v>
+        <v>117.25</v>
       </c>
       <c r="J44" s="12"/>
       <c r="K44" s="14"/>
@@ -3503,8 +3509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C65BC6F-2EFC-4FEF-B846-1981218F4DC2}">
   <dimension ref="A2:H243"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3858,48 +3864,78 @@
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
+      <c r="B19" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="27">
+        <v>43426</v>
+      </c>
+      <c r="E19" s="28">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F19" s="28">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="G19">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H19">
         <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
+      <c r="B20" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="27">
+        <v>43426</v>
+      </c>
+      <c r="E20" s="28">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F20" s="28">
+        <v>0.5</v>
+      </c>
       <c r="G20">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H20">
         <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
+      <c r="B21" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="27">
+        <v>43426</v>
+      </c>
+      <c r="E21" s="28">
+        <v>0.625</v>
+      </c>
+      <c r="F21" s="28">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="G21">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21">
         <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -4452,7 +4488,7 @@
       <c r="F58" s="36"/>
       <c r="G58">
         <f>SUM(G7:G57)</f>
-        <v>29</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -5542,7 +5578,7 @@
   <dimension ref="A2:H230"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B17" sqref="B17:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5821,33 +5857,53 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
+      <c r="B16" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="27">
+        <v>43426</v>
+      </c>
+      <c r="E16" s="28">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F16" s="28">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="G16">
         <f>(Tabelle34[[#This Row],[bis]]*24)-(Tabelle34[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H16">
         <f>WEEKNUM(Tabelle34[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
+      <c r="B17" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="27">
+        <v>43426</v>
+      </c>
+      <c r="E17" s="28">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F17" s="28">
+        <v>0.5</v>
+      </c>
       <c r="G17">
         <f>(Tabelle34[[#This Row],[bis]]*24)-(Tabelle34[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17">
         <f>WEEKNUM(Tabelle34[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -6360,7 +6416,7 @@
       <c r="F51" s="36"/>
       <c r="G51">
         <f>SUM(G7:G50)</f>
-        <v>24.5</v>
+        <v>27</v>
       </c>
       <c r="H51"/>
     </row>
@@ -7954,8 +8010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EAEEAAC-2A2F-4AA4-872E-37CAC64D3E9A}">
   <dimension ref="A2:H230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8234,33 +8290,53 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
+      <c r="B16" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="27">
+        <v>43426</v>
+      </c>
+      <c r="E16" s="28">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F16" s="28">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="G16">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H16">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
+      <c r="B17" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="27">
+        <v>43426</v>
+      </c>
+      <c r="E17" s="28">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F17" s="28">
+        <v>0.5</v>
+      </c>
       <c r="G17">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -9029,7 +9105,7 @@
       <c r="F67" s="44"/>
       <c r="G67" s="53">
         <f>SUM(G7:G66)</f>
-        <v>24.25</v>
+        <v>26.75</v>
       </c>
       <c r="H67" s="54"/>
     </row>
@@ -10476,8 +10552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A13F21B-0FD5-4A2C-BFFD-2CC06888678E}">
   <dimension ref="A2:H230"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10806,33 +10882,53 @@
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
+      <c r="B18" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="27">
+        <v>43426</v>
+      </c>
+      <c r="E18" s="28">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F18" s="28">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="G18">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H18">
         <f>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
+      <c r="B19" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="27">
+        <v>43426</v>
+      </c>
+      <c r="E19" s="28">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F19" s="28">
+        <v>0.5</v>
+      </c>
       <c r="G19">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19">
         <f>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -11315,7 +11411,7 @@
       <c r="F51" s="36"/>
       <c r="G51">
         <f>SUM(G7:G50)</f>
-        <v>27.5</v>
+        <v>30</v>
       </c>
       <c r="H51"/>
     </row>

--- a/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
+++ b/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Documents\GitHub\258321_DKE_PR\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomic\Documents\GitHub\258321_DKE_PR\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C0C8F0AF-D26C-424E-9F64-EF383C5F077D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFB17C0-5040-4186-A571-CAB7DBD9EAA3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20010" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20016" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung_Gesamt" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Teuchtmann" sheetId="4" r:id="rId4"/>
     <sheet name="Tomic" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="43">
   <si>
     <t xml:space="preserve">Aistleithner </t>
   </si>
@@ -165,9 +165,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="hh:mm;@"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -409,18 +409,18 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -436,20 +436,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -469,7 +469,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -481,11 +481,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -510,20 +510,20 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -548,8 +548,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Komma" xfId="1" builtinId="3"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -664,7 +664,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -854,19 +854,19 @@
             <c:numRef>
               <c:f>Zeiterfassung_Gesamt!$A$4:$D$4</c:f>
               <c:numCache>
-                <c:formatCode>_-* #\ ##0.00\ _€_-;\-* #\ ##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>33.5</c:v>
+                  <c:v>39.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.75</c:v>
+                  <c:v>32.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -974,7 +974,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1050,7 +1050,7 @@
             <c:numRef>
               <c:f>Zeiterfassung_Gesamt!$F$26:$F$43</c:f>
               <c:numCache>
-                <c:formatCode>_-* #\ ##0.00\ _€_-;\-* #\ ##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
@@ -1074,7 +1074,7 @@
                   <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.75</c:v>
+                  <c:v>39.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1200,7 +1200,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_-* #\ ##0.00\ _€_-;\-* #\ ##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-" sourceLinked="1"/>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2556,7 +2556,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2854,25 +2854,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K45"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="28.140625" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="41.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="28.109375" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="41.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="56" t="s">
         <v>4</v>
       </c>
@@ -2884,7 +2884,7 @@
       <c r="H2" s="55"/>
       <c r="I2" s="55"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -2901,34 +2901,34 @@
       <c r="H3" s="55"/>
       <c r="I3" s="55"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f>B44</f>
-        <v>33.5</v>
+        <v>39.5</v>
       </c>
       <c r="B4" s="1">
         <f t="shared" ref="B4:D4" si="0">C44</f>
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>26.75</v>
+        <v>32.75</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="55"/>
       <c r="H4" s="55"/>
       <c r="I4" s="55"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G5" s="55"/>
       <c r="H5" s="55"/>
       <c r="I5" s="55"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="56" t="s">
         <v>5</v>
       </c>
@@ -2942,7 +2942,7 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
       <c r="B24" s="59" t="s">
         <v>7</v>
@@ -2954,7 +2954,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>6</v>
       </c>
@@ -2976,7 +2976,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="13"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>40</v>
       </c>
@@ -3003,7 +3003,7 @@
       <c r="J26" s="12"/>
       <c r="K26" s="13"/>
     </row>
-    <row r="27" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>41</v>
       </c>
@@ -3030,7 +3030,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="14"/>
     </row>
-    <row r="28" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>42</v>
       </c>
@@ -3057,7 +3057,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="14"/>
     </row>
-    <row r="29" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>43</v>
       </c>
@@ -3084,7 +3084,7 @@
       <c r="J29" s="12"/>
       <c r="K29" s="14"/>
     </row>
-    <row r="30" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>44</v>
       </c>
@@ -3111,7 +3111,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="14"/>
     </row>
-    <row r="31" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>45</v>
       </c>
@@ -3138,7 +3138,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="14"/>
     </row>
-    <row r="32" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>46</v>
       </c>
@@ -3165,34 +3165,34 @@
       <c r="J32" s="12"/>
       <c r="K32" s="14"/>
     </row>
-    <row r="33" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>47</v>
       </c>
       <c r="B33" s="3">
         <f>SUMIF(Aistleithner!H13:H63,Zeiterfassung_Gesamt!A33,Aistleithner!G13:G63)</f>
-        <v>4.5</v>
+        <v>10.5</v>
       </c>
       <c r="C33" s="3">
         <f>SUMIF(Dusanic!H13:H56,Zeiterfassung_Gesamt!A33,Dusanic!G13:G56)</f>
-        <v>2.5</v>
+        <v>8.5</v>
       </c>
       <c r="D33" s="3">
         <f>SUMIF(Tabelle35[KW],Zeiterfassung_Gesamt!A33,Tabelle35[Dauer])</f>
-        <v>6.25</v>
+        <v>12.25</v>
       </c>
       <c r="E33" s="3">
         <f>SUMIF(Tomic!H13:H56,Zeiterfassung_Gesamt!A33,Tomic!G13:G56)</f>
-        <v>2.5</v>
+        <v>8.5</v>
       </c>
       <c r="F33" s="3">
         <f t="shared" si="2"/>
-        <v>15.75</v>
+        <v>39.75</v>
       </c>
       <c r="J33" s="12"/>
       <c r="K33" s="14"/>
     </row>
-    <row r="34" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>48</v>
       </c>
@@ -3219,7 +3219,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="14"/>
     </row>
-    <row r="35" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>49</v>
       </c>
@@ -3246,7 +3246,7 @@
       <c r="J35" s="12"/>
       <c r="K35" s="14"/>
     </row>
-    <row r="36" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>50</v>
       </c>
@@ -3273,7 +3273,7 @@
       <c r="J36" s="12"/>
       <c r="K36" s="14"/>
     </row>
-    <row r="37" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>51</v>
       </c>
@@ -3300,7 +3300,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="14"/>
     </row>
-    <row r="38" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>52</v>
       </c>
@@ -3327,7 +3327,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="14"/>
     </row>
-    <row r="39" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>1</v>
       </c>
@@ -3354,7 +3354,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="14"/>
     </row>
-    <row r="40" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>2</v>
       </c>
@@ -3381,7 +3381,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="14"/>
     </row>
-    <row r="41" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>3</v>
       </c>
@@ -3408,7 +3408,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="14"/>
     </row>
-    <row r="42" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>4</v>
       </c>
@@ -3435,7 +3435,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="14"/>
     </row>
-    <row r="43" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>5</v>
       </c>
@@ -3462,34 +3462,34 @@
       <c r="J43" s="12"/>
       <c r="K43" s="14"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B44" s="4">
         <f>SUM(B26:B43)</f>
-        <v>33.5</v>
+        <v>39.5</v>
       </c>
       <c r="C44" s="4">
         <f t="shared" ref="C44:E44" si="3">SUM(C26:C43)</f>
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D44" s="4">
         <f t="shared" si="3"/>
-        <v>26.75</v>
+        <v>32.75</v>
       </c>
       <c r="E44" s="4">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F44" s="4">
         <f>SUM(F26:F43)</f>
-        <v>117.25</v>
+        <v>141.25</v>
       </c>
       <c r="J44" s="12"/>
       <c r="K44" s="14"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
     </row>
@@ -3510,36 +3510,36 @@
   <dimension ref="A2:H243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B22" sqref="B22:F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="19" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="3" max="3" width="75.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B2" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B3" s="17"/>
       <c r="C3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="21"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="22" t="s">
         <v>13</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="26" t="s">
         <v>24</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="26" t="s">
         <v>26</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="26" t="s">
         <v>24</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="26" t="s">
         <v>26</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="29"/>
       <c r="B11" s="26" t="s">
         <v>30</v>
@@ -3688,7 +3688,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="26" t="s">
         <v>30</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="26" t="s">
         <v>24</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="26" t="s">
         <v>30</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="26" t="s">
         <v>30</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="26" t="s">
         <v>24</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="26" t="s">
         <v>36</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="26" t="s">
         <v>30</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="26" t="s">
         <v>24</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="26" t="s">
         <v>30</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="26" t="s">
         <v>30</v>
       </c>
@@ -3938,22 +3938,32 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="27">
+        <v>43427</v>
+      </c>
+      <c r="E22" s="28">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F22" s="28">
+        <v>0.77083333333333337</v>
+      </c>
       <c r="G22">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H22">
         <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
       <c r="D23" s="27"/>
@@ -3968,7 +3978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
       <c r="D24" s="27"/>
@@ -3983,7 +3993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="D25" s="27"/>
@@ -3998,7 +4008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="26"/>
       <c r="C26" s="30"/>
       <c r="D26" s="27"/>
@@ -4013,7 +4023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
       <c r="D27" s="27"/>
@@ -4028,7 +4038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="D28" s="27"/>
@@ -4043,7 +4053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="27"/>
@@ -4058,7 +4068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="27"/>
@@ -4073,7 +4083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="27"/>
@@ -4088,7 +4098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="27"/>
@@ -4103,7 +4113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="27"/>
@@ -4118,7 +4128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="27"/>
@@ -4133,7 +4143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="27"/>
@@ -4148,7 +4158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="27"/>
@@ -4163,7 +4173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="27"/>
@@ -4178,7 +4188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
       <c r="D38" s="27"/>
@@ -4193,7 +4203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="D39" s="27"/>
@@ -4208,7 +4218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
       <c r="D40" s="27"/>
@@ -4223,7 +4233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
       <c r="D41" s="27"/>
@@ -4238,7 +4248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="27"/>
@@ -4253,7 +4263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
       <c r="D43" s="27"/>
@@ -4268,7 +4278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="27"/>
@@ -4283,7 +4293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="27"/>
@@ -4298,7 +4308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="27"/>
@@ -4313,7 +4323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
       <c r="D47" s="27"/>
@@ -4328,7 +4338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
       <c r="D48" s="32"/>
@@ -4343,7 +4353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
       <c r="D49" s="32"/>
@@ -4358,7 +4368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
       <c r="D50" s="27"/>
@@ -4373,7 +4383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B51" s="30"/>
       <c r="C51" s="30"/>
       <c r="D51" s="32"/>
@@ -4388,7 +4398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B52" s="30"/>
       <c r="C52" s="30"/>
       <c r="D52" s="27"/>
@@ -4403,7 +4413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B53" s="30"/>
       <c r="C53" s="30"/>
       <c r="D53" s="32"/>
@@ -4418,7 +4428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B54" s="30"/>
       <c r="C54" s="30"/>
       <c r="D54" s="27"/>
@@ -4433,7 +4443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B55" s="30"/>
       <c r="C55" s="30"/>
       <c r="D55" s="27"/>
@@ -4448,7 +4458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B56" s="30"/>
       <c r="C56" s="30"/>
       <c r="D56" s="27"/>
@@ -4463,7 +4473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B57" s="30"/>
       <c r="C57" s="30"/>
       <c r="D57" s="27"/>
@@ -4478,7 +4488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B58" s="35" t="s">
         <v>19</v>
       </c>
@@ -4488,1081 +4498,1081 @@
       <c r="F58" s="36"/>
       <c r="G58">
         <f>SUM(G7:G57)</f>
-        <v>33.5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
     </row>
-    <row r="61" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A61" s="11"/>
       <c r="B61" s="37"/>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
     </row>
-    <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="11"/>
       <c r="B63" s="38"/>
       <c r="C63" s="38"/>
       <c r="D63" s="39"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
       <c r="D64" s="40"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
       <c r="D65" s="40"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
       <c r="D66" s="40"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
       <c r="D67" s="40"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
       <c r="D68" s="40"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
       <c r="D69" s="40"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
       <c r="D70" s="40"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="11"/>
       <c r="B71" s="41"/>
       <c r="C71" s="11"/>
       <c r="D71" s="40"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
       <c r="D72" s="40"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
       <c r="D73" s="40"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
       <c r="D74" s="40"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
       <c r="D75" s="40"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
       <c r="D76" s="40"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
       <c r="D77" s="40"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
       <c r="D78" s="40"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
       <c r="D79" s="40"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
       <c r="D80" s="40"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
       <c r="D81" s="40"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
       <c r="D82" s="40"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
       <c r="D83" s="40"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
       <c r="D84" s="40"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
       <c r="D85" s="40"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
       <c r="D86" s="40"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
       <c r="D87" s="40"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
       <c r="D88" s="40"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
       <c r="D89" s="40"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
       <c r="D90" s="40"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
       <c r="D91" s="40"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
       <c r="D92" s="40"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
       <c r="D93" s="40"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
       <c r="D94" s="40"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
       <c r="D95" s="40"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
       <c r="D96" s="40"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
       <c r="D97" s="40"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
       <c r="D98" s="40"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
       <c r="D99" s="40"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
       <c r="D100" s="40"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
       <c r="D101" s="40"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
       <c r="D102" s="40"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="11"/>
       <c r="B103" s="42"/>
       <c r="C103" s="11"/>
       <c r="D103" s="40"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
       <c r="D105" s="11"/>
     </row>
-    <row r="106" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A106" s="11"/>
       <c r="B106" s="37"/>
       <c r="C106" s="11"/>
       <c r="D106" s="11"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
       <c r="D107" s="11"/>
     </row>
-    <row r="108" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="11"/>
       <c r="B108" s="38"/>
       <c r="C108" s="38"/>
       <c r="D108" s="39"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
       <c r="D109" s="40"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
       <c r="D110" s="40"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
       <c r="D111" s="40"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
       <c r="D112" s="40"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
       <c r="D113" s="40"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
       <c r="D114" s="40"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
       <c r="D115" s="40"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
       <c r="D116" s="40"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
       <c r="D117" s="40"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
       <c r="D118" s="40"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
       <c r="D119" s="40"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
       <c r="D120" s="40"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
       <c r="D121" s="40"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="11"/>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
       <c r="D122" s="40"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="11"/>
       <c r="B123" s="11"/>
       <c r="C123" s="11"/>
       <c r="D123" s="40"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="11"/>
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
       <c r="D124" s="40"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="11"/>
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
       <c r="D125" s="40"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="11"/>
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
       <c r="D126" s="40"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="11"/>
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
       <c r="D127" s="40"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="11"/>
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
       <c r="D128" s="40"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="11"/>
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
       <c r="D129" s="40"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="11"/>
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
       <c r="D130" s="40"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="11"/>
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
       <c r="D131" s="40"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="11"/>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
       <c r="D132" s="40"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="11"/>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
       <c r="D133" s="40"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="11"/>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
       <c r="D134" s="40"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="11"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
       <c r="D135" s="40"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="11"/>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
       <c r="D136" s="40"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="11"/>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
       <c r="D137" s="40"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="11"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
       <c r="D138" s="40"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="11"/>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
       <c r="D139" s="40"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="11"/>
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
       <c r="D140" s="40"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="11"/>
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
       <c r="D141" s="40"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="11"/>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
       <c r="D142" s="40"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="11"/>
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
       <c r="D143" s="40"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="11"/>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
       <c r="D144" s="40"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="11"/>
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
       <c r="D145" s="40"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="11"/>
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
       <c r="D146" s="40"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="11"/>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
       <c r="D147" s="40"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="11"/>
       <c r="B148" s="42"/>
       <c r="C148" s="11"/>
       <c r="D148" s="40"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="11"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
       <c r="D149" s="11"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="11"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
       <c r="D150" s="11"/>
     </row>
-    <row r="151" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A151" s="11"/>
       <c r="B151" s="37"/>
       <c r="C151" s="11"/>
       <c r="D151" s="11"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="11"/>
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
       <c r="D152" s="11"/>
     </row>
-    <row r="153" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="11"/>
       <c r="B153" s="38"/>
       <c r="C153" s="38"/>
       <c r="D153" s="39"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="11"/>
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
       <c r="D154" s="40"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="11"/>
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
       <c r="D155" s="40"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="11"/>
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
       <c r="D156" s="40"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="11"/>
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
       <c r="D157" s="40"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="11"/>
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
       <c r="D158" s="40"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="11"/>
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
       <c r="D159" s="40"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="11"/>
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
       <c r="D160" s="40"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="11"/>
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
       <c r="D161" s="40"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="11"/>
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
       <c r="D162" s="40"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="11"/>
       <c r="B163" s="11"/>
       <c r="C163" s="11"/>
       <c r="D163" s="40"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="11"/>
       <c r="B164" s="11"/>
       <c r="C164" s="11"/>
       <c r="D164" s="40"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="11"/>
       <c r="B165" s="11"/>
       <c r="C165" s="11"/>
       <c r="D165" s="40"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="11"/>
       <c r="B166" s="11"/>
       <c r="C166" s="11"/>
       <c r="D166" s="40"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="11"/>
       <c r="B167" s="11"/>
       <c r="C167" s="11"/>
       <c r="D167" s="40"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="11"/>
       <c r="B168" s="11"/>
       <c r="C168" s="11"/>
       <c r="D168" s="40"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="11"/>
       <c r="B169" s="11"/>
       <c r="C169" s="11"/>
       <c r="D169" s="40"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="11"/>
       <c r="B170" s="11"/>
       <c r="C170" s="11"/>
       <c r="D170" s="40"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="11"/>
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
       <c r="D171" s="40"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="11"/>
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
       <c r="D172" s="40"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="11"/>
       <c r="B173" s="11"/>
       <c r="C173" s="11"/>
       <c r="D173" s="40"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="11"/>
       <c r="B174" s="11"/>
       <c r="C174" s="11"/>
       <c r="D174" s="40"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="11"/>
       <c r="B175" s="11"/>
       <c r="C175" s="11"/>
       <c r="D175" s="40"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="11"/>
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
       <c r="D176" s="40"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="11"/>
       <c r="B177" s="11"/>
       <c r="C177" s="11"/>
       <c r="D177" s="40"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="11"/>
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
       <c r="D178" s="40"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="11"/>
       <c r="B179" s="11"/>
       <c r="C179" s="11"/>
       <c r="D179" s="40"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="11"/>
       <c r="B180" s="11"/>
       <c r="C180" s="11"/>
       <c r="D180" s="40"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="11"/>
       <c r="B181" s="11"/>
       <c r="C181" s="11"/>
       <c r="D181" s="40"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="11"/>
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
       <c r="D182" s="40"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="11"/>
       <c r="B183" s="11"/>
       <c r="C183" s="11"/>
       <c r="D183" s="40"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="11"/>
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
       <c r="D184" s="40"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="11"/>
       <c r="B185" s="11"/>
       <c r="C185" s="11"/>
       <c r="D185" s="40"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="11"/>
       <c r="B186" s="11"/>
       <c r="C186" s="11"/>
       <c r="D186" s="40"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="11"/>
       <c r="B187" s="11"/>
       <c r="C187" s="11"/>
       <c r="D187" s="40"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="11"/>
       <c r="B188" s="11"/>
       <c r="C188" s="11"/>
       <c r="D188" s="40"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="11"/>
       <c r="B189" s="11"/>
       <c r="C189" s="11"/>
       <c r="D189" s="40"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="11"/>
       <c r="B190" s="11"/>
       <c r="C190" s="11"/>
       <c r="D190" s="40"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="11"/>
       <c r="B191" s="11"/>
       <c r="C191" s="11"/>
       <c r="D191" s="40"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="11"/>
       <c r="B192" s="11"/>
       <c r="C192" s="11"/>
       <c r="D192" s="40"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="11"/>
       <c r="B193" s="42"/>
       <c r="C193" s="11"/>
       <c r="D193" s="40"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="11"/>
       <c r="B194" s="11"/>
       <c r="C194" s="11"/>
       <c r="D194" s="11"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="11"/>
       <c r="B195" s="11"/>
       <c r="C195" s="11"/>
       <c r="D195" s="11"/>
     </row>
-    <row r="196" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A196" s="11"/>
       <c r="B196" s="37"/>
       <c r="C196" s="11"/>
       <c r="D196" s="11"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="11"/>
       <c r="B197" s="11"/>
       <c r="C197" s="11"/>
       <c r="D197" s="11"/>
     </row>
-    <row r="198" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="11"/>
       <c r="B198" s="38"/>
       <c r="C198" s="38"/>
       <c r="D198" s="39"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="11"/>
       <c r="B199" s="11"/>
       <c r="C199" s="11"/>
       <c r="D199" s="40"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="11"/>
       <c r="B200" s="11"/>
       <c r="C200" s="11"/>
       <c r="D200" s="40"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="11"/>
       <c r="B201" s="11"/>
       <c r="C201" s="11"/>
       <c r="D201" s="40"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="11"/>
       <c r="B202" s="11"/>
       <c r="C202" s="11"/>
       <c r="D202" s="40"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="11"/>
       <c r="B203" s="11"/>
       <c r="C203" s="11"/>
       <c r="D203" s="40"/>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="11"/>
       <c r="B204" s="11"/>
       <c r="C204" s="11"/>
       <c r="D204" s="40"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="11"/>
       <c r="B205" s="11"/>
       <c r="C205" s="11"/>
       <c r="D205" s="40"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="11"/>
       <c r="B206" s="11"/>
       <c r="C206" s="11"/>
       <c r="D206" s="40"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="11"/>
       <c r="B207" s="11"/>
       <c r="C207" s="11"/>
       <c r="D207" s="40"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="11"/>
       <c r="B208" s="11"/>
       <c r="C208" s="11"/>
       <c r="D208" s="40"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="11"/>
       <c r="B209" s="11"/>
       <c r="C209" s="11"/>
       <c r="D209" s="40"/>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="11"/>
       <c r="B210" s="11"/>
       <c r="C210" s="11"/>
       <c r="D210" s="40"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="11"/>
       <c r="B211" s="11"/>
       <c r="C211" s="11"/>
       <c r="D211" s="40"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="11"/>
       <c r="B212" s="11"/>
       <c r="C212" s="11"/>
       <c r="D212" s="40"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="11"/>
       <c r="B213" s="11"/>
       <c r="C213" s="11"/>
       <c r="D213" s="40"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="11"/>
       <c r="B214" s="11"/>
       <c r="C214" s="11"/>
       <c r="D214" s="40"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="11"/>
       <c r="B215" s="11"/>
       <c r="C215" s="11"/>
       <c r="D215" s="40"/>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="11"/>
       <c r="B216" s="11"/>
       <c r="C216" s="11"/>
       <c r="D216" s="40"/>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="11"/>
       <c r="B217" s="11"/>
       <c r="C217" s="11"/>
       <c r="D217" s="40"/>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="11"/>
       <c r="B218" s="11"/>
       <c r="C218" s="11"/>
       <c r="D218" s="40"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="11"/>
       <c r="B219" s="11"/>
       <c r="C219" s="11"/>
       <c r="D219" s="40"/>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="11"/>
       <c r="B220" s="11"/>
       <c r="C220" s="11"/>
       <c r="D220" s="40"/>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="11"/>
       <c r="B221" s="11"/>
       <c r="C221" s="11"/>
       <c r="D221" s="40"/>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="11"/>
       <c r="B222" s="11"/>
       <c r="C222" s="11"/>
       <c r="D222" s="40"/>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="11"/>
       <c r="B223" s="11"/>
       <c r="C223" s="11"/>
       <c r="D223" s="40"/>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="11"/>
       <c r="B224" s="11"/>
       <c r="C224" s="11"/>
       <c r="D224" s="40"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="11"/>
       <c r="B225" s="11"/>
       <c r="C225" s="11"/>
       <c r="D225" s="40"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="11"/>
       <c r="B226" s="11"/>
       <c r="C226" s="11"/>
       <c r="D226" s="40"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="11"/>
       <c r="B227" s="11"/>
       <c r="C227" s="11"/>
       <c r="D227" s="40"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="11"/>
       <c r="B228" s="11"/>
       <c r="C228" s="11"/>
       <c r="D228" s="40"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="11"/>
       <c r="B229" s="11"/>
       <c r="C229" s="11"/>
       <c r="D229" s="40"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="11"/>
       <c r="B230" s="11"/>
       <c r="C230" s="11"/>
       <c r="D230" s="40"/>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="11"/>
       <c r="B231" s="11"/>
       <c r="C231" s="11"/>
       <c r="D231" s="40"/>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="11"/>
       <c r="B232" s="11"/>
       <c r="C232" s="11"/>
       <c r="D232" s="40"/>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="11"/>
       <c r="B233" s="11"/>
       <c r="C233" s="11"/>
       <c r="D233" s="40"/>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="11"/>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="11"/>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="11"/>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="11"/>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="11"/>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="11"/>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="11"/>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" s="11"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" s="11"/>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" s="11"/>
     </row>
   </sheetData>
@@ -5578,36 +5588,36 @@
   <dimension ref="A2:H230"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:F17"/>
+      <selection activeCell="B18" sqref="B18:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1"/>
-    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="19" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" customWidth="1"/>
+    <col min="3" max="3" width="75.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B2" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B3" s="17"/>
       <c r="C3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="20" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="21"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="22" t="s">
         <v>13</v>
       </c>
@@ -5630,7 +5640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="26" t="s">
         <v>24</v>
       </c>
@@ -5655,7 +5665,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="26" t="s">
         <v>26</v>
       </c>
@@ -5680,7 +5690,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="26" t="s">
         <v>24</v>
       </c>
@@ -5705,7 +5715,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="29"/>
       <c r="B10" s="26" t="s">
         <v>30</v>
@@ -5731,7 +5741,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" s="26" t="s">
         <v>30</v>
       </c>
@@ -5756,7 +5766,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="26" t="s">
         <v>24</v>
       </c>
@@ -5781,7 +5791,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="26" t="s">
         <v>24</v>
       </c>
@@ -5806,7 +5816,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="26" t="s">
         <v>36</v>
       </c>
@@ -5831,7 +5841,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="26" t="s">
         <v>30</v>
       </c>
@@ -5856,7 +5866,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="26" t="s">
         <v>24</v>
       </c>
@@ -5881,7 +5891,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="26" t="s">
         <v>30</v>
       </c>
@@ -5906,22 +5916,32 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="27">
+        <v>43427</v>
+      </c>
+      <c r="E18" s="28">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F18" s="28">
+        <v>0.77083333333333337</v>
+      </c>
       <c r="G18">
         <f>(Tabelle34[[#This Row],[bis]]*24)-(Tabelle34[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H18">
         <f>WEEKNUM(Tabelle34[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
       <c r="D19" s="27"/>
@@ -5936,7 +5956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
       <c r="D20" s="27"/>
@@ -5951,7 +5971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
       <c r="D21" s="27"/>
@@ -5966,7 +5986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
       <c r="D22" s="27"/>
@@ -5981,7 +6001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
       <c r="D23" s="27"/>
@@ -5996,7 +6016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
       <c r="D24" s="27"/>
@@ -6011,7 +6031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="D25" s="27"/>
@@ -6026,7 +6046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
       <c r="D26" s="27"/>
@@ -6041,7 +6061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
       <c r="D27" s="27"/>
@@ -6056,7 +6076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="D28" s="27"/>
@@ -6071,7 +6091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="27"/>
@@ -6086,7 +6106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="27"/>
@@ -6101,7 +6121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="27"/>
@@ -6116,7 +6136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="27"/>
@@ -6131,7 +6151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="27"/>
@@ -6146,7 +6166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="27"/>
@@ -6161,7 +6181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="27"/>
@@ -6176,7 +6196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="27"/>
@@ -6191,7 +6211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="27"/>
@@ -6206,7 +6226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
       <c r="D38" s="27"/>
@@ -6221,7 +6241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="D39" s="27"/>
@@ -6236,7 +6256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
       <c r="D40" s="27"/>
@@ -6251,7 +6271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
       <c r="D41" s="27"/>
@@ -6266,7 +6286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="27"/>
@@ -6281,7 +6301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
       <c r="D43" s="27"/>
@@ -6296,7 +6316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="27"/>
@@ -6311,7 +6331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="27"/>
@@ -6326,7 +6346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="27"/>
@@ -6341,7 +6361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="11"/>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
@@ -6357,7 +6377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="11"/>
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
@@ -6373,7 +6393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="11"/>
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
@@ -6389,7 +6409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="11"/>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
@@ -6405,7 +6425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="11"/>
       <c r="B51" s="35" t="s">
         <v>19</v>
@@ -6416,11 +6436,11 @@
       <c r="F51" s="36"/>
       <c r="G51">
         <f>SUM(G7:G50)</f>
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="11"/>
       <c r="B52"/>
       <c r="C52"/>
@@ -6429,7 +6449,7 @@
       <c r="G52"/>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -6438,7 +6458,7 @@
       <c r="G53"/>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" s="11"/>
       <c r="B54" s="37"/>
       <c r="C54" s="11"/>
@@ -6447,7 +6467,7 @@
       <c r="G54"/>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -6456,7 +6476,7 @@
       <c r="G55"/>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="11"/>
       <c r="B56" s="38"/>
       <c r="C56" s="38"/>
@@ -6465,7 +6485,7 @@
       <c r="G56"/>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -6474,7 +6494,7 @@
       <c r="G57"/>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -6483,7 +6503,7 @@
       <c r="G58"/>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -6492,7 +6512,7 @@
       <c r="G59"/>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -6501,7 +6521,7 @@
       <c r="G60"/>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -6510,7 +6530,7 @@
       <c r="G61"/>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -6519,7 +6539,7 @@
       <c r="G62"/>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -6528,7 +6548,7 @@
       <c r="G63"/>
       <c r="H63"/>
     </row>
-    <row r="64" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="11"/>
       <c r="B64" s="41"/>
       <c r="C64" s="11"/>
@@ -6537,7 +6557,7 @@
       <c r="G64"/>
       <c r="H64"/>
     </row>
-    <row r="65" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -6546,7 +6566,7 @@
       <c r="G65"/>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -6555,7 +6575,7 @@
       <c r="G66"/>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -6564,7 +6584,7 @@
       <c r="G67"/>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -6573,7 +6593,7 @@
       <c r="G68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -6582,7 +6602,7 @@
       <c r="G69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -6591,7 +6611,7 @@
       <c r="G70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -6600,7 +6620,7 @@
       <c r="G71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -6609,7 +6629,7 @@
       <c r="G72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -6618,7 +6638,7 @@
       <c r="G73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -6627,7 +6647,7 @@
       <c r="G74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -6636,7 +6656,7 @@
       <c r="G75"/>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -6645,7 +6665,7 @@
       <c r="G76"/>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -6654,7 +6674,7 @@
       <c r="G77"/>
       <c r="H77"/>
     </row>
-    <row r="78" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -6663,7 +6683,7 @@
       <c r="G78"/>
       <c r="H78"/>
     </row>
-    <row r="79" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -6672,7 +6692,7 @@
       <c r="G79"/>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -6681,7 +6701,7 @@
       <c r="G80"/>
       <c r="H80"/>
     </row>
-    <row r="81" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -6690,7 +6710,7 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -6699,7 +6719,7 @@
       <c r="G82"/>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -6708,7 +6728,7 @@
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -6717,7 +6737,7 @@
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -6726,7 +6746,7 @@
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -6735,7 +6755,7 @@
       <c r="G86"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -6744,7 +6764,7 @@
       <c r="G87"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -6753,7 +6773,7 @@
       <c r="G88"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -6762,7 +6782,7 @@
       <c r="G89"/>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -6771,7 +6791,7 @@
       <c r="G90"/>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -6780,7 +6800,7 @@
       <c r="G91"/>
       <c r="H91"/>
     </row>
-    <row r="92" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -6789,7 +6809,7 @@
       <c r="G92"/>
       <c r="H92"/>
     </row>
-    <row r="93" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -6798,7 +6818,7 @@
       <c r="G93"/>
       <c r="H93"/>
     </row>
-    <row r="94" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -6807,7 +6827,7 @@
       <c r="G94"/>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -6816,7 +6836,7 @@
       <c r="G95"/>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="11"/>
       <c r="B96" s="42"/>
       <c r="C96" s="11"/>
@@ -6825,7 +6845,7 @@
       <c r="G96"/>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -6834,7 +6854,7 @@
       <c r="G97"/>
       <c r="H97"/>
     </row>
-    <row r="98" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -6843,7 +6863,7 @@
       <c r="G98"/>
       <c r="H98"/>
     </row>
-    <row r="99" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A99" s="11"/>
       <c r="B99" s="37"/>
       <c r="C99" s="11"/>
@@ -6852,7 +6872,7 @@
       <c r="G99"/>
       <c r="H99"/>
     </row>
-    <row r="100" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -6861,7 +6881,7 @@
       <c r="G100"/>
       <c r="H100"/>
     </row>
-    <row r="101" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="11"/>
       <c r="B101" s="38"/>
       <c r="C101" s="38"/>
@@ -6870,7 +6890,7 @@
       <c r="G101"/>
       <c r="H101"/>
     </row>
-    <row r="102" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -6879,7 +6899,7 @@
       <c r="G102"/>
       <c r="H102"/>
     </row>
-    <row r="103" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -6888,7 +6908,7 @@
       <c r="G103"/>
       <c r="H103"/>
     </row>
-    <row r="104" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -6897,7 +6917,7 @@
       <c r="G104"/>
       <c r="H104"/>
     </row>
-    <row r="105" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -6906,7 +6926,7 @@
       <c r="G105"/>
       <c r="H105"/>
     </row>
-    <row r="106" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -6915,7 +6935,7 @@
       <c r="G106"/>
       <c r="H106"/>
     </row>
-    <row r="107" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -6924,7 +6944,7 @@
       <c r="G107"/>
       <c r="H107"/>
     </row>
-    <row r="108" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -6933,7 +6953,7 @@
       <c r="G108"/>
       <c r="H108"/>
     </row>
-    <row r="109" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -6942,7 +6962,7 @@
       <c r="G109"/>
       <c r="H109"/>
     </row>
-    <row r="110" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -6951,7 +6971,7 @@
       <c r="G110"/>
       <c r="H110"/>
     </row>
-    <row r="111" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -6960,7 +6980,7 @@
       <c r="G111"/>
       <c r="H111"/>
     </row>
-    <row r="112" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -6969,7 +6989,7 @@
       <c r="G112"/>
       <c r="H112"/>
     </row>
-    <row r="113" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
@@ -6978,7 +6998,7 @@
       <c r="G113"/>
       <c r="H113"/>
     </row>
-    <row r="114" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
@@ -6987,7 +7007,7 @@
       <c r="G114"/>
       <c r="H114"/>
     </row>
-    <row r="115" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
@@ -6996,7 +7016,7 @@
       <c r="G115"/>
       <c r="H115"/>
     </row>
-    <row r="116" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
@@ -7005,7 +7025,7 @@
       <c r="G116"/>
       <c r="H116"/>
     </row>
-    <row r="117" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
@@ -7014,7 +7034,7 @@
       <c r="G117"/>
       <c r="H117"/>
     </row>
-    <row r="118" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
@@ -7023,7 +7043,7 @@
       <c r="G118"/>
       <c r="H118"/>
     </row>
-    <row r="119" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
@@ -7032,7 +7052,7 @@
       <c r="G119"/>
       <c r="H119"/>
     </row>
-    <row r="120" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
@@ -7041,7 +7061,7 @@
       <c r="G120"/>
       <c r="H120"/>
     </row>
-    <row r="121" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
@@ -7050,7 +7070,7 @@
       <c r="G121"/>
       <c r="H121"/>
     </row>
-    <row r="122" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="11"/>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
@@ -7059,7 +7079,7 @@
       <c r="G122"/>
       <c r="H122"/>
     </row>
-    <row r="123" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="11"/>
       <c r="B123" s="11"/>
       <c r="C123" s="11"/>
@@ -7068,7 +7088,7 @@
       <c r="G123"/>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="11"/>
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
@@ -7077,7 +7097,7 @@
       <c r="G124"/>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="11"/>
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
@@ -7086,7 +7106,7 @@
       <c r="G125"/>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="11"/>
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
@@ -7095,7 +7115,7 @@
       <c r="G126"/>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="11"/>
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
@@ -7104,7 +7124,7 @@
       <c r="G127"/>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="11"/>
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
@@ -7113,7 +7133,7 @@
       <c r="G128"/>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="11"/>
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
@@ -7122,7 +7142,7 @@
       <c r="G129"/>
       <c r="H129"/>
     </row>
-    <row r="130" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="11"/>
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
@@ -7131,7 +7151,7 @@
       <c r="G130"/>
       <c r="H130"/>
     </row>
-    <row r="131" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="11"/>
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
@@ -7140,7 +7160,7 @@
       <c r="G131"/>
       <c r="H131"/>
     </row>
-    <row r="132" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="11"/>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
@@ -7149,7 +7169,7 @@
       <c r="G132"/>
       <c r="H132"/>
     </row>
-    <row r="133" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="11"/>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
@@ -7158,7 +7178,7 @@
       <c r="G133"/>
       <c r="H133"/>
     </row>
-    <row r="134" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="11"/>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
@@ -7167,7 +7187,7 @@
       <c r="G134"/>
       <c r="H134"/>
     </row>
-    <row r="135" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="11"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
@@ -7176,7 +7196,7 @@
       <c r="G135"/>
       <c r="H135"/>
     </row>
-    <row r="136" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="11"/>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
@@ -7185,7 +7205,7 @@
       <c r="G136"/>
       <c r="H136"/>
     </row>
-    <row r="137" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="11"/>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
@@ -7194,7 +7214,7 @@
       <c r="G137"/>
       <c r="H137"/>
     </row>
-    <row r="138" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="11"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
@@ -7203,7 +7223,7 @@
       <c r="G138"/>
       <c r="H138"/>
     </row>
-    <row r="139" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="11"/>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
@@ -7212,7 +7232,7 @@
       <c r="G139"/>
       <c r="H139"/>
     </row>
-    <row r="140" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="11"/>
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
@@ -7221,7 +7241,7 @@
       <c r="G140"/>
       <c r="H140"/>
     </row>
-    <row r="141" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="11"/>
       <c r="B141" s="42"/>
       <c r="C141" s="11"/>
@@ -7230,7 +7250,7 @@
       <c r="G141"/>
       <c r="H141"/>
     </row>
-    <row r="142" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="11"/>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
@@ -7239,7 +7259,7 @@
       <c r="G142"/>
       <c r="H142"/>
     </row>
-    <row r="143" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="11"/>
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
@@ -7248,7 +7268,7 @@
       <c r="G143"/>
       <c r="H143"/>
     </row>
-    <row r="144" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A144" s="11"/>
       <c r="B144" s="37"/>
       <c r="C144" s="11"/>
@@ -7257,7 +7277,7 @@
       <c r="G144"/>
       <c r="H144"/>
     </row>
-    <row r="145" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="11"/>
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
@@ -7266,7 +7286,7 @@
       <c r="G145"/>
       <c r="H145"/>
     </row>
-    <row r="146" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="11"/>
       <c r="B146" s="38"/>
       <c r="C146" s="38"/>
@@ -7275,7 +7295,7 @@
       <c r="G146"/>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="11"/>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
@@ -7284,7 +7304,7 @@
       <c r="G147"/>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="11"/>
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
@@ -7293,7 +7313,7 @@
       <c r="G148"/>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="11"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
@@ -7302,7 +7322,7 @@
       <c r="G149"/>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="11"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
@@ -7311,7 +7331,7 @@
       <c r="G150"/>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="11"/>
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
@@ -7320,7 +7340,7 @@
       <c r="G151"/>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="11"/>
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
@@ -7329,7 +7349,7 @@
       <c r="G152"/>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="11"/>
       <c r="B153" s="11"/>
       <c r="C153" s="11"/>
@@ -7338,7 +7358,7 @@
       <c r="G153"/>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="11"/>
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
@@ -7347,7 +7367,7 @@
       <c r="G154"/>
       <c r="H154"/>
     </row>
-    <row r="155" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="11"/>
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
@@ -7356,7 +7376,7 @@
       <c r="G155"/>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="11"/>
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
@@ -7365,7 +7385,7 @@
       <c r="G156"/>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="11"/>
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
@@ -7374,7 +7394,7 @@
       <c r="G157"/>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="11"/>
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
@@ -7383,7 +7403,7 @@
       <c r="G158"/>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="11"/>
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
@@ -7392,7 +7412,7 @@
       <c r="G159"/>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="11"/>
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
@@ -7401,7 +7421,7 @@
       <c r="G160"/>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="11"/>
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
@@ -7410,7 +7430,7 @@
       <c r="G161"/>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="11"/>
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
@@ -7419,7 +7439,7 @@
       <c r="G162"/>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="11"/>
       <c r="B163" s="11"/>
       <c r="C163" s="11"/>
@@ -7428,7 +7448,7 @@
       <c r="G163"/>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="11"/>
       <c r="B164" s="11"/>
       <c r="C164" s="11"/>
@@ -7437,7 +7457,7 @@
       <c r="G164"/>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="11"/>
       <c r="B165" s="11"/>
       <c r="C165" s="11"/>
@@ -7446,7 +7466,7 @@
       <c r="G165"/>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="11"/>
       <c r="B166" s="11"/>
       <c r="C166" s="11"/>
@@ -7455,7 +7475,7 @@
       <c r="G166"/>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="11"/>
       <c r="B167" s="11"/>
       <c r="C167" s="11"/>
@@ -7464,7 +7484,7 @@
       <c r="G167"/>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="11"/>
       <c r="B168" s="11"/>
       <c r="C168" s="11"/>
@@ -7473,7 +7493,7 @@
       <c r="G168"/>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="11"/>
       <c r="B169" s="11"/>
       <c r="C169" s="11"/>
@@ -7482,7 +7502,7 @@
       <c r="G169"/>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="11"/>
       <c r="B170" s="11"/>
       <c r="C170" s="11"/>
@@ -7491,7 +7511,7 @@
       <c r="G170"/>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="11"/>
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
@@ -7500,7 +7520,7 @@
       <c r="G171"/>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="11"/>
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
@@ -7509,7 +7529,7 @@
       <c r="G172"/>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="11"/>
       <c r="B173" s="11"/>
       <c r="C173" s="11"/>
@@ -7518,7 +7538,7 @@
       <c r="G173"/>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="11"/>
       <c r="B174" s="11"/>
       <c r="C174" s="11"/>
@@ -7527,7 +7547,7 @@
       <c r="G174"/>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="11"/>
       <c r="B175" s="11"/>
       <c r="C175" s="11"/>
@@ -7536,7 +7556,7 @@
       <c r="G175"/>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="11"/>
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
@@ -7545,7 +7565,7 @@
       <c r="G176"/>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="11"/>
       <c r="B177" s="11"/>
       <c r="C177" s="11"/>
@@ -7554,7 +7574,7 @@
       <c r="G177"/>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="11"/>
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
@@ -7563,7 +7583,7 @@
       <c r="G178"/>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="11"/>
       <c r="B179" s="11"/>
       <c r="C179" s="11"/>
@@ -7572,7 +7592,7 @@
       <c r="G179"/>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A180" s="11"/>
       <c r="B180" s="11"/>
       <c r="C180" s="11"/>
@@ -7581,7 +7601,7 @@
       <c r="G180"/>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="11"/>
       <c r="B181" s="11"/>
       <c r="C181" s="11"/>
@@ -7590,7 +7610,7 @@
       <c r="G181"/>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="11"/>
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
@@ -7599,7 +7619,7 @@
       <c r="G182"/>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="11"/>
       <c r="B183" s="11"/>
       <c r="C183" s="11"/>
@@ -7608,7 +7628,7 @@
       <c r="G183"/>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="11"/>
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
@@ -7617,7 +7637,7 @@
       <c r="G184"/>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="11"/>
       <c r="B185" s="11"/>
       <c r="C185" s="11"/>
@@ -7626,7 +7646,7 @@
       <c r="G185"/>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="11"/>
       <c r="B186" s="42"/>
       <c r="C186" s="11"/>
@@ -7635,7 +7655,7 @@
       <c r="G186"/>
       <c r="H186"/>
     </row>
-    <row r="187" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="11"/>
       <c r="B187" s="11"/>
       <c r="C187" s="11"/>
@@ -7644,7 +7664,7 @@
       <c r="G187"/>
       <c r="H187"/>
     </row>
-    <row r="188" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="11"/>
       <c r="B188" s="11"/>
       <c r="C188" s="11"/>
@@ -7653,7 +7673,7 @@
       <c r="G188"/>
       <c r="H188"/>
     </row>
-    <row r="189" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A189" s="11"/>
       <c r="B189" s="37"/>
       <c r="C189" s="11"/>
@@ -7662,7 +7682,7 @@
       <c r="G189"/>
       <c r="H189"/>
     </row>
-    <row r="190" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="11"/>
       <c r="B190" s="11"/>
       <c r="C190" s="11"/>
@@ -7671,7 +7691,7 @@
       <c r="G190"/>
       <c r="H190"/>
     </row>
-    <row r="191" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="11"/>
       <c r="B191" s="38"/>
       <c r="C191" s="38"/>
@@ -7680,7 +7700,7 @@
       <c r="G191"/>
       <c r="H191"/>
     </row>
-    <row r="192" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="11"/>
       <c r="B192" s="11"/>
       <c r="C192" s="11"/>
@@ -7689,7 +7709,7 @@
       <c r="G192"/>
       <c r="H192"/>
     </row>
-    <row r="193" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="11"/>
       <c r="B193" s="11"/>
       <c r="C193" s="11"/>
@@ -7698,7 +7718,7 @@
       <c r="G193"/>
       <c r="H193"/>
     </row>
-    <row r="194" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="11"/>
       <c r="B194" s="11"/>
       <c r="C194" s="11"/>
@@ -7707,7 +7727,7 @@
       <c r="G194"/>
       <c r="H194"/>
     </row>
-    <row r="195" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="11"/>
       <c r="B195" s="11"/>
       <c r="C195" s="11"/>
@@ -7716,7 +7736,7 @@
       <c r="G195"/>
       <c r="H195"/>
     </row>
-    <row r="196" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="11"/>
       <c r="B196" s="11"/>
       <c r="C196" s="11"/>
@@ -7725,7 +7745,7 @@
       <c r="G196"/>
       <c r="H196"/>
     </row>
-    <row r="197" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="11"/>
       <c r="B197" s="11"/>
       <c r="C197" s="11"/>
@@ -7734,7 +7754,7 @@
       <c r="G197"/>
       <c r="H197"/>
     </row>
-    <row r="198" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="11"/>
       <c r="B198" s="11"/>
       <c r="C198" s="11"/>
@@ -7743,7 +7763,7 @@
       <c r="G198"/>
       <c r="H198"/>
     </row>
-    <row r="199" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="11"/>
       <c r="B199" s="11"/>
       <c r="C199" s="11"/>
@@ -7752,7 +7772,7 @@
       <c r="G199"/>
       <c r="H199"/>
     </row>
-    <row r="200" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="11"/>
       <c r="B200" s="11"/>
       <c r="C200" s="11"/>
@@ -7761,7 +7781,7 @@
       <c r="G200"/>
       <c r="H200"/>
     </row>
-    <row r="201" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="11"/>
       <c r="B201" s="11"/>
       <c r="C201" s="11"/>
@@ -7770,7 +7790,7 @@
       <c r="G201"/>
       <c r="H201"/>
     </row>
-    <row r="202" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="11"/>
       <c r="B202" s="11"/>
       <c r="C202" s="11"/>
@@ -7779,7 +7799,7 @@
       <c r="G202"/>
       <c r="H202"/>
     </row>
-    <row r="203" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="11"/>
       <c r="B203" s="11"/>
       <c r="C203" s="11"/>
@@ -7788,7 +7808,7 @@
       <c r="G203"/>
       <c r="H203"/>
     </row>
-    <row r="204" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="11"/>
       <c r="B204" s="11"/>
       <c r="C204" s="11"/>
@@ -7797,7 +7817,7 @@
       <c r="G204"/>
       <c r="H204"/>
     </row>
-    <row r="205" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="11"/>
       <c r="B205" s="11"/>
       <c r="C205" s="11"/>
@@ -7806,7 +7826,7 @@
       <c r="G205"/>
       <c r="H205"/>
     </row>
-    <row r="206" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="11"/>
       <c r="B206" s="11"/>
       <c r="C206" s="11"/>
@@ -7815,7 +7835,7 @@
       <c r="G206"/>
       <c r="H206"/>
     </row>
-    <row r="207" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A207" s="11"/>
       <c r="B207" s="11"/>
       <c r="C207" s="11"/>
@@ -7824,7 +7844,7 @@
       <c r="G207"/>
       <c r="H207"/>
     </row>
-    <row r="208" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="11"/>
       <c r="B208" s="11"/>
       <c r="C208" s="11"/>
@@ -7833,7 +7853,7 @@
       <c r="G208"/>
       <c r="H208"/>
     </row>
-    <row r="209" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="11"/>
       <c r="B209" s="11"/>
       <c r="C209" s="11"/>
@@ -7842,7 +7862,7 @@
       <c r="G209"/>
       <c r="H209"/>
     </row>
-    <row r="210" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="11"/>
       <c r="B210" s="11"/>
       <c r="C210" s="11"/>
@@ -7851,7 +7871,7 @@
       <c r="G210"/>
       <c r="H210"/>
     </row>
-    <row r="211" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="11"/>
       <c r="B211" s="11"/>
       <c r="C211" s="11"/>
@@ -7860,7 +7880,7 @@
       <c r="G211"/>
       <c r="H211"/>
     </row>
-    <row r="212" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="11"/>
       <c r="B212" s="11"/>
       <c r="C212" s="11"/>
@@ -7869,7 +7889,7 @@
       <c r="G212"/>
       <c r="H212"/>
     </row>
-    <row r="213" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="11"/>
       <c r="B213" s="11"/>
       <c r="C213" s="11"/>
@@ -7878,7 +7898,7 @@
       <c r="G213"/>
       <c r="H213"/>
     </row>
-    <row r="214" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="11"/>
       <c r="B214" s="11"/>
       <c r="C214" s="11"/>
@@ -7887,7 +7907,7 @@
       <c r="G214"/>
       <c r="H214"/>
     </row>
-    <row r="215" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="11"/>
       <c r="B215" s="11"/>
       <c r="C215" s="11"/>
@@ -7896,7 +7916,7 @@
       <c r="G215"/>
       <c r="H215"/>
     </row>
-    <row r="216" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="11"/>
       <c r="B216" s="11"/>
       <c r="C216" s="11"/>
@@ -7905,7 +7925,7 @@
       <c r="G216"/>
       <c r="H216"/>
     </row>
-    <row r="217" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A217" s="11"/>
       <c r="B217" s="11"/>
       <c r="C217" s="11"/>
@@ -7914,7 +7934,7 @@
       <c r="G217"/>
       <c r="H217"/>
     </row>
-    <row r="218" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="11"/>
       <c r="B218" s="11"/>
       <c r="C218" s="11"/>
@@ -7923,7 +7943,7 @@
       <c r="G218"/>
       <c r="H218"/>
     </row>
-    <row r="219" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="11"/>
       <c r="B219" s="11"/>
       <c r="C219" s="11"/>
@@ -7932,7 +7952,7 @@
       <c r="G219"/>
       <c r="H219"/>
     </row>
-    <row r="220" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="11"/>
       <c r="B220" s="11"/>
       <c r="C220" s="11"/>
@@ -7941,7 +7961,7 @@
       <c r="G220"/>
       <c r="H220"/>
     </row>
-    <row r="221" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="11"/>
       <c r="B221" s="11"/>
       <c r="C221" s="11"/>
@@ -7950,7 +7970,7 @@
       <c r="G221"/>
       <c r="H221"/>
     </row>
-    <row r="222" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="11"/>
       <c r="B222" s="11"/>
       <c r="C222" s="11"/>
@@ -7959,7 +7979,7 @@
       <c r="G222"/>
       <c r="H222"/>
     </row>
-    <row r="223" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="11"/>
       <c r="B223" s="11"/>
       <c r="C223" s="11"/>
@@ -7968,34 +7988,34 @@
       <c r="G223"/>
       <c r="H223"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="11"/>
       <c r="B224" s="11"/>
       <c r="C224" s="11"/>
       <c r="D224" s="40"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="11"/>
       <c r="B225" s="11"/>
       <c r="C225" s="11"/>
       <c r="D225" s="40"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="11"/>
       <c r="B226" s="11"/>
       <c r="C226" s="11"/>
       <c r="D226" s="40"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="11"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="11"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="11"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="11"/>
     </row>
   </sheetData>
@@ -8011,36 +8031,36 @@
   <dimension ref="A2:H230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:F17"/>
+      <selection activeCell="B18" sqref="B18:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="19" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="3" max="3" width="75.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B2" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B3" s="17"/>
       <c r="C3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="20" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="19"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="22" t="s">
         <v>13</v>
       </c>
@@ -8063,7 +8083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="26" t="s">
         <v>24</v>
       </c>
@@ -8088,7 +8108,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="26" t="s">
         <v>26</v>
       </c>
@@ -8113,7 +8133,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="26" t="s">
         <v>24</v>
       </c>
@@ -8138,7 +8158,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="26" t="s">
         <v>30</v>
       </c>
@@ -8163,7 +8183,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="29"/>
       <c r="B11" s="26" t="s">
         <v>30</v>
@@ -8189,7 +8209,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="26" t="s">
         <v>24</v>
       </c>
@@ -8214,7 +8234,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="26" t="s">
         <v>36</v>
       </c>
@@ -8239,7 +8259,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="26" t="s">
         <v>39</v>
       </c>
@@ -8264,7 +8284,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="26" t="s">
         <v>30</v>
       </c>
@@ -8289,7 +8309,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="26" t="s">
         <v>24</v>
       </c>
@@ -8314,7 +8334,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="26" t="s">
         <v>30</v>
       </c>
@@ -8339,22 +8359,32 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="27">
+        <v>43427</v>
+      </c>
+      <c r="E18" s="28">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F18" s="28">
+        <v>0.77083333333333337</v>
+      </c>
       <c r="G18">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H18">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
       <c r="D19" s="27"/>
@@ -8369,7 +8399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
       <c r="D20" s="27"/>
@@ -8384,7 +8414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
       <c r="D21" s="27"/>
@@ -8399,7 +8429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
       <c r="D22" s="27"/>
@@ -8414,7 +8444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="26"/>
       <c r="C23" s="30"/>
       <c r="D23" s="27"/>
@@ -8429,7 +8459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
       <c r="D24" s="27"/>
@@ -8444,7 +8474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
       <c r="D25" s="27"/>
@@ -8459,7 +8489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
       <c r="D26" s="27"/>
@@ -8474,7 +8504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
       <c r="D27" s="27"/>
@@ -8489,7 +8519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="D28" s="27"/>
@@ -8504,7 +8534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="27"/>
@@ -8519,7 +8549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="27"/>
@@ -8534,7 +8564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="27"/>
@@ -8549,7 +8579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="27"/>
@@ -8564,7 +8594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="27"/>
@@ -8579,7 +8609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="27"/>
@@ -8594,7 +8624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="27"/>
@@ -8609,7 +8639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="27"/>
@@ -8624,7 +8654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="27"/>
@@ -8639,7 +8669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
       <c r="D38" s="27"/>
@@ -8654,7 +8684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="D39" s="27"/>
@@ -8669,7 +8699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
       <c r="D40" s="27"/>
@@ -8684,7 +8714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
       <c r="D41" s="27"/>
@@ -8699,7 +8729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="27"/>
@@ -8714,7 +8744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
       <c r="D43" s="27"/>
@@ -8729,7 +8759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="27"/>
@@ -8744,7 +8774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="27"/>
@@ -8759,7 +8789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="27"/>
@@ -8774,7 +8804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="11"/>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
@@ -8790,7 +8820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="11"/>
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
@@ -8806,7 +8836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="11"/>
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
@@ -8822,7 +8852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="11"/>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
@@ -8838,7 +8868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="11"/>
       <c r="B51"/>
       <c r="C51"/>
@@ -8854,7 +8884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -8870,7 +8900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="11"/>
       <c r="B53" s="50"/>
       <c r="C53" s="11"/>
@@ -8886,7 +8916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="11"/>
       <c r="B54" s="50"/>
       <c r="C54" s="11"/>
@@ -8902,7 +8932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="11"/>
       <c r="B55" s="30"/>
       <c r="C55" s="50"/>
@@ -8918,7 +8948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="11"/>
       <c r="B56" s="50"/>
       <c r="C56" s="11"/>
@@ -8934,7 +8964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="11"/>
       <c r="B57" s="50"/>
       <c r="C57" s="11"/>
@@ -8950,7 +8980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="11"/>
       <c r="B58" s="50"/>
       <c r="C58" s="30"/>
@@ -8966,7 +8996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="11"/>
       <c r="B59" s="50"/>
       <c r="C59" s="11"/>
@@ -8982,7 +9012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="11"/>
       <c r="B60" s="50"/>
       <c r="C60" s="11"/>
@@ -8998,7 +9028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="11"/>
       <c r="B61" s="50"/>
       <c r="C61" s="11"/>
@@ -9014,7 +9044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="11"/>
       <c r="B62" s="50"/>
       <c r="C62" s="11"/>
@@ -9030,7 +9060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="11"/>
       <c r="B63" s="50"/>
       <c r="C63" s="11"/>
@@ -9046,7 +9076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="11"/>
       <c r="B64" s="50"/>
       <c r="C64" s="11"/>
@@ -9062,7 +9092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="11"/>
       <c r="B65" s="50"/>
       <c r="C65" s="11"/>
@@ -9078,7 +9108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="11"/>
       <c r="B66" s="50"/>
       <c r="C66" s="11"/>
@@ -9094,7 +9124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="11"/>
       <c r="B67" s="43" t="s">
         <v>19</v>
@@ -9105,11 +9135,11 @@
       <c r="F67" s="44"/>
       <c r="G67" s="53">
         <f>SUM(G7:G66)</f>
-        <v>26.75</v>
+        <v>32.75</v>
       </c>
       <c r="H67" s="54"/>
     </row>
-    <row r="68" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -9118,7 +9148,7 @@
       <c r="G68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -9127,7 +9157,7 @@
       <c r="G69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -9136,7 +9166,7 @@
       <c r="G70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -9145,7 +9175,7 @@
       <c r="G71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -9154,7 +9184,7 @@
       <c r="G72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -9163,7 +9193,7 @@
       <c r="G73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -9172,7 +9202,7 @@
       <c r="G74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -9181,7 +9211,7 @@
       <c r="G75"/>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -9190,7 +9220,7 @@
       <c r="G76"/>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -9199,7 +9229,7 @@
       <c r="G77"/>
       <c r="H77"/>
     </row>
-    <row r="78" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -9208,7 +9238,7 @@
       <c r="G78"/>
       <c r="H78"/>
     </row>
-    <row r="79" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -9217,7 +9247,7 @@
       <c r="G79"/>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -9226,7 +9256,7 @@
       <c r="G80"/>
       <c r="H80"/>
     </row>
-    <row r="81" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -9235,7 +9265,7 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -9244,7 +9274,7 @@
       <c r="G82"/>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -9253,7 +9283,7 @@
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -9262,7 +9292,7 @@
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -9271,7 +9301,7 @@
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -9280,7 +9310,7 @@
       <c r="G86"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -9289,7 +9319,7 @@
       <c r="G87"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -9298,7 +9328,7 @@
       <c r="G88"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -9307,7 +9337,7 @@
       <c r="G89"/>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -9316,7 +9346,7 @@
       <c r="G90"/>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -9325,7 +9355,7 @@
       <c r="G91"/>
       <c r="H91"/>
     </row>
-    <row r="92" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -9334,7 +9364,7 @@
       <c r="G92"/>
       <c r="H92"/>
     </row>
-    <row r="93" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -9343,7 +9373,7 @@
       <c r="G93"/>
       <c r="H93"/>
     </row>
-    <row r="94" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -9352,7 +9382,7 @@
       <c r="G94"/>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="11"/>
       <c r="B95" s="42"/>
       <c r="C95" s="11"/>
@@ -9361,7 +9391,7 @@
       <c r="G95"/>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -9370,7 +9400,7 @@
       <c r="G96"/>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -9379,7 +9409,7 @@
       <c r="G97"/>
       <c r="H97"/>
     </row>
-    <row r="98" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A98" s="11"/>
       <c r="B98" s="37"/>
       <c r="C98" s="11"/>
@@ -9388,7 +9418,7 @@
       <c r="G98"/>
       <c r="H98"/>
     </row>
-    <row r="99" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -9397,7 +9427,7 @@
       <c r="G99"/>
       <c r="H99"/>
     </row>
-    <row r="100" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="11"/>
       <c r="B100" s="38"/>
       <c r="C100" s="38"/>
@@ -9406,7 +9436,7 @@
       <c r="G100"/>
       <c r="H100"/>
     </row>
-    <row r="101" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -9415,7 +9445,7 @@
       <c r="G101"/>
       <c r="H101"/>
     </row>
-    <row r="102" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -9424,7 +9454,7 @@
       <c r="G102"/>
       <c r="H102"/>
     </row>
-    <row r="103" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -9433,7 +9463,7 @@
       <c r="G103"/>
       <c r="H103"/>
     </row>
-    <row r="104" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -9442,7 +9472,7 @@
       <c r="G104"/>
       <c r="H104"/>
     </row>
-    <row r="105" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -9451,7 +9481,7 @@
       <c r="G105"/>
       <c r="H105"/>
     </row>
-    <row r="106" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -9460,7 +9490,7 @@
       <c r="G106"/>
       <c r="H106"/>
     </row>
-    <row r="107" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -9469,7 +9499,7 @@
       <c r="G107"/>
       <c r="H107"/>
     </row>
-    <row r="108" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -9478,7 +9508,7 @@
       <c r="G108"/>
       <c r="H108"/>
     </row>
-    <row r="109" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -9487,7 +9517,7 @@
       <c r="G109"/>
       <c r="H109"/>
     </row>
-    <row r="110" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -9496,7 +9526,7 @@
       <c r="G110"/>
       <c r="H110"/>
     </row>
-    <row r="111" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -9505,7 +9535,7 @@
       <c r="G111"/>
       <c r="H111"/>
     </row>
-    <row r="112" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -9514,7 +9544,7 @@
       <c r="G112"/>
       <c r="H112"/>
     </row>
-    <row r="113" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
@@ -9523,7 +9553,7 @@
       <c r="G113"/>
       <c r="H113"/>
     </row>
-    <row r="114" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
@@ -9532,7 +9562,7 @@
       <c r="G114"/>
       <c r="H114"/>
     </row>
-    <row r="115" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
@@ -9541,7 +9571,7 @@
       <c r="G115"/>
       <c r="H115"/>
     </row>
-    <row r="116" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
@@ -9550,7 +9580,7 @@
       <c r="G116"/>
       <c r="H116"/>
     </row>
-    <row r="117" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
@@ -9559,7 +9589,7 @@
       <c r="G117"/>
       <c r="H117"/>
     </row>
-    <row r="118" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
@@ -9568,7 +9598,7 @@
       <c r="G118"/>
       <c r="H118"/>
     </row>
-    <row r="119" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
@@ -9577,7 +9607,7 @@
       <c r="G119"/>
       <c r="H119"/>
     </row>
-    <row r="120" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
@@ -9586,7 +9616,7 @@
       <c r="G120"/>
       <c r="H120"/>
     </row>
-    <row r="121" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
@@ -9595,7 +9625,7 @@
       <c r="G121"/>
       <c r="H121"/>
     </row>
-    <row r="122" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="11"/>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
@@ -9604,7 +9634,7 @@
       <c r="G122"/>
       <c r="H122"/>
     </row>
-    <row r="123" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="11"/>
       <c r="B123" s="11"/>
       <c r="C123" s="11"/>
@@ -9613,7 +9643,7 @@
       <c r="G123"/>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="11"/>
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
@@ -9622,7 +9652,7 @@
       <c r="G124"/>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="11"/>
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
@@ -9631,7 +9661,7 @@
       <c r="G125"/>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="11"/>
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
@@ -9640,7 +9670,7 @@
       <c r="G126"/>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="11"/>
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
@@ -9649,7 +9679,7 @@
       <c r="G127"/>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="11"/>
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
@@ -9658,7 +9688,7 @@
       <c r="G128"/>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="11"/>
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
@@ -9667,7 +9697,7 @@
       <c r="G129"/>
       <c r="H129"/>
     </row>
-    <row r="130" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="11"/>
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
@@ -9676,7 +9706,7 @@
       <c r="G130"/>
       <c r="H130"/>
     </row>
-    <row r="131" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="11"/>
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
@@ -9685,7 +9715,7 @@
       <c r="G131"/>
       <c r="H131"/>
     </row>
-    <row r="132" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="11"/>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
@@ -9694,7 +9724,7 @@
       <c r="G132"/>
       <c r="H132"/>
     </row>
-    <row r="133" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="11"/>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
@@ -9703,7 +9733,7 @@
       <c r="G133"/>
       <c r="H133"/>
     </row>
-    <row r="134" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="11"/>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
@@ -9712,7 +9742,7 @@
       <c r="G134"/>
       <c r="H134"/>
     </row>
-    <row r="135" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="11"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
@@ -9721,7 +9751,7 @@
       <c r="G135"/>
       <c r="H135"/>
     </row>
-    <row r="136" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="11"/>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
@@ -9730,7 +9760,7 @@
       <c r="G136"/>
       <c r="H136"/>
     </row>
-    <row r="137" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="11"/>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
@@ -9739,7 +9769,7 @@
       <c r="G137"/>
       <c r="H137"/>
     </row>
-    <row r="138" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="11"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
@@ -9748,7 +9778,7 @@
       <c r="G138"/>
       <c r="H138"/>
     </row>
-    <row r="139" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="11"/>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
@@ -9757,7 +9787,7 @@
       <c r="G139"/>
       <c r="H139"/>
     </row>
-    <row r="140" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="11"/>
       <c r="B140" s="42"/>
       <c r="C140" s="11"/>
@@ -9766,7 +9796,7 @@
       <c r="G140"/>
       <c r="H140"/>
     </row>
-    <row r="141" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="11"/>
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
@@ -9775,7 +9805,7 @@
       <c r="G141"/>
       <c r="H141"/>
     </row>
-    <row r="142" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="11"/>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
@@ -9784,7 +9814,7 @@
       <c r="G142"/>
       <c r="H142"/>
     </row>
-    <row r="143" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A143" s="11"/>
       <c r="B143" s="37"/>
       <c r="C143" s="11"/>
@@ -9793,7 +9823,7 @@
       <c r="G143"/>
       <c r="H143"/>
     </row>
-    <row r="144" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="11"/>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
@@ -9802,7 +9832,7 @@
       <c r="G144"/>
       <c r="H144"/>
     </row>
-    <row r="145" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="11"/>
       <c r="B145" s="38"/>
       <c r="C145" s="38"/>
@@ -9811,7 +9841,7 @@
       <c r="G145"/>
       <c r="H145"/>
     </row>
-    <row r="146" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="11"/>
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
@@ -9820,7 +9850,7 @@
       <c r="G146"/>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="11"/>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
@@ -9829,7 +9859,7 @@
       <c r="G147"/>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="11"/>
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
@@ -9838,7 +9868,7 @@
       <c r="G148"/>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="11"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
@@ -9847,7 +9877,7 @@
       <c r="G149"/>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="11"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
@@ -9856,7 +9886,7 @@
       <c r="G150"/>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="11"/>
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
@@ -9865,7 +9895,7 @@
       <c r="G151"/>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="11"/>
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
@@ -9874,7 +9904,7 @@
       <c r="G152"/>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="11"/>
       <c r="B153" s="11"/>
       <c r="C153" s="11"/>
@@ -9883,7 +9913,7 @@
       <c r="G153"/>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="11"/>
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
@@ -9892,7 +9922,7 @@
       <c r="G154"/>
       <c r="H154"/>
     </row>
-    <row r="155" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="11"/>
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
@@ -9901,7 +9931,7 @@
       <c r="G155"/>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="11"/>
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
@@ -9910,7 +9940,7 @@
       <c r="G156"/>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="11"/>
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
@@ -9919,7 +9949,7 @@
       <c r="G157"/>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="11"/>
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
@@ -9928,7 +9958,7 @@
       <c r="G158"/>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="11"/>
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
@@ -9937,7 +9967,7 @@
       <c r="G159"/>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="11"/>
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
@@ -9946,7 +9976,7 @@
       <c r="G160"/>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="11"/>
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
@@ -9955,7 +9985,7 @@
       <c r="G161"/>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="11"/>
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
@@ -9964,7 +9994,7 @@
       <c r="G162"/>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="11"/>
       <c r="B163" s="11"/>
       <c r="C163" s="11"/>
@@ -9973,7 +10003,7 @@
       <c r="G163"/>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="11"/>
       <c r="B164" s="11"/>
       <c r="C164" s="11"/>
@@ -9982,7 +10012,7 @@
       <c r="G164"/>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="11"/>
       <c r="B165" s="11"/>
       <c r="C165" s="11"/>
@@ -9991,7 +10021,7 @@
       <c r="G165"/>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="11"/>
       <c r="B166" s="11"/>
       <c r="C166" s="11"/>
@@ -10000,7 +10030,7 @@
       <c r="G166"/>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="11"/>
       <c r="B167" s="11"/>
       <c r="C167" s="11"/>
@@ -10009,7 +10039,7 @@
       <c r="G167"/>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="11"/>
       <c r="B168" s="11"/>
       <c r="C168" s="11"/>
@@ -10018,7 +10048,7 @@
       <c r="G168"/>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="11"/>
       <c r="B169" s="11"/>
       <c r="C169" s="11"/>
@@ -10027,7 +10057,7 @@
       <c r="G169"/>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="11"/>
       <c r="B170" s="11"/>
       <c r="C170" s="11"/>
@@ -10036,7 +10066,7 @@
       <c r="G170"/>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="11"/>
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
@@ -10045,7 +10075,7 @@
       <c r="G171"/>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="11"/>
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
@@ -10054,7 +10084,7 @@
       <c r="G172"/>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="11"/>
       <c r="B173" s="11"/>
       <c r="C173" s="11"/>
@@ -10063,7 +10093,7 @@
       <c r="G173"/>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="11"/>
       <c r="B174" s="11"/>
       <c r="C174" s="11"/>
@@ -10072,7 +10102,7 @@
       <c r="G174"/>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="11"/>
       <c r="B175" s="11"/>
       <c r="C175" s="11"/>
@@ -10081,7 +10111,7 @@
       <c r="G175"/>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="11"/>
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
@@ -10090,7 +10120,7 @@
       <c r="G176"/>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="11"/>
       <c r="B177" s="11"/>
       <c r="C177" s="11"/>
@@ -10099,7 +10129,7 @@
       <c r="G177"/>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="11"/>
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
@@ -10108,7 +10138,7 @@
       <c r="G178"/>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="11"/>
       <c r="B179" s="11"/>
       <c r="C179" s="11"/>
@@ -10117,7 +10147,7 @@
       <c r="G179"/>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A180" s="11"/>
       <c r="B180" s="11"/>
       <c r="C180" s="11"/>
@@ -10126,7 +10156,7 @@
       <c r="G180"/>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="11"/>
       <c r="B181" s="11"/>
       <c r="C181" s="11"/>
@@ -10135,7 +10165,7 @@
       <c r="G181"/>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="11"/>
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
@@ -10144,7 +10174,7 @@
       <c r="G182"/>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="11"/>
       <c r="B183" s="11"/>
       <c r="C183" s="11"/>
@@ -10153,7 +10183,7 @@
       <c r="G183"/>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="11"/>
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
@@ -10162,7 +10192,7 @@
       <c r="G184"/>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="11"/>
       <c r="B185" s="42"/>
       <c r="C185" s="11"/>
@@ -10171,7 +10201,7 @@
       <c r="G185"/>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="11"/>
       <c r="B186" s="11"/>
       <c r="C186" s="11"/>
@@ -10180,7 +10210,7 @@
       <c r="G186"/>
       <c r="H186"/>
     </row>
-    <row r="187" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="11"/>
       <c r="B187" s="11"/>
       <c r="C187" s="11"/>
@@ -10189,7 +10219,7 @@
       <c r="G187"/>
       <c r="H187"/>
     </row>
-    <row r="188" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A188" s="11"/>
       <c r="B188" s="37"/>
       <c r="C188" s="11"/>
@@ -10198,7 +10228,7 @@
       <c r="G188"/>
       <c r="H188"/>
     </row>
-    <row r="189" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A189" s="11"/>
       <c r="B189" s="11"/>
       <c r="C189" s="11"/>
@@ -10207,7 +10237,7 @@
       <c r="G189"/>
       <c r="H189"/>
     </row>
-    <row r="190" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="11"/>
       <c r="B190" s="38"/>
       <c r="C190" s="38"/>
@@ -10216,7 +10246,7 @@
       <c r="G190"/>
       <c r="H190"/>
     </row>
-    <row r="191" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="11"/>
       <c r="B191" s="11"/>
       <c r="C191" s="11"/>
@@ -10225,7 +10255,7 @@
       <c r="G191"/>
       <c r="H191"/>
     </row>
-    <row r="192" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="11"/>
       <c r="B192" s="11"/>
       <c r="C192" s="11"/>
@@ -10234,7 +10264,7 @@
       <c r="G192"/>
       <c r="H192"/>
     </row>
-    <row r="193" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="11"/>
       <c r="B193" s="11"/>
       <c r="C193" s="11"/>
@@ -10243,7 +10273,7 @@
       <c r="G193"/>
       <c r="H193"/>
     </row>
-    <row r="194" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="11"/>
       <c r="B194" s="11"/>
       <c r="C194" s="11"/>
@@ -10252,7 +10282,7 @@
       <c r="G194"/>
       <c r="H194"/>
     </row>
-    <row r="195" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="11"/>
       <c r="B195" s="11"/>
       <c r="C195" s="11"/>
@@ -10261,7 +10291,7 @@
       <c r="G195"/>
       <c r="H195"/>
     </row>
-    <row r="196" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="11"/>
       <c r="B196" s="11"/>
       <c r="C196" s="11"/>
@@ -10270,7 +10300,7 @@
       <c r="G196"/>
       <c r="H196"/>
     </row>
-    <row r="197" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="11"/>
       <c r="B197" s="11"/>
       <c r="C197" s="11"/>
@@ -10279,7 +10309,7 @@
       <c r="G197"/>
       <c r="H197"/>
     </row>
-    <row r="198" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="11"/>
       <c r="B198" s="11"/>
       <c r="C198" s="11"/>
@@ -10288,7 +10318,7 @@
       <c r="G198"/>
       <c r="H198"/>
     </row>
-    <row r="199" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="11"/>
       <c r="B199" s="11"/>
       <c r="C199" s="11"/>
@@ -10297,7 +10327,7 @@
       <c r="G199"/>
       <c r="H199"/>
     </row>
-    <row r="200" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="11"/>
       <c r="B200" s="11"/>
       <c r="C200" s="11"/>
@@ -10306,7 +10336,7 @@
       <c r="G200"/>
       <c r="H200"/>
     </row>
-    <row r="201" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="11"/>
       <c r="B201" s="11"/>
       <c r="C201" s="11"/>
@@ -10315,7 +10345,7 @@
       <c r="G201"/>
       <c r="H201"/>
     </row>
-    <row r="202" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="11"/>
       <c r="B202" s="11"/>
       <c r="C202" s="11"/>
@@ -10324,7 +10354,7 @@
       <c r="G202"/>
       <c r="H202"/>
     </row>
-    <row r="203" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="11"/>
       <c r="B203" s="11"/>
       <c r="C203" s="11"/>
@@ -10333,7 +10363,7 @@
       <c r="G203"/>
       <c r="H203"/>
     </row>
-    <row r="204" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="11"/>
       <c r="B204" s="11"/>
       <c r="C204" s="11"/>
@@ -10342,7 +10372,7 @@
       <c r="G204"/>
       <c r="H204"/>
     </row>
-    <row r="205" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="11"/>
       <c r="B205" s="11"/>
       <c r="C205" s="11"/>
@@ -10351,7 +10381,7 @@
       <c r="G205"/>
       <c r="H205"/>
     </row>
-    <row r="206" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="11"/>
       <c r="B206" s="11"/>
       <c r="C206" s="11"/>
@@ -10360,7 +10390,7 @@
       <c r="G206"/>
       <c r="H206"/>
     </row>
-    <row r="207" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A207" s="11"/>
       <c r="B207" s="11"/>
       <c r="C207" s="11"/>
@@ -10369,7 +10399,7 @@
       <c r="G207"/>
       <c r="H207"/>
     </row>
-    <row r="208" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="11"/>
       <c r="B208" s="11"/>
       <c r="C208" s="11"/>
@@ -10378,7 +10408,7 @@
       <c r="G208"/>
       <c r="H208"/>
     </row>
-    <row r="209" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="11"/>
       <c r="B209" s="11"/>
       <c r="C209" s="11"/>
@@ -10387,7 +10417,7 @@
       <c r="G209"/>
       <c r="H209"/>
     </row>
-    <row r="210" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="11"/>
       <c r="B210" s="11"/>
       <c r="C210" s="11"/>
@@ -10396,7 +10426,7 @@
       <c r="G210"/>
       <c r="H210"/>
     </row>
-    <row r="211" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="11"/>
       <c r="B211" s="11"/>
       <c r="C211" s="11"/>
@@ -10405,7 +10435,7 @@
       <c r="G211"/>
       <c r="H211"/>
     </row>
-    <row r="212" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="11"/>
       <c r="B212" s="11"/>
       <c r="C212" s="11"/>
@@ -10414,7 +10444,7 @@
       <c r="G212"/>
       <c r="H212"/>
     </row>
-    <row r="213" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="11"/>
       <c r="B213" s="11"/>
       <c r="C213" s="11"/>
@@ -10423,7 +10453,7 @@
       <c r="G213"/>
       <c r="H213"/>
     </row>
-    <row r="214" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="11"/>
       <c r="B214" s="11"/>
       <c r="C214" s="11"/>
@@ -10432,7 +10462,7 @@
       <c r="G214"/>
       <c r="H214"/>
     </row>
-    <row r="215" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="11"/>
       <c r="B215" s="11"/>
       <c r="C215" s="11"/>
@@ -10441,7 +10471,7 @@
       <c r="G215"/>
       <c r="H215"/>
     </row>
-    <row r="216" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="11"/>
       <c r="B216" s="11"/>
       <c r="C216" s="11"/>
@@ -10450,7 +10480,7 @@
       <c r="G216"/>
       <c r="H216"/>
     </row>
-    <row r="217" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A217" s="11"/>
       <c r="B217" s="11"/>
       <c r="C217" s="11"/>
@@ -10459,7 +10489,7 @@
       <c r="G217"/>
       <c r="H217"/>
     </row>
-    <row r="218" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="11"/>
       <c r="B218" s="11"/>
       <c r="C218" s="11"/>
@@ -10468,7 +10498,7 @@
       <c r="G218"/>
       <c r="H218"/>
     </row>
-    <row r="219" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="11"/>
       <c r="B219" s="11"/>
       <c r="C219" s="11"/>
@@ -10477,7 +10507,7 @@
       <c r="G219"/>
       <c r="H219"/>
     </row>
-    <row r="220" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="11"/>
       <c r="B220" s="11"/>
       <c r="C220" s="11"/>
@@ -10486,7 +10516,7 @@
       <c r="G220"/>
       <c r="H220"/>
     </row>
-    <row r="221" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="11"/>
       <c r="B221" s="11"/>
       <c r="C221" s="11"/>
@@ -10495,7 +10525,7 @@
       <c r="G221"/>
       <c r="H221"/>
     </row>
-    <row r="222" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="11"/>
       <c r="B222" s="11"/>
       <c r="C222" s="11"/>
@@ -10504,7 +10534,7 @@
       <c r="G222"/>
       <c r="H222"/>
     </row>
-    <row r="223" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="11"/>
       <c r="B223" s="11"/>
       <c r="C223" s="11"/>
@@ -10513,31 +10543,31 @@
       <c r="G223"/>
       <c r="H223"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="11"/>
       <c r="B224" s="11"/>
       <c r="C224" s="11"/>
       <c r="D224" s="40"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="11"/>
       <c r="B225" s="11"/>
       <c r="C225" s="11"/>
       <c r="D225" s="40"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="11"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="11"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="11"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="11"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="11"/>
     </row>
   </sheetData>
@@ -10553,36 +10583,36 @@
   <dimension ref="A2:H230"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:F19"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="19" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="3" max="3" width="75.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B2" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B3" s="17"/>
       <c r="C3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="20" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="19"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="22" t="s">
         <v>13</v>
       </c>
@@ -10605,7 +10635,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="26" t="s">
         <v>24</v>
       </c>
@@ -10630,7 +10660,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="26" t="s">
         <v>26</v>
       </c>
@@ -10655,7 +10685,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="26" t="s">
         <v>24</v>
       </c>
@@ -10680,7 +10710,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="29"/>
       <c r="B10" s="26" t="s">
         <v>30</v>
@@ -10706,7 +10736,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" s="26" t="s">
         <v>30</v>
       </c>
@@ -10731,7 +10761,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="26" t="s">
         <v>24</v>
       </c>
@@ -10756,7 +10786,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="26" t="s">
         <v>30</v>
       </c>
@@ -10781,7 +10811,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="26" t="s">
         <v>24</v>
       </c>
@@ -10806,7 +10836,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="26" t="s">
         <v>36</v>
       </c>
@@ -10831,7 +10861,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="26" t="s">
         <v>30</v>
       </c>
@@ -10856,7 +10886,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="26" t="s">
         <v>30</v>
       </c>
@@ -10881,7 +10911,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="26" t="s">
         <v>24</v>
       </c>
@@ -10906,7 +10936,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="26" t="s">
         <v>30</v>
       </c>
@@ -10931,22 +10961,32 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="27">
+        <v>43427</v>
+      </c>
+      <c r="E20" s="28">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F20" s="28">
+        <v>0.77083333333333337</v>
+      </c>
       <c r="G20">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H20">
         <f>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
       <c r="D21" s="27"/>
@@ -10961,7 +11001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
       <c r="D22" s="27"/>
@@ -10976,7 +11016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
       <c r="D23" s="27"/>
@@ -10991,7 +11031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
       <c r="D24" s="27"/>
@@ -11006,7 +11046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="D25" s="27"/>
@@ -11021,7 +11061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
       <c r="D26" s="27"/>
@@ -11036,7 +11076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
       <c r="D27" s="27"/>
@@ -11051,7 +11091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="D28" s="27"/>
@@ -11066,7 +11106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="27"/>
@@ -11081,7 +11121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="27"/>
@@ -11096,7 +11136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="27"/>
@@ -11111,7 +11151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="27"/>
@@ -11126,7 +11166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="27"/>
@@ -11141,7 +11181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="27"/>
@@ -11156,7 +11196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="27"/>
@@ -11171,7 +11211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="27"/>
@@ -11186,7 +11226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="27"/>
@@ -11201,7 +11241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
       <c r="D38" s="27"/>
@@ -11216,7 +11256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="D39" s="27"/>
@@ -11231,7 +11271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
       <c r="D40" s="27"/>
@@ -11246,7 +11286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
       <c r="D41" s="27"/>
@@ -11261,7 +11301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="27"/>
@@ -11276,7 +11316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
       <c r="D43" s="27"/>
@@ -11291,7 +11331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="27"/>
@@ -11306,7 +11346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="27"/>
@@ -11321,7 +11361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="27"/>
@@ -11336,7 +11376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="11"/>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
@@ -11352,7 +11392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="11"/>
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
@@ -11368,7 +11408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="11"/>
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
@@ -11384,7 +11424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="11"/>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
@@ -11400,7 +11440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="11"/>
       <c r="B51" s="35" t="s">
         <v>19</v>
@@ -11411,11 +11451,11 @@
       <c r="F51" s="36"/>
       <c r="G51">
         <f>SUM(G7:G50)</f>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="11"/>
       <c r="B52"/>
       <c r="C52"/>
@@ -11424,7 +11464,7 @@
       <c r="G52"/>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -11433,7 +11473,7 @@
       <c r="G53"/>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" s="11"/>
       <c r="B54" s="37"/>
       <c r="C54" s="11"/>
@@ -11442,7 +11482,7 @@
       <c r="G54"/>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -11451,7 +11491,7 @@
       <c r="G55"/>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="11"/>
       <c r="B56" s="38"/>
       <c r="C56" s="38"/>
@@ -11460,7 +11500,7 @@
       <c r="G56"/>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -11469,7 +11509,7 @@
       <c r="G57"/>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -11478,7 +11518,7 @@
       <c r="G58"/>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -11487,7 +11527,7 @@
       <c r="G59"/>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -11496,7 +11536,7 @@
       <c r="G60"/>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -11505,7 +11545,7 @@
       <c r="G61"/>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -11514,7 +11554,7 @@
       <c r="G62"/>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -11523,7 +11563,7 @@
       <c r="G63"/>
       <c r="H63"/>
     </row>
-    <row r="64" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="11"/>
       <c r="B64" s="41"/>
       <c r="C64" s="11"/>
@@ -11532,7 +11572,7 @@
       <c r="G64"/>
       <c r="H64"/>
     </row>
-    <row r="65" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -11541,7 +11581,7 @@
       <c r="G65"/>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -11550,7 +11590,7 @@
       <c r="G66"/>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -11559,7 +11599,7 @@
       <c r="G67"/>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -11568,7 +11608,7 @@
       <c r="G68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -11577,7 +11617,7 @@
       <c r="G69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -11586,7 +11626,7 @@
       <c r="G70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -11595,7 +11635,7 @@
       <c r="G71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -11604,7 +11644,7 @@
       <c r="G72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -11613,7 +11653,7 @@
       <c r="G73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -11622,7 +11662,7 @@
       <c r="G74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -11631,7 +11671,7 @@
       <c r="G75"/>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -11640,7 +11680,7 @@
       <c r="G76"/>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -11649,7 +11689,7 @@
       <c r="G77"/>
       <c r="H77"/>
     </row>
-    <row r="78" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -11658,7 +11698,7 @@
       <c r="G78"/>
       <c r="H78"/>
     </row>
-    <row r="79" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -11667,7 +11707,7 @@
       <c r="G79"/>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -11676,7 +11716,7 @@
       <c r="G80"/>
       <c r="H80"/>
     </row>
-    <row r="81" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -11685,7 +11725,7 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -11694,7 +11734,7 @@
       <c r="G82"/>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -11703,7 +11743,7 @@
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -11712,7 +11752,7 @@
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -11721,7 +11761,7 @@
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -11730,7 +11770,7 @@
       <c r="G86"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -11739,7 +11779,7 @@
       <c r="G87"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -11748,7 +11788,7 @@
       <c r="G88"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -11757,7 +11797,7 @@
       <c r="G89"/>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -11766,7 +11806,7 @@
       <c r="G90"/>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -11775,7 +11815,7 @@
       <c r="G91"/>
       <c r="H91"/>
     </row>
-    <row r="92" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -11784,7 +11824,7 @@
       <c r="G92"/>
       <c r="H92"/>
     </row>
-    <row r="93" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -11793,7 +11833,7 @@
       <c r="G93"/>
       <c r="H93"/>
     </row>
-    <row r="94" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -11802,7 +11842,7 @@
       <c r="G94"/>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -11811,7 +11851,7 @@
       <c r="G95"/>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="11"/>
       <c r="B96" s="42"/>
       <c r="C96" s="11"/>
@@ -11820,7 +11860,7 @@
       <c r="G96"/>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -11829,7 +11869,7 @@
       <c r="G97"/>
       <c r="H97"/>
     </row>
-    <row r="98" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -11838,7 +11878,7 @@
       <c r="G98"/>
       <c r="H98"/>
     </row>
-    <row r="99" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A99" s="11"/>
       <c r="B99" s="37"/>
       <c r="C99" s="11"/>
@@ -11847,7 +11887,7 @@
       <c r="G99"/>
       <c r="H99"/>
     </row>
-    <row r="100" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -11856,7 +11896,7 @@
       <c r="G100"/>
       <c r="H100"/>
     </row>
-    <row r="101" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="11"/>
       <c r="B101" s="38"/>
       <c r="C101" s="38"/>
@@ -11865,7 +11905,7 @@
       <c r="G101"/>
       <c r="H101"/>
     </row>
-    <row r="102" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -11874,7 +11914,7 @@
       <c r="G102"/>
       <c r="H102"/>
     </row>
-    <row r="103" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -11883,7 +11923,7 @@
       <c r="G103"/>
       <c r="H103"/>
     </row>
-    <row r="104" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -11892,7 +11932,7 @@
       <c r="G104"/>
       <c r="H104"/>
     </row>
-    <row r="105" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -11901,7 +11941,7 @@
       <c r="G105"/>
       <c r="H105"/>
     </row>
-    <row r="106" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -11910,7 +11950,7 @@
       <c r="G106"/>
       <c r="H106"/>
     </row>
-    <row r="107" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -11919,7 +11959,7 @@
       <c r="G107"/>
       <c r="H107"/>
     </row>
-    <row r="108" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -11928,7 +11968,7 @@
       <c r="G108"/>
       <c r="H108"/>
     </row>
-    <row r="109" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -11937,7 +11977,7 @@
       <c r="G109"/>
       <c r="H109"/>
     </row>
-    <row r="110" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -11946,7 +11986,7 @@
       <c r="G110"/>
       <c r="H110"/>
     </row>
-    <row r="111" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -11955,7 +11995,7 @@
       <c r="G111"/>
       <c r="H111"/>
     </row>
-    <row r="112" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -11964,7 +12004,7 @@
       <c r="G112"/>
       <c r="H112"/>
     </row>
-    <row r="113" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
@@ -11973,7 +12013,7 @@
       <c r="G113"/>
       <c r="H113"/>
     </row>
-    <row r="114" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
@@ -11982,7 +12022,7 @@
       <c r="G114"/>
       <c r="H114"/>
     </row>
-    <row r="115" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
@@ -11991,7 +12031,7 @@
       <c r="G115"/>
       <c r="H115"/>
     </row>
-    <row r="116" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
@@ -12000,7 +12040,7 @@
       <c r="G116"/>
       <c r="H116"/>
     </row>
-    <row r="117" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
@@ -12009,7 +12049,7 @@
       <c r="G117"/>
       <c r="H117"/>
     </row>
-    <row r="118" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
@@ -12018,7 +12058,7 @@
       <c r="G118"/>
       <c r="H118"/>
     </row>
-    <row r="119" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
@@ -12027,7 +12067,7 @@
       <c r="G119"/>
       <c r="H119"/>
     </row>
-    <row r="120" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
@@ -12036,7 +12076,7 @@
       <c r="G120"/>
       <c r="H120"/>
     </row>
-    <row r="121" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
@@ -12045,7 +12085,7 @@
       <c r="G121"/>
       <c r="H121"/>
     </row>
-    <row r="122" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="11"/>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
@@ -12054,7 +12094,7 @@
       <c r="G122"/>
       <c r="H122"/>
     </row>
-    <row r="123" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="11"/>
       <c r="B123" s="11"/>
       <c r="C123" s="11"/>
@@ -12063,7 +12103,7 @@
       <c r="G123"/>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="11"/>
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
@@ -12072,7 +12112,7 @@
       <c r="G124"/>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="11"/>
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
@@ -12081,7 +12121,7 @@
       <c r="G125"/>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="11"/>
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
@@ -12090,7 +12130,7 @@
       <c r="G126"/>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="11"/>
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
@@ -12099,7 +12139,7 @@
       <c r="G127"/>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="11"/>
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
@@ -12108,7 +12148,7 @@
       <c r="G128"/>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="11"/>
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
@@ -12117,7 +12157,7 @@
       <c r="G129"/>
       <c r="H129"/>
     </row>
-    <row r="130" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="11"/>
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
@@ -12126,7 +12166,7 @@
       <c r="G130"/>
       <c r="H130"/>
     </row>
-    <row r="131" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="11"/>
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
@@ -12135,7 +12175,7 @@
       <c r="G131"/>
       <c r="H131"/>
     </row>
-    <row r="132" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="11"/>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
@@ -12144,7 +12184,7 @@
       <c r="G132"/>
       <c r="H132"/>
     </row>
-    <row r="133" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="11"/>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
@@ -12153,7 +12193,7 @@
       <c r="G133"/>
       <c r="H133"/>
     </row>
-    <row r="134" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="11"/>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
@@ -12162,7 +12202,7 @@
       <c r="G134"/>
       <c r="H134"/>
     </row>
-    <row r="135" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="11"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
@@ -12171,7 +12211,7 @@
       <c r="G135"/>
       <c r="H135"/>
     </row>
-    <row r="136" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="11"/>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
@@ -12180,7 +12220,7 @@
       <c r="G136"/>
       <c r="H136"/>
     </row>
-    <row r="137" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="11"/>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
@@ -12189,7 +12229,7 @@
       <c r="G137"/>
       <c r="H137"/>
     </row>
-    <row r="138" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="11"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
@@ -12198,7 +12238,7 @@
       <c r="G138"/>
       <c r="H138"/>
     </row>
-    <row r="139" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="11"/>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
@@ -12207,7 +12247,7 @@
       <c r="G139"/>
       <c r="H139"/>
     </row>
-    <row r="140" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="11"/>
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
@@ -12216,7 +12256,7 @@
       <c r="G140"/>
       <c r="H140"/>
     </row>
-    <row r="141" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="11"/>
       <c r="B141" s="42"/>
       <c r="C141" s="11"/>
@@ -12225,7 +12265,7 @@
       <c r="G141"/>
       <c r="H141"/>
     </row>
-    <row r="142" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="11"/>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
@@ -12234,7 +12274,7 @@
       <c r="G142"/>
       <c r="H142"/>
     </row>
-    <row r="143" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="11"/>
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
@@ -12243,7 +12283,7 @@
       <c r="G143"/>
       <c r="H143"/>
     </row>
-    <row r="144" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A144" s="11"/>
       <c r="B144" s="37"/>
       <c r="C144" s="11"/>
@@ -12252,7 +12292,7 @@
       <c r="G144"/>
       <c r="H144"/>
     </row>
-    <row r="145" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="11"/>
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
@@ -12261,7 +12301,7 @@
       <c r="G145"/>
       <c r="H145"/>
     </row>
-    <row r="146" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="11"/>
       <c r="B146" s="38"/>
       <c r="C146" s="38"/>
@@ -12270,7 +12310,7 @@
       <c r="G146"/>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="11"/>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
@@ -12279,7 +12319,7 @@
       <c r="G147"/>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="11"/>
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
@@ -12288,7 +12328,7 @@
       <c r="G148"/>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="11"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
@@ -12297,7 +12337,7 @@
       <c r="G149"/>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="11"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
@@ -12306,7 +12346,7 @@
       <c r="G150"/>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="11"/>
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
@@ -12315,7 +12355,7 @@
       <c r="G151"/>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="11"/>
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
@@ -12324,7 +12364,7 @@
       <c r="G152"/>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="11"/>
       <c r="B153" s="11"/>
       <c r="C153" s="11"/>
@@ -12333,7 +12373,7 @@
       <c r="G153"/>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="11"/>
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
@@ -12342,7 +12382,7 @@
       <c r="G154"/>
       <c r="H154"/>
     </row>
-    <row r="155" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="11"/>
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
@@ -12351,7 +12391,7 @@
       <c r="G155"/>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="11"/>
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
@@ -12360,7 +12400,7 @@
       <c r="G156"/>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="11"/>
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
@@ -12369,7 +12409,7 @@
       <c r="G157"/>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="11"/>
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
@@ -12378,7 +12418,7 @@
       <c r="G158"/>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="11"/>
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
@@ -12387,7 +12427,7 @@
       <c r="G159"/>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="11"/>
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
@@ -12396,7 +12436,7 @@
       <c r="G160"/>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="11"/>
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
@@ -12405,7 +12445,7 @@
       <c r="G161"/>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="11"/>
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
@@ -12414,7 +12454,7 @@
       <c r="G162"/>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="11"/>
       <c r="B163" s="11"/>
       <c r="C163" s="11"/>
@@ -12423,7 +12463,7 @@
       <c r="G163"/>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="11"/>
       <c r="B164" s="11"/>
       <c r="C164" s="11"/>
@@ -12432,7 +12472,7 @@
       <c r="G164"/>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="11"/>
       <c r="B165" s="11"/>
       <c r="C165" s="11"/>
@@ -12441,7 +12481,7 @@
       <c r="G165"/>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="11"/>
       <c r="B166" s="11"/>
       <c r="C166" s="11"/>
@@ -12450,7 +12490,7 @@
       <c r="G166"/>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="11"/>
       <c r="B167" s="11"/>
       <c r="C167" s="11"/>
@@ -12459,7 +12499,7 @@
       <c r="G167"/>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="11"/>
       <c r="B168" s="11"/>
       <c r="C168" s="11"/>
@@ -12468,7 +12508,7 @@
       <c r="G168"/>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="11"/>
       <c r="B169" s="11"/>
       <c r="C169" s="11"/>
@@ -12477,7 +12517,7 @@
       <c r="G169"/>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="11"/>
       <c r="B170" s="11"/>
       <c r="C170" s="11"/>
@@ -12486,7 +12526,7 @@
       <c r="G170"/>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="11"/>
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
@@ -12495,7 +12535,7 @@
       <c r="G171"/>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="11"/>
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
@@ -12504,7 +12544,7 @@
       <c r="G172"/>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="11"/>
       <c r="B173" s="11"/>
       <c r="C173" s="11"/>
@@ -12513,7 +12553,7 @@
       <c r="G173"/>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="11"/>
       <c r="B174" s="11"/>
       <c r="C174" s="11"/>
@@ -12522,7 +12562,7 @@
       <c r="G174"/>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="11"/>
       <c r="B175" s="11"/>
       <c r="C175" s="11"/>
@@ -12531,7 +12571,7 @@
       <c r="G175"/>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="11"/>
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
@@ -12540,7 +12580,7 @@
       <c r="G176"/>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="11"/>
       <c r="B177" s="11"/>
       <c r="C177" s="11"/>
@@ -12549,7 +12589,7 @@
       <c r="G177"/>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="11"/>
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
@@ -12558,7 +12598,7 @@
       <c r="G178"/>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="11"/>
       <c r="B179" s="11"/>
       <c r="C179" s="11"/>
@@ -12567,7 +12607,7 @@
       <c r="G179"/>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A180" s="11"/>
       <c r="B180" s="11"/>
       <c r="C180" s="11"/>
@@ -12576,7 +12616,7 @@
       <c r="G180"/>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="11"/>
       <c r="B181" s="11"/>
       <c r="C181" s="11"/>
@@ -12585,7 +12625,7 @@
       <c r="G181"/>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="11"/>
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
@@ -12594,7 +12634,7 @@
       <c r="G182"/>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="11"/>
       <c r="B183" s="11"/>
       <c r="C183" s="11"/>
@@ -12603,7 +12643,7 @@
       <c r="G183"/>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="11"/>
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
@@ -12612,7 +12652,7 @@
       <c r="G184"/>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="11"/>
       <c r="B185" s="11"/>
       <c r="C185" s="11"/>
@@ -12621,7 +12661,7 @@
       <c r="G185"/>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="11"/>
       <c r="B186" s="42"/>
       <c r="C186" s="11"/>
@@ -12630,7 +12670,7 @@
       <c r="G186"/>
       <c r="H186"/>
     </row>
-    <row r="187" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="11"/>
       <c r="B187" s="11"/>
       <c r="C187" s="11"/>
@@ -12639,7 +12679,7 @@
       <c r="G187"/>
       <c r="H187"/>
     </row>
-    <row r="188" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="11"/>
       <c r="B188" s="11"/>
       <c r="C188" s="11"/>
@@ -12648,7 +12688,7 @@
       <c r="G188"/>
       <c r="H188"/>
     </row>
-    <row r="189" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A189" s="11"/>
       <c r="B189" s="37"/>
       <c r="C189" s="11"/>
@@ -12657,7 +12697,7 @@
       <c r="G189"/>
       <c r="H189"/>
     </row>
-    <row r="190" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="11"/>
       <c r="B190" s="11"/>
       <c r="C190" s="11"/>
@@ -12666,7 +12706,7 @@
       <c r="G190"/>
       <c r="H190"/>
     </row>
-    <row r="191" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="11"/>
       <c r="B191" s="38"/>
       <c r="C191" s="38"/>
@@ -12675,7 +12715,7 @@
       <c r="G191"/>
       <c r="H191"/>
     </row>
-    <row r="192" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="11"/>
       <c r="B192" s="11"/>
       <c r="C192" s="11"/>
@@ -12684,7 +12724,7 @@
       <c r="G192"/>
       <c r="H192"/>
     </row>
-    <row r="193" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="11"/>
       <c r="B193" s="11"/>
       <c r="C193" s="11"/>
@@ -12693,7 +12733,7 @@
       <c r="G193"/>
       <c r="H193"/>
     </row>
-    <row r="194" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="11"/>
       <c r="B194" s="11"/>
       <c r="C194" s="11"/>
@@ -12702,7 +12742,7 @@
       <c r="G194"/>
       <c r="H194"/>
     </row>
-    <row r="195" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="11"/>
       <c r="B195" s="11"/>
       <c r="C195" s="11"/>
@@ -12711,7 +12751,7 @@
       <c r="G195"/>
       <c r="H195"/>
     </row>
-    <row r="196" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="11"/>
       <c r="B196" s="11"/>
       <c r="C196" s="11"/>
@@ -12720,7 +12760,7 @@
       <c r="G196"/>
       <c r="H196"/>
     </row>
-    <row r="197" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="11"/>
       <c r="B197" s="11"/>
       <c r="C197" s="11"/>
@@ -12729,7 +12769,7 @@
       <c r="G197"/>
       <c r="H197"/>
     </row>
-    <row r="198" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="11"/>
       <c r="B198" s="11"/>
       <c r="C198" s="11"/>
@@ -12738,7 +12778,7 @@
       <c r="G198"/>
       <c r="H198"/>
     </row>
-    <row r="199" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="11"/>
       <c r="B199" s="11"/>
       <c r="C199" s="11"/>
@@ -12747,7 +12787,7 @@
       <c r="G199"/>
       <c r="H199"/>
     </row>
-    <row r="200" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="11"/>
       <c r="B200" s="11"/>
       <c r="C200" s="11"/>
@@ -12756,7 +12796,7 @@
       <c r="G200"/>
       <c r="H200"/>
     </row>
-    <row r="201" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="11"/>
       <c r="B201" s="11"/>
       <c r="C201" s="11"/>
@@ -12765,7 +12805,7 @@
       <c r="G201"/>
       <c r="H201"/>
     </row>
-    <row r="202" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="11"/>
       <c r="B202" s="11"/>
       <c r="C202" s="11"/>
@@ -12774,7 +12814,7 @@
       <c r="G202"/>
       <c r="H202"/>
     </row>
-    <row r="203" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="11"/>
       <c r="B203" s="11"/>
       <c r="C203" s="11"/>
@@ -12783,7 +12823,7 @@
       <c r="G203"/>
       <c r="H203"/>
     </row>
-    <row r="204" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="11"/>
       <c r="B204" s="11"/>
       <c r="C204" s="11"/>
@@ -12792,7 +12832,7 @@
       <c r="G204"/>
       <c r="H204"/>
     </row>
-    <row r="205" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="11"/>
       <c r="B205" s="11"/>
       <c r="C205" s="11"/>
@@ -12801,7 +12841,7 @@
       <c r="G205"/>
       <c r="H205"/>
     </row>
-    <row r="206" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="11"/>
       <c r="B206" s="11"/>
       <c r="C206" s="11"/>
@@ -12810,7 +12850,7 @@
       <c r="G206"/>
       <c r="H206"/>
     </row>
-    <row r="207" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A207" s="11"/>
       <c r="B207" s="11"/>
       <c r="C207" s="11"/>
@@ -12819,7 +12859,7 @@
       <c r="G207"/>
       <c r="H207"/>
     </row>
-    <row r="208" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="11"/>
       <c r="B208" s="11"/>
       <c r="C208" s="11"/>
@@ -12828,7 +12868,7 @@
       <c r="G208"/>
       <c r="H208"/>
     </row>
-    <row r="209" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="11"/>
       <c r="B209" s="11"/>
       <c r="C209" s="11"/>
@@ -12837,7 +12877,7 @@
       <c r="G209"/>
       <c r="H209"/>
     </row>
-    <row r="210" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="11"/>
       <c r="B210" s="11"/>
       <c r="C210" s="11"/>
@@ -12846,7 +12886,7 @@
       <c r="G210"/>
       <c r="H210"/>
     </row>
-    <row r="211" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="11"/>
       <c r="B211" s="11"/>
       <c r="C211" s="11"/>
@@ -12855,7 +12895,7 @@
       <c r="G211"/>
       <c r="H211"/>
     </row>
-    <row r="212" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="11"/>
       <c r="B212" s="11"/>
       <c r="C212" s="11"/>
@@ -12864,7 +12904,7 @@
       <c r="G212"/>
       <c r="H212"/>
     </row>
-    <row r="213" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="11"/>
       <c r="B213" s="11"/>
       <c r="C213" s="11"/>
@@ -12873,7 +12913,7 @@
       <c r="G213"/>
       <c r="H213"/>
     </row>
-    <row r="214" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="11"/>
       <c r="B214" s="11"/>
       <c r="C214" s="11"/>
@@ -12882,7 +12922,7 @@
       <c r="G214"/>
       <c r="H214"/>
     </row>
-    <row r="215" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="11"/>
       <c r="B215" s="11"/>
       <c r="C215" s="11"/>
@@ -12891,7 +12931,7 @@
       <c r="G215"/>
       <c r="H215"/>
     </row>
-    <row r="216" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="11"/>
       <c r="B216" s="11"/>
       <c r="C216" s="11"/>
@@ -12900,7 +12940,7 @@
       <c r="G216"/>
       <c r="H216"/>
     </row>
-    <row r="217" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A217" s="11"/>
       <c r="B217" s="11"/>
       <c r="C217" s="11"/>
@@ -12909,7 +12949,7 @@
       <c r="G217"/>
       <c r="H217"/>
     </row>
-    <row r="218" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="11"/>
       <c r="B218" s="11"/>
       <c r="C218" s="11"/>
@@ -12918,7 +12958,7 @@
       <c r="G218"/>
       <c r="H218"/>
     </row>
-    <row r="219" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="11"/>
       <c r="B219" s="11"/>
       <c r="C219" s="11"/>
@@ -12927,7 +12967,7 @@
       <c r="G219"/>
       <c r="H219"/>
     </row>
-    <row r="220" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="11"/>
       <c r="B220" s="11"/>
       <c r="C220" s="11"/>
@@ -12936,7 +12976,7 @@
       <c r="G220"/>
       <c r="H220"/>
     </row>
-    <row r="221" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="11"/>
       <c r="B221" s="11"/>
       <c r="C221" s="11"/>
@@ -12945,7 +12985,7 @@
       <c r="G221"/>
       <c r="H221"/>
     </row>
-    <row r="222" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="11"/>
       <c r="B222" s="11"/>
       <c r="C222" s="11"/>
@@ -12954,7 +12994,7 @@
       <c r="G222"/>
       <c r="H222"/>
     </row>
-    <row r="223" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="11"/>
       <c r="B223" s="11"/>
       <c r="C223" s="11"/>
@@ -12963,34 +13003,34 @@
       <c r="G223"/>
       <c r="H223"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="11"/>
       <c r="B224" s="11"/>
       <c r="C224" s="11"/>
       <c r="D224" s="40"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="11"/>
       <c r="B225" s="11"/>
       <c r="C225" s="11"/>
       <c r="D225" s="40"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="11"/>
       <c r="B226" s="11"/>
       <c r="C226" s="11"/>
       <c r="D226" s="40"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="11"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="11"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="11"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="11"/>
     </row>
   </sheetData>

--- a/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
+++ b/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomic\Documents\GitHub\258321_DKE_PR\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Documents\GitHub\258321_DKE_PR\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFB17C0-5040-4186-A571-CAB7DBD9EAA3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BC56B5BA-359C-4542-8BE0-314DCDFEA6F6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20016" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20010" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung_Gesamt" sheetId="1" r:id="rId1"/>
@@ -165,9 +165,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="hh:mm;@"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -409,18 +409,18 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -436,20 +436,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -469,7 +469,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -481,11 +481,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -510,20 +510,20 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -548,8 +548,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -664,7 +664,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -854,7 +854,7 @@
             <c:numRef>
               <c:f>Zeiterfassung_Gesamt!$A$4:$D$4</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-* #\ ##0.00\ _€_-;\-* #\ ##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>39.5</c:v>
@@ -974,7 +974,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1050,7 +1050,7 @@
             <c:numRef>
               <c:f>Zeiterfassung_Gesamt!$F$26:$F$43</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-* #\ ##0.00\ _€_-;\-* #\ ##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
@@ -1200,7 +1200,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="_-* #\ ##0.00\ _€_-;\-* #\ ##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2556,7 +2556,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2854,25 +2854,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K45"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="2" max="2" width="15.5546875" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="28.109375" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="41.5546875" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="28.140625" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="41.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
         <v>4</v>
       </c>
@@ -2884,7 +2884,7 @@
       <c r="H2" s="55"/>
       <c r="I2" s="55"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -2901,7 +2901,7 @@
       <c r="H3" s="55"/>
       <c r="I3" s="55"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>B44</f>
         <v>39.5</v>
@@ -2923,12 +2923,12 @@
       <c r="H4" s="55"/>
       <c r="I4" s="55"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G5" s="55"/>
       <c r="H5" s="55"/>
       <c r="I5" s="55"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="56" t="s">
         <v>5</v>
       </c>
@@ -2942,7 +2942,7 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="59" t="s">
         <v>7</v>
@@ -2954,7 +2954,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>6</v>
       </c>
@@ -2976,7 +2976,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="13"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>40</v>
       </c>
@@ -3003,7 +3003,7 @@
       <c r="J26" s="12"/>
       <c r="K26" s="13"/>
     </row>
-    <row r="27" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>41</v>
       </c>
@@ -3030,7 +3030,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="14"/>
     </row>
-    <row r="28" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>42</v>
       </c>
@@ -3057,7 +3057,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="14"/>
     </row>
-    <row r="29" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43</v>
       </c>
@@ -3084,7 +3084,7 @@
       <c r="J29" s="12"/>
       <c r="K29" s="14"/>
     </row>
-    <row r="30" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>44</v>
       </c>
@@ -3111,7 +3111,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="14"/>
     </row>
-    <row r="31" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>45</v>
       </c>
@@ -3138,7 +3138,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="14"/>
     </row>
-    <row r="32" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>46</v>
       </c>
@@ -3165,7 +3165,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="14"/>
     </row>
-    <row r="33" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>47</v>
       </c>
@@ -3192,7 +3192,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="14"/>
     </row>
-    <row r="34" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>48</v>
       </c>
@@ -3219,7 +3219,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="14"/>
     </row>
-    <row r="35" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>49</v>
       </c>
@@ -3246,7 +3246,7 @@
       <c r="J35" s="12"/>
       <c r="K35" s="14"/>
     </row>
-    <row r="36" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>50</v>
       </c>
@@ -3273,7 +3273,7 @@
       <c r="J36" s="12"/>
       <c r="K36" s="14"/>
     </row>
-    <row r="37" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>51</v>
       </c>
@@ -3300,7 +3300,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="14"/>
     </row>
-    <row r="38" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>52</v>
       </c>
@@ -3327,7 +3327,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="14"/>
     </row>
-    <row r="39" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>1</v>
       </c>
@@ -3354,7 +3354,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="14"/>
     </row>
-    <row r="40" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>2</v>
       </c>
@@ -3381,7 +3381,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="14"/>
     </row>
-    <row r="41" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>3</v>
       </c>
@@ -3408,7 +3408,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="14"/>
     </row>
-    <row r="42" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>4</v>
       </c>
@@ -3435,7 +3435,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="14"/>
     </row>
-    <row r="43" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>5</v>
       </c>
@@ -3462,7 +3462,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="14"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>10</v>
       </c>
@@ -3489,7 +3489,7 @@
       <c r="J44" s="12"/>
       <c r="K44" s="14"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
     </row>
@@ -3509,37 +3509,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C65BC6F-2EFC-4FEF-B846-1981218F4DC2}">
   <dimension ref="A2:H243"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:F22"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" customWidth="1"/>
-    <col min="3" max="3" width="75.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="19" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="17"/>
       <c r="C3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="21"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="22" t="s">
         <v>13</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="26" t="s">
         <v>24</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="26" t="s">
         <v>26</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="26" t="s">
         <v>24</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="26" t="s">
         <v>26</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="29"/>
       <c r="B11" s="26" t="s">
         <v>30</v>
@@ -3688,7 +3688,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="26" t="s">
         <v>30</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="26" t="s">
         <v>24</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="26" t="s">
         <v>30</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="26" t="s">
         <v>30</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="26" t="s">
         <v>24</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="26" t="s">
         <v>36</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="26" t="s">
         <v>30</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="26" t="s">
         <v>24</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="26" t="s">
         <v>30</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="26" t="s">
         <v>30</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="26" t="s">
         <v>30</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
       <c r="D23" s="27"/>
@@ -3978,7 +3978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
       <c r="D24" s="27"/>
@@ -3993,7 +3993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="D25" s="27"/>
@@ -4008,7 +4008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="26"/>
       <c r="C26" s="30"/>
       <c r="D26" s="27"/>
@@ -4023,7 +4023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
       <c r="D27" s="27"/>
@@ -4038,7 +4038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="D28" s="27"/>
@@ -4053,7 +4053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="27"/>
@@ -4068,7 +4068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="27"/>
@@ -4083,7 +4083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="27"/>
@@ -4098,7 +4098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="27"/>
@@ -4113,7 +4113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="27"/>
@@ -4128,7 +4128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="27"/>
@@ -4143,7 +4143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="27"/>
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="27"/>
@@ -4173,7 +4173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="27"/>
@@ -4188,7 +4188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
       <c r="D38" s="27"/>
@@ -4203,7 +4203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="D39" s="27"/>
@@ -4218,7 +4218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
       <c r="D40" s="27"/>
@@ -4233,7 +4233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
       <c r="D41" s="27"/>
@@ -4248,7 +4248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="27"/>
@@ -4263,7 +4263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
       <c r="D43" s="27"/>
@@ -4278,7 +4278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="27"/>
@@ -4293,7 +4293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="27"/>
@@ -4308,7 +4308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="27"/>
@@ -4323,7 +4323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
       <c r="D47" s="27"/>
@@ -4338,7 +4338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
       <c r="D48" s="32"/>
@@ -4353,7 +4353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
       <c r="D49" s="32"/>
@@ -4368,7 +4368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
       <c r="D50" s="27"/>
@@ -4383,7 +4383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B51" s="30"/>
       <c r="C51" s="30"/>
       <c r="D51" s="32"/>
@@ -4398,7 +4398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B52" s="30"/>
       <c r="C52" s="30"/>
       <c r="D52" s="27"/>
@@ -4413,7 +4413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B53" s="30"/>
       <c r="C53" s="30"/>
       <c r="D53" s="32"/>
@@ -4428,7 +4428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B54" s="30"/>
       <c r="C54" s="30"/>
       <c r="D54" s="27"/>
@@ -4443,7 +4443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B55" s="30"/>
       <c r="C55" s="30"/>
       <c r="D55" s="27"/>
@@ -4458,7 +4458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B56" s="30"/>
       <c r="C56" s="30"/>
       <c r="D56" s="27"/>
@@ -4473,7 +4473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B57" s="30"/>
       <c r="C57" s="30"/>
       <c r="D57" s="27"/>
@@ -4488,7 +4488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B58" s="35" t="s">
         <v>19</v>
       </c>
@@ -4501,1078 +4501,1078 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
     </row>
-    <row r="61" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="11"/>
       <c r="B61" s="37"/>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="38"/>
       <c r="C63" s="38"/>
       <c r="D63" s="39"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
       <c r="D64" s="40"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
       <c r="D65" s="40"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
       <c r="D66" s="40"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
       <c r="D67" s="40"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
       <c r="D68" s="40"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
       <c r="D69" s="40"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
       <c r="D70" s="40"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="41"/>
       <c r="C71" s="11"/>
       <c r="D71" s="40"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
       <c r="D72" s="40"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
       <c r="D73" s="40"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
       <c r="D74" s="40"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
       <c r="D75" s="40"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
       <c r="D76" s="40"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
       <c r="D77" s="40"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
       <c r="D78" s="40"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
       <c r="D79" s="40"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
       <c r="D80" s="40"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
       <c r="D81" s="40"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
       <c r="D82" s="40"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
       <c r="D83" s="40"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
       <c r="D84" s="40"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
       <c r="D85" s="40"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
       <c r="D86" s="40"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
       <c r="D87" s="40"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
       <c r="D88" s="40"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
       <c r="D89" s="40"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
       <c r="D90" s="40"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
       <c r="D91" s="40"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
       <c r="D92" s="40"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
       <c r="D93" s="40"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
       <c r="D94" s="40"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
       <c r="D95" s="40"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
       <c r="D96" s="40"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
       <c r="D97" s="40"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
       <c r="D98" s="40"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
       <c r="D99" s="40"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
       <c r="D100" s="40"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
       <c r="D101" s="40"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
       <c r="D102" s="40"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
       <c r="B103" s="42"/>
       <c r="C103" s="11"/>
       <c r="D103" s="40"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
       <c r="D105" s="11"/>
     </row>
-    <row r="106" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A106" s="11"/>
       <c r="B106" s="37"/>
       <c r="C106" s="11"/>
       <c r="D106" s="11"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
       <c r="D107" s="11"/>
     </row>
-    <row r="108" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="11"/>
       <c r="B108" s="38"/>
       <c r="C108" s="38"/>
       <c r="D108" s="39"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
       <c r="D109" s="40"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
       <c r="D110" s="40"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
       <c r="D111" s="40"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
       <c r="D112" s="40"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
       <c r="D113" s="40"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
       <c r="D114" s="40"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
       <c r="D115" s="40"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
       <c r="D116" s="40"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
       <c r="D117" s="40"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
       <c r="D118" s="40"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
       <c r="D119" s="40"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
       <c r="D120" s="40"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
       <c r="D121" s="40"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="11"/>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
       <c r="D122" s="40"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="11"/>
       <c r="B123" s="11"/>
       <c r="C123" s="11"/>
       <c r="D123" s="40"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="11"/>
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
       <c r="D124" s="40"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="11"/>
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
       <c r="D125" s="40"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="11"/>
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
       <c r="D126" s="40"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="11"/>
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
       <c r="D127" s="40"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="11"/>
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
       <c r="D128" s="40"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="11"/>
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
       <c r="D129" s="40"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="11"/>
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
       <c r="D130" s="40"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="11"/>
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
       <c r="D131" s="40"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="11"/>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
       <c r="D132" s="40"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="11"/>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
       <c r="D133" s="40"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="11"/>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
       <c r="D134" s="40"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="11"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
       <c r="D135" s="40"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="11"/>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
       <c r="D136" s="40"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="11"/>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
       <c r="D137" s="40"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="11"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
       <c r="D138" s="40"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="11"/>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
       <c r="D139" s="40"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="11"/>
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
       <c r="D140" s="40"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="11"/>
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
       <c r="D141" s="40"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="11"/>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
       <c r="D142" s="40"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="11"/>
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
       <c r="D143" s="40"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="11"/>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
       <c r="D144" s="40"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="11"/>
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
       <c r="D145" s="40"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="11"/>
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
       <c r="D146" s="40"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="11"/>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
       <c r="D147" s="40"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="11"/>
       <c r="B148" s="42"/>
       <c r="C148" s="11"/>
       <c r="D148" s="40"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="11"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
       <c r="D149" s="11"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="11"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
       <c r="D150" s="11"/>
     </row>
-    <row r="151" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A151" s="11"/>
       <c r="B151" s="37"/>
       <c r="C151" s="11"/>
       <c r="D151" s="11"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="11"/>
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
       <c r="D152" s="11"/>
     </row>
-    <row r="153" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="11"/>
       <c r="B153" s="38"/>
       <c r="C153" s="38"/>
       <c r="D153" s="39"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="11"/>
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
       <c r="D154" s="40"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="11"/>
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
       <c r="D155" s="40"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="11"/>
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
       <c r="D156" s="40"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="11"/>
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
       <c r="D157" s="40"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="11"/>
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
       <c r="D158" s="40"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="11"/>
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
       <c r="D159" s="40"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="11"/>
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
       <c r="D160" s="40"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="11"/>
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
       <c r="D161" s="40"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="11"/>
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
       <c r="D162" s="40"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="11"/>
       <c r="B163" s="11"/>
       <c r="C163" s="11"/>
       <c r="D163" s="40"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="11"/>
       <c r="B164" s="11"/>
       <c r="C164" s="11"/>
       <c r="D164" s="40"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="11"/>
       <c r="B165" s="11"/>
       <c r="C165" s="11"/>
       <c r="D165" s="40"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="11"/>
       <c r="B166" s="11"/>
       <c r="C166" s="11"/>
       <c r="D166" s="40"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="11"/>
       <c r="B167" s="11"/>
       <c r="C167" s="11"/>
       <c r="D167" s="40"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="11"/>
       <c r="B168" s="11"/>
       <c r="C168" s="11"/>
       <c r="D168" s="40"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="11"/>
       <c r="B169" s="11"/>
       <c r="C169" s="11"/>
       <c r="D169" s="40"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="11"/>
       <c r="B170" s="11"/>
       <c r="C170" s="11"/>
       <c r="D170" s="40"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="11"/>
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
       <c r="D171" s="40"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="11"/>
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
       <c r="D172" s="40"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="11"/>
       <c r="B173" s="11"/>
       <c r="C173" s="11"/>
       <c r="D173" s="40"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="11"/>
       <c r="B174" s="11"/>
       <c r="C174" s="11"/>
       <c r="D174" s="40"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="11"/>
       <c r="B175" s="11"/>
       <c r="C175" s="11"/>
       <c r="D175" s="40"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="11"/>
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
       <c r="D176" s="40"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="11"/>
       <c r="B177" s="11"/>
       <c r="C177" s="11"/>
       <c r="D177" s="40"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="11"/>
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
       <c r="D178" s="40"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="11"/>
       <c r="B179" s="11"/>
       <c r="C179" s="11"/>
       <c r="D179" s="40"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="11"/>
       <c r="B180" s="11"/>
       <c r="C180" s="11"/>
       <c r="D180" s="40"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="11"/>
       <c r="B181" s="11"/>
       <c r="C181" s="11"/>
       <c r="D181" s="40"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="11"/>
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
       <c r="D182" s="40"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="11"/>
       <c r="B183" s="11"/>
       <c r="C183" s="11"/>
       <c r="D183" s="40"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="11"/>
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
       <c r="D184" s="40"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="11"/>
       <c r="B185" s="11"/>
       <c r="C185" s="11"/>
       <c r="D185" s="40"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="11"/>
       <c r="B186" s="11"/>
       <c r="C186" s="11"/>
       <c r="D186" s="40"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="11"/>
       <c r="B187" s="11"/>
       <c r="C187" s="11"/>
       <c r="D187" s="40"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="11"/>
       <c r="B188" s="11"/>
       <c r="C188" s="11"/>
       <c r="D188" s="40"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="11"/>
       <c r="B189" s="11"/>
       <c r="C189" s="11"/>
       <c r="D189" s="40"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="11"/>
       <c r="B190" s="11"/>
       <c r="C190" s="11"/>
       <c r="D190" s="40"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="11"/>
       <c r="B191" s="11"/>
       <c r="C191" s="11"/>
       <c r="D191" s="40"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="11"/>
       <c r="B192" s="11"/>
       <c r="C192" s="11"/>
       <c r="D192" s="40"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="11"/>
       <c r="B193" s="42"/>
       <c r="C193" s="11"/>
       <c r="D193" s="40"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="11"/>
       <c r="B194" s="11"/>
       <c r="C194" s="11"/>
       <c r="D194" s="11"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="11"/>
       <c r="B195" s="11"/>
       <c r="C195" s="11"/>
       <c r="D195" s="11"/>
     </row>
-    <row r="196" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A196" s="11"/>
       <c r="B196" s="37"/>
       <c r="C196" s="11"/>
       <c r="D196" s="11"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="11"/>
       <c r="B197" s="11"/>
       <c r="C197" s="11"/>
       <c r="D197" s="11"/>
     </row>
-    <row r="198" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="11"/>
       <c r="B198" s="38"/>
       <c r="C198" s="38"/>
       <c r="D198" s="39"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="11"/>
       <c r="B199" s="11"/>
       <c r="C199" s="11"/>
       <c r="D199" s="40"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="11"/>
       <c r="B200" s="11"/>
       <c r="C200" s="11"/>
       <c r="D200" s="40"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="11"/>
       <c r="B201" s="11"/>
       <c r="C201" s="11"/>
       <c r="D201" s="40"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="11"/>
       <c r="B202" s="11"/>
       <c r="C202" s="11"/>
       <c r="D202" s="40"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="11"/>
       <c r="B203" s="11"/>
       <c r="C203" s="11"/>
       <c r="D203" s="40"/>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="11"/>
       <c r="B204" s="11"/>
       <c r="C204" s="11"/>
       <c r="D204" s="40"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="11"/>
       <c r="B205" s="11"/>
       <c r="C205" s="11"/>
       <c r="D205" s="40"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="11"/>
       <c r="B206" s="11"/>
       <c r="C206" s="11"/>
       <c r="D206" s="40"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="11"/>
       <c r="B207" s="11"/>
       <c r="C207" s="11"/>
       <c r="D207" s="40"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="11"/>
       <c r="B208" s="11"/>
       <c r="C208" s="11"/>
       <c r="D208" s="40"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="11"/>
       <c r="B209" s="11"/>
       <c r="C209" s="11"/>
       <c r="D209" s="40"/>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="11"/>
       <c r="B210" s="11"/>
       <c r="C210" s="11"/>
       <c r="D210" s="40"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="11"/>
       <c r="B211" s="11"/>
       <c r="C211" s="11"/>
       <c r="D211" s="40"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="11"/>
       <c r="B212" s="11"/>
       <c r="C212" s="11"/>
       <c r="D212" s="40"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="11"/>
       <c r="B213" s="11"/>
       <c r="C213" s="11"/>
       <c r="D213" s="40"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="11"/>
       <c r="B214" s="11"/>
       <c r="C214" s="11"/>
       <c r="D214" s="40"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="11"/>
       <c r="B215" s="11"/>
       <c r="C215" s="11"/>
       <c r="D215" s="40"/>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="11"/>
       <c r="B216" s="11"/>
       <c r="C216" s="11"/>
       <c r="D216" s="40"/>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="11"/>
       <c r="B217" s="11"/>
       <c r="C217" s="11"/>
       <c r="D217" s="40"/>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="11"/>
       <c r="B218" s="11"/>
       <c r="C218" s="11"/>
       <c r="D218" s="40"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="11"/>
       <c r="B219" s="11"/>
       <c r="C219" s="11"/>
       <c r="D219" s="40"/>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="11"/>
       <c r="B220" s="11"/>
       <c r="C220" s="11"/>
       <c r="D220" s="40"/>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="11"/>
       <c r="B221" s="11"/>
       <c r="C221" s="11"/>
       <c r="D221" s="40"/>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="11"/>
       <c r="B222" s="11"/>
       <c r="C222" s="11"/>
       <c r="D222" s="40"/>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="11"/>
       <c r="B223" s="11"/>
       <c r="C223" s="11"/>
       <c r="D223" s="40"/>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="11"/>
       <c r="B224" s="11"/>
       <c r="C224" s="11"/>
       <c r="D224" s="40"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="11"/>
       <c r="B225" s="11"/>
       <c r="C225" s="11"/>
       <c r="D225" s="40"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="11"/>
       <c r="B226" s="11"/>
       <c r="C226" s="11"/>
       <c r="D226" s="40"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="11"/>
       <c r="B227" s="11"/>
       <c r="C227" s="11"/>
       <c r="D227" s="40"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="11"/>
       <c r="B228" s="11"/>
       <c r="C228" s="11"/>
       <c r="D228" s="40"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="11"/>
       <c r="B229" s="11"/>
       <c r="C229" s="11"/>
       <c r="D229" s="40"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="11"/>
       <c r="B230" s="11"/>
       <c r="C230" s="11"/>
       <c r="D230" s="40"/>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="11"/>
       <c r="B231" s="11"/>
       <c r="C231" s="11"/>
       <c r="D231" s="40"/>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="11"/>
       <c r="B232" s="11"/>
       <c r="C232" s="11"/>
       <c r="D232" s="40"/>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="11"/>
       <c r="B233" s="11"/>
       <c r="C233" s="11"/>
       <c r="D233" s="40"/>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="11"/>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="11"/>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="11"/>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="11"/>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="11"/>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="11"/>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="11"/>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="11"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="11"/>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="11"/>
     </row>
   </sheetData>
@@ -5588,36 +5588,36 @@
   <dimension ref="A2:H230"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:F18"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1"/>
-    <col min="3" max="3" width="75.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1"/>
+    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="19" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="17"/>
       <c r="C3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="20" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="21"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="22" t="s">
         <v>13</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="26" t="s">
         <v>24</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="26" t="s">
         <v>26</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="26" t="s">
         <v>24</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="29"/>
       <c r="B10" s="26" t="s">
         <v>30</v>
@@ -5741,7 +5741,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="26" t="s">
         <v>30</v>
       </c>
@@ -5766,7 +5766,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="26" t="s">
         <v>24</v>
       </c>
@@ -5791,7 +5791,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="26" t="s">
         <v>24</v>
       </c>
@@ -5816,7 +5816,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="26" t="s">
         <v>36</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="26" t="s">
         <v>30</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="26" t="s">
         <v>24</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="26" t="s">
         <v>30</v>
       </c>
@@ -5916,7 +5916,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="26" t="s">
         <v>30</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
       <c r="D19" s="27"/>
@@ -5956,7 +5956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
       <c r="D20" s="27"/>
@@ -5971,7 +5971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
       <c r="D21" s="27"/>
@@ -5986,7 +5986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
       <c r="D22" s="27"/>
@@ -6001,7 +6001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
       <c r="D23" s="27"/>
@@ -6016,7 +6016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
       <c r="D24" s="27"/>
@@ -6031,7 +6031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="D25" s="27"/>
@@ -6046,7 +6046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
       <c r="D26" s="27"/>
@@ -6061,7 +6061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
       <c r="D27" s="27"/>
@@ -6076,7 +6076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="D28" s="27"/>
@@ -6091,7 +6091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="27"/>
@@ -6106,7 +6106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="27"/>
@@ -6121,7 +6121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="27"/>
@@ -6136,7 +6136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="27"/>
@@ -6151,7 +6151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="27"/>
@@ -6166,7 +6166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="27"/>
@@ -6181,7 +6181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="27"/>
@@ -6196,7 +6196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="27"/>
@@ -6211,7 +6211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="27"/>
@@ -6226,7 +6226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
       <c r="D38" s="27"/>
@@ -6241,7 +6241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="D39" s="27"/>
@@ -6256,7 +6256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
       <c r="D40" s="27"/>
@@ -6271,7 +6271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
       <c r="D41" s="27"/>
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="27"/>
@@ -6301,7 +6301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
       <c r="D43" s="27"/>
@@ -6316,7 +6316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="27"/>
@@ -6331,7 +6331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="27"/>
@@ -6346,7 +6346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="27"/>
@@ -6361,7 +6361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
@@ -6377,7 +6377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
@@ -6393,7 +6393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
@@ -6409,7 +6409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
@@ -6425,7 +6425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="35" t="s">
         <v>19</v>
@@ -6440,7 +6440,7 @@
       </c>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52"/>
       <c r="C52"/>
@@ -6449,7 +6449,7 @@
       <c r="G52"/>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -6458,7 +6458,7 @@
       <c r="G53"/>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="11"/>
       <c r="B54" s="37"/>
       <c r="C54" s="11"/>
@@ -6467,7 +6467,7 @@
       <c r="G54"/>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -6476,7 +6476,7 @@
       <c r="G55"/>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="38"/>
       <c r="C56" s="38"/>
@@ -6485,7 +6485,7 @@
       <c r="G56"/>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -6494,7 +6494,7 @@
       <c r="G57"/>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -6503,7 +6503,7 @@
       <c r="G58"/>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -6512,7 +6512,7 @@
       <c r="G59"/>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -6521,7 +6521,7 @@
       <c r="G60"/>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -6530,7 +6530,7 @@
       <c r="G61"/>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -6539,7 +6539,7 @@
       <c r="G62"/>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -6548,7 +6548,7 @@
       <c r="G63"/>
       <c r="H63"/>
     </row>
-    <row r="64" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="41"/>
       <c r="C64" s="11"/>
@@ -6557,7 +6557,7 @@
       <c r="G64"/>
       <c r="H64"/>
     </row>
-    <row r="65" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -6566,7 +6566,7 @@
       <c r="G65"/>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -6575,7 +6575,7 @@
       <c r="G66"/>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -6584,7 +6584,7 @@
       <c r="G67"/>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -6593,7 +6593,7 @@
       <c r="G68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -6602,7 +6602,7 @@
       <c r="G69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -6611,7 +6611,7 @@
       <c r="G70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -6620,7 +6620,7 @@
       <c r="G71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -6629,7 +6629,7 @@
       <c r="G72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -6638,7 +6638,7 @@
       <c r="G73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -6647,7 +6647,7 @@
       <c r="G74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -6656,7 +6656,7 @@
       <c r="G75"/>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -6665,7 +6665,7 @@
       <c r="G76"/>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -6674,7 +6674,7 @@
       <c r="G77"/>
       <c r="H77"/>
     </row>
-    <row r="78" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -6683,7 +6683,7 @@
       <c r="G78"/>
       <c r="H78"/>
     </row>
-    <row r="79" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -6692,7 +6692,7 @@
       <c r="G79"/>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -6701,7 +6701,7 @@
       <c r="G80"/>
       <c r="H80"/>
     </row>
-    <row r="81" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -6710,7 +6710,7 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -6719,7 +6719,7 @@
       <c r="G82"/>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -6728,7 +6728,7 @@
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -6737,7 +6737,7 @@
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -6746,7 +6746,7 @@
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -6755,7 +6755,7 @@
       <c r="G86"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -6764,7 +6764,7 @@
       <c r="G87"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -6773,7 +6773,7 @@
       <c r="G88"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -6782,7 +6782,7 @@
       <c r="G89"/>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -6791,7 +6791,7 @@
       <c r="G90"/>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -6800,7 +6800,7 @@
       <c r="G91"/>
       <c r="H91"/>
     </row>
-    <row r="92" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -6809,7 +6809,7 @@
       <c r="G92"/>
       <c r="H92"/>
     </row>
-    <row r="93" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -6818,7 +6818,7 @@
       <c r="G93"/>
       <c r="H93"/>
     </row>
-    <row r="94" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -6827,7 +6827,7 @@
       <c r="G94"/>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -6836,7 +6836,7 @@
       <c r="G95"/>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="11"/>
       <c r="B96" s="42"/>
       <c r="C96" s="11"/>
@@ -6845,7 +6845,7 @@
       <c r="G96"/>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -6854,7 +6854,7 @@
       <c r="G97"/>
       <c r="H97"/>
     </row>
-    <row r="98" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -6863,7 +6863,7 @@
       <c r="G98"/>
       <c r="H98"/>
     </row>
-    <row r="99" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A99" s="11"/>
       <c r="B99" s="37"/>
       <c r="C99" s="11"/>
@@ -6872,7 +6872,7 @@
       <c r="G99"/>
       <c r="H99"/>
     </row>
-    <row r="100" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -6881,7 +6881,7 @@
       <c r="G100"/>
       <c r="H100"/>
     </row>
-    <row r="101" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="38"/>
       <c r="C101" s="38"/>
@@ -6890,7 +6890,7 @@
       <c r="G101"/>
       <c r="H101"/>
     </row>
-    <row r="102" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -6899,7 +6899,7 @@
       <c r="G102"/>
       <c r="H102"/>
     </row>
-    <row r="103" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -6908,7 +6908,7 @@
       <c r="G103"/>
       <c r="H103"/>
     </row>
-    <row r="104" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -6917,7 +6917,7 @@
       <c r="G104"/>
       <c r="H104"/>
     </row>
-    <row r="105" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -6926,7 +6926,7 @@
       <c r="G105"/>
       <c r="H105"/>
     </row>
-    <row r="106" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -6935,7 +6935,7 @@
       <c r="G106"/>
       <c r="H106"/>
     </row>
-    <row r="107" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -6944,7 +6944,7 @@
       <c r="G107"/>
       <c r="H107"/>
     </row>
-    <row r="108" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -6953,7 +6953,7 @@
       <c r="G108"/>
       <c r="H108"/>
     </row>
-    <row r="109" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -6962,7 +6962,7 @@
       <c r="G109"/>
       <c r="H109"/>
     </row>
-    <row r="110" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -6971,7 +6971,7 @@
       <c r="G110"/>
       <c r="H110"/>
     </row>
-    <row r="111" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -6980,7 +6980,7 @@
       <c r="G111"/>
       <c r="H111"/>
     </row>
-    <row r="112" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -6989,7 +6989,7 @@
       <c r="G112"/>
       <c r="H112"/>
     </row>
-    <row r="113" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
@@ -6998,7 +6998,7 @@
       <c r="G113"/>
       <c r="H113"/>
     </row>
-    <row r="114" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
@@ -7007,7 +7007,7 @@
       <c r="G114"/>
       <c r="H114"/>
     </row>
-    <row r="115" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
@@ -7016,7 +7016,7 @@
       <c r="G115"/>
       <c r="H115"/>
     </row>
-    <row r="116" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
@@ -7025,7 +7025,7 @@
       <c r="G116"/>
       <c r="H116"/>
     </row>
-    <row r="117" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
@@ -7034,7 +7034,7 @@
       <c r="G117"/>
       <c r="H117"/>
     </row>
-    <row r="118" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
@@ -7043,7 +7043,7 @@
       <c r="G118"/>
       <c r="H118"/>
     </row>
-    <row r="119" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
@@ -7052,7 +7052,7 @@
       <c r="G119"/>
       <c r="H119"/>
     </row>
-    <row r="120" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
@@ -7061,7 +7061,7 @@
       <c r="G120"/>
       <c r="H120"/>
     </row>
-    <row r="121" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
@@ -7070,7 +7070,7 @@
       <c r="G121"/>
       <c r="H121"/>
     </row>
-    <row r="122" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="11"/>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
@@ -7079,7 +7079,7 @@
       <c r="G122"/>
       <c r="H122"/>
     </row>
-    <row r="123" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="11"/>
       <c r="B123" s="11"/>
       <c r="C123" s="11"/>
@@ -7088,7 +7088,7 @@
       <c r="G123"/>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="11"/>
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
@@ -7097,7 +7097,7 @@
       <c r="G124"/>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="11"/>
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
@@ -7106,7 +7106,7 @@
       <c r="G125"/>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="11"/>
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
@@ -7115,7 +7115,7 @@
       <c r="G126"/>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="11"/>
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
@@ -7124,7 +7124,7 @@
       <c r="G127"/>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="11"/>
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
@@ -7133,7 +7133,7 @@
       <c r="G128"/>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="11"/>
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
@@ -7142,7 +7142,7 @@
       <c r="G129"/>
       <c r="H129"/>
     </row>
-    <row r="130" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="11"/>
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
@@ -7151,7 +7151,7 @@
       <c r="G130"/>
       <c r="H130"/>
     </row>
-    <row r="131" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="11"/>
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
@@ -7160,7 +7160,7 @@
       <c r="G131"/>
       <c r="H131"/>
     </row>
-    <row r="132" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="11"/>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
@@ -7169,7 +7169,7 @@
       <c r="G132"/>
       <c r="H132"/>
     </row>
-    <row r="133" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="11"/>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
@@ -7178,7 +7178,7 @@
       <c r="G133"/>
       <c r="H133"/>
     </row>
-    <row r="134" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="11"/>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
@@ -7187,7 +7187,7 @@
       <c r="G134"/>
       <c r="H134"/>
     </row>
-    <row r="135" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="11"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
@@ -7196,7 +7196,7 @@
       <c r="G135"/>
       <c r="H135"/>
     </row>
-    <row r="136" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="11"/>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
@@ -7205,7 +7205,7 @@
       <c r="G136"/>
       <c r="H136"/>
     </row>
-    <row r="137" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="11"/>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
@@ -7214,7 +7214,7 @@
       <c r="G137"/>
       <c r="H137"/>
     </row>
-    <row r="138" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="11"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
@@ -7223,7 +7223,7 @@
       <c r="G138"/>
       <c r="H138"/>
     </row>
-    <row r="139" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="11"/>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
@@ -7232,7 +7232,7 @@
       <c r="G139"/>
       <c r="H139"/>
     </row>
-    <row r="140" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="11"/>
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
@@ -7241,7 +7241,7 @@
       <c r="G140"/>
       <c r="H140"/>
     </row>
-    <row r="141" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="11"/>
       <c r="B141" s="42"/>
       <c r="C141" s="11"/>
@@ -7250,7 +7250,7 @@
       <c r="G141"/>
       <c r="H141"/>
     </row>
-    <row r="142" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="11"/>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
@@ -7259,7 +7259,7 @@
       <c r="G142"/>
       <c r="H142"/>
     </row>
-    <row r="143" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="11"/>
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
@@ -7268,7 +7268,7 @@
       <c r="G143"/>
       <c r="H143"/>
     </row>
-    <row r="144" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A144" s="11"/>
       <c r="B144" s="37"/>
       <c r="C144" s="11"/>
@@ -7277,7 +7277,7 @@
       <c r="G144"/>
       <c r="H144"/>
     </row>
-    <row r="145" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="11"/>
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
@@ -7286,7 +7286,7 @@
       <c r="G145"/>
       <c r="H145"/>
     </row>
-    <row r="146" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="11"/>
       <c r="B146" s="38"/>
       <c r="C146" s="38"/>
@@ -7295,7 +7295,7 @@
       <c r="G146"/>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="11"/>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
@@ -7304,7 +7304,7 @@
       <c r="G147"/>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="11"/>
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
@@ -7313,7 +7313,7 @@
       <c r="G148"/>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="11"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
@@ -7322,7 +7322,7 @@
       <c r="G149"/>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="11"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
@@ -7331,7 +7331,7 @@
       <c r="G150"/>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="11"/>
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
@@ -7340,7 +7340,7 @@
       <c r="G151"/>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="11"/>
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
@@ -7349,7 +7349,7 @@
       <c r="G152"/>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="11"/>
       <c r="B153" s="11"/>
       <c r="C153" s="11"/>
@@ -7358,7 +7358,7 @@
       <c r="G153"/>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="11"/>
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
@@ -7367,7 +7367,7 @@
       <c r="G154"/>
       <c r="H154"/>
     </row>
-    <row r="155" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="11"/>
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
@@ -7376,7 +7376,7 @@
       <c r="G155"/>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="11"/>
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
@@ -7385,7 +7385,7 @@
       <c r="G156"/>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="11"/>
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
@@ -7394,7 +7394,7 @@
       <c r="G157"/>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="11"/>
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
@@ -7403,7 +7403,7 @@
       <c r="G158"/>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="11"/>
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
@@ -7412,7 +7412,7 @@
       <c r="G159"/>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="11"/>
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
@@ -7421,7 +7421,7 @@
       <c r="G160"/>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="11"/>
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
@@ -7430,7 +7430,7 @@
       <c r="G161"/>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="11"/>
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
@@ -7439,7 +7439,7 @@
       <c r="G162"/>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="11"/>
       <c r="B163" s="11"/>
       <c r="C163" s="11"/>
@@ -7448,7 +7448,7 @@
       <c r="G163"/>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="11"/>
       <c r="B164" s="11"/>
       <c r="C164" s="11"/>
@@ -7457,7 +7457,7 @@
       <c r="G164"/>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="11"/>
       <c r="B165" s="11"/>
       <c r="C165" s="11"/>
@@ -7466,7 +7466,7 @@
       <c r="G165"/>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="11"/>
       <c r="B166" s="11"/>
       <c r="C166" s="11"/>
@@ -7475,7 +7475,7 @@
       <c r="G166"/>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="11"/>
       <c r="B167" s="11"/>
       <c r="C167" s="11"/>
@@ -7484,7 +7484,7 @@
       <c r="G167"/>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="11"/>
       <c r="B168" s="11"/>
       <c r="C168" s="11"/>
@@ -7493,7 +7493,7 @@
       <c r="G168"/>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="11"/>
       <c r="B169" s="11"/>
       <c r="C169" s="11"/>
@@ -7502,7 +7502,7 @@
       <c r="G169"/>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="11"/>
       <c r="B170" s="11"/>
       <c r="C170" s="11"/>
@@ -7511,7 +7511,7 @@
       <c r="G170"/>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="11"/>
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
@@ -7520,7 +7520,7 @@
       <c r="G171"/>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="11"/>
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
@@ -7529,7 +7529,7 @@
       <c r="G172"/>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="11"/>
       <c r="B173" s="11"/>
       <c r="C173" s="11"/>
@@ -7538,7 +7538,7 @@
       <c r="G173"/>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="11"/>
       <c r="B174" s="11"/>
       <c r="C174" s="11"/>
@@ -7547,7 +7547,7 @@
       <c r="G174"/>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="11"/>
       <c r="B175" s="11"/>
       <c r="C175" s="11"/>
@@ -7556,7 +7556,7 @@
       <c r="G175"/>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="11"/>
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
@@ -7565,7 +7565,7 @@
       <c r="G176"/>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="11"/>
       <c r="B177" s="11"/>
       <c r="C177" s="11"/>
@@ -7574,7 +7574,7 @@
       <c r="G177"/>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="11"/>
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
@@ -7583,7 +7583,7 @@
       <c r="G178"/>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="11"/>
       <c r="B179" s="11"/>
       <c r="C179" s="11"/>
@@ -7592,7 +7592,7 @@
       <c r="G179"/>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="11"/>
       <c r="B180" s="11"/>
       <c r="C180" s="11"/>
@@ -7601,7 +7601,7 @@
       <c r="G180"/>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="11"/>
       <c r="B181" s="11"/>
       <c r="C181" s="11"/>
@@ -7610,7 +7610,7 @@
       <c r="G181"/>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="11"/>
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
@@ -7619,7 +7619,7 @@
       <c r="G182"/>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="11"/>
       <c r="B183" s="11"/>
       <c r="C183" s="11"/>
@@ -7628,7 +7628,7 @@
       <c r="G183"/>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="11"/>
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
@@ -7637,7 +7637,7 @@
       <c r="G184"/>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="11"/>
       <c r="B185" s="11"/>
       <c r="C185" s="11"/>
@@ -7646,7 +7646,7 @@
       <c r="G185"/>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="11"/>
       <c r="B186" s="42"/>
       <c r="C186" s="11"/>
@@ -7655,7 +7655,7 @@
       <c r="G186"/>
       <c r="H186"/>
     </row>
-    <row r="187" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="11"/>
       <c r="B187" s="11"/>
       <c r="C187" s="11"/>
@@ -7664,7 +7664,7 @@
       <c r="G187"/>
       <c r="H187"/>
     </row>
-    <row r="188" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="11"/>
       <c r="B188" s="11"/>
       <c r="C188" s="11"/>
@@ -7673,7 +7673,7 @@
       <c r="G188"/>
       <c r="H188"/>
     </row>
-    <row r="189" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A189" s="11"/>
       <c r="B189" s="37"/>
       <c r="C189" s="11"/>
@@ -7682,7 +7682,7 @@
       <c r="G189"/>
       <c r="H189"/>
     </row>
-    <row r="190" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="11"/>
       <c r="B190" s="11"/>
       <c r="C190" s="11"/>
@@ -7691,7 +7691,7 @@
       <c r="G190"/>
       <c r="H190"/>
     </row>
-    <row r="191" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A191" s="11"/>
       <c r="B191" s="38"/>
       <c r="C191" s="38"/>
@@ -7700,7 +7700,7 @@
       <c r="G191"/>
       <c r="H191"/>
     </row>
-    <row r="192" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="11"/>
       <c r="B192" s="11"/>
       <c r="C192" s="11"/>
@@ -7709,7 +7709,7 @@
       <c r="G192"/>
       <c r="H192"/>
     </row>
-    <row r="193" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="11"/>
       <c r="B193" s="11"/>
       <c r="C193" s="11"/>
@@ -7718,7 +7718,7 @@
       <c r="G193"/>
       <c r="H193"/>
     </row>
-    <row r="194" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="11"/>
       <c r="B194" s="11"/>
       <c r="C194" s="11"/>
@@ -7727,7 +7727,7 @@
       <c r="G194"/>
       <c r="H194"/>
     </row>
-    <row r="195" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="11"/>
       <c r="B195" s="11"/>
       <c r="C195" s="11"/>
@@ -7736,7 +7736,7 @@
       <c r="G195"/>
       <c r="H195"/>
     </row>
-    <row r="196" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="11"/>
       <c r="B196" s="11"/>
       <c r="C196" s="11"/>
@@ -7745,7 +7745,7 @@
       <c r="G196"/>
       <c r="H196"/>
     </row>
-    <row r="197" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="11"/>
       <c r="B197" s="11"/>
       <c r="C197" s="11"/>
@@ -7754,7 +7754,7 @@
       <c r="G197"/>
       <c r="H197"/>
     </row>
-    <row r="198" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="11"/>
       <c r="B198" s="11"/>
       <c r="C198" s="11"/>
@@ -7763,7 +7763,7 @@
       <c r="G198"/>
       <c r="H198"/>
     </row>
-    <row r="199" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="11"/>
       <c r="B199" s="11"/>
       <c r="C199" s="11"/>
@@ -7772,7 +7772,7 @@
       <c r="G199"/>
       <c r="H199"/>
     </row>
-    <row r="200" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="11"/>
       <c r="B200" s="11"/>
       <c r="C200" s="11"/>
@@ -7781,7 +7781,7 @@
       <c r="G200"/>
       <c r="H200"/>
     </row>
-    <row r="201" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="11"/>
       <c r="B201" s="11"/>
       <c r="C201" s="11"/>
@@ -7790,7 +7790,7 @@
       <c r="G201"/>
       <c r="H201"/>
     </row>
-    <row r="202" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="11"/>
       <c r="B202" s="11"/>
       <c r="C202" s="11"/>
@@ -7799,7 +7799,7 @@
       <c r="G202"/>
       <c r="H202"/>
     </row>
-    <row r="203" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="11"/>
       <c r="B203" s="11"/>
       <c r="C203" s="11"/>
@@ -7808,7 +7808,7 @@
       <c r="G203"/>
       <c r="H203"/>
     </row>
-    <row r="204" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="11"/>
       <c r="B204" s="11"/>
       <c r="C204" s="11"/>
@@ -7817,7 +7817,7 @@
       <c r="G204"/>
       <c r="H204"/>
     </row>
-    <row r="205" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="11"/>
       <c r="B205" s="11"/>
       <c r="C205" s="11"/>
@@ -7826,7 +7826,7 @@
       <c r="G205"/>
       <c r="H205"/>
     </row>
-    <row r="206" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="11"/>
       <c r="B206" s="11"/>
       <c r="C206" s="11"/>
@@ -7835,7 +7835,7 @@
       <c r="G206"/>
       <c r="H206"/>
     </row>
-    <row r="207" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="11"/>
       <c r="B207" s="11"/>
       <c r="C207" s="11"/>
@@ -7844,7 +7844,7 @@
       <c r="G207"/>
       <c r="H207"/>
     </row>
-    <row r="208" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="11"/>
       <c r="B208" s="11"/>
       <c r="C208" s="11"/>
@@ -7853,7 +7853,7 @@
       <c r="G208"/>
       <c r="H208"/>
     </row>
-    <row r="209" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="11"/>
       <c r="B209" s="11"/>
       <c r="C209" s="11"/>
@@ -7862,7 +7862,7 @@
       <c r="G209"/>
       <c r="H209"/>
     </row>
-    <row r="210" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="11"/>
       <c r="B210" s="11"/>
       <c r="C210" s="11"/>
@@ -7871,7 +7871,7 @@
       <c r="G210"/>
       <c r="H210"/>
     </row>
-    <row r="211" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="11"/>
       <c r="B211" s="11"/>
       <c r="C211" s="11"/>
@@ -7880,7 +7880,7 @@
       <c r="G211"/>
       <c r="H211"/>
     </row>
-    <row r="212" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="11"/>
       <c r="B212" s="11"/>
       <c r="C212" s="11"/>
@@ -7889,7 +7889,7 @@
       <c r="G212"/>
       <c r="H212"/>
     </row>
-    <row r="213" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="11"/>
       <c r="B213" s="11"/>
       <c r="C213" s="11"/>
@@ -7898,7 +7898,7 @@
       <c r="G213"/>
       <c r="H213"/>
     </row>
-    <row r="214" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="11"/>
       <c r="B214" s="11"/>
       <c r="C214" s="11"/>
@@ -7907,7 +7907,7 @@
       <c r="G214"/>
       <c r="H214"/>
     </row>
-    <row r="215" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="11"/>
       <c r="B215" s="11"/>
       <c r="C215" s="11"/>
@@ -7916,7 +7916,7 @@
       <c r="G215"/>
       <c r="H215"/>
     </row>
-    <row r="216" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="11"/>
       <c r="B216" s="11"/>
       <c r="C216" s="11"/>
@@ -7925,7 +7925,7 @@
       <c r="G216"/>
       <c r="H216"/>
     </row>
-    <row r="217" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="11"/>
       <c r="B217" s="11"/>
       <c r="C217" s="11"/>
@@ -7934,7 +7934,7 @@
       <c r="G217"/>
       <c r="H217"/>
     </row>
-    <row r="218" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="11"/>
       <c r="B218" s="11"/>
       <c r="C218" s="11"/>
@@ -7943,7 +7943,7 @@
       <c r="G218"/>
       <c r="H218"/>
     </row>
-    <row r="219" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="11"/>
       <c r="B219" s="11"/>
       <c r="C219" s="11"/>
@@ -7952,7 +7952,7 @@
       <c r="G219"/>
       <c r="H219"/>
     </row>
-    <row r="220" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="11"/>
       <c r="B220" s="11"/>
       <c r="C220" s="11"/>
@@ -7961,7 +7961,7 @@
       <c r="G220"/>
       <c r="H220"/>
     </row>
-    <row r="221" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="11"/>
       <c r="B221" s="11"/>
       <c r="C221" s="11"/>
@@ -7970,7 +7970,7 @@
       <c r="G221"/>
       <c r="H221"/>
     </row>
-    <row r="222" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="11"/>
       <c r="B222" s="11"/>
       <c r="C222" s="11"/>
@@ -7979,7 +7979,7 @@
       <c r="G222"/>
       <c r="H222"/>
     </row>
-    <row r="223" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="11"/>
       <c r="B223" s="11"/>
       <c r="C223" s="11"/>
@@ -7988,34 +7988,34 @@
       <c r="G223"/>
       <c r="H223"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="11"/>
       <c r="B224" s="11"/>
       <c r="C224" s="11"/>
       <c r="D224" s="40"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="11"/>
       <c r="B225" s="11"/>
       <c r="C225" s="11"/>
       <c r="D225" s="40"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="11"/>
       <c r="B226" s="11"/>
       <c r="C226" s="11"/>
       <c r="D226" s="40"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="11"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="11"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="11"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="11"/>
     </row>
   </sheetData>
@@ -8031,36 +8031,36 @@
   <dimension ref="A2:H230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:F18"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" customWidth="1"/>
-    <col min="3" max="3" width="75.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" style="19" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="17"/>
       <c r="C3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="20" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="19"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="22" t="s">
         <v>13</v>
       </c>
@@ -8083,7 +8083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="26" t="s">
         <v>24</v>
       </c>
@@ -8108,7 +8108,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="26" t="s">
         <v>26</v>
       </c>
@@ -8133,7 +8133,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="26" t="s">
         <v>24</v>
       </c>
@@ -8158,7 +8158,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="26" t="s">
         <v>30</v>
       </c>
@@ -8183,7 +8183,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="29"/>
       <c r="B11" s="26" t="s">
         <v>30</v>
@@ -8209,7 +8209,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="26" t="s">
         <v>24</v>
       </c>
@@ -8234,7 +8234,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="26" t="s">
         <v>36</v>
       </c>
@@ -8259,7 +8259,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="26" t="s">
         <v>39</v>
       </c>
@@ -8284,7 +8284,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="26" t="s">
         <v>30</v>
       </c>
@@ -8309,7 +8309,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="26" t="s">
         <v>24</v>
       </c>
@@ -8334,7 +8334,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="26" t="s">
         <v>30</v>
       </c>
@@ -8359,7 +8359,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="26" t="s">
         <v>30</v>
       </c>
@@ -8384,7 +8384,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
       <c r="D19" s="27"/>
@@ -8399,7 +8399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
       <c r="D20" s="27"/>
@@ -8414,7 +8414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
       <c r="D21" s="27"/>
@@ -8429,7 +8429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
       <c r="D22" s="27"/>
@@ -8444,7 +8444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="26"/>
       <c r="C23" s="30"/>
       <c r="D23" s="27"/>
@@ -8459,7 +8459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
       <c r="D24" s="27"/>
@@ -8474,7 +8474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
       <c r="D25" s="27"/>
@@ -8489,7 +8489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
       <c r="D26" s="27"/>
@@ -8504,7 +8504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
       <c r="D27" s="27"/>
@@ -8519,7 +8519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="D28" s="27"/>
@@ -8534,7 +8534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="27"/>
@@ -8549,7 +8549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="27"/>
@@ -8564,7 +8564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="27"/>
@@ -8579,7 +8579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="27"/>
@@ -8594,7 +8594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="27"/>
@@ -8609,7 +8609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="27"/>
@@ -8624,7 +8624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="27"/>
@@ -8639,7 +8639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="27"/>
@@ -8654,7 +8654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="27"/>
@@ -8669,7 +8669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
       <c r="D38" s="27"/>
@@ -8684,7 +8684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="D39" s="27"/>
@@ -8699,7 +8699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
       <c r="D40" s="27"/>
@@ -8714,7 +8714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
       <c r="D41" s="27"/>
@@ -8729,7 +8729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="27"/>
@@ -8744,7 +8744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
       <c r="D43" s="27"/>
@@ -8759,7 +8759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="27"/>
@@ -8774,7 +8774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="27"/>
@@ -8789,7 +8789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="27"/>
@@ -8804,7 +8804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
@@ -8820,7 +8820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
@@ -8836,7 +8836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
@@ -8852,7 +8852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
@@ -8868,7 +8868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51"/>
       <c r="C51"/>
@@ -8884,7 +8884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -8900,7 +8900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="50"/>
       <c r="C53" s="11"/>
@@ -8916,7 +8916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="50"/>
       <c r="C54" s="11"/>
@@ -8932,7 +8932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="30"/>
       <c r="C55" s="50"/>
@@ -8948,7 +8948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="50"/>
       <c r="C56" s="11"/>
@@ -8964,7 +8964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="50"/>
       <c r="C57" s="11"/>
@@ -8980,7 +8980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="50"/>
       <c r="C58" s="30"/>
@@ -8996,7 +8996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="50"/>
       <c r="C59" s="11"/>
@@ -9012,7 +9012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="50"/>
       <c r="C60" s="11"/>
@@ -9028,7 +9028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="50"/>
       <c r="C61" s="11"/>
@@ -9044,7 +9044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="50"/>
       <c r="C62" s="11"/>
@@ -9060,7 +9060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="50"/>
       <c r="C63" s="11"/>
@@ -9076,7 +9076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="50"/>
       <c r="C64" s="11"/>
@@ -9092,7 +9092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="50"/>
       <c r="C65" s="11"/>
@@ -9108,7 +9108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="50"/>
       <c r="C66" s="11"/>
@@ -9124,7 +9124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="43" t="s">
         <v>19</v>
@@ -9139,7 +9139,7 @@
       </c>
       <c r="H67" s="54"/>
     </row>
-    <row r="68" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -9148,7 +9148,7 @@
       <c r="G68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -9157,7 +9157,7 @@
       <c r="G69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25"